--- a/financial_report/AAPL_financial_report.xlsx
+++ b/financial_report/AAPL_financial_report.xlsx
@@ -247,94 +247,94 @@
     <t>Published Time(New York time)</t>
   </si>
   <si>
-    <t>Veteran investor connects with Taiwan Semiconductor after sales</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/ac19825b-f138-31ac-ac76-a8584a352d61/veteran-investor-connects.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 20:03:00-04:00</t>
-  </si>
-  <si>
-    <t>Is Apple Inc. (NASDAQ:AAPL) The Most Popular Stock Among Mutual Funds According To Goldman Sachs?</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-inc-nasdaq-aapl-most-233941953.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:39:41-04:00</t>
-  </si>
-  <si>
-    <t>Jeff Bezos-Led Amazon Almost Ran Out Of Cash 24 Years Ago. At $400B, It Is Now Projected To Have As Much Cash As Apple And Microsoft Combined By 2027: Here's More</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/jeff-bezos-led-amazon-almost-232517745.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:25:17-04:00</t>
-  </si>
-  <si>
-    <t>Apple CEO Tim Cook Just Sold $50 Million of Stock. It’s Part of a Two-Year Plan.</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/f557d513-d02a-3627-981e-dcdc4cb43c05/apple-ceo-tim-cook-just-sold.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:51:00-04:00</t>
-  </si>
-  <si>
-    <t>Apple Stock Downgraded, Needs Time To 'Ripen'</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/1a30498f-9254-3e6b-96fd-2ad5d228d324/apple-stock-downgraded%2C-needs.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:34:26-04:00</t>
-  </si>
-  <si>
-    <t>Cramer On Apple Inc. (NASDAQ:AAPL): ‘Own It’</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/cramer-apple-inc-nasdaq-aapl-183313966.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 14:33:13-04:00</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Meets Sales Expectations as Base Models Face Softer Demand</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/iphone-16-pro-meets-sales-145320970.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:53:20-04:00</t>
-  </si>
-  <si>
-    <t>Apple TV+ Joins Prime Video as Add-on, Expanding Streaming Reach</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-tv-joins-prime-video-144927368.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:49:27-04:00</t>
+    <t>An AI Robot Trader Dumped AI Chip King Nvidia. What It Picked Instead.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/2b0dd508-994e-351c-a87b-835499f65192/an-ai-robot-trader-dumped-ai.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 01:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple Stock Closes Just Shy of a Record High. The iPhone Outlook Might Be Shifting.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f40382e1-332d-31b1-8848-823b7ca69565/apple-stock-closes-just-shy.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:33:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple Stock Rises to Fresh Record as Company Announces New iPad Mini</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f6afbc58-8e76-3fb9-9dfc-4f1cda5a63c3/apple-stock-rises-to-fresh.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:03:09-04:00</t>
+  </si>
+  <si>
+    <t>Jim Cramer Acknowledges Apple Inc (NASDAQ:AAPL) is Facing ‘Near-Term Headwinds’</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/jim-cramer-acknowledges-apple-inc-185035919.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 14:50:35-04:00</t>
+  </si>
+  <si>
+    <t>Nvidia Inches Closer to Overtaking Apple in Market Value</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/nvidia-inches-closer-overtaking-apple-172646458.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:46-04:00</t>
+  </si>
+  <si>
+    <t>Strong Demand for iPhone 16 Pro and Pro Max Drives Lead Times Up</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/strong-demand-iphone-16-pro-172622709.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:22-04:00</t>
+  </si>
+  <si>
+    <t>Apple Launches AI-Enhanced iPad Mini with A17 Pro</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/apple-launches-ai-enhanced-ipad-172521792.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:25:21-04:00</t>
+  </si>
+  <si>
+    <t>Bill Gates Saved 'Rival' Apple From Bankruptcy By Investing $150 Million – Steve Jobs Thanked Him Publicly: 'The World's A Better Place'</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/bill-gates-saved-rival-apple-171536207.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:15:36-04:00</t>
   </si>
   <si>
     <t>Sentiment in Last 1 Month</t>
   </si>
   <si>
-    <t>-0.2263</t>
+    <t>0.9715</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-09-16</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-16</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="AAPL_stock_plot.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="aapl_stock_plot.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -486,7 +486,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="AAPL_wordcloud.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="aapl_wordcloud.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -831,22 +831,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B2">
-        <v>177.2927679386093</v>
+        <v>175.8501478835517</v>
       </c>
       <c r="C2">
-        <v>178.934376778521</v>
+        <v>178.1682874397605</v>
       </c>
       <c r="D2">
-        <v>176.695831690455</v>
+        <v>175.6113642826138</v>
       </c>
       <c r="E2">
-        <v>178.8846282958984</v>
+        <v>177.8101196289062</v>
       </c>
       <c r="F2">
-        <v>47551100</v>
+        <v>52517000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -857,22 +857,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B3">
-        <v>179.1532521999006</v>
+        <v>175.7506534535302</v>
       </c>
       <c r="C3">
-        <v>181.4116844635542</v>
+        <v>177.5116464806958</v>
       </c>
       <c r="D3">
-        <v>178.1284820703454</v>
+        <v>173.9100810726771</v>
       </c>
       <c r="E3">
-        <v>179.7899932861328</v>
+        <v>176.2481079101562</v>
       </c>
       <c r="F3">
-        <v>56743100</v>
+        <v>57549400</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45212</v>
+        <v>45217</v>
       </c>
       <c r="B4">
-        <v>180.4963919203637</v>
+        <v>174.6861228281673</v>
       </c>
       <c r="C4">
-        <v>181.0037900534922</v>
+        <v>176.6759408143438</v>
       </c>
       <c r="D4">
-        <v>177.2330915612987</v>
+        <v>174.2185143869273</v>
       </c>
       <c r="E4">
-        <v>177.9394836425781</v>
+        <v>174.9447937011719</v>
       </c>
       <c r="F4">
-        <v>51427100</v>
+        <v>54764400</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -909,22 +909,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45215</v>
+        <v>45218</v>
       </c>
       <c r="B5">
-        <v>175.8501629741456</v>
+        <v>175.1437605017781</v>
       </c>
       <c r="C5">
-        <v>178.1683027292858</v>
+        <v>176.9345996032494</v>
       </c>
       <c r="D5">
-        <v>175.6113793527165</v>
+        <v>174.2980970240733</v>
       </c>
       <c r="E5">
-        <v>177.8101348876953</v>
+        <v>174.5667266845703</v>
       </c>
       <c r="F5">
-        <v>52517000</v>
+        <v>59302900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45216</v>
+        <v>45219</v>
       </c>
       <c r="B6">
-        <v>175.7506686692519</v>
+        <v>174.417484111903</v>
       </c>
       <c r="C6">
-        <v>177.5116618488765</v>
+        <v>174.5269247027163</v>
       </c>
       <c r="D6">
-        <v>173.9100961290501</v>
+        <v>171.7610790597315</v>
       </c>
       <c r="E6">
-        <v>176.2481231689453</v>
+        <v>171.9998626708984</v>
       </c>
       <c r="F6">
-        <v>57549400</v>
+        <v>64189300</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45217</v>
+        <v>45222</v>
       </c>
       <c r="B7">
-        <v>174.6861228281673</v>
+        <v>170.0398913855244</v>
       </c>
       <c r="C7">
-        <v>176.6759408143438</v>
+        <v>173.1241000054924</v>
       </c>
       <c r="D7">
-        <v>174.2185143869273</v>
+        <v>169.0648696893029</v>
       </c>
       <c r="E7">
-        <v>174.9447937011719</v>
+        <v>172.1192474365234</v>
       </c>
       <c r="F7">
-        <v>54764400</v>
+        <v>55980100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -987,22 +987,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45218</v>
+        <v>45223</v>
       </c>
       <c r="B8">
-        <v>175.1437451925509</v>
+        <v>172.1689929614087</v>
       </c>
       <c r="C8">
-        <v>176.9345841374857</v>
+        <v>172.7858316385813</v>
       </c>
       <c r="D8">
-        <v>174.298081788765</v>
+        <v>170.5771326047694</v>
       </c>
       <c r="E8">
-        <v>174.5667114257812</v>
+        <v>172.5570068359375</v>
       </c>
       <c r="F8">
-        <v>59302900</v>
+        <v>43816600</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B9">
-        <v>174.4174995851689</v>
+        <v>171.0049400513548</v>
       </c>
       <c r="C9">
-        <v>174.5269401856911</v>
+        <v>172.1789252215355</v>
       </c>
       <c r="D9">
-        <v>171.7610942973371</v>
+        <v>169.7811912207508</v>
       </c>
       <c r="E9">
-        <v>171.9998779296875</v>
+        <v>170.2289123535156</v>
       </c>
       <c r="F9">
-        <v>64189300</v>
+        <v>57157000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1039,22 +1039,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B10">
-        <v>170.0398913855244</v>
+        <v>169.5026540827369</v>
       </c>
       <c r="C10">
-        <v>173.1241000054924</v>
+        <v>170.5075219634054</v>
       </c>
       <c r="D10">
-        <v>169.0648696893029</v>
+        <v>164.826584471067</v>
       </c>
       <c r="E10">
-        <v>172.1192474365234</v>
+        <v>166.0403747558594</v>
       </c>
       <c r="F10">
-        <v>55980100</v>
+        <v>70625300</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45223</v>
+        <v>45226</v>
       </c>
       <c r="B11">
-        <v>172.1689929614087</v>
+        <v>166.060258117469</v>
       </c>
       <c r="C11">
-        <v>172.7858316385813</v>
+        <v>168.0998245212038</v>
       </c>
       <c r="D11">
-        <v>170.5771326047694</v>
+        <v>165.9806635789552</v>
       </c>
       <c r="E11">
-        <v>172.5570068359375</v>
+        <v>167.3635864257812</v>
       </c>
       <c r="F11">
-        <v>43816600</v>
+        <v>58499100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1091,22 +1091,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="B12">
-        <v>171.0049553797045</v>
+        <v>168.1595112598156</v>
       </c>
       <c r="C12">
-        <v>172.1789406551176</v>
+        <v>170.2985593825549</v>
       </c>
       <c r="D12">
-        <v>169.7812064394075</v>
+        <v>168.0102658119536</v>
       </c>
       <c r="E12">
-        <v>170.2289276123047</v>
+        <v>169.4230346679688</v>
       </c>
       <c r="F12">
-        <v>57157000</v>
+        <v>51131000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B13">
-        <v>169.5026229288052</v>
+        <v>168.4878505042806</v>
       </c>
       <c r="C13">
-        <v>170.5074906247829</v>
+        <v>170.0299473577377</v>
       </c>
       <c r="D13">
-        <v>164.8265541765789</v>
+        <v>167.045220264171</v>
       </c>
       <c r="E13">
-        <v>166.0403442382812</v>
+        <v>169.9006195068359</v>
       </c>
       <c r="F13">
-        <v>70625300</v>
+        <v>44846000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="B14">
-        <v>166.060258117469</v>
+        <v>170.1294391217561</v>
       </c>
       <c r="C14">
-        <v>168.0998245212038</v>
+        <v>173.3429909433461</v>
       </c>
       <c r="D14">
-        <v>165.9806635789552</v>
+        <v>169.2539143431754</v>
       </c>
       <c r="E14">
-        <v>167.3635864257812</v>
+        <v>173.0843200683594</v>
       </c>
       <c r="F14">
-        <v>58499100</v>
+        <v>56934900</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1169,22 +1169,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B15">
-        <v>168.1595112598156</v>
+        <v>174.6264338574857</v>
       </c>
       <c r="C15">
-        <v>170.2985593825549</v>
+        <v>176.8749227570964</v>
       </c>
       <c r="D15">
-        <v>168.0102658119536</v>
+        <v>174.5667417458041</v>
       </c>
       <c r="E15">
-        <v>169.4230346679688</v>
+        <v>176.6660003662109</v>
       </c>
       <c r="F15">
-        <v>51131000</v>
+        <v>77334800</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1195,22 +1195,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="B16">
-        <v>168.4878353723724</v>
+        <v>173.3529371481461</v>
       </c>
       <c r="C16">
-        <v>170.0299320873337</v>
+        <v>175.9198040051291</v>
       </c>
       <c r="D16">
-        <v>167.0452052618256</v>
+        <v>172.4674688091219</v>
       </c>
       <c r="E16">
-        <v>169.9006042480469</v>
+        <v>175.7506561279297</v>
       </c>
       <c r="F16">
-        <v>44846000</v>
+        <v>79763700</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1221,22 +1221,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="B17">
-        <v>170.1294391217561</v>
+        <v>175.4820388495612</v>
       </c>
       <c r="C17">
-        <v>173.3429909433461</v>
+        <v>178.516498887886</v>
       </c>
       <c r="D17">
-        <v>169.2539143431754</v>
+        <v>175.3129061561642</v>
       </c>
       <c r="E17">
-        <v>173.0843200683594</v>
+        <v>178.3175201416016</v>
       </c>
       <c r="F17">
-        <v>56934900</v>
+        <v>63841300</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B18">
-        <v>174.6264338574857</v>
+        <v>178.2677740070133</v>
       </c>
       <c r="C18">
-        <v>176.8749227570964</v>
+        <v>181.5111868204666</v>
       </c>
       <c r="D18">
-        <v>174.5667417458041</v>
+        <v>178.0588516340506</v>
       </c>
       <c r="E18">
-        <v>176.6660003662109</v>
+        <v>180.8943481445312</v>
       </c>
       <c r="F18">
-        <v>77334800</v>
+        <v>70530000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1273,22 +1273,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="B19">
-        <v>173.3529371481461</v>
+        <v>181.4216638957863</v>
       </c>
       <c r="C19">
-        <v>175.9198040051291</v>
+        <v>182.5160546972165</v>
       </c>
       <c r="D19">
-        <v>172.4674688091219</v>
+        <v>180.6655233329038</v>
       </c>
       <c r="E19">
-        <v>175.7506561279297</v>
+        <v>181.9589080810547</v>
       </c>
       <c r="F19">
-        <v>79763700</v>
+        <v>49340300</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1299,22 +1299,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="B20">
-        <v>175.4820388495612</v>
+        <v>182.0285567442571</v>
       </c>
       <c r="C20">
-        <v>178.516498887886</v>
+        <v>183.1826396429678</v>
       </c>
       <c r="D20">
-        <v>175.3129061561642</v>
+        <v>180.8844022892101</v>
       </c>
       <c r="E20">
-        <v>178.3175201416016</v>
+        <v>181.4813537597656</v>
       </c>
       <c r="F20">
-        <v>63841300</v>
+        <v>53763500</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1325,25 +1325,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="B21">
-        <v>178.2677890442457</v>
+        <v>183.2745515418523</v>
       </c>
       <c r="C21">
-        <v>181.5112021312872</v>
+        <v>185.8647290135382</v>
       </c>
       <c r="D21">
-        <v>178.05886665366</v>
+        <v>182.8362124126955</v>
       </c>
       <c r="E21">
-        <v>180.8943634033203</v>
+        <v>185.6953582763672</v>
       </c>
       <c r="F21">
-        <v>70530000</v>
+        <v>66133400</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1351,22 +1351,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B22">
-        <v>181.4216486820497</v>
+        <v>185.1175429542476</v>
       </c>
       <c r="C22">
-        <v>182.516039391706</v>
+        <v>185.3267405684616</v>
       </c>
       <c r="D22">
-        <v>180.665508182576</v>
+        <v>183.5136287071499</v>
       </c>
       <c r="E22">
-        <v>181.9588928222656</v>
+        <v>184.1013946533203</v>
       </c>
       <c r="F22">
-        <v>49340300</v>
+        <v>43627500</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1377,22 +1377,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B23">
-        <v>182.0285567442571</v>
+        <v>186.9904264331423</v>
       </c>
       <c r="C23">
-        <v>183.1826396429678</v>
+        <v>187.3988801404597</v>
       </c>
       <c r="D23">
-        <v>180.8844022892101</v>
+        <v>185.59572499487</v>
       </c>
       <c r="E23">
-        <v>181.4813537597656</v>
+        <v>186.7314147949219</v>
       </c>
       <c r="F23">
-        <v>53763500</v>
+        <v>60108400</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45240</v>
+        <v>45245</v>
       </c>
       <c r="B24">
-        <v>183.2745364819835</v>
+        <v>187.1398870219542</v>
       </c>
       <c r="C24">
-        <v>185.8647137408318</v>
+        <v>188.7836435369519</v>
       </c>
       <c r="D24">
-        <v>182.8361973888456</v>
+        <v>187.0701443425859</v>
       </c>
       <c r="E24">
-        <v>185.6953430175781</v>
+        <v>187.2992706298828</v>
       </c>
       <c r="F24">
-        <v>66133400</v>
+        <v>53790500</v>
       </c>
       <c r="G24">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="B25">
-        <v>185.1175429542476</v>
+        <v>188.8533734797063</v>
       </c>
       <c r="C25">
-        <v>185.3267405684616</v>
+        <v>190.2381182374616</v>
       </c>
       <c r="D25">
-        <v>183.5136287071499</v>
+        <v>187.9368379901175</v>
       </c>
       <c r="E25">
-        <v>184.1013946533203</v>
+        <v>188.9928436279297</v>
       </c>
       <c r="F25">
-        <v>43627500</v>
+        <v>54412900</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1455,22 +1455,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B26">
-        <v>186.9904264331423</v>
+        <v>189.5307809404543</v>
       </c>
       <c r="C26">
-        <v>187.3988801404597</v>
+        <v>189.6602943542021</v>
       </c>
       <c r="D26">
-        <v>185.59572499487</v>
+        <v>187.8571392909664</v>
       </c>
       <c r="E26">
-        <v>186.7314147949219</v>
+        <v>188.972900390625</v>
       </c>
       <c r="F26">
-        <v>60108400</v>
+        <v>50922700</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B27">
-        <v>187.1398717761497</v>
+        <v>189.1721570341783</v>
       </c>
       <c r="C27">
-        <v>188.7836281572347</v>
+        <v>191.1845250718208</v>
       </c>
       <c r="D27">
-        <v>187.0701291024632</v>
+        <v>189.1622003096392</v>
       </c>
       <c r="E27">
-        <v>187.2992553710938</v>
+        <v>190.7262573242188</v>
       </c>
       <c r="F27">
-        <v>53790500</v>
+        <v>46505100</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45246</v>
+        <v>45251</v>
       </c>
       <c r="B28">
-        <v>188.8533734797063</v>
+        <v>190.686404902393</v>
       </c>
       <c r="C28">
-        <v>190.2381182374616</v>
+        <v>190.7959896708152</v>
       </c>
       <c r="D28">
-        <v>187.9368379901175</v>
+        <v>189.0227199280596</v>
       </c>
       <c r="E28">
-        <v>188.9928436279297</v>
+        <v>189.9193115234375</v>
       </c>
       <c r="F28">
-        <v>54412900</v>
+        <v>38134500</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B29">
-        <v>189.5307962442899</v>
+        <v>190.7661194461664</v>
       </c>
       <c r="C29">
-        <v>189.6603096684954</v>
+        <v>192.200663072465</v>
       </c>
       <c r="D29">
-        <v>187.8571544596624</v>
+        <v>190.1086107834213</v>
       </c>
       <c r="E29">
-        <v>188.9729156494141</v>
+        <v>190.5867919921875</v>
       </c>
       <c r="F29">
-        <v>50922700</v>
+        <v>39617700</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1559,22 +1559,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B30">
-        <v>189.1721570341783</v>
+        <v>190.1484379094447</v>
       </c>
       <c r="C30">
-        <v>191.1845250718208</v>
+        <v>190.1783232825699</v>
       </c>
       <c r="D30">
-        <v>189.1622003096392</v>
+        <v>188.53456695626</v>
       </c>
       <c r="E30">
-        <v>190.7262573242188</v>
+        <v>189.2518463134766</v>
       </c>
       <c r="F30">
-        <v>46505100</v>
+        <v>24048300</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B31">
-        <v>190.6864202228131</v>
+        <v>189.2020384462403</v>
       </c>
       <c r="C31">
-        <v>190.7960050000397</v>
+        <v>189.9492032008885</v>
       </c>
       <c r="D31">
-        <v>189.0227351148133</v>
+        <v>188.1858901236091</v>
       </c>
       <c r="E31">
-        <v>189.9193267822266</v>
+        <v>189.0725250244141</v>
       </c>
       <c r="F31">
-        <v>38134500</v>
+        <v>40552600</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B32">
-        <v>190.7661194461664</v>
+        <v>189.0625550094256</v>
       </c>
       <c r="C32">
-        <v>192.200663072465</v>
+        <v>190.3576435333286</v>
       </c>
       <c r="D32">
-        <v>190.1086107834213</v>
+        <v>188.6839866959958</v>
       </c>
       <c r="E32">
-        <v>190.5867919921875</v>
+        <v>189.6802062988281</v>
       </c>
       <c r="F32">
-        <v>39617700</v>
+        <v>38415400</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1637,22 +1637,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B33">
-        <v>190.1484532405231</v>
+        <v>190.1783440284001</v>
       </c>
       <c r="C33">
-        <v>190.1783386160579</v>
+        <v>191.3638479620414</v>
       </c>
       <c r="D33">
-        <v>188.534582157217</v>
+        <v>188.2556472091113</v>
       </c>
       <c r="E33">
-        <v>189.2518615722656</v>
+        <v>188.6541290283203</v>
       </c>
       <c r="F33">
-        <v>24048300</v>
+        <v>43014200</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="B34">
-        <v>189.2020384462403</v>
+        <v>189.1223488160309</v>
       </c>
       <c r="C34">
-        <v>189.9492032008885</v>
+        <v>189.6005452284997</v>
       </c>
       <c r="D34">
-        <v>188.1858901236091</v>
+        <v>187.4785923513509</v>
       </c>
       <c r="E34">
-        <v>189.0725250244141</v>
+        <v>189.23193359375</v>
       </c>
       <c r="F34">
-        <v>40552600</v>
+        <v>48794400</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1689,22 +1689,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="B35">
-        <v>189.0625702185278</v>
+        <v>189.6104957583972</v>
       </c>
       <c r="C35">
-        <v>190.3576588466139</v>
+        <v>190.8358417229626</v>
       </c>
       <c r="D35">
-        <v>188.6840018746442</v>
+        <v>188.5146480170096</v>
       </c>
       <c r="E35">
-        <v>189.6802215576172</v>
+        <v>190.5170593261719</v>
       </c>
       <c r="F35">
-        <v>38415400</v>
+        <v>45679300</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1715,22 +1715,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="B36">
-        <v>190.1783440284001</v>
+        <v>189.2618062982008</v>
       </c>
       <c r="C36">
-        <v>191.3638479620414</v>
+        <v>189.3315489707649</v>
       </c>
       <c r="D36">
-        <v>188.2556472091113</v>
+        <v>186.7413717805125</v>
       </c>
       <c r="E36">
-        <v>188.6541290283203</v>
+        <v>188.7138824462891</v>
       </c>
       <c r="F36">
-        <v>43014200</v>
+        <v>43389500</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45260</v>
+        <v>45265</v>
       </c>
       <c r="B37">
-        <v>189.1223335660783</v>
+        <v>189.4909555363582</v>
       </c>
       <c r="C37">
-        <v>189.6005299399875</v>
+        <v>193.66510330406</v>
       </c>
       <c r="D37">
-        <v>187.4785772339432</v>
+        <v>189.4610549603861</v>
       </c>
       <c r="E37">
-        <v>189.2319183349609</v>
+        <v>192.6888122558594</v>
       </c>
       <c r="F37">
-        <v>48794400</v>
+        <v>66628400</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1767,22 +1767,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="B38">
-        <v>189.6104957583972</v>
+        <v>193.7149093352022</v>
       </c>
       <c r="C38">
-        <v>190.8358417229626</v>
+        <v>194.0237349968097</v>
       </c>
       <c r="D38">
-        <v>188.5146480170096</v>
+        <v>191.3837589852238</v>
       </c>
       <c r="E38">
-        <v>190.5170593261719</v>
+        <v>191.5929718017578</v>
       </c>
       <c r="F38">
-        <v>45679300</v>
+        <v>41089700</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B39">
-        <v>189.2618062982008</v>
+        <v>192.8980187767373</v>
       </c>
       <c r="C39">
-        <v>189.3315489707649</v>
+        <v>194.2628348546959</v>
       </c>
       <c r="D39">
-        <v>186.7413717805125</v>
+        <v>192.8581614774812</v>
       </c>
       <c r="E39">
-        <v>188.7138824462891</v>
+        <v>193.5355987548828</v>
       </c>
       <c r="F39">
-        <v>43389500</v>
+        <v>47477700</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1819,22 +1819,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B40">
-        <v>189.4909555363582</v>
+        <v>193.465852412872</v>
       </c>
       <c r="C40">
-        <v>193.66510330406</v>
+        <v>195.2490940936735</v>
       </c>
       <c r="D40">
-        <v>189.4610549603861</v>
+        <v>192.9378572160349</v>
       </c>
       <c r="E40">
-        <v>192.6888122558594</v>
+        <v>194.9701538085938</v>
       </c>
       <c r="F40">
-        <v>66628400</v>
+        <v>53377300</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="B41">
-        <v>193.714924762986</v>
+        <v>192.3799795594768</v>
       </c>
       <c r="C41">
-        <v>194.0237504491889</v>
+        <v>192.7585478954351</v>
       </c>
       <c r="D41">
-        <v>191.3837742273508</v>
+        <v>190.696365898322</v>
       </c>
       <c r="E41">
-        <v>191.5929870605469</v>
+        <v>192.44970703125</v>
       </c>
       <c r="F41">
-        <v>41089700</v>
+        <v>60943700</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1871,22 +1871,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B42">
-        <v>192.8980187767373</v>
+        <v>192.3501101982854</v>
       </c>
       <c r="C42">
-        <v>194.2628348546959</v>
+        <v>193.9839099721223</v>
       </c>
       <c r="D42">
-        <v>192.8581614774812</v>
+        <v>190.9952507369739</v>
       </c>
       <c r="E42">
-        <v>193.5355987548828</v>
+        <v>193.9739532470703</v>
       </c>
       <c r="F42">
-        <v>47477700</v>
+        <v>52696900</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1897,22 +1897,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45268</v>
+        <v>45273</v>
       </c>
       <c r="B43">
-        <v>193.465852412872</v>
+        <v>194.3525088805362</v>
       </c>
       <c r="C43">
-        <v>195.2490940936735</v>
+        <v>197.2515120236957</v>
       </c>
       <c r="D43">
-        <v>192.9378572160349</v>
+        <v>194.1134258673979</v>
       </c>
       <c r="E43">
-        <v>194.9701538085938</v>
+        <v>197.211669921875</v>
       </c>
       <c r="F43">
-        <v>53377300</v>
+        <v>70404200</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B44">
-        <v>192.3799948127373</v>
+        <v>197.2714278602722</v>
       </c>
       <c r="C44">
-        <v>192.7585631787113</v>
+        <v>198.8653702483771</v>
       </c>
       <c r="D44">
-        <v>190.6963810180936</v>
+        <v>195.4184586232846</v>
       </c>
       <c r="E44">
-        <v>192.4497222900391</v>
+        <v>197.361083984375</v>
       </c>
       <c r="F44">
-        <v>60943700</v>
+        <v>66831600</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1949,22 +1949,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B45">
-        <v>192.3501101982854</v>
+        <v>196.783262819263</v>
       </c>
       <c r="C45">
-        <v>193.9839099721223</v>
+        <v>197.649969035306</v>
       </c>
       <c r="D45">
-        <v>190.9952507369739</v>
+        <v>196.2552676300523</v>
       </c>
       <c r="E45">
-        <v>193.9739532470703</v>
+        <v>196.8231201171875</v>
       </c>
       <c r="F45">
-        <v>52696900</v>
+        <v>128256700</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45273</v>
+        <v>45278</v>
       </c>
       <c r="B46">
-        <v>194.352493842968</v>
+        <v>195.3487159960799</v>
       </c>
       <c r="C46">
-        <v>197.2514967618239</v>
+        <v>195.8866831430404</v>
       </c>
       <c r="D46">
-        <v>194.1134108483282</v>
+        <v>193.6551455578198</v>
       </c>
       <c r="E46">
-        <v>197.2116546630859</v>
+        <v>195.1494750976562</v>
       </c>
       <c r="F46">
-        <v>70404200</v>
+        <v>55751900</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B47">
-        <v>197.2714278602722</v>
+        <v>195.4184607115181</v>
       </c>
       <c r="C47">
-        <v>198.8653702483771</v>
+        <v>196.2054675888958</v>
       </c>
       <c r="D47">
-        <v>195.4184586232846</v>
+        <v>195.1494771352294</v>
       </c>
       <c r="E47">
-        <v>197.361083984375</v>
+        <v>196.1955108642578</v>
       </c>
       <c r="F47">
-        <v>66831600</v>
+        <v>40714100</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="B48">
-        <v>196.783262819263</v>
+        <v>196.1556575241543</v>
       </c>
       <c r="C48">
-        <v>197.649969035306</v>
+        <v>196.9327076925837</v>
       </c>
       <c r="D48">
-        <v>196.2552676300523</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="E48">
-        <v>196.8231201171875</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="F48">
-        <v>128256700</v>
+        <v>52242800</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2053,22 +2053,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="B49">
-        <v>195.3487159960799</v>
+        <v>195.3586760168643</v>
       </c>
       <c r="C49">
-        <v>195.8866831430404</v>
+        <v>196.3349670004207</v>
       </c>
       <c r="D49">
-        <v>193.6551455578198</v>
+        <v>192.7684988918802</v>
       </c>
       <c r="E49">
-        <v>195.1494750976562</v>
+        <v>193.9440307617188</v>
       </c>
       <c r="F49">
-        <v>55751900</v>
+        <v>46482500</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2079,22 +2079,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B50">
-        <v>195.4184607115181</v>
+        <v>194.4421472412643</v>
       </c>
       <c r="C50">
-        <v>196.2054675888958</v>
+        <v>194.6712887093912</v>
       </c>
       <c r="D50">
-        <v>195.1494771352294</v>
+        <v>192.2405102905751</v>
       </c>
       <c r="E50">
-        <v>196.1955108642578</v>
+        <v>192.8681335449219</v>
       </c>
       <c r="F50">
-        <v>40714100</v>
+        <v>37122800</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2105,22 +2105,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>45280</v>
+        <v>45286</v>
       </c>
       <c r="B51">
-        <v>196.1556575241543</v>
+        <v>192.8781015610764</v>
       </c>
       <c r="C51">
-        <v>196.9327076925837</v>
+        <v>193.1570418679817</v>
       </c>
       <c r="D51">
-        <v>194.0934906005859</v>
+        <v>192.1010513916819</v>
       </c>
       <c r="E51">
-        <v>194.0934906005859</v>
+        <v>192.3202209472656</v>
       </c>
       <c r="F51">
-        <v>52242800</v>
+        <v>28919300</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B52">
-        <v>195.3586760168643</v>
+        <v>191.7623368685013</v>
       </c>
       <c r="C52">
-        <v>196.3349670004207</v>
+        <v>192.7685133001503</v>
       </c>
       <c r="D52">
-        <v>192.7684988918802</v>
+        <v>190.3676201580689</v>
       </c>
       <c r="E52">
-        <v>193.9440307617188</v>
+        <v>192.4198303222656</v>
       </c>
       <c r="F52">
-        <v>46482500</v>
+        <v>48087700</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B53">
-        <v>194.4421472412643</v>
+        <v>193.4061014524282</v>
       </c>
       <c r="C53">
-        <v>194.6712887093912</v>
+        <v>193.9241399781904</v>
       </c>
       <c r="D53">
-        <v>192.2405102905751</v>
+        <v>192.4397670798616</v>
       </c>
       <c r="E53">
-        <v>192.8681335449219</v>
+        <v>192.8482208251953</v>
       </c>
       <c r="F53">
-        <v>37122800</v>
+        <v>34049900</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2183,22 +2183,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B54">
-        <v>192.8781015610764</v>
+        <v>193.1670012361359</v>
       </c>
       <c r="C54">
-        <v>193.1570418679817</v>
+        <v>193.6651111054412</v>
       </c>
       <c r="D54">
-        <v>192.1010513916819</v>
+        <v>191.005206227484</v>
       </c>
       <c r="E54">
-        <v>192.3202209472656</v>
+        <v>191.8021850585938</v>
       </c>
       <c r="F54">
-        <v>28919300</v>
+        <v>42628800</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2209,22 +2209,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B55">
-        <v>191.7623368685013</v>
+        <v>186.4425033780096</v>
       </c>
       <c r="C55">
-        <v>192.7685133001503</v>
+        <v>187.7276352526454</v>
       </c>
       <c r="D55">
-        <v>190.3676201580689</v>
+        <v>183.1948327572495</v>
       </c>
       <c r="E55">
-        <v>192.4198303222656</v>
+        <v>184.9382171630859</v>
       </c>
       <c r="F55">
-        <v>48087700</v>
+        <v>82488700</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B56">
-        <v>193.4060861494978</v>
+        <v>183.5235814240684</v>
       </c>
       <c r="C56">
-        <v>193.924124634271</v>
+        <v>185.1773096578577</v>
       </c>
       <c r="D56">
-        <v>192.4397518533907</v>
+        <v>182.7365594038808</v>
       </c>
       <c r="E56">
-        <v>192.8482055664062</v>
+        <v>183.553466796875</v>
       </c>
       <c r="F56">
-        <v>34049900</v>
+        <v>58414500</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2261,22 +2261,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B57">
-        <v>193.1669858687692</v>
+        <v>181.46141882335</v>
       </c>
       <c r="C57">
-        <v>193.6650956984474</v>
+        <v>182.3978678073227</v>
       </c>
       <c r="D57">
-        <v>191.0051910320984</v>
+        <v>180.1962307034869</v>
       </c>
       <c r="E57">
-        <v>191.8021697998047</v>
+        <v>181.2223358154297</v>
       </c>
       <c r="F57">
-        <v>42628800</v>
+        <v>71983600</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>186.4425033780096</v>
+        <v>181.3020221078307</v>
       </c>
       <c r="C58">
-        <v>187.7276352526454</v>
+        <v>182.0691003042472</v>
       </c>
       <c r="D58">
-        <v>183.1948327572495</v>
+        <v>179.4888950229793</v>
       </c>
       <c r="E58">
-        <v>184.9382171630859</v>
+        <v>180.4950714111328</v>
       </c>
       <c r="F58">
-        <v>82488700</v>
+        <v>62303300</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2313,22 +2313,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B59">
-        <v>183.5235814240684</v>
+        <v>181.4016370185953</v>
       </c>
       <c r="C59">
-        <v>185.1773096578577</v>
+        <v>184.8983778074419</v>
       </c>
       <c r="D59">
-        <v>182.7365594038808</v>
+        <v>180.8138710584613</v>
       </c>
       <c r="E59">
-        <v>183.553466796875</v>
+        <v>184.8585205078125</v>
       </c>
       <c r="F59">
-        <v>58414500</v>
+        <v>59144500</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B60">
-        <v>181.4614035444303</v>
+        <v>183.2247200384055</v>
       </c>
       <c r="C60">
-        <v>182.3978524495546</v>
+        <v>184.4500659772401</v>
       </c>
       <c r="D60">
-        <v>180.1962155310951</v>
+        <v>182.0392161979183</v>
       </c>
       <c r="E60">
-        <v>181.2223205566406</v>
+        <v>184.4401092529297</v>
       </c>
       <c r="F60">
-        <v>71983600</v>
+        <v>42841800</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="B61">
-        <v>181.3020374348382</v>
+        <v>183.6530893449622</v>
       </c>
       <c r="C61">
-        <v>182.0691156961024</v>
+        <v>185.6953273641287</v>
       </c>
       <c r="D61">
-        <v>179.4889101967076</v>
+        <v>183.2247070123772</v>
       </c>
       <c r="E61">
-        <v>180.4950866699219</v>
+        <v>185.4861297607422</v>
       </c>
       <c r="F61">
-        <v>62303300</v>
+        <v>46792900</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B62">
-        <v>181.4016370185953</v>
+        <v>185.8348181606066</v>
       </c>
       <c r="C62">
-        <v>184.8983778074419</v>
+        <v>186.3428999418131</v>
       </c>
       <c r="D62">
-        <v>180.8138710584613</v>
+        <v>182.9258584292588</v>
       </c>
       <c r="E62">
-        <v>184.8585205078125</v>
+        <v>184.8884124755859</v>
       </c>
       <c r="F62">
-        <v>59144500</v>
+        <v>49128400</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2417,22 +2417,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B63">
-        <v>183.2247200384055</v>
+        <v>185.3566332346026</v>
       </c>
       <c r="C63">
-        <v>184.4500659772401</v>
+        <v>186.0340705289092</v>
       </c>
       <c r="D63">
-        <v>182.0392161979183</v>
+        <v>184.4899269679768</v>
       </c>
       <c r="E63">
-        <v>184.4401092529297</v>
+        <v>185.2171630859375</v>
       </c>
       <c r="F63">
-        <v>42841800</v>
+        <v>40444700</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2443,22 +2443,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B64">
-        <v>183.6531195609547</v>
+        <v>181.4713774128876</v>
       </c>
       <c r="C64">
-        <v>185.6953579161256</v>
+        <v>183.5634295839771</v>
       </c>
       <c r="D64">
-        <v>183.224737157889</v>
+        <v>180.246016282922</v>
       </c>
       <c r="E64">
-        <v>185.4861602783203</v>
+        <v>182.9358215332031</v>
       </c>
       <c r="F64">
-        <v>46792900</v>
+        <v>65603000</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B65">
-        <v>185.8348181606066</v>
+        <v>180.5847370128247</v>
       </c>
       <c r="C65">
-        <v>186.3428999418131</v>
+        <v>182.2384500496896</v>
       </c>
       <c r="D65">
-        <v>182.9258584292588</v>
+        <v>179.6184027533544</v>
       </c>
       <c r="E65">
-        <v>184.8884124755859</v>
+        <v>181.9893951416016</v>
       </c>
       <c r="F65">
-        <v>49128400</v>
+        <v>47317400</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2495,22 +2495,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B66">
-        <v>185.3566332346026</v>
+        <v>185.3865245441322</v>
       </c>
       <c r="C66">
-        <v>186.0340705289092</v>
+        <v>188.4249977385091</v>
       </c>
       <c r="D66">
-        <v>184.4899269679768</v>
+        <v>185.1275128886353</v>
       </c>
       <c r="E66">
-        <v>185.2171630859375</v>
+        <v>187.9169311523438</v>
       </c>
       <c r="F66">
-        <v>40444700</v>
+        <v>78005800</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B67">
-        <v>181.4713774128876</v>
+        <v>188.6142802417559</v>
       </c>
       <c r="C67">
-        <v>183.5634295839771</v>
+        <v>191.2243710276113</v>
       </c>
       <c r="D67">
-        <v>180.246016282922</v>
+        <v>188.1062136601058</v>
       </c>
       <c r="E67">
-        <v>182.9358215332031</v>
+        <v>190.8358459472656</v>
       </c>
       <c r="F67">
-        <v>65603000</v>
+        <v>68741000</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2547,22 +2547,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>45308</v>
+        <v>45313</v>
       </c>
       <c r="B68">
-        <v>180.5847521538411</v>
+        <v>191.5730425958912</v>
       </c>
       <c r="C68">
-        <v>182.2384653293606</v>
+        <v>194.591586932864</v>
       </c>
       <c r="D68">
-        <v>179.6184178133491</v>
+        <v>191.5331852970931</v>
       </c>
       <c r="E68">
-        <v>181.9894104003906</v>
+        <v>193.1570281982422</v>
       </c>
       <c r="F68">
-        <v>47317400</v>
+        <v>60133900</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2573,22 +2573,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B69">
-        <v>185.3865094908112</v>
+        <v>194.2827703313563</v>
       </c>
       <c r="C69">
-        <v>188.4249824384652</v>
+        <v>195.0100064567242</v>
       </c>
       <c r="D69">
-        <v>185.1274978563461</v>
+        <v>193.0972664550746</v>
       </c>
       <c r="E69">
-        <v>187.9169158935547</v>
+        <v>194.4421539306641</v>
       </c>
       <c r="F69">
-        <v>78005800</v>
+        <v>42355600</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2599,22 +2599,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B70">
-        <v>188.614265160598</v>
+        <v>194.6812449985873</v>
       </c>
       <c r="C70">
-        <v>191.2243557377567</v>
+        <v>195.6376225649257</v>
       </c>
       <c r="D70">
-        <v>188.1061986195717</v>
+        <v>193.6053259368713</v>
       </c>
       <c r="E70">
-        <v>190.8358306884766</v>
+        <v>193.7647247314453</v>
       </c>
       <c r="F70">
-        <v>68741000</v>
+        <v>53631300</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B71">
-        <v>191.5730425958912</v>
+        <v>194.4820078289901</v>
       </c>
       <c r="C71">
-        <v>194.591586932864</v>
+        <v>195.5280415368865</v>
       </c>
       <c r="D71">
-        <v>191.5331852970931</v>
+        <v>192.3799836887605</v>
       </c>
       <c r="E71">
-        <v>193.1570281982422</v>
+        <v>193.4359741210938</v>
       </c>
       <c r="F71">
-        <v>60133900</v>
+        <v>54822100</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2651,22 +2651,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B72">
-        <v>194.2827703313563</v>
+        <v>193.5355935899702</v>
       </c>
       <c r="C72">
-        <v>195.0100064567242</v>
+        <v>194.0237314845371</v>
       </c>
       <c r="D72">
-        <v>193.0972664550746</v>
+        <v>191.2144000061864</v>
       </c>
       <c r="E72">
-        <v>194.4421539306641</v>
+        <v>191.6925811767578</v>
       </c>
       <c r="F72">
-        <v>42355600</v>
+        <v>44594000</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2677,22 +2677,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B73">
-        <v>194.6812449985873</v>
+        <v>191.2841435534402</v>
       </c>
       <c r="C73">
-        <v>195.6376225649257</v>
+        <v>191.4734277329997</v>
       </c>
       <c r="D73">
-        <v>193.6053259368713</v>
+        <v>188.8633369229218</v>
       </c>
       <c r="E73">
-        <v>193.7647247314453</v>
+        <v>191.0052032470703</v>
       </c>
       <c r="F73">
-        <v>53631300</v>
+        <v>47145600</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B74">
-        <v>194.4820231702934</v>
+        <v>190.2181781206989</v>
       </c>
       <c r="C74">
-        <v>195.5280569607039</v>
+        <v>191.0749276084547</v>
       </c>
       <c r="D74">
-        <v>192.37999886425</v>
+        <v>186.761294796937</v>
       </c>
       <c r="E74">
-        <v>193.4359893798828</v>
+        <v>187.3291320800781</v>
       </c>
       <c r="F74">
-        <v>54822100</v>
+        <v>55859400</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2729,22 +2729,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B75">
-        <v>193.5355935899702</v>
+        <v>186.3329308453054</v>
       </c>
       <c r="C75">
-        <v>194.0237314845371</v>
+        <v>186.3927167977895</v>
       </c>
       <c r="D75">
-        <v>191.2144000061864</v>
+        <v>183.6531125515431</v>
       </c>
       <c r="E75">
-        <v>191.6925811767578</v>
+        <v>183.7029113769531</v>
       </c>
       <c r="F75">
-        <v>44594000</v>
+        <v>55467800</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B76">
-        <v>191.2841282723675</v>
+        <v>183.2944796333469</v>
       </c>
       <c r="C76">
-        <v>191.4734124368057</v>
+        <v>186.2432816186692</v>
       </c>
       <c r="D76">
-        <v>188.8633218352395</v>
+        <v>183.1251240978006</v>
       </c>
       <c r="E76">
-        <v>191.0051879882812</v>
+        <v>186.1536254882812</v>
       </c>
       <c r="F76">
-        <v>47145600</v>
+        <v>64885400</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2781,22 +2781,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B77">
-        <v>190.2181936148135</v>
+        <v>179.1800691670908</v>
       </c>
       <c r="C77">
-        <v>191.0749431723554</v>
+        <v>186.6218312646208</v>
       </c>
       <c r="D77">
-        <v>186.7613100094732</v>
+        <v>178.572374564712</v>
       </c>
       <c r="E77">
-        <v>187.3291473388672</v>
+        <v>185.1474304199219</v>
       </c>
       <c r="F77">
-        <v>55859400</v>
+        <v>102518000</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2807,22 +2807,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B78">
-        <v>186.3329308453054</v>
+        <v>187.4387292327286</v>
       </c>
       <c r="C78">
-        <v>186.3927167977895</v>
+        <v>188.5345769759108</v>
       </c>
       <c r="D78">
-        <v>183.6531125515431</v>
+        <v>185.137464173152</v>
       </c>
       <c r="E78">
-        <v>183.7029113769531</v>
+        <v>186.9705047607422</v>
       </c>
       <c r="F78">
-        <v>55467800</v>
+        <v>69668800</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2833,22 +2833,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B79">
-        <v>183.2944796333469</v>
+        <v>186.1536178091245</v>
       </c>
       <c r="C79">
-        <v>186.2432816186692</v>
+        <v>188.5943530871235</v>
       </c>
       <c r="D79">
-        <v>183.1251240978006</v>
+        <v>186.0639616824351</v>
       </c>
       <c r="E79">
-        <v>186.1536254882812</v>
+        <v>188.5843963623047</v>
       </c>
       <c r="F79">
-        <v>64885400</v>
+        <v>43490800</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B80">
-        <v>179.1800691670908</v>
+        <v>189.9193156538562</v>
       </c>
       <c r="C80">
-        <v>186.6218312646208</v>
+        <v>190.3277693633227</v>
       </c>
       <c r="D80">
-        <v>178.572374564712</v>
+        <v>187.8969909571685</v>
       </c>
       <c r="E80">
-        <v>185.1474304199219</v>
+        <v>188.6939697265625</v>
       </c>
       <c r="F80">
-        <v>102518000</v>
+        <v>53439000</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2885,22 +2885,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B81">
-        <v>187.4387292327286</v>
+        <v>188.674055736523</v>
       </c>
       <c r="C81">
-        <v>188.5345769759108</v>
+        <v>188.8234826169108</v>
       </c>
       <c r="D81">
-        <v>185.137464173152</v>
+        <v>186.6417741577155</v>
       </c>
       <c r="E81">
-        <v>186.9705047607422</v>
+        <v>187.6081085205078</v>
       </c>
       <c r="F81">
-        <v>69668800</v>
+        <v>40962000</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2911,25 +2911,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="B82">
-        <v>186.1536027470153</v>
+        <v>188.1766493146219</v>
       </c>
       <c r="C82">
-        <v>188.5943378275288</v>
+        <v>189.5132986677318</v>
       </c>
       <c r="D82">
-        <v>186.0639466275801</v>
+        <v>187.5282863277538</v>
       </c>
       <c r="E82">
-        <v>188.5843811035156</v>
+        <v>188.3761596679688</v>
       </c>
       <c r="F82">
-        <v>43490800</v>
+        <v>45155200</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2937,22 +2937,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B83">
-        <v>189.9193156538562</v>
+        <v>187.9472376542695</v>
       </c>
       <c r="C83">
-        <v>190.3277693633227</v>
+        <v>188.1966103847131</v>
       </c>
       <c r="D83">
-        <v>187.8969909571685</v>
+        <v>186.3213225812161</v>
       </c>
       <c r="E83">
-        <v>188.6939697265625</v>
+        <v>186.680419921875</v>
       </c>
       <c r="F83">
-        <v>53439000</v>
+        <v>41781900</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2963,22 +2963,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B84">
-        <v>188.674040391037</v>
+        <v>185.3038934455236</v>
       </c>
       <c r="C84">
-        <v>188.8234672592713</v>
+        <v>185.7427918879144</v>
       </c>
       <c r="D84">
-        <v>186.6417589775216</v>
+        <v>183.0495542133352</v>
       </c>
       <c r="E84">
-        <v>187.6080932617188</v>
+        <v>184.5757141113281</v>
       </c>
       <c r="F84">
-        <v>40962000</v>
+        <v>56529500</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2989,25 +2989,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B85">
-        <v>188.1766493146219</v>
+        <v>184.8550202478472</v>
       </c>
       <c r="C85">
-        <v>189.5132986677318</v>
+        <v>185.0644848126334</v>
       </c>
       <c r="D85">
-        <v>187.5282863277538</v>
+        <v>181.9822415953253</v>
       </c>
       <c r="E85">
-        <v>188.3761596679688</v>
+        <v>183.6879425048828</v>
       </c>
       <c r="F85">
-        <v>45155200</v>
+        <v>54630500</v>
       </c>
       <c r="G85">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3015,22 +3015,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B86">
-        <v>187.9472376542695</v>
+        <v>183.0894618898952</v>
       </c>
       <c r="C86">
-        <v>188.1966103847131</v>
+        <v>184.0271057924329</v>
       </c>
       <c r="D86">
-        <v>186.3213225812161</v>
+        <v>180.8949849042452</v>
       </c>
       <c r="E86">
-        <v>186.680419921875</v>
+        <v>183.398681640625</v>
       </c>
       <c r="F86">
-        <v>41781900</v>
+        <v>65434500</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>185.3038934455236</v>
+        <v>182.9597697729581</v>
       </c>
       <c r="C87">
-        <v>185.7427918879144</v>
+        <v>184.3861896022806</v>
       </c>
       <c r="D87">
-        <v>183.0495542133352</v>
+        <v>181.2141607864845</v>
       </c>
       <c r="E87">
-        <v>184.5757141113281</v>
+        <v>181.8525543212891</v>
       </c>
       <c r="F87">
-        <v>56529500</v>
+        <v>49701400</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3067,22 +3067,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B88">
-        <v>184.8550202478472</v>
+        <v>181.3338650577124</v>
       </c>
       <c r="C88">
-        <v>185.0644848126334</v>
+        <v>181.9722586285668</v>
       </c>
       <c r="D88">
-        <v>181.9822415953253</v>
+        <v>179.5483630334567</v>
       </c>
       <c r="E88">
-        <v>183.6879425048828</v>
+        <v>181.1044464111328</v>
       </c>
       <c r="F88">
-        <v>54630500</v>
+        <v>53665600</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3093,22 +3093,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B89">
-        <v>183.0894618898952</v>
+        <v>181.4834974142419</v>
       </c>
       <c r="C89">
-        <v>184.0271057924329</v>
+        <v>182.4311107284463</v>
       </c>
       <c r="D89">
-        <v>180.8949849042452</v>
+        <v>180.2067102754291</v>
       </c>
       <c r="E89">
-        <v>183.398681640625</v>
+        <v>181.862548828125</v>
       </c>
       <c r="F89">
-        <v>65434500</v>
+        <v>41529700</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B90">
-        <v>182.9597697729581</v>
+        <v>183.0196129219886</v>
       </c>
       <c r="C90">
-        <v>184.3861896022806</v>
+        <v>184.4959103066926</v>
       </c>
       <c r="D90">
-        <v>181.2141607864845</v>
+        <v>182.0021832358438</v>
       </c>
       <c r="E90">
-        <v>181.8525543212891</v>
+        <v>183.9073791503906</v>
       </c>
       <c r="F90">
-        <v>49701400</v>
+        <v>52292200</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B91">
-        <v>181.3338650577124</v>
+        <v>184.5458002882432</v>
       </c>
       <c r="C91">
-        <v>181.9722586285668</v>
+        <v>184.5757237999312</v>
       </c>
       <c r="D91">
-        <v>179.5483630334567</v>
+        <v>181.7727765881278</v>
       </c>
       <c r="E91">
-        <v>181.1044464111328</v>
+        <v>182.0620574951172</v>
       </c>
       <c r="F91">
-        <v>53665600</v>
+        <v>45119700</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="B92">
-        <v>181.4834974142419</v>
+        <v>181.782751620001</v>
       </c>
       <c r="C92">
-        <v>182.4311107284463</v>
+        <v>182.3014359421489</v>
       </c>
       <c r="D92">
-        <v>180.2067102754291</v>
+        <v>180.1967294819421</v>
       </c>
       <c r="E92">
-        <v>181.862548828125</v>
+        <v>180.7054595947266</v>
       </c>
       <c r="F92">
-        <v>41529700</v>
+        <v>40867400</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3197,22 +3197,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B93">
-        <v>183.0196281071197</v>
+        <v>180.6456083270148</v>
       </c>
       <c r="C93">
-        <v>184.495925614312</v>
+        <v>183.4585247542275</v>
       </c>
       <c r="D93">
-        <v>182.0021983365588</v>
+        <v>179.1094638154171</v>
       </c>
       <c r="E93">
-        <v>183.9073944091797</v>
+        <v>182.1717681884766</v>
       </c>
       <c r="F93">
-        <v>52292200</v>
+        <v>54318900</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B94">
-        <v>184.5457848212894</v>
+        <v>182.0520594060505</v>
       </c>
       <c r="C94">
-        <v>184.5757083304694</v>
+        <v>182.6605294662985</v>
       </c>
       <c r="D94">
-        <v>181.7727613535837</v>
+        <v>179.6780414045198</v>
       </c>
       <c r="E94">
-        <v>182.0620422363281</v>
+        <v>180.9647979736328</v>
       </c>
       <c r="F94">
-        <v>45119700</v>
+        <v>48953900</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B95">
-        <v>181.782751620001</v>
+        <v>180.815177795749</v>
       </c>
       <c r="C95">
-        <v>182.3014359421489</v>
+        <v>182.1119189961591</v>
       </c>
       <c r="D95">
-        <v>180.1967294819421</v>
+        <v>179.0795381686922</v>
       </c>
       <c r="E95">
-        <v>180.7054595947266</v>
+        <v>180.2964782714844</v>
       </c>
       <c r="F95">
-        <v>40867400</v>
+        <v>136682600</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3275,22 +3275,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B96">
-        <v>180.6456083270148</v>
+        <v>179.0994886523772</v>
       </c>
       <c r="C96">
-        <v>183.4585247542275</v>
+        <v>180.0770254426894</v>
       </c>
       <c r="D96">
-        <v>179.1094638154171</v>
+        <v>176.9349352921489</v>
       </c>
       <c r="E96">
-        <v>182.1717681884766</v>
+        <v>179.2092132568359</v>
       </c>
       <c r="F96">
-        <v>54318900</v>
+        <v>73488000</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3301,22 +3301,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B97">
-        <v>182.0520594060505</v>
+        <v>175.7080130413176</v>
       </c>
       <c r="C97">
-        <v>182.6605294662985</v>
+        <v>176.4561312039468</v>
       </c>
       <c r="D97">
-        <v>179.6780414045198</v>
+        <v>173.3539339474242</v>
       </c>
       <c r="E97">
-        <v>180.9647979736328</v>
+        <v>174.6606597900391</v>
       </c>
       <c r="F97">
-        <v>48953900</v>
+        <v>81510100</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B98">
-        <v>180.815177795749</v>
+        <v>170.3315393142969</v>
       </c>
       <c r="C98">
-        <v>182.1119189961591</v>
+        <v>171.6083264389846</v>
       </c>
       <c r="D98">
-        <v>179.0795381686922</v>
+        <v>169.1944003057313</v>
       </c>
       <c r="E98">
-        <v>180.2964782714844</v>
+        <v>169.6931457519531</v>
       </c>
       <c r="F98">
-        <v>136682600</v>
+        <v>95132400</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B99">
-        <v>179.0995039018238</v>
+        <v>170.6307983173371</v>
       </c>
       <c r="C99">
-        <v>180.0770407753685</v>
+        <v>170.8103546017845</v>
       </c>
       <c r="D99">
-        <v>176.9349503572942</v>
+        <v>168.2567650018371</v>
       </c>
       <c r="E99">
-        <v>179.209228515625</v>
+        <v>168.6956634521484</v>
       </c>
       <c r="F99">
-        <v>73488000</v>
+        <v>68587700</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B100">
-        <v>175.7080130413176</v>
+        <v>168.7255757953365</v>
       </c>
       <c r="C100">
-        <v>176.4561312039468</v>
+        <v>170.3016132078211</v>
       </c>
       <c r="D100">
-        <v>173.3539339474242</v>
+        <v>168.0672433839466</v>
       </c>
       <c r="E100">
-        <v>174.6606597900391</v>
+        <v>168.5759582519531</v>
       </c>
       <c r="F100">
-        <v>81510100</v>
+        <v>71765100</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3405,22 +3405,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B101">
-        <v>170.3315546304903</v>
+        <v>168.5759654538076</v>
       </c>
       <c r="C101">
-        <v>171.6083418699865</v>
+        <v>173.2641697329784</v>
       </c>
       <c r="D101">
-        <v>169.1944155196732</v>
+        <v>168.5161184338974</v>
       </c>
       <c r="E101">
-        <v>169.6931610107422</v>
+        <v>170.3016204833984</v>
       </c>
       <c r="F101">
-        <v>95132400</v>
+        <v>76114600</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3431,22 +3431,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B102">
-        <v>170.6307828835121</v>
+        <v>172.5060845506196</v>
       </c>
       <c r="C102">
-        <v>170.8103391517182</v>
+        <v>173.9424739307717</v>
       </c>
       <c r="D102">
-        <v>168.2567497827471</v>
+        <v>171.6183182282344</v>
       </c>
       <c r="E102">
-        <v>168.6956481933594</v>
+        <v>172.3165588378906</v>
       </c>
       <c r="F102">
-        <v>68587700</v>
+        <v>60139500</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3457,22 +3457,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B103">
-        <v>168.7255757953365</v>
+        <v>172.7155327686856</v>
       </c>
       <c r="C103">
-        <v>170.3016132078211</v>
+        <v>173.5933295779934</v>
       </c>
       <c r="D103">
-        <v>168.0672433839466</v>
+        <v>170.5809029810071</v>
       </c>
       <c r="E103">
-        <v>168.5759582519531</v>
+        <v>172.7953338623047</v>
       </c>
       <c r="F103">
-        <v>71765100</v>
+        <v>59825400</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B104">
-        <v>168.5759503496348</v>
+        <v>172.336507025496</v>
       </c>
       <c r="C104">
-        <v>173.2641542087491</v>
+        <v>172.7554513769645</v>
       </c>
       <c r="D104">
-        <v>168.5161033350869</v>
+        <v>170.3315405757142</v>
       </c>
       <c r="E104">
-        <v>170.3016052246094</v>
+        <v>170.7006225585938</v>
       </c>
       <c r="F104">
-        <v>76114600</v>
+        <v>52488700</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3509,22 +3509,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B105">
-        <v>172.5060845506196</v>
+        <v>172.4761626955439</v>
       </c>
       <c r="C105">
-        <v>173.9424739307717</v>
+        <v>173.8726439282589</v>
       </c>
       <c r="D105">
-        <v>171.6183182282344</v>
+        <v>171.6183198753037</v>
       </c>
       <c r="E105">
-        <v>172.3165588378906</v>
+        <v>172.5659332275391</v>
       </c>
       <c r="F105">
-        <v>60139500</v>
+        <v>72913500</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B106">
-        <v>172.7155327686856</v>
+        <v>170.7405156278905</v>
       </c>
       <c r="C106">
-        <v>173.5933295779934</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="D106">
-        <v>170.5809029810071</v>
+        <v>169.8627187648084</v>
       </c>
       <c r="E106">
-        <v>172.7953338623047</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="F106">
-        <v>59825400</v>
+        <v>121664700</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3561,22 +3561,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>172.336507025496</v>
+        <v>175.1294828872995</v>
       </c>
       <c r="C107">
-        <v>172.7554513769645</v>
+        <v>177.2641127833739</v>
       </c>
       <c r="D107">
-        <v>170.3315405757142</v>
+        <v>173.0846235184168</v>
       </c>
       <c r="E107">
-        <v>170.7006225585938</v>
+        <v>173.2841186523438</v>
       </c>
       <c r="F107">
-        <v>52488700</v>
+        <v>75604200</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3587,22 +3587,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="B108">
-        <v>172.4761626955439</v>
+        <v>173.902574321544</v>
       </c>
       <c r="C108">
-        <v>173.8726439282589</v>
+        <v>176.1668831146724</v>
       </c>
       <c r="D108">
-        <v>171.6183198753037</v>
+        <v>172.5958635691079</v>
       </c>
       <c r="E108">
-        <v>172.5659332275391</v>
+        <v>175.6382141113281</v>
       </c>
       <c r="F108">
-        <v>72913500</v>
+        <v>55215200</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B109">
-        <v>170.7405156278905</v>
+        <v>175.2790998738642</v>
       </c>
       <c r="C109">
-        <v>172.1868743896484</v>
+        <v>178.2216949462891</v>
       </c>
       <c r="D109">
-        <v>169.8627187648084</v>
+        <v>174.6506757445198</v>
       </c>
       <c r="E109">
-        <v>172.1868743896484</v>
+        <v>178.2216949462891</v>
       </c>
       <c r="F109">
-        <v>121664700</v>
+        <v>53423100</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,22 +3639,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B110">
-        <v>175.1294828872995</v>
+        <v>176.6057583955842</v>
       </c>
       <c r="C110">
-        <v>177.2641127833739</v>
+        <v>177.0446568057568</v>
       </c>
       <c r="D110">
-        <v>173.0846235184168</v>
+        <v>170.4113335074718</v>
       </c>
       <c r="E110">
-        <v>173.2841186523438</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="F110">
-        <v>75604200</v>
+        <v>106181300</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3665,22 +3665,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B111">
-        <v>173.9025592135408</v>
+        <v>171.3290177969155</v>
       </c>
       <c r="C111">
-        <v>176.1668678099546</v>
+        <v>172.6157894784452</v>
       </c>
       <c r="D111">
-        <v>172.5958485746268</v>
+        <v>169.6332864466883</v>
       </c>
       <c r="E111">
-        <v>175.6381988525391</v>
+        <v>171.8477172851562</v>
       </c>
       <c r="F111">
-        <v>55215200</v>
+        <v>71106600</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3691,22 +3691,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B112">
-        <v>175.2791148807173</v>
+        <v>170.1420294503314</v>
       </c>
       <c r="C112">
-        <v>178.2217102050781</v>
+        <v>171.508587107401</v>
       </c>
       <c r="D112">
-        <v>174.6506906975692</v>
+        <v>169.0248292967788</v>
       </c>
       <c r="E112">
-        <v>178.2217102050781</v>
+        <v>170.4213256835938</v>
       </c>
       <c r="F112">
-        <v>53423100</v>
+        <v>54288300</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="B113">
-        <v>176.6057741601213</v>
+        <v>169.5734453384091</v>
       </c>
       <c r="C113">
-        <v>177.0446726094717</v>
+        <v>170.989880525952</v>
       </c>
       <c r="D113">
-        <v>170.4113487190698</v>
+        <v>169.1545010057981</v>
       </c>
       <c r="E113">
-        <v>170.9400177001953</v>
+        <v>169.2841796875</v>
       </c>
       <c r="F113">
-        <v>106181300</v>
+        <v>57388400</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3743,22 +3743,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B114">
-        <v>171.3290330096479</v>
+        <v>169.9824199430847</v>
       </c>
       <c r="C114">
-        <v>172.6158048054333</v>
+        <v>173.1644182000048</v>
       </c>
       <c r="D114">
-        <v>169.6333015088525</v>
+        <v>169.6831696430306</v>
       </c>
       <c r="E114">
-        <v>171.8477325439453</v>
+        <v>172.8751373291016</v>
       </c>
       <c r="F114">
-        <v>71106600</v>
+        <v>60273300</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3769,22 +3769,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B115">
-        <v>170.1420294503314</v>
+        <v>171.3190551874679</v>
       </c>
       <c r="C115">
-        <v>171.508587107401</v>
+        <v>171.7978465384781</v>
       </c>
       <c r="D115">
-        <v>169.0248292967788</v>
+        <v>170.0821610418135</v>
       </c>
       <c r="E115">
-        <v>170.4213256835938</v>
+        <v>171.0497283935547</v>
       </c>
       <c r="F115">
-        <v>54288300</v>
+        <v>65672700</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="B116">
-        <v>169.5734606232718</v>
+        <v>170.7604714050076</v>
       </c>
       <c r="C116">
-        <v>170.989895938488</v>
+        <v>170.8203184243575</v>
       </c>
       <c r="D116">
-        <v>169.1545162528982</v>
+        <v>169.0547552510188</v>
       </c>
       <c r="E116">
-        <v>169.2841949462891</v>
+        <v>169.6033782958984</v>
       </c>
       <c r="F116">
-        <v>57388400</v>
+        <v>46240500</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B117">
-        <v>169.9824199430847</v>
+        <v>168.6557546015374</v>
       </c>
       <c r="C117">
-        <v>173.1644182000048</v>
+        <v>168.9150967429367</v>
       </c>
       <c r="D117">
-        <v>169.6831696430306</v>
+        <v>167.8078812915549</v>
       </c>
       <c r="E117">
-        <v>172.8751373291016</v>
+        <v>168.4163513183594</v>
       </c>
       <c r="F117">
-        <v>60273300</v>
+        <v>49329500</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B118">
-        <v>171.3190704702827</v>
+        <v>168.3664918852105</v>
       </c>
       <c r="C118">
-        <v>171.7978618640044</v>
+        <v>170.2517491845627</v>
       </c>
       <c r="D118">
-        <v>170.082176214289</v>
+        <v>168.1570273077847</v>
       </c>
       <c r="E118">
-        <v>171.0497436523438</v>
+        <v>169.2243347167969</v>
       </c>
       <c r="F118">
-        <v>65672700</v>
+        <v>47691700</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B119">
-        <v>170.7604714050076</v>
+        <v>169.862720979973</v>
       </c>
       <c r="C119">
-        <v>170.8203184243575</v>
+        <v>171.4886360397026</v>
       </c>
       <c r="D119">
-        <v>169.0547552510188</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="E119">
-        <v>169.6033782958984</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="F119">
-        <v>46240500</v>
+        <v>53704400</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B120">
-        <v>168.6557546015374</v>
+        <v>169.1644799277747</v>
       </c>
       <c r="C120">
-        <v>168.9150967429367</v>
+        <v>169.9624757006009</v>
       </c>
       <c r="D120">
-        <v>167.8078812915549</v>
+        <v>168.5260863536145</v>
       </c>
       <c r="E120">
-        <v>168.4163513183594</v>
+        <v>169.1545104980469</v>
       </c>
       <c r="F120">
-        <v>49329500</v>
+        <v>42055200</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B121">
-        <v>168.3664767037722</v>
+        <v>168.6058903146058</v>
       </c>
       <c r="C121">
-        <v>170.2517338331327</v>
+        <v>168.7754619458776</v>
       </c>
       <c r="D121">
-        <v>168.1570121452337</v>
+        <v>167.8178791786363</v>
       </c>
       <c r="E121">
-        <v>169.2243194580078</v>
+        <v>168.02734375</v>
       </c>
       <c r="F121">
-        <v>47691700</v>
+        <v>37425500</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3951,22 +3951,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B122">
-        <v>169.862720979973</v>
+        <v>168.27671057045</v>
       </c>
       <c r="C122">
-        <v>171.4886360397026</v>
+        <v>169.6532528730683</v>
       </c>
       <c r="D122">
-        <v>168.3964233398438</v>
+        <v>167.9275978902735</v>
       </c>
       <c r="E122">
-        <v>168.3964233398438</v>
+        <v>169.2442779541016</v>
       </c>
       <c r="F122">
-        <v>53704400</v>
+        <v>42451200</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B123">
-        <v>169.1644646680864</v>
+        <v>168.3764536885837</v>
       </c>
       <c r="C123">
-        <v>169.9624603689284</v>
+        <v>168.6657193297554</v>
       </c>
       <c r="D123">
-        <v>168.5260711515132</v>
+        <v>166.6906917652159</v>
       </c>
       <c r="E123">
-        <v>169.1544952392578</v>
+        <v>167.3590087890625</v>
       </c>
       <c r="F123">
-        <v>42055200</v>
+        <v>49709300</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B124">
-        <v>168.6058903146058</v>
+        <v>167.9176136082712</v>
       </c>
       <c r="C124">
-        <v>168.7754619458776</v>
+        <v>175.0197591304819</v>
       </c>
       <c r="D124">
-        <v>167.8178791786363</v>
+        <v>167.7380725530161</v>
       </c>
       <c r="E124">
-        <v>168.02734375</v>
+        <v>174.6007995605469</v>
       </c>
       <c r="F124">
-        <v>37425500</v>
+        <v>91070300</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4029,22 +4029,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B125">
-        <v>168.27671057045</v>
+        <v>173.8227624139145</v>
       </c>
       <c r="C125">
-        <v>169.6532528730683</v>
+        <v>177.9124812782121</v>
       </c>
       <c r="D125">
-        <v>167.9275978902735</v>
+        <v>173.7729000442674</v>
       </c>
       <c r="E125">
-        <v>169.2442779541016</v>
+        <v>176.1070251464844</v>
       </c>
       <c r="F125">
-        <v>42451200</v>
+        <v>101593300</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4055,22 +4055,22 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="B126">
-        <v>168.3764690401373</v>
+        <v>174.9199973713308</v>
       </c>
       <c r="C126">
-        <v>168.6657347076824</v>
+        <v>176.1868150220336</v>
       </c>
       <c r="D126">
-        <v>166.6907069630718</v>
+        <v>172.0671729102025</v>
       </c>
       <c r="E126">
-        <v>167.3590240478516</v>
+        <v>172.2566986083984</v>
       </c>
       <c r="F126">
-        <v>49709300</v>
+        <v>73531800</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4081,22 +4081,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="B127">
-        <v>167.9176136082712</v>
+        <v>171.3190657023367</v>
       </c>
       <c r="C127">
-        <v>175.0197591304819</v>
+        <v>173.3240169744063</v>
       </c>
       <c r="D127">
-        <v>167.7380725530161</v>
+        <v>167.8478015585806</v>
       </c>
       <c r="E127">
-        <v>174.6007995605469</v>
+        <v>168.9550170898438</v>
       </c>
       <c r="F127">
-        <v>91070300</v>
+        <v>73711200</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4107,22 +4107,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="B128">
-        <v>173.8227624139145</v>
+        <v>169.18443695551</v>
       </c>
       <c r="C128">
-        <v>177.9124812782121</v>
+        <v>170.2218208239065</v>
       </c>
       <c r="D128">
-        <v>173.7729000442674</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="E128">
-        <v>176.1070251464844</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="F128">
-        <v>101593300</v>
+        <v>50901200</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4133,22 +4133,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B129">
-        <v>174.9199973713308</v>
+        <v>167.6083862889334</v>
       </c>
       <c r="C129">
-        <v>176.1868150220336</v>
+        <v>168.2168563161848</v>
       </c>
       <c r="D129">
-        <v>172.0671729102025</v>
+        <v>166.1321040928408</v>
       </c>
       <c r="E129">
-        <v>172.2566986083984</v>
+        <v>166.6208648681641</v>
       </c>
       <c r="F129">
-        <v>73531800</v>
+        <v>43122900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4159,22 +4159,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B130">
-        <v>171.3190657023367</v>
+        <v>165.7929692214355</v>
       </c>
       <c r="C130">
-        <v>173.3240169744063</v>
+        <v>165.9824797072532</v>
       </c>
       <c r="D130">
-        <v>167.8478015585806</v>
+        <v>163.6683087334206</v>
       </c>
       <c r="E130">
-        <v>168.9550170898438</v>
+        <v>164.5859985351562</v>
       </c>
       <c r="F130">
-        <v>73711200</v>
+        <v>67772100</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4185,22 +4185,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="B131">
-        <v>169.18443695551</v>
+        <v>165.1046847536948</v>
       </c>
       <c r="C131">
-        <v>170.2218208239065</v>
+        <v>166.8403090390114</v>
       </c>
       <c r="D131">
-        <v>167.5784759521484</v>
+        <v>164.3565666388509</v>
       </c>
       <c r="E131">
-        <v>167.5784759521484</v>
+        <v>165.4238739013672</v>
       </c>
       <c r="F131">
-        <v>50901200</v>
+        <v>48116400</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4211,22 +4211,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="B132">
-        <v>167.6084016381576</v>
+        <v>164.9351177927806</v>
       </c>
       <c r="C132">
-        <v>168.2168717211314</v>
+        <v>166.6308491901544</v>
       </c>
       <c r="D132">
-        <v>166.1321193068702</v>
+        <v>164.5061888135111</v>
       </c>
       <c r="E132">
-        <v>166.6208801269531</v>
+        <v>166.4812164306641</v>
       </c>
       <c r="F132">
-        <v>43122900</v>
+        <v>49537800</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B133">
-        <v>165.7929692214355</v>
+        <v>166.1221283489459</v>
       </c>
       <c r="C133">
-        <v>165.9824797072532</v>
+        <v>168.8752129833481</v>
       </c>
       <c r="D133">
-        <v>163.6683087334206</v>
+        <v>165.7929697448792</v>
       </c>
       <c r="E133">
-        <v>164.5859985351562</v>
+        <v>168.5959167480469</v>
       </c>
       <c r="F133">
-        <v>67772100</v>
+        <v>48251800</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B134">
-        <v>165.1046847536948</v>
+        <v>169.1046325224713</v>
       </c>
       <c r="C134">
-        <v>166.8403090390114</v>
+        <v>170.1819245302526</v>
       </c>
       <c r="D134">
-        <v>164.3565666388509</v>
+        <v>167.7280901980003</v>
       </c>
       <c r="E134">
-        <v>165.4238739013672</v>
+        <v>169.4637298583984</v>
       </c>
       <c r="F134">
-        <v>48116400</v>
+        <v>50558300</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4289,22 +4289,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B135">
-        <v>164.9351177927806</v>
+        <v>169.453760175649</v>
       </c>
       <c r="C135">
-        <v>166.6308491901544</v>
+        <v>170.9100883765927</v>
       </c>
       <c r="D135">
-        <v>164.5061888135111</v>
+        <v>168.7555043642477</v>
       </c>
       <c r="E135">
-        <v>166.4812164306641</v>
+        <v>168.8752136230469</v>
       </c>
       <c r="F135">
-        <v>49537800</v>
+        <v>44838400</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="B136">
-        <v>166.1221283489459</v>
+        <v>172.9349880637843</v>
       </c>
       <c r="C136">
-        <v>168.8752129833481</v>
+        <v>175.5883174432168</v>
       </c>
       <c r="D136">
-        <v>165.7929697448792</v>
+        <v>172.6656764863966</v>
       </c>
       <c r="E136">
-        <v>168.5959167480469</v>
+        <v>173.0646667480469</v>
       </c>
       <c r="F136">
-        <v>48251800</v>
+        <v>68169400</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>45407</v>
+        <v>45412</v>
       </c>
       <c r="B137">
-        <v>169.1046325224713</v>
+        <v>172.8950909599863</v>
       </c>
       <c r="C137">
-        <v>170.1819245302526</v>
+        <v>174.5509294248936</v>
       </c>
       <c r="D137">
-        <v>167.7280901980003</v>
+        <v>169.5734446010467</v>
       </c>
       <c r="E137">
-        <v>169.4637298583984</v>
+        <v>169.9026184082031</v>
       </c>
       <c r="F137">
-        <v>50558300</v>
+        <v>65934800</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B138">
-        <v>169.453760175649</v>
+        <v>169.154509859406</v>
       </c>
       <c r="C138">
-        <v>170.9100883765927</v>
+        <v>172.276661269318</v>
       </c>
       <c r="D138">
-        <v>168.7555043642477</v>
+        <v>168.6856879154096</v>
       </c>
       <c r="E138">
         <v>168.8752136230469</v>
       </c>
       <c r="F138">
-        <v>44838400</v>
+        <v>50383100</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B139">
-        <v>172.9349880637843</v>
+        <v>172.0771561636048</v>
       </c>
       <c r="C139">
-        <v>175.5883174432168</v>
+        <v>172.9848765697291</v>
       </c>
       <c r="D139">
-        <v>172.6656764863966</v>
+        <v>170.4612257152764</v>
       </c>
       <c r="E139">
-        <v>173.0646667480469</v>
+        <v>172.5958557128906</v>
       </c>
       <c r="F139">
-        <v>68169400</v>
+        <v>94214900</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4419,22 +4419,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B140">
-        <v>172.8951064875264</v>
+        <v>186.1816602043045</v>
       </c>
       <c r="C140">
-        <v>174.550945101143</v>
+        <v>186.5307880883928</v>
       </c>
       <c r="D140">
-        <v>169.573459830273</v>
+        <v>182.20168147231</v>
       </c>
       <c r="E140">
-        <v>169.9026336669922</v>
+        <v>182.9198760986328</v>
       </c>
       <c r="F140">
-        <v>65934800</v>
+        <v>163224100</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4445,22 +4445,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="B141">
-        <v>169.154509859406</v>
+        <v>181.8924676496326</v>
       </c>
       <c r="C141">
-        <v>172.276661269318</v>
+        <v>183.7378166412061</v>
       </c>
       <c r="D141">
-        <v>168.6856879154096</v>
+        <v>179.9673023408743</v>
       </c>
       <c r="E141">
-        <v>168.8752136230469</v>
+        <v>181.2540740966797</v>
       </c>
       <c r="F141">
-        <v>50383100</v>
+        <v>78569700</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4471,22 +4471,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="B142">
-        <v>172.0771409506727</v>
+        <v>182.9897055422979</v>
       </c>
       <c r="C142">
-        <v>172.9848612765476</v>
+        <v>184.4360643267624</v>
       </c>
       <c r="D142">
-        <v>170.4612106452049</v>
+        <v>180.8650602406239</v>
       </c>
       <c r="E142">
-        <v>172.5958404541016</v>
+        <v>181.9423370361328</v>
       </c>
       <c r="F142">
-        <v>94214900</v>
+        <v>77305800</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4497,22 +4497,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="B143">
-        <v>186.1816602043045</v>
+        <v>182.3912187494054</v>
       </c>
       <c r="C143">
-        <v>186.5307880883928</v>
+        <v>182.6106679669662</v>
       </c>
       <c r="D143">
-        <v>182.20168147231</v>
+        <v>180.9947223448819</v>
       </c>
       <c r="E143">
-        <v>182.9198760986328</v>
+        <v>182.281494140625</v>
       </c>
       <c r="F143">
-        <v>163224100</v>
+        <v>45057100</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4523,22 +4523,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B144">
-        <v>181.8924829621646</v>
+        <v>182.1019366221584</v>
       </c>
       <c r="C144">
-        <v>183.7378321090879</v>
+        <v>184.1966736044253</v>
       </c>
       <c r="D144">
-        <v>179.967317491337</v>
+        <v>181.6530687603878</v>
       </c>
       <c r="E144">
-        <v>181.2540893554688</v>
+        <v>184.1069030761719</v>
       </c>
       <c r="F144">
-        <v>78569700</v>
+        <v>48983000</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4549,25 +4549,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B145">
-        <v>182.9896901956702</v>
+        <v>184.6862155631856</v>
       </c>
       <c r="C145">
-        <v>184.4360488588342</v>
+        <v>184.8759983268926</v>
       </c>
       <c r="D145">
-        <v>180.8650450721818</v>
+        <v>181.9194291652744</v>
       </c>
       <c r="E145">
-        <v>181.9423217773438</v>
+        <v>182.8383636474609</v>
       </c>
       <c r="F145">
-        <v>77305800</v>
+        <v>50759500</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4575,22 +4575,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="B146">
-        <v>182.3912187494054</v>
+        <v>185.225611031474</v>
       </c>
       <c r="C146">
-        <v>182.6106679669662</v>
+        <v>186.8836955255456</v>
       </c>
       <c r="D146">
-        <v>180.9947223448819</v>
+        <v>184.4065517363972</v>
       </c>
       <c r="E146">
-        <v>182.281494140625</v>
+        <v>186.0646362304688</v>
       </c>
       <c r="F146">
-        <v>45057100</v>
+        <v>72044800</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B147">
-        <v>182.1019366221584</v>
+        <v>187.2932119522825</v>
       </c>
       <c r="C147">
-        <v>184.1966736044253</v>
+        <v>188.0823071588464</v>
       </c>
       <c r="D147">
-        <v>181.6530687603878</v>
+        <v>186.0746211896293</v>
       </c>
       <c r="E147">
-        <v>184.1069030761719</v>
+        <v>187.2133026123047</v>
       </c>
       <c r="F147">
-        <v>48983000</v>
+        <v>52393600</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B148">
-        <v>184.6862155631856</v>
+        <v>187.6927512010029</v>
       </c>
       <c r="C148">
-        <v>184.8759983268926</v>
+        <v>190.4295735911427</v>
       </c>
       <c r="D148">
-        <v>181.9194291652744</v>
+        <v>187.1533669878522</v>
       </c>
       <c r="E148">
-        <v>182.8383636474609</v>
+        <v>189.5006561279297</v>
       </c>
       <c r="F148">
-        <v>50759500</v>
+        <v>70400000</v>
       </c>
       <c r="G148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4653,22 +4653,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B149">
-        <v>185.225611031474</v>
+        <v>190.2497904222998</v>
       </c>
       <c r="C149">
-        <v>186.8836955255456</v>
+        <v>190.8790669285839</v>
       </c>
       <c r="D149">
-        <v>184.4065517363972</v>
+        <v>189.4407293377331</v>
       </c>
       <c r="E149">
-        <v>186.0646362304688</v>
+        <v>189.6205139160156</v>
       </c>
       <c r="F149">
-        <v>72044800</v>
+        <v>52845200</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4679,22 +4679,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B150">
-        <v>187.2932119522825</v>
+        <v>189.290897772124</v>
       </c>
       <c r="C150">
-        <v>188.0823071588464</v>
+        <v>190.5893978613363</v>
       </c>
       <c r="D150">
-        <v>186.0746211896293</v>
+        <v>188.9612774635522</v>
       </c>
       <c r="E150">
-        <v>187.2133026123047</v>
+        <v>189.6504821777344</v>
       </c>
       <c r="F150">
-        <v>52393600</v>
+        <v>41282900</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4705,22 +4705,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B151">
-        <v>187.6927512010029</v>
+        <v>189.1111078667427</v>
       </c>
       <c r="C151">
-        <v>190.4295735911427</v>
+        <v>191.698109779236</v>
       </c>
       <c r="D151">
-        <v>187.1533669878522</v>
+        <v>188.7914705191316</v>
       </c>
       <c r="E151">
-        <v>189.5006561279297</v>
+        <v>190.8191223144531</v>
       </c>
       <c r="F151">
-        <v>70400000</v>
+        <v>44361300</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4731,22 +4731,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B152">
-        <v>190.2497904222998</v>
+        <v>190.8690714810481</v>
       </c>
       <c r="C152">
-        <v>190.8790669285839</v>
+        <v>192.5071748183792</v>
       </c>
       <c r="D152">
-        <v>189.4407293377331</v>
+        <v>190.6992698520675</v>
       </c>
       <c r="E152">
-        <v>189.6205139160156</v>
+        <v>192.1276245117188</v>
       </c>
       <c r="F152">
-        <v>52845200</v>
+        <v>42309400</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4757,22 +4757,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B153">
-        <v>189.290897772124</v>
+        <v>192.0477172523277</v>
       </c>
       <c r="C153">
-        <v>190.5893978613363</v>
+        <v>192.5970844350643</v>
       </c>
       <c r="D153">
-        <v>188.9612774635522</v>
+        <v>190.0500294904844</v>
       </c>
       <c r="E153">
-        <v>189.6504821777344</v>
+        <v>190.6792907714844</v>
       </c>
       <c r="F153">
-        <v>41282900</v>
+        <v>34648500</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4783,22 +4783,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B154">
-        <v>189.1111078667427</v>
+        <v>190.7591910012091</v>
       </c>
       <c r="C154">
-        <v>191.698109779236</v>
+        <v>190.7791721453948</v>
       </c>
       <c r="D154">
-        <v>188.7914705191316</v>
+        <v>186.414229471382</v>
       </c>
       <c r="E154">
-        <v>190.8191223144531</v>
+        <v>186.6639404296875</v>
       </c>
       <c r="F154">
-        <v>44361300</v>
+        <v>51005900</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B155">
-        <v>190.8690714810481</v>
+        <v>188.6016982061538</v>
       </c>
       <c r="C155">
-        <v>192.5071748183792</v>
+        <v>190.359657849979</v>
       </c>
       <c r="D155">
-        <v>190.6992698520675</v>
+        <v>187.8225860014019</v>
       </c>
       <c r="E155">
-        <v>192.1276245117188</v>
+        <v>189.7603454589844</v>
       </c>
       <c r="F155">
-        <v>42309400</v>
+        <v>36294600</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4835,22 +4835,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B156">
-        <v>192.0477172523277</v>
+        <v>191.2885869563959</v>
       </c>
       <c r="C156">
-        <v>192.5970844350643</v>
+        <v>192.7768698320682</v>
       </c>
       <c r="D156">
-        <v>190.0500294904844</v>
+        <v>188.8813847764805</v>
       </c>
       <c r="E156">
-        <v>190.6792907714844</v>
+        <v>189.7703552246094</v>
       </c>
       <c r="F156">
-        <v>34648500</v>
+        <v>52280100</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4861,22 +4861,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B157">
-        <v>190.7591910012091</v>
+        <v>189.3907855540502</v>
       </c>
       <c r="C157">
-        <v>190.7791721453948</v>
+        <v>192.0277327438517</v>
       </c>
       <c r="D157">
-        <v>186.414229471382</v>
+        <v>189.2908950712484</v>
       </c>
       <c r="E157">
-        <v>186.6639404296875</v>
+        <v>190.0699920654297</v>
       </c>
       <c r="F157">
-        <v>51005900</v>
+        <v>53068000</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4887,22 +4887,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>188.6016982061538</v>
+        <v>190.5394463789207</v>
       </c>
       <c r="C158">
-        <v>190.359657849979</v>
+        <v>191.9578028098348</v>
       </c>
       <c r="D158">
-        <v>187.8225860014019</v>
+        <v>190.4096070430554</v>
       </c>
       <c r="E158">
-        <v>189.7603454589844</v>
+        <v>191.0688323974609</v>
       </c>
       <c r="F158">
-        <v>36294600</v>
+        <v>49947900</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B159">
-        <v>191.2885869563959</v>
+        <v>191.2186641606353</v>
       </c>
       <c r="C159">
-        <v>192.7768698320682</v>
+        <v>192.34736255925</v>
       </c>
       <c r="D159">
-        <v>188.8813847764805</v>
+        <v>189.6904343287636</v>
       </c>
       <c r="E159">
-        <v>189.7703552246094</v>
+        <v>192.0277252197266</v>
       </c>
       <c r="F159">
-        <v>52280100</v>
+        <v>75158300</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4939,22 +4939,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>45441</v>
+        <v>45446</v>
       </c>
       <c r="B160">
-        <v>189.3907855540502</v>
+        <v>192.6769656752138</v>
       </c>
       <c r="C160">
-        <v>192.0277327438517</v>
+        <v>194.7645608302989</v>
       </c>
       <c r="D160">
-        <v>189.2908950712484</v>
+        <v>192.2974153897732</v>
       </c>
       <c r="E160">
-        <v>190.0699920654297</v>
+        <v>193.8056640625</v>
       </c>
       <c r="F160">
-        <v>53068000</v>
+        <v>50080500</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B161">
-        <v>190.5394463789207</v>
+        <v>194.414963181449</v>
       </c>
       <c r="C161">
-        <v>191.9578028098348</v>
+        <v>195.0941849137607</v>
       </c>
       <c r="D161">
-        <v>190.4096070430554</v>
+        <v>192.8068239995484</v>
       </c>
       <c r="E161">
-        <v>191.0688323974609</v>
+        <v>194.1253051757812</v>
       </c>
       <c r="F161">
-        <v>49947900</v>
+        <v>47471400</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B162">
-        <v>191.2186641606353</v>
+        <v>195.1740816013435</v>
       </c>
       <c r="C162">
-        <v>192.34736255925</v>
+        <v>196.6723473717975</v>
       </c>
       <c r="D162">
-        <v>189.6904343287636</v>
+        <v>194.6446955817416</v>
       </c>
       <c r="E162">
-        <v>192.0277252197266</v>
+        <v>195.6435394287109</v>
       </c>
       <c r="F162">
-        <v>75158300</v>
+        <v>54156800</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -5017,22 +5017,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B163">
-        <v>192.6769656752138</v>
+        <v>195.4637499424949</v>
       </c>
       <c r="C163">
-        <v>194.7645608302989</v>
+        <v>196.2728109996351</v>
       </c>
       <c r="D163">
-        <v>192.2974153897732</v>
+        <v>193.9455030657145</v>
       </c>
       <c r="E163">
-        <v>193.8056640625</v>
+        <v>194.2551422119141</v>
       </c>
       <c r="F163">
-        <v>50080500</v>
+        <v>41181800</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5043,22 +5043,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B164">
-        <v>194.414963181449</v>
+        <v>194.4249530208514</v>
       </c>
       <c r="C164">
-        <v>195.0941849137607</v>
+        <v>196.7123140160979</v>
       </c>
       <c r="D164">
-        <v>192.8068239995484</v>
+        <v>193.9155481344315</v>
       </c>
       <c r="E164">
-        <v>194.1253051757812</v>
+        <v>196.6623687744141</v>
       </c>
       <c r="F164">
-        <v>47471400</v>
+        <v>53103900</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5069,22 +5069,22 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B165">
-        <v>195.1740816013435</v>
+        <v>196.6723416696202</v>
       </c>
       <c r="C165">
-        <v>196.6723473717975</v>
+        <v>197.0718883415123</v>
       </c>
       <c r="D165">
-        <v>194.6446955817416</v>
+        <v>191.9278335340749</v>
       </c>
       <c r="E165">
-        <v>195.6435394287109</v>
+        <v>192.8967132568359</v>
       </c>
       <c r="F165">
-        <v>54156800</v>
+        <v>97262100</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5095,22 +5095,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B166">
-        <v>195.4637499424949</v>
+        <v>193.4261003259925</v>
       </c>
       <c r="C166">
-        <v>196.2728109996351</v>
+        <v>206.9204901359287</v>
       </c>
       <c r="D166">
-        <v>193.9455030657145</v>
+        <v>193.4061344231483</v>
       </c>
       <c r="E166">
-        <v>194.2551422119141</v>
+        <v>206.9104919433594</v>
       </c>
       <c r="F166">
-        <v>41181800</v>
+        <v>172373300</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5121,22 +5121,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="B167">
-        <v>194.4249530208514</v>
+        <v>207.1302472154645</v>
       </c>
       <c r="C167">
-        <v>196.7123140160979</v>
+        <v>219.9454158204473</v>
       </c>
       <c r="D167">
-        <v>193.9155481344315</v>
+        <v>206.6607893800588</v>
       </c>
       <c r="E167">
-        <v>196.6623687744141</v>
+        <v>212.8236694335938</v>
       </c>
       <c r="F167">
-        <v>53103900</v>
+        <v>198134300</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5147,22 +5147,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B168">
-        <v>196.6723416696202</v>
+        <v>214.4917314898502</v>
       </c>
       <c r="C168">
-        <v>197.0718883415123</v>
+        <v>216.4994021195785</v>
       </c>
       <c r="D168">
-        <v>191.9278335340749</v>
+        <v>211.3553624447995</v>
       </c>
       <c r="E168">
-        <v>192.8967132568359</v>
+        <v>213.9923095703125</v>
       </c>
       <c r="F168">
-        <v>97262100</v>
+        <v>97862700</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5173,22 +5173,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B169">
-        <v>193.4261003259925</v>
+        <v>213.6027672593269</v>
       </c>
       <c r="C169">
-        <v>206.9204901359287</v>
+        <v>214.9212332396349</v>
       </c>
       <c r="D169">
-        <v>193.4061344231483</v>
+        <v>211.0557123478038</v>
       </c>
       <c r="E169">
-        <v>206.9104919433594</v>
+        <v>212.2443389892578</v>
       </c>
       <c r="F169">
-        <v>172373300</v>
+        <v>70122700</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5199,22 +5199,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>45455</v>
+        <v>45460</v>
       </c>
       <c r="B170">
-        <v>207.1302472154645</v>
+        <v>213.1233068836218</v>
       </c>
       <c r="C170">
-        <v>219.9454158204473</v>
+        <v>218.6968573821251</v>
       </c>
       <c r="D170">
-        <v>206.6607893800588</v>
+        <v>212.4740644791458</v>
       </c>
       <c r="E170">
-        <v>212.8236694335938</v>
+        <v>216.4194946289062</v>
       </c>
       <c r="F170">
-        <v>198134300</v>
+        <v>93728300</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="B171">
-        <v>214.4917314898502</v>
+        <v>217.3384239953892</v>
       </c>
       <c r="C171">
-        <v>216.4994021195785</v>
+        <v>218.3772301073396</v>
       </c>
       <c r="D171">
-        <v>211.3553624447995</v>
+        <v>212.7537345013344</v>
       </c>
       <c r="E171">
-        <v>213.9923095703125</v>
+        <v>214.042236328125</v>
       </c>
       <c r="F171">
-        <v>97862700</v>
+        <v>79943300</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5251,22 +5251,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B172">
-        <v>213.6027672593269</v>
+        <v>213.6826627606623</v>
       </c>
       <c r="C172">
-        <v>214.9212332396349</v>
+        <v>213.9923171643283</v>
       </c>
       <c r="D172">
-        <v>211.0557123478038</v>
+        <v>208.6085492903026</v>
       </c>
       <c r="E172">
-        <v>212.2443389892578</v>
+        <v>209.4375762939453</v>
       </c>
       <c r="F172">
-        <v>70122700</v>
+        <v>86172500</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5277,22 +5277,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B173">
-        <v>213.1233068836218</v>
+        <v>210.1467632247673</v>
       </c>
       <c r="C173">
-        <v>218.6968573821251</v>
+        <v>211.6450290442056</v>
       </c>
       <c r="D173">
-        <v>212.4740644791458</v>
+        <v>206.8705565188874</v>
       </c>
       <c r="E173">
-        <v>216.4194946289062</v>
+        <v>207.2501220703125</v>
       </c>
       <c r="F173">
-        <v>93728300</v>
+        <v>246421400</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5303,22 +5303,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B174">
-        <v>217.3384239953892</v>
+        <v>207.4798404499802</v>
       </c>
       <c r="C174">
-        <v>218.3772301073396</v>
+        <v>212.454078428602</v>
       </c>
       <c r="D174">
-        <v>212.7537345013344</v>
+        <v>206.3511420510979</v>
       </c>
       <c r="E174">
-        <v>214.042236328125</v>
+        <v>207.8993530273438</v>
       </c>
       <c r="F174">
-        <v>79943300</v>
+        <v>80727000</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B175">
-        <v>213.6826627606623</v>
+        <v>208.9081869431628</v>
       </c>
       <c r="C175">
-        <v>213.9923171643283</v>
+        <v>211.1356197216104</v>
       </c>
       <c r="D175">
-        <v>208.6085492903026</v>
+        <v>208.3688179655891</v>
       </c>
       <c r="E175">
-        <v>209.4375762939453</v>
+        <v>208.8282928466797</v>
       </c>
       <c r="F175">
-        <v>86172500</v>
+        <v>56713900</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5355,22 +5355,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B176">
-        <v>210.1467632247673</v>
+        <v>211.2554717695587</v>
       </c>
       <c r="C176">
-        <v>211.6450290442056</v>
+        <v>214.6115876754019</v>
       </c>
       <c r="D176">
-        <v>206.8705565188874</v>
+        <v>210.3964654591004</v>
       </c>
       <c r="E176">
-        <v>207.2501220703125</v>
+        <v>213.0034484863281</v>
       </c>
       <c r="F176">
-        <v>246421400</v>
+        <v>66213200</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5381,22 +5381,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B177">
-        <v>207.4798404499802</v>
+        <v>214.4417922510153</v>
       </c>
       <c r="C177">
-        <v>212.454078428602</v>
+        <v>215.4905813596252</v>
       </c>
       <c r="D177">
-        <v>206.3511420510979</v>
+        <v>212.1045012600432</v>
       </c>
       <c r="E177">
-        <v>207.8993530273438</v>
+        <v>213.8524780273438</v>
       </c>
       <c r="F177">
-        <v>80727000</v>
+        <v>49772700</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -5407,22 +5407,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B178">
-        <v>208.9081869431628</v>
+        <v>215.5205349107231</v>
       </c>
       <c r="C178">
-        <v>211.1356197216104</v>
+        <v>215.8201911043989</v>
       </c>
       <c r="D178">
-        <v>208.3688179655891</v>
+        <v>210.0568580061261</v>
       </c>
       <c r="E178">
-        <v>208.8282928466797</v>
+        <v>210.3764801025391</v>
       </c>
       <c r="F178">
-        <v>56713900</v>
+        <v>82542700</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5433,22 +5433,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B179">
-        <v>211.2554717695587</v>
+        <v>211.8447888993273</v>
       </c>
       <c r="C179">
-        <v>214.6115876754019</v>
+        <v>217.2585207478851</v>
       </c>
       <c r="D179">
-        <v>210.3964654591004</v>
+        <v>211.6749872734358</v>
       </c>
       <c r="E179">
-        <v>213.0034484863281</v>
+        <v>216.4994049072266</v>
       </c>
       <c r="F179">
-        <v>66213200</v>
+        <v>60402900</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5459,22 +5459,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B180">
-        <v>214.4417922510153</v>
+        <v>215.9000881322941</v>
       </c>
       <c r="C180">
-        <v>215.4905813596252</v>
+        <v>220.1252085141442</v>
       </c>
       <c r="D180">
-        <v>212.1045012600432</v>
+        <v>214.8513143018939</v>
       </c>
       <c r="E180">
-        <v>213.8524780273438</v>
+        <v>220.0153350830078</v>
       </c>
       <c r="F180">
-        <v>49772700</v>
+        <v>58046200</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5485,22 +5485,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B181">
-        <v>215.5205349107231</v>
+        <v>219.7456427738116</v>
       </c>
       <c r="C181">
-        <v>215.8201911043989</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="D181">
-        <v>210.0568580061261</v>
+        <v>218.7767630386535</v>
       </c>
       <c r="E181">
-        <v>210.3764801025391</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="F181">
-        <v>82542700</v>
+        <v>37369800</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B182">
-        <v>211.8447888993273</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="C182">
-        <v>217.2585207478851</v>
+        <v>226.1881815360653</v>
       </c>
       <c r="D182">
-        <v>211.6749872734358</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="E182">
-        <v>216.4994049072266</v>
+        <v>226.0783081054688</v>
       </c>
       <c r="F182">
-        <v>60402900</v>
+        <v>60412400</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5537,22 +5537,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B183">
-        <v>215.9000881322941</v>
+        <v>226.8274431332781</v>
       </c>
       <c r="C183">
-        <v>220.1252085141442</v>
+        <v>227.5865742032198</v>
       </c>
       <c r="D183">
-        <v>214.8513143018939</v>
+        <v>222.9918864596637</v>
       </c>
       <c r="E183">
-        <v>220.0153350830078</v>
+        <v>227.5566101074219</v>
       </c>
       <c r="F183">
-        <v>58046200</v>
+        <v>59085900</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5563,22 +5563,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B184">
-        <v>219.7456427738116</v>
+        <v>227.6664707523748</v>
       </c>
       <c r="C184">
-        <v>221.2938537597656</v>
+        <v>229.1347724268948</v>
       </c>
       <c r="D184">
-        <v>218.7767630386535</v>
+        <v>226.1082767894919</v>
       </c>
       <c r="E184">
-        <v>221.2938537597656</v>
+        <v>228.4156036376953</v>
       </c>
       <c r="F184">
-        <v>37369800</v>
+        <v>48076100</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B185">
-        <v>221.3937281190806</v>
+        <v>229.0348943285368</v>
       </c>
       <c r="C185">
-        <v>226.1881815360653</v>
+        <v>232.8105228041406</v>
       </c>
       <c r="D185">
-        <v>221.3937281190806</v>
+        <v>228.9849490885758</v>
       </c>
       <c r="E185">
-        <v>226.0783081054688</v>
+        <v>232.7106323242188</v>
       </c>
       <c r="F185">
-        <v>60412400</v>
+        <v>62627700</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5615,22 +5615,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B186">
-        <v>226.8274431332781</v>
+        <v>231.1224755684865</v>
       </c>
       <c r="C186">
-        <v>227.5865742032198</v>
+        <v>232.1213194086617</v>
       </c>
       <c r="D186">
-        <v>222.9918864596637</v>
+        <v>225.5089780638693</v>
       </c>
       <c r="E186">
-        <v>227.5566101074219</v>
+        <v>227.3069000244141</v>
       </c>
       <c r="F186">
-        <v>59085900</v>
+        <v>64710600</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5641,22 +5641,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B187">
-        <v>227.6664707523748</v>
+        <v>228.6553306110013</v>
       </c>
       <c r="C187">
-        <v>229.1347724268948</v>
+        <v>232.3710309246342</v>
       </c>
       <c r="D187">
-        <v>226.1082767894919</v>
+        <v>228.4156026019726</v>
       </c>
       <c r="E187">
-        <v>228.4156036376953</v>
+        <v>230.2734527587891</v>
       </c>
       <c r="F187">
-        <v>48076100</v>
+        <v>53046500</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5667,22 +5667,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B188">
-        <v>229.0348943285368</v>
+        <v>236.2065948881155</v>
       </c>
       <c r="C188">
-        <v>232.8105228041406</v>
+        <v>236.955727793083</v>
       </c>
       <c r="D188">
-        <v>228.9849490885758</v>
+        <v>232.8205147673081</v>
       </c>
       <c r="E188">
-        <v>232.7106323242188</v>
+        <v>234.1289978027344</v>
       </c>
       <c r="F188">
-        <v>62627700</v>
+        <v>62631300</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B189">
-        <v>231.1224755684865</v>
+        <v>234.7283075285961</v>
       </c>
       <c r="C189">
-        <v>232.1213194086617</v>
+        <v>235.9968435006337</v>
       </c>
       <c r="D189">
-        <v>225.5089780638693</v>
+        <v>232.0613962464642</v>
       </c>
       <c r="E189">
-        <v>227.3069000244141</v>
+        <v>234.5485229492188</v>
       </c>
       <c r="F189">
-        <v>64710600</v>
+        <v>43234300</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -5719,22 +5719,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B190">
-        <v>228.6553306110013</v>
+        <v>229.1847200362218</v>
       </c>
       <c r="C190">
-        <v>232.3710309246342</v>
+        <v>231.1924059439656</v>
       </c>
       <c r="D190">
-        <v>228.4156026019726</v>
+        <v>226.3779712354622</v>
       </c>
       <c r="E190">
-        <v>230.2734527587891</v>
+        <v>228.6153869628906</v>
       </c>
       <c r="F190">
-        <v>53046500</v>
+        <v>57345900</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -5745,22 +5745,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B191">
-        <v>236.2065948881155</v>
+        <v>230.0137604637082</v>
       </c>
       <c r="C191">
-        <v>236.955727793083</v>
+        <v>230.1735791375176</v>
       </c>
       <c r="D191">
-        <v>232.8205147673081</v>
+        <v>222.0130267153258</v>
       </c>
       <c r="E191">
-        <v>234.1289978027344</v>
+        <v>223.9208068847656</v>
       </c>
       <c r="F191">
-        <v>62631300</v>
+        <v>66034600</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5771,22 +5771,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B192">
-        <v>234.7283075285961</v>
+        <v>224.5600792921215</v>
       </c>
       <c r="C192">
-        <v>235.9968435006337</v>
+        <v>226.5377858266339</v>
       </c>
       <c r="D192">
-        <v>232.0613962464642</v>
+        <v>223.021851244386</v>
       </c>
       <c r="E192">
-        <v>234.5485229492188</v>
+        <v>224.0506591796875</v>
       </c>
       <c r="F192">
-        <v>43234300</v>
+        <v>49151500</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B193">
-        <v>229.1847200362218</v>
+        <v>226.7475419395334</v>
       </c>
       <c r="C193">
-        <v>231.1924059439656</v>
+        <v>227.5166559886428</v>
       </c>
       <c r="D193">
-        <v>226.3779712354622</v>
+        <v>222.8320757894778</v>
       </c>
       <c r="E193">
-        <v>228.6153869628906</v>
+        <v>223.7010803222656</v>
       </c>
       <c r="F193">
-        <v>57345900</v>
+        <v>48201800</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5823,22 +5823,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B194">
-        <v>230.0137604637082</v>
+        <v>224.1105879628454</v>
       </c>
       <c r="C194">
-        <v>230.1735791375176</v>
+        <v>226.6776239526561</v>
       </c>
       <c r="D194">
-        <v>222.0130267153258</v>
+        <v>222.4225394312029</v>
       </c>
       <c r="E194">
-        <v>223.9208068847656</v>
+        <v>224.7498474121094</v>
       </c>
       <c r="F194">
-        <v>66034600</v>
+        <v>39960300</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5849,22 +5849,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B195">
-        <v>224.5600792921215</v>
+        <v>223.7410169933649</v>
       </c>
       <c r="C195">
-        <v>226.5377858266339</v>
+        <v>224.540095102285</v>
       </c>
       <c r="D195">
-        <v>223.021851244386</v>
+        <v>216.8789647868516</v>
       </c>
       <c r="E195">
-        <v>224.0506591796875</v>
+        <v>218.2873229980469</v>
       </c>
       <c r="F195">
-        <v>49151500</v>
+        <v>61777600</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5875,22 +5875,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B196">
-        <v>226.7475419395334</v>
+        <v>218.6768782594705</v>
       </c>
       <c r="C196">
-        <v>227.5166559886428</v>
+        <v>220.5946718767891</v>
       </c>
       <c r="D196">
-        <v>222.8320757894778</v>
+        <v>214.3718636751281</v>
       </c>
       <c r="E196">
-        <v>223.7010803222656</v>
+        <v>217.2385559082031</v>
       </c>
       <c r="F196">
-        <v>48201800</v>
+        <v>51391200</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5901,22 +5901,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B197">
-        <v>224.1105879628454</v>
+        <v>218.4471424920927</v>
       </c>
       <c r="C197">
-        <v>226.6776239526561</v>
+        <v>219.2362376525438</v>
       </c>
       <c r="D197">
-        <v>222.4225394312029</v>
+        <v>215.7602501518015</v>
       </c>
       <c r="E197">
-        <v>224.7498474121094</v>
+        <v>217.7080078125</v>
       </c>
       <c r="F197">
-        <v>39960300</v>
+        <v>41601300</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5927,22 +5927,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B198">
-        <v>223.7410169933649</v>
+        <v>216.7091672552843</v>
       </c>
       <c r="C198">
-        <v>224.540095102285</v>
+        <v>219.04645819404</v>
       </c>
       <c r="D198">
-        <v>216.8789647868516</v>
+        <v>215.5005594970752</v>
       </c>
       <c r="E198">
-        <v>218.2873229980469</v>
+        <v>217.9876861572266</v>
       </c>
       <c r="F198">
-        <v>61777600</v>
+        <v>36311800</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B199">
-        <v>218.6768782594705</v>
+        <v>218.9365913481919</v>
       </c>
       <c r="C199">
-        <v>220.5946718767891</v>
+        <v>220.0752727557774</v>
       </c>
       <c r="D199">
-        <v>214.3718636751281</v>
+        <v>215.8701333369141</v>
       </c>
       <c r="E199">
-        <v>217.2385559082031</v>
+        <v>218.5470428466797</v>
       </c>
       <c r="F199">
-        <v>51391200</v>
+        <v>41643800</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5979,22 +5979,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B200">
-        <v>218.4471424920927</v>
+        <v>221.1839827384757</v>
       </c>
       <c r="C200">
-        <v>219.2362376525438</v>
+        <v>223.5612359588227</v>
       </c>
       <c r="D200">
-        <v>215.7602501518015</v>
+        <v>220.3749216653048</v>
       </c>
       <c r="E200">
-        <v>217.7080078125</v>
+        <v>221.8232421875</v>
       </c>
       <c r="F200">
-        <v>41601300</v>
+        <v>50036300</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B201">
-        <v>216.7091672552843</v>
+        <v>224.110590003871</v>
       </c>
       <c r="C201">
-        <v>219.04645819404</v>
+        <v>224.2204634371427</v>
       </c>
       <c r="D201">
-        <v>215.5005594970752</v>
+        <v>216.7690968426558</v>
       </c>
       <c r="E201">
-        <v>217.9876861572266</v>
+        <v>218.1075439453125</v>
       </c>
       <c r="F201">
-        <v>36311800</v>
+        <v>62501000</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B202">
-        <v>218.9365913481919</v>
+        <v>218.8966186199893</v>
       </c>
       <c r="C202">
-        <v>220.0752727557774</v>
+        <v>225.3391734979224</v>
       </c>
       <c r="D202">
-        <v>215.8701333369141</v>
+        <v>217.4582963114799</v>
       </c>
       <c r="E202">
-        <v>218.5470428466797</v>
+        <v>219.6058044433594</v>
       </c>
       <c r="F202">
-        <v>41643800</v>
+        <v>105568600</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B203">
-        <v>221.1839827384757</v>
+        <v>198.8598223925161</v>
       </c>
       <c r="C203">
-        <v>223.5612359588227</v>
+        <v>213.2531662150716</v>
       </c>
       <c r="D203">
-        <v>220.3749216653048</v>
+        <v>195.7733984925247</v>
       </c>
       <c r="E203">
-        <v>221.8232421875</v>
+        <v>209.0280609130859</v>
       </c>
       <c r="F203">
-        <v>50036300</v>
+        <v>119548600</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6083,22 +6083,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B204">
-        <v>224.110590003871</v>
+        <v>205.0626409492715</v>
       </c>
       <c r="C204">
-        <v>224.2204634371427</v>
+        <v>209.7472209414639</v>
       </c>
       <c r="D204">
-        <v>216.7690968426558</v>
+        <v>200.8375358240923</v>
       </c>
       <c r="E204">
-        <v>218.1075439453125</v>
+        <v>206.9904022216797</v>
       </c>
       <c r="F204">
-        <v>62501000</v>
+        <v>69660500</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B205">
-        <v>218.8966186199893</v>
+        <v>206.660785653003</v>
       </c>
       <c r="C205">
-        <v>225.3391734979224</v>
+        <v>213.3929986622491</v>
       </c>
       <c r="D205">
-        <v>217.4582963114799</v>
+        <v>206.1513807783264</v>
       </c>
       <c r="E205">
-        <v>219.6058044433594</v>
+        <v>209.5774230957031</v>
       </c>
       <c r="F205">
-        <v>105568600</v>
+        <v>63516400</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -6135,22 +6135,22 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B206">
-        <v>198.8598223925161</v>
+        <v>212.8636192825526</v>
       </c>
       <c r="C206">
-        <v>213.2531662150716</v>
+        <v>213.9523554508395</v>
       </c>
       <c r="D206">
-        <v>195.7733984925247</v>
+        <v>208.5885687073719</v>
       </c>
       <c r="E206">
-        <v>209.0280609130859</v>
+        <v>213.0633850097656</v>
       </c>
       <c r="F206">
-        <v>119548600</v>
+        <v>47161100</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6161,22 +6161,22 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B207">
-        <v>205.0626409492715</v>
+        <v>211.8547924511901</v>
       </c>
       <c r="C207">
-        <v>209.7472209414639</v>
+        <v>216.5293744807485</v>
       </c>
       <c r="D207">
-        <v>200.8375358240923</v>
+        <v>211.7249378699863</v>
       </c>
       <c r="E207">
-        <v>206.9904022216797</v>
+        <v>215.9900054931641</v>
       </c>
       <c r="F207">
-        <v>69660500</v>
+        <v>42201600</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -6187,25 +6187,25 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B208">
-        <v>206.660785653003</v>
+        <v>216.0700073242188</v>
       </c>
       <c r="C208">
-        <v>213.3929986622491</v>
+        <v>219.5099945068359</v>
       </c>
       <c r="D208">
-        <v>206.1513807783264</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E208">
-        <v>209.5774230957031</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="F208">
-        <v>63516400</v>
+        <v>38028100</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6213,22 +6213,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B209">
-        <v>212.8636192825526</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="C209">
-        <v>213.9523554508395</v>
+        <v>221.8899993896484</v>
       </c>
       <c r="D209">
-        <v>208.5885687073719</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="E209">
-        <v>213.0633850097656</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="F209">
-        <v>47161100</v>
+        <v>44155300</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6239,22 +6239,22 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B210">
-        <v>211.8547924511901</v>
+        <v>220.5700073242188</v>
       </c>
       <c r="C210">
-        <v>216.5293744807485</v>
+        <v>223.0299987792969</v>
       </c>
       <c r="D210">
-        <v>211.7249378699863</v>
+        <v>219.6999969482422</v>
       </c>
       <c r="E210">
-        <v>215.9900054931641</v>
+        <v>221.7200012207031</v>
       </c>
       <c r="F210">
-        <v>42201600</v>
+        <v>41960600</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -6265,25 +6265,25 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B211">
-        <v>216.0700073242188</v>
+        <v>224.6000061035156</v>
       </c>
       <c r="C211">
-        <v>219.5099945068359</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="D211">
-        <v>215.6000061035156</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E211">
-        <v>217.5299987792969</v>
+        <v>224.7200012207031</v>
       </c>
       <c r="F211">
-        <v>38028100</v>
+        <v>46414000</v>
       </c>
       <c r="G211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -6291,22 +6291,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B212">
-        <v>219.0099945068359</v>
+        <v>223.9199981689453</v>
       </c>
       <c r="C212">
-        <v>221.8899993896484</v>
+        <v>226.8300018310547</v>
       </c>
       <c r="D212">
-        <v>219.0099945068359</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="E212">
-        <v>221.2700042724609</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F212">
-        <v>44155300</v>
+        <v>44340200</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6317,22 +6317,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B213">
-        <v>220.5700073242188</v>
+        <v>225.7200012207031</v>
       </c>
       <c r="C213">
-        <v>223.0299987792969</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="D213">
-        <v>219.6999969482422</v>
+        <v>223.0399932861328</v>
       </c>
       <c r="E213">
-        <v>221.7200012207031</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="F213">
-        <v>41960600</v>
+        <v>40687800</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B214">
-        <v>224.6000061035156</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="C214">
-        <v>225.3500061035156</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D214">
-        <v>222.7599945068359</v>
+        <v>225.4499969482422</v>
       </c>
       <c r="E214">
-        <v>224.7200012207031</v>
+        <v>226.5099945068359</v>
       </c>
       <c r="F214">
-        <v>46414000</v>
+        <v>30299000</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -6369,22 +6369,22 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B215">
-        <v>223.9199981689453</v>
+        <v>226.5200042724609</v>
       </c>
       <c r="C215">
-        <v>226.8300018310547</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="D215">
-        <v>223.6499938964844</v>
+        <v>225.0500030517578</v>
       </c>
       <c r="E215">
-        <v>226.0500030517578</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="F215">
-        <v>44340200</v>
+        <v>34765500</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6395,22 +6395,22 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B216">
-        <v>225.7200012207031</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="C216">
-        <v>225.9900054931641</v>
+        <v>228.3399963378906</v>
       </c>
       <c r="D216">
-        <v>223.0399932861328</v>
+        <v>223.8999938964844</v>
       </c>
       <c r="E216">
-        <v>225.8899993896484</v>
+        <v>224.5299987792969</v>
       </c>
       <c r="F216">
-        <v>40687800</v>
+        <v>43695300</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B217">
-        <v>225.7700042724609</v>
+        <v>225.6600036621094</v>
       </c>
       <c r="C217">
-        <v>227.1699981689453</v>
+        <v>228.2200012207031</v>
       </c>
       <c r="D217">
-        <v>225.4499969482422</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="E217">
-        <v>226.5099945068359</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F217">
-        <v>30299000</v>
+        <v>38677300</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6447,22 +6447,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B218">
-        <v>226.5200042724609</v>
+        <v>226.7599945068359</v>
       </c>
       <c r="C218">
-        <v>227.9799957275391</v>
+        <v>227.2799987792969</v>
       </c>
       <c r="D218">
-        <v>225.0500030517578</v>
+        <v>223.8899993896484</v>
       </c>
       <c r="E218">
-        <v>226.3999938964844</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="F218">
-        <v>34765500</v>
+        <v>30602200</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6473,22 +6473,22 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B219">
-        <v>227.7899932861328</v>
+        <v>226</v>
       </c>
       <c r="C219">
-        <v>228.3399963378906</v>
+        <v>228.8500061035156</v>
       </c>
       <c r="D219">
-        <v>223.8999938964844</v>
+        <v>224.8899993896484</v>
       </c>
       <c r="E219">
-        <v>224.5299987792969</v>
+        <v>228.0299987792969</v>
       </c>
       <c r="F219">
-        <v>43695300</v>
+        <v>35934600</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -6499,22 +6499,22 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B220">
-        <v>225.6600036621094</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="C220">
-        <v>228.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="D220">
-        <v>224.3300018310547</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="E220">
-        <v>226.8399963378906</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="F220">
-        <v>38677300</v>
+        <v>38052200</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -6525,22 +6525,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B221">
-        <v>226.7599945068359</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="C221">
-        <v>227.2799987792969</v>
+        <v>232.9199981689453</v>
       </c>
       <c r="D221">
-        <v>223.8899993896484</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E221">
-        <v>227.1799926757812</v>
+        <v>229.7899932861328</v>
       </c>
       <c r="F221">
-        <v>30602200</v>
+        <v>51906300</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6551,22 +6551,22 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B222">
-        <v>226</v>
+        <v>230.1900024414062</v>
       </c>
       <c r="C222">
-        <v>228.8500061035156</v>
+        <v>230.3999938964844</v>
       </c>
       <c r="D222">
-        <v>224.8899993896484</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="E222">
-        <v>228.0299987792969</v>
+        <v>229</v>
       </c>
       <c r="F222">
-        <v>35934600</v>
+        <v>52990800</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B223">
-        <v>227.9199981689453</v>
+        <v>228.5500030517578</v>
       </c>
       <c r="C223">
-        <v>229.8600006103516</v>
+        <v>229</v>
       </c>
       <c r="D223">
-        <v>225.6799926757812</v>
+        <v>221.1699981689453</v>
       </c>
       <c r="E223">
-        <v>226.4900054931641</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F223">
-        <v>38052200</v>
+        <v>50190600</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6603,22 +6603,22 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B224">
-        <v>230.1000061035156</v>
+        <v>221.6600036621094</v>
       </c>
       <c r="C224">
-        <v>232.9199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="D224">
-        <v>228.8800048828125</v>
+        <v>217.4799957275391</v>
       </c>
       <c r="E224">
-        <v>229.7899932861328</v>
+        <v>220.8500061035156</v>
       </c>
       <c r="F224">
-        <v>51906300</v>
+        <v>43840200</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6629,22 +6629,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B225">
-        <v>230.1900024414062</v>
+        <v>221.6300048828125</v>
       </c>
       <c r="C225">
-        <v>230.3999938964844</v>
+        <v>225.4799957275391</v>
       </c>
       <c r="D225">
-        <v>227.4799957275391</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E225">
-        <v>229</v>
+        <v>222.3800048828125</v>
       </c>
       <c r="F225">
-        <v>52990800</v>
+        <v>36615400</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B226">
-        <v>228.5500030517578</v>
+        <v>223.9499969482422</v>
       </c>
       <c r="C226">
-        <v>229</v>
+        <v>225.2400054931641</v>
       </c>
       <c r="D226">
-        <v>221.1699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="E226">
-        <v>222.7700042724609</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="F226">
-        <v>50190600</v>
+        <v>48423000</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6681,22 +6681,22 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B227">
-        <v>221.6600036621094</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="C227">
-        <v>221.7799987792969</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="D227">
-        <v>217.4799957275391</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="E227">
-        <v>220.8500061035156</v>
+        <v>220.9100036621094</v>
       </c>
       <c r="F227">
-        <v>43840200</v>
+        <v>67180000</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B228">
-        <v>221.6300048828125</v>
+        <v>218.9199981689453</v>
       </c>
       <c r="C228">
-        <v>225.4799957275391</v>
+        <v>221.4799957275391</v>
       </c>
       <c r="D228">
-        <v>221.5200042724609</v>
+        <v>216.7299957275391</v>
       </c>
       <c r="E228">
-        <v>222.3800048828125</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="F228">
-        <v>36615400</v>
+        <v>51591000</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6733,22 +6733,22 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B229">
-        <v>223.9499969482422</v>
+        <v>221.4600067138672</v>
       </c>
       <c r="C229">
-        <v>225.2400054931641</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="D229">
-        <v>219.7700042724609</v>
+        <v>217.8899993896484</v>
       </c>
       <c r="E229">
-        <v>220.8200073242188</v>
+        <v>222.6600036621094</v>
       </c>
       <c r="F229">
-        <v>48423000</v>
+        <v>44587100</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6759,22 +6759,22 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B230">
-        <v>220.8200073242188</v>
+        <v>222.5</v>
       </c>
       <c r="C230">
-        <v>221.2700042724609</v>
+        <v>223.5500030517578</v>
       </c>
       <c r="D230">
-        <v>216.7100067138672</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="E230">
-        <v>220.9100036621094</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F230">
-        <v>67180000</v>
+        <v>37498200</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B231">
-        <v>218.9199981689453</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="C231">
-        <v>221.4799957275391</v>
+        <v>224.0399932861328</v>
       </c>
       <c r="D231">
-        <v>216.7299957275391</v>
+        <v>221.9100036621094</v>
       </c>
       <c r="E231">
-        <v>220.1100006103516</v>
+        <v>222.5</v>
       </c>
       <c r="F231">
-        <v>51591000</v>
+        <v>36766600</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6811,22 +6811,22 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B232">
-        <v>221.4600067138672</v>
+        <v>216.5399932861328</v>
       </c>
       <c r="C232">
-        <v>223.0899963378906</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D232">
-        <v>217.8899993896484</v>
+        <v>213.9199981689453</v>
       </c>
       <c r="E232">
-        <v>222.6600036621094</v>
+        <v>216.3200073242188</v>
       </c>
       <c r="F232">
-        <v>44587100</v>
+        <v>59357400</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6837,22 +6837,22 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B233">
-        <v>222.5</v>
+        <v>215.75</v>
       </c>
       <c r="C233">
-        <v>223.5500030517578</v>
+        <v>216.8999938964844</v>
       </c>
       <c r="D233">
-        <v>219.8200073242188</v>
+        <v>214.5</v>
       </c>
       <c r="E233">
-        <v>222.7700042724609</v>
+        <v>216.7899932861328</v>
       </c>
       <c r="F233">
-        <v>37498200</v>
+        <v>45519300</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6863,22 +6863,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B234">
-        <v>223.5800018310547</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C234">
-        <v>224.0399932861328</v>
+        <v>222.7100067138672</v>
       </c>
       <c r="D234">
-        <v>221.9100036621094</v>
+        <v>217.5399932861328</v>
       </c>
       <c r="E234">
-        <v>222.5</v>
+        <v>220.6900024414062</v>
       </c>
       <c r="F234">
-        <v>36766600</v>
+        <v>59894900</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6889,22 +6889,22 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B235">
-        <v>216.5399932861328</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="C235">
-        <v>217.2200012207031</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="D235">
-        <v>213.9199981689453</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="E235">
-        <v>216.3200073242188</v>
+        <v>228.8699951171875</v>
       </c>
       <c r="F235">
-        <v>59357400</v>
+        <v>66781300</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6915,22 +6915,22 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B236">
-        <v>215.75</v>
+        <v>229.9700012207031</v>
       </c>
       <c r="C236">
-        <v>216.8999938964844</v>
+        <v>233.0899963378906</v>
       </c>
       <c r="D236">
-        <v>214.5</v>
+        <v>227.6199951171875</v>
       </c>
       <c r="E236">
-        <v>216.7899932861328</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F236">
-        <v>45519300</v>
+        <v>318679900</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6941,22 +6941,22 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B237">
-        <v>217.5500030517578</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="C237">
-        <v>222.7100067138672</v>
+        <v>229.4499969482422</v>
       </c>
       <c r="D237">
-        <v>217.5399932861328</v>
+        <v>225.8099975585938</v>
       </c>
       <c r="E237">
-        <v>220.6900024414062</v>
+        <v>226.4700012207031</v>
       </c>
       <c r="F237">
-        <v>59894900</v>
+        <v>54146000</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6967,22 +6967,22 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B238">
-        <v>224.9900054931641</v>
+        <v>228.6499938964844</v>
       </c>
       <c r="C238">
-        <v>229.8200073242188</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="D238">
-        <v>224.6300048828125</v>
+        <v>225.7299957275391</v>
       </c>
       <c r="E238">
-        <v>228.8699951171875</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="F238">
-        <v>66781300</v>
+        <v>43556100</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B239">
-        <v>229.9700012207031</v>
+        <v>224.9299926757812</v>
       </c>
       <c r="C239">
-        <v>233.0899963378906</v>
+        <v>227.2899932861328</v>
       </c>
       <c r="D239">
-        <v>227.6199951171875</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="E239">
-        <v>228.1999969482422</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="F239">
-        <v>318679900</v>
+        <v>42308700</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7019,22 +7019,22 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B240">
-        <v>227.3399963378906</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="C240">
-        <v>229.4499969482422</v>
+        <v>228.5</v>
       </c>
       <c r="D240">
-        <v>225.8099975585938</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="E240">
-        <v>226.4700012207031</v>
+        <v>227.5200042724609</v>
       </c>
       <c r="F240">
-        <v>54146000</v>
+        <v>36636700</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B241">
-        <v>228.6499938964844</v>
+        <v>228.4600067138672</v>
       </c>
       <c r="C241">
-        <v>229.3500061035156</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="D241">
-        <v>225.7299957275391</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="E241">
-        <v>227.3699951171875</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="F241">
-        <v>43556100</v>
+        <v>34026000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7071,22 +7071,22 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B242">
-        <v>224.9299926757812</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="C242">
-        <v>227.2899932861328</v>
+        <v>233</v>
       </c>
       <c r="D242">
-        <v>224.0200042724609</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="E242">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="F242">
-        <v>42308700</v>
+        <v>54541900</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7097,22 +7097,22 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B243">
-        <v>227.3000030517578</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="C243">
-        <v>228.5</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D243">
-        <v>225.4100036621094</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="E243">
-        <v>227.5200042724609</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="F243">
-        <v>36636700</v>
+        <v>63285000</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7123,22 +7123,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B244">
-        <v>228.4600067138672</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="C244">
-        <v>229.5200042724609</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="D244">
-        <v>227.3000030517578</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="E244">
-        <v>227.7899932861328</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="F244">
-        <v>34026000</v>
+        <v>32880600</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7149,22 +7149,22 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B245">
-        <v>230.0399932861328</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="C245">
-        <v>233</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="D245">
-        <v>229.6499938964844</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="E245">
-        <v>233</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="F245">
-        <v>54541900</v>
+        <v>34044200</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7175,22 +7175,22 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B246">
-        <v>229.5200042724609</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="C246">
-        <v>229.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="D246">
-        <v>223.7400054931641</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="E246">
-        <v>226.2100067138672</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F246">
-        <v>63285000</v>
+        <v>37245100</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7201,22 +7201,22 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B247">
-        <v>225.8899993896484</v>
+        <v>224.5</v>
       </c>
       <c r="C247">
-        <v>227.3699951171875</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="D247">
-        <v>223.0200042724609</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="E247">
-        <v>226.7799987792969</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="F247">
-        <v>32880600</v>
+        <v>39505400</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7227,22 +7227,22 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B248">
-        <v>225.1399993896484</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="C248">
-        <v>226.8099975585938</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="D248">
-        <v>223.3200073242188</v>
+        <v>223.25</v>
       </c>
       <c r="E248">
-        <v>225.6699981689453</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="F248">
-        <v>34044200</v>
+        <v>31855700</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7253,22 +7253,22 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B249">
-        <v>227.8999938964844</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="C249">
-        <v>228</v>
+        <v>229.75</v>
       </c>
       <c r="D249">
-        <v>224.1300048828125</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="E249">
-        <v>226.8000030517578</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="F249">
-        <v>37245100</v>
+        <v>33591100</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B250">
-        <v>224.5</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="C250">
-        <v>225.6900024414062</v>
+        <v>229.5</v>
       </c>
       <c r="D250">
-        <v>221.3300018310547</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="E250">
-        <v>221.6900024414062</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="F250">
-        <v>39505400</v>
+        <v>28183500</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7305,22 +7305,22 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B251">
-        <v>224.3000030517578</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="C251">
-        <v>225.9799957275391</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="D251">
-        <v>223.25</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="E251">
-        <v>225.7700042724609</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F251">
-        <v>31855700</v>
+        <v>31759200</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7331,22 +7331,22 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B252">
-        <v>225.2299957275391</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="C252">
-        <v>229.75</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="D252">
-        <v>224.8300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="E252">
-        <v>229.5399932861328</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="F252">
-        <v>33591100</v>
+        <v>39882100</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7357,22 +7357,22 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B253">
-        <v>227.7799987792969</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="C253">
-        <v>229.5</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="D253">
-        <v>227.1699981689453</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="E253">
-        <v>229.0399932861328</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="F253">
-        <v>28084100</v>
+        <v>64707600</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>34.86149</v>
+        <v>35.59361</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -7422,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>52.268368</v>
+        <v>53.366043</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7556,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.60978</v>
+        <v>0.60995</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>

--- a/financial_report/AAPL_financial_report.xlsx
+++ b/financial_report/AAPL_financial_report.xlsx
@@ -247,94 +247,94 @@
     <t>Published Time(New York time)</t>
   </si>
   <si>
-    <t>Veteran investor connects with Taiwan Semiconductor after sales</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/ac19825b-f138-31ac-ac76-a8584a352d61/veteran-investor-connects.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 20:03:00-04:00</t>
-  </si>
-  <si>
-    <t>Is Apple Inc. (NASDAQ:AAPL) The Most Popular Stock Among Mutual Funds According To Goldman Sachs?</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-inc-nasdaq-aapl-most-233941953.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:39:41-04:00</t>
-  </si>
-  <si>
-    <t>Jeff Bezos-Led Amazon Almost Ran Out Of Cash 24 Years Ago. At $400B, It Is Now Projected To Have As Much Cash As Apple And Microsoft Combined By 2027: Here's More</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/jeff-bezos-led-amazon-almost-232517745.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:25:17-04:00</t>
-  </si>
-  <si>
-    <t>Apple CEO Tim Cook Just Sold $50 Million of Stock. It’s Part of a Two-Year Plan.</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/f557d513-d02a-3627-981e-dcdc4cb43c05/apple-ceo-tim-cook-just-sold.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:51:00-04:00</t>
-  </si>
-  <si>
-    <t>Apple Stock Downgraded, Needs Time To 'Ripen'</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/1a30498f-9254-3e6b-96fd-2ad5d228d324/apple-stock-downgraded%2C-needs.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:34:26-04:00</t>
-  </si>
-  <si>
-    <t>Cramer On Apple Inc. (NASDAQ:AAPL): ‘Own It’</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/cramer-apple-inc-nasdaq-aapl-183313966.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 14:33:13-04:00</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Meets Sales Expectations as Base Models Face Softer Demand</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/iphone-16-pro-meets-sales-145320970.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:53:20-04:00</t>
-  </si>
-  <si>
-    <t>Apple TV+ Joins Prime Video as Add-on, Expanding Streaming Reach</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-tv-joins-prime-video-144927368.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:49:27-04:00</t>
+    <t>Apple Stock Closes Just Shy of a Record High. The iPhone Outlook Might Be Shifting.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f40382e1-332d-31b1-8848-823b7ca69565/apple-stock-closes-just-shy.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:33:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple Stock Rises to Fresh Record as Company Announces New iPad Mini</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f6afbc58-8e76-3fb9-9dfc-4f1cda5a63c3/apple-stock-rises-to-fresh.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:03:09-04:00</t>
+  </si>
+  <si>
+    <t>Jim Cramer Acknowledges Apple Inc (NASDAQ:AAPL) is Facing ‘Near-Term Headwinds’</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/jim-cramer-acknowledges-apple-inc-185035919.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 14:50:35-04:00</t>
+  </si>
+  <si>
+    <t>Nvidia Inches Closer to Overtaking Apple in Market Value</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/nvidia-inches-closer-overtaking-apple-172646458.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:46-04:00</t>
+  </si>
+  <si>
+    <t>Strong Demand for iPhone 16 Pro and Pro Max Drives Lead Times Up</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/strong-demand-iphone-16-pro-172622709.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:22-04:00</t>
+  </si>
+  <si>
+    <t>Apple Launches AI-Enhanced iPad Mini with A17 Pro</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/apple-launches-ai-enhanced-ipad-172521792.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:25:21-04:00</t>
+  </si>
+  <si>
+    <t>Bill Gates Saved 'Rival' Apple From Bankruptcy By Investing $150 Million – Steve Jobs Thanked Him Publicly: 'The World's A Better Place'</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/bill-gates-saved-rival-apple-171536207.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:15:36-04:00</t>
+  </si>
+  <si>
+    <t>Apple stock hits record intraday high, first since July</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/video/apple-stock-hits-record-intraday-164332498.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 12:43:32-04:00</t>
   </si>
   <si>
     <t>Sentiment in Last 1 Month</t>
   </si>
   <si>
-    <t>-0.2263</t>
+    <t>0.9378</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-09-16</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-16</t>
   </si>
 </sst>
 </file>
@@ -831,22 +831,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B2">
-        <v>177.2927679386093</v>
+        <v>175.8501629741456</v>
       </c>
       <c r="C2">
-        <v>178.934376778521</v>
+        <v>178.1683027292858</v>
       </c>
       <c r="D2">
-        <v>176.695831690455</v>
+        <v>175.6113793527165</v>
       </c>
       <c r="E2">
-        <v>178.8846282958984</v>
+        <v>177.8101348876953</v>
       </c>
       <c r="F2">
-        <v>47551100</v>
+        <v>52517000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -857,22 +857,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B3">
-        <v>179.1532521999006</v>
+        <v>175.7506534535302</v>
       </c>
       <c r="C3">
-        <v>181.4116844635542</v>
+        <v>177.5116464806958</v>
       </c>
       <c r="D3">
-        <v>178.1284820703454</v>
+        <v>173.9100810726771</v>
       </c>
       <c r="E3">
-        <v>179.7899932861328</v>
+        <v>176.2481079101562</v>
       </c>
       <c r="F3">
-        <v>56743100</v>
+        <v>57549400</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45212</v>
+        <v>45217</v>
       </c>
       <c r="B4">
-        <v>180.4963919203637</v>
+        <v>174.6861075919396</v>
       </c>
       <c r="C4">
-        <v>181.0037900534922</v>
+        <v>176.675925404563</v>
       </c>
       <c r="D4">
-        <v>177.2330915612987</v>
+        <v>174.2184991914847</v>
       </c>
       <c r="E4">
-        <v>177.9394836425781</v>
+        <v>174.9447784423828</v>
       </c>
       <c r="F4">
-        <v>51427100</v>
+        <v>54764400</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -909,22 +909,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45215</v>
+        <v>45218</v>
       </c>
       <c r="B5">
-        <v>175.8501629741456</v>
+        <v>175.1437758110054</v>
       </c>
       <c r="C5">
-        <v>178.1683027292858</v>
+        <v>176.934615069013</v>
       </c>
       <c r="D5">
-        <v>175.6113793527165</v>
+        <v>174.2981122593816</v>
       </c>
       <c r="E5">
-        <v>177.8101348876953</v>
+        <v>174.5667419433594</v>
       </c>
       <c r="F5">
-        <v>52517000</v>
+        <v>59302900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45216</v>
+        <v>45219</v>
       </c>
       <c r="B6">
-        <v>175.7506686692519</v>
+        <v>174.417484111903</v>
       </c>
       <c r="C6">
-        <v>177.5116618488765</v>
+        <v>174.5269247027163</v>
       </c>
       <c r="D6">
-        <v>173.9100961290501</v>
+        <v>171.7610790597315</v>
       </c>
       <c r="E6">
-        <v>176.2481231689453</v>
+        <v>171.9998626708984</v>
       </c>
       <c r="F6">
-        <v>57549400</v>
+        <v>64189300</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45217</v>
+        <v>45222</v>
       </c>
       <c r="B7">
-        <v>174.6861228281673</v>
+        <v>170.0398913855244</v>
       </c>
       <c r="C7">
-        <v>176.6759408143438</v>
+        <v>173.1241000054924</v>
       </c>
       <c r="D7">
-        <v>174.2185143869273</v>
+        <v>169.0648696893029</v>
       </c>
       <c r="E7">
-        <v>174.9447937011719</v>
+        <v>172.1192474365234</v>
       </c>
       <c r="F7">
-        <v>54764400</v>
+        <v>55980100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -987,22 +987,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45218</v>
+        <v>45223</v>
       </c>
       <c r="B8">
-        <v>175.1437451925509</v>
+        <v>172.1690081858866</v>
       </c>
       <c r="C8">
-        <v>176.9345841374857</v>
+        <v>172.7858469176048</v>
       </c>
       <c r="D8">
-        <v>174.298081788765</v>
+        <v>170.5771476884831</v>
       </c>
       <c r="E8">
-        <v>174.5667114257812</v>
+        <v>172.5570220947266</v>
       </c>
       <c r="F8">
-        <v>59302900</v>
+        <v>43816600</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B9">
-        <v>174.4174995851689</v>
+        <v>171.0049553797045</v>
       </c>
       <c r="C9">
-        <v>174.5269401856911</v>
+        <v>172.1789406551176</v>
       </c>
       <c r="D9">
-        <v>171.7610942973371</v>
+        <v>169.7812064394075</v>
       </c>
       <c r="E9">
-        <v>171.9998779296875</v>
+        <v>170.2289276123047</v>
       </c>
       <c r="F9">
-        <v>64189300</v>
+        <v>57157000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1039,22 +1039,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B10">
-        <v>170.0398913855244</v>
+        <v>169.5026540827369</v>
       </c>
       <c r="C10">
-        <v>173.1241000054924</v>
+        <v>170.5075219634054</v>
       </c>
       <c r="D10">
-        <v>169.0648696893029</v>
+        <v>164.826584471067</v>
       </c>
       <c r="E10">
-        <v>172.1192474365234</v>
+        <v>166.0403747558594</v>
       </c>
       <c r="F10">
-        <v>55980100</v>
+        <v>70625300</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45223</v>
+        <v>45226</v>
       </c>
       <c r="B11">
-        <v>172.1689929614087</v>
+        <v>166.060258117469</v>
       </c>
       <c r="C11">
-        <v>172.7858316385813</v>
+        <v>168.0998245212038</v>
       </c>
       <c r="D11">
-        <v>170.5771326047694</v>
+        <v>165.9806635789552</v>
       </c>
       <c r="E11">
-        <v>172.5570068359375</v>
+        <v>167.3635864257812</v>
       </c>
       <c r="F11">
-        <v>43816600</v>
+        <v>58499100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1091,22 +1091,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="B12">
-        <v>171.0049553797045</v>
+        <v>168.1595112598156</v>
       </c>
       <c r="C12">
-        <v>172.1789406551176</v>
+        <v>170.2985593825549</v>
       </c>
       <c r="D12">
-        <v>169.7812064394075</v>
+        <v>168.0102658119536</v>
       </c>
       <c r="E12">
-        <v>170.2289276123047</v>
+        <v>169.4230346679688</v>
       </c>
       <c r="F12">
-        <v>57157000</v>
+        <v>51131000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B13">
-        <v>169.5026229288052</v>
+        <v>168.4878353723724</v>
       </c>
       <c r="C13">
-        <v>170.5074906247829</v>
+        <v>170.0299320873337</v>
       </c>
       <c r="D13">
-        <v>164.8265541765789</v>
+        <v>167.0452052618256</v>
       </c>
       <c r="E13">
-        <v>166.0403442382812</v>
+        <v>169.9006042480469</v>
       </c>
       <c r="F13">
-        <v>70625300</v>
+        <v>44846000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="B14">
-        <v>166.060258117469</v>
+        <v>170.1294391217561</v>
       </c>
       <c r="C14">
-        <v>168.0998245212038</v>
+        <v>173.3429909433461</v>
       </c>
       <c r="D14">
-        <v>165.9806635789552</v>
+        <v>169.2539143431754</v>
       </c>
       <c r="E14">
-        <v>167.3635864257812</v>
+        <v>173.0843200683594</v>
       </c>
       <c r="F14">
-        <v>58499100</v>
+        <v>56934900</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1169,22 +1169,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B15">
-        <v>168.1595112598156</v>
+        <v>174.6264338574857</v>
       </c>
       <c r="C15">
-        <v>170.2985593825549</v>
+        <v>176.8749227570964</v>
       </c>
       <c r="D15">
-        <v>168.0102658119536</v>
+        <v>174.5667417458041</v>
       </c>
       <c r="E15">
-        <v>169.4230346679688</v>
+        <v>176.6660003662109</v>
       </c>
       <c r="F15">
-        <v>51131000</v>
+        <v>77334800</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1195,22 +1195,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="B16">
-        <v>168.4878353723724</v>
+        <v>173.3529371481461</v>
       </c>
       <c r="C16">
-        <v>170.0299320873337</v>
+        <v>175.9198040051291</v>
       </c>
       <c r="D16">
-        <v>167.0452052618256</v>
+        <v>172.4674688091219</v>
       </c>
       <c r="E16">
-        <v>169.9006042480469</v>
+        <v>175.7506561279297</v>
       </c>
       <c r="F16">
-        <v>44846000</v>
+        <v>79763700</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1221,22 +1221,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="B17">
-        <v>170.1294391217561</v>
+        <v>175.4820538657156</v>
       </c>
       <c r="C17">
-        <v>173.3429909433461</v>
+        <v>178.5165141637019</v>
       </c>
       <c r="D17">
-        <v>169.2539143431754</v>
+        <v>175.3129211578457</v>
       </c>
       <c r="E17">
-        <v>173.0843200683594</v>
+        <v>178.3175354003906</v>
       </c>
       <c r="F17">
-        <v>56934900</v>
+        <v>63841300</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B18">
-        <v>174.6264338574857</v>
+        <v>178.2677740070133</v>
       </c>
       <c r="C18">
-        <v>176.8749227570964</v>
+        <v>181.5111868204666</v>
       </c>
       <c r="D18">
-        <v>174.5667417458041</v>
+        <v>178.0588516340506</v>
       </c>
       <c r="E18">
-        <v>176.6660003662109</v>
+        <v>180.8943481445312</v>
       </c>
       <c r="F18">
-        <v>77334800</v>
+        <v>70530000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1273,22 +1273,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="B19">
-        <v>173.3529371481461</v>
+        <v>181.4216334683131</v>
       </c>
       <c r="C19">
-        <v>175.9198040051291</v>
+        <v>182.5160240861955</v>
       </c>
       <c r="D19">
-        <v>172.4674688091219</v>
+        <v>180.6654930322482</v>
       </c>
       <c r="E19">
-        <v>175.7506561279297</v>
+        <v>181.9588775634766</v>
       </c>
       <c r="F19">
-        <v>79763700</v>
+        <v>49340300</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1299,22 +1299,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="B20">
-        <v>175.4820388495612</v>
+        <v>182.0285414394597</v>
       </c>
       <c r="C20">
-        <v>178.516498887886</v>
+        <v>183.1826242411362</v>
       </c>
       <c r="D20">
-        <v>175.3129061561642</v>
+        <v>180.8843870806122</v>
       </c>
       <c r="E20">
-        <v>178.3175201416016</v>
+        <v>181.4813385009766</v>
       </c>
       <c r="F20">
-        <v>63841300</v>
+        <v>53763500</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1325,25 +1325,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="B21">
-        <v>178.2677890442457</v>
+        <v>183.2745364819835</v>
       </c>
       <c r="C21">
-        <v>181.5112021312872</v>
+        <v>185.8647137408318</v>
       </c>
       <c r="D21">
-        <v>178.05886665366</v>
+        <v>182.8361973888456</v>
       </c>
       <c r="E21">
-        <v>180.8943634033203</v>
+        <v>185.6953430175781</v>
       </c>
       <c r="F21">
-        <v>70530000</v>
+        <v>66133400</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1351,22 +1351,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B22">
-        <v>181.4216486820497</v>
+        <v>185.1175429542476</v>
       </c>
       <c r="C22">
-        <v>182.516039391706</v>
+        <v>185.3267405684616</v>
       </c>
       <c r="D22">
-        <v>180.665508182576</v>
+        <v>183.5136287071499</v>
       </c>
       <c r="E22">
-        <v>181.9588928222656</v>
+        <v>184.1013946533203</v>
       </c>
       <c r="F22">
-        <v>49340300</v>
+        <v>43627500</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1377,22 +1377,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B23">
-        <v>182.0285567442571</v>
+        <v>186.9904264331423</v>
       </c>
       <c r="C23">
-        <v>183.1826396429678</v>
+        <v>187.3988801404597</v>
       </c>
       <c r="D23">
-        <v>180.8844022892101</v>
+        <v>185.59572499487</v>
       </c>
       <c r="E23">
-        <v>181.4813537597656</v>
+        <v>186.7314147949219</v>
       </c>
       <c r="F23">
-        <v>53763500</v>
+        <v>60108400</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45240</v>
+        <v>45245</v>
       </c>
       <c r="B24">
-        <v>183.2745364819835</v>
+        <v>187.1398717761497</v>
       </c>
       <c r="C24">
-        <v>185.8647137408318</v>
+        <v>188.7836281572347</v>
       </c>
       <c r="D24">
-        <v>182.8361973888456</v>
+        <v>187.0701291024632</v>
       </c>
       <c r="E24">
-        <v>185.6953430175781</v>
+        <v>187.2992553710938</v>
       </c>
       <c r="F24">
-        <v>66133400</v>
+        <v>53790500</v>
       </c>
       <c r="G24">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="B25">
-        <v>185.1175429542476</v>
+        <v>188.8533734797063</v>
       </c>
       <c r="C25">
-        <v>185.3267405684616</v>
+        <v>190.2381182374616</v>
       </c>
       <c r="D25">
-        <v>183.5136287071499</v>
+        <v>187.9368379901175</v>
       </c>
       <c r="E25">
-        <v>184.1013946533203</v>
+        <v>188.9928436279297</v>
       </c>
       <c r="F25">
-        <v>43627500</v>
+        <v>54412900</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1455,22 +1455,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B26">
-        <v>186.9904264331423</v>
+        <v>189.5307962442899</v>
       </c>
       <c r="C26">
-        <v>187.3988801404597</v>
+        <v>189.6603096684954</v>
       </c>
       <c r="D26">
-        <v>185.59572499487</v>
+        <v>187.8571544596624</v>
       </c>
       <c r="E26">
-        <v>186.7314147949219</v>
+        <v>188.9729156494141</v>
       </c>
       <c r="F26">
-        <v>60108400</v>
+        <v>50922700</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B27">
-        <v>187.1398717761497</v>
+        <v>189.1721570341783</v>
       </c>
       <c r="C27">
-        <v>188.7836281572347</v>
+        <v>191.1845250718208</v>
       </c>
       <c r="D27">
-        <v>187.0701291024632</v>
+        <v>189.1622003096392</v>
       </c>
       <c r="E27">
-        <v>187.2992553710938</v>
+        <v>190.7262573242188</v>
       </c>
       <c r="F27">
-        <v>53790500</v>
+        <v>46505100</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45246</v>
+        <v>45251</v>
       </c>
       <c r="B28">
-        <v>188.8533734797063</v>
+        <v>190.6864202228131</v>
       </c>
       <c r="C28">
-        <v>190.2381182374616</v>
+        <v>190.7960050000397</v>
       </c>
       <c r="D28">
-        <v>187.9368379901175</v>
+        <v>189.0227351148133</v>
       </c>
       <c r="E28">
-        <v>188.9928436279297</v>
+        <v>189.9193267822266</v>
       </c>
       <c r="F28">
-        <v>54412900</v>
+        <v>38134500</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B29">
-        <v>189.5307962442899</v>
+        <v>190.7661194461664</v>
       </c>
       <c r="C29">
-        <v>189.6603096684954</v>
+        <v>192.200663072465</v>
       </c>
       <c r="D29">
-        <v>187.8571544596624</v>
+        <v>190.1086107834213</v>
       </c>
       <c r="E29">
-        <v>188.9729156494141</v>
+        <v>190.5867919921875</v>
       </c>
       <c r="F29">
-        <v>50922700</v>
+        <v>39617700</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1559,22 +1559,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B30">
-        <v>189.1721570341783</v>
+        <v>190.1484532405231</v>
       </c>
       <c r="C30">
-        <v>191.1845250718208</v>
+        <v>190.1783386160579</v>
       </c>
       <c r="D30">
-        <v>189.1622003096392</v>
+        <v>188.534582157217</v>
       </c>
       <c r="E30">
-        <v>190.7262573242188</v>
+        <v>189.2518615722656</v>
       </c>
       <c r="F30">
-        <v>46505100</v>
+        <v>24048300</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B31">
-        <v>190.6864202228131</v>
+        <v>189.2020384462403</v>
       </c>
       <c r="C31">
-        <v>190.7960050000397</v>
+        <v>189.9492032008885</v>
       </c>
       <c r="D31">
-        <v>189.0227351148133</v>
+        <v>188.1858901236091</v>
       </c>
       <c r="E31">
-        <v>189.9193267822266</v>
+        <v>189.0725250244141</v>
       </c>
       <c r="F31">
-        <v>38134500</v>
+        <v>40552600</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B32">
-        <v>190.7661194461664</v>
+        <v>189.0625702185278</v>
       </c>
       <c r="C32">
-        <v>192.200663072465</v>
+        <v>190.3576588466139</v>
       </c>
       <c r="D32">
-        <v>190.1086107834213</v>
+        <v>188.6840018746442</v>
       </c>
       <c r="E32">
-        <v>190.5867919921875</v>
+        <v>189.6802215576172</v>
       </c>
       <c r="F32">
-        <v>39617700</v>
+        <v>38415400</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1637,22 +1637,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B33">
-        <v>190.1484532405231</v>
+        <v>190.1783440284001</v>
       </c>
       <c r="C33">
-        <v>190.1783386160579</v>
+        <v>191.3638479620414</v>
       </c>
       <c r="D33">
-        <v>188.534582157217</v>
+        <v>188.2556472091113</v>
       </c>
       <c r="E33">
-        <v>189.2518615722656</v>
+        <v>188.6541290283203</v>
       </c>
       <c r="F33">
-        <v>24048300</v>
+        <v>43014200</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="B34">
-        <v>189.2020384462403</v>
+        <v>189.1223335660783</v>
       </c>
       <c r="C34">
-        <v>189.9492032008885</v>
+        <v>189.6005299399875</v>
       </c>
       <c r="D34">
-        <v>188.1858901236091</v>
+        <v>187.4785772339432</v>
       </c>
       <c r="E34">
-        <v>189.0725250244141</v>
+        <v>189.2319183349609</v>
       </c>
       <c r="F34">
-        <v>40552600</v>
+        <v>48794400</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1689,22 +1689,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="B35">
-        <v>189.0625702185278</v>
+        <v>189.6104957583972</v>
       </c>
       <c r="C35">
-        <v>190.3576588466139</v>
+        <v>190.8358417229626</v>
       </c>
       <c r="D35">
-        <v>188.6840018746442</v>
+        <v>188.5146480170096</v>
       </c>
       <c r="E35">
-        <v>189.6802215576172</v>
+        <v>190.5170593261719</v>
       </c>
       <c r="F35">
-        <v>38415400</v>
+        <v>45679300</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1715,22 +1715,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="B36">
-        <v>190.1783440284001</v>
+        <v>189.2618062982008</v>
       </c>
       <c r="C36">
-        <v>191.3638479620414</v>
+        <v>189.3315489707649</v>
       </c>
       <c r="D36">
-        <v>188.2556472091113</v>
+        <v>186.7413717805125</v>
       </c>
       <c r="E36">
-        <v>188.6541290283203</v>
+        <v>188.7138824462891</v>
       </c>
       <c r="F36">
-        <v>43014200</v>
+        <v>43389500</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45260</v>
+        <v>45265</v>
       </c>
       <c r="B37">
-        <v>189.1223335660783</v>
+        <v>189.4909555363582</v>
       </c>
       <c r="C37">
-        <v>189.6005299399875</v>
+        <v>193.66510330406</v>
       </c>
       <c r="D37">
-        <v>187.4785772339432</v>
+        <v>189.4610549603861</v>
       </c>
       <c r="E37">
-        <v>189.2319183349609</v>
+        <v>192.6888122558594</v>
       </c>
       <c r="F37">
-        <v>48794400</v>
+        <v>66628400</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1767,22 +1767,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="B38">
-        <v>189.6104957583972</v>
+        <v>193.714924762986</v>
       </c>
       <c r="C38">
-        <v>190.8358417229626</v>
+        <v>194.0237504491889</v>
       </c>
       <c r="D38">
-        <v>188.5146480170096</v>
+        <v>191.3837742273508</v>
       </c>
       <c r="E38">
-        <v>190.5170593261719</v>
+        <v>191.5929870605469</v>
       </c>
       <c r="F38">
-        <v>45679300</v>
+        <v>41089700</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B39">
-        <v>189.2618062982008</v>
+        <v>192.8980187767373</v>
       </c>
       <c r="C39">
-        <v>189.3315489707649</v>
+        <v>194.2628348546959</v>
       </c>
       <c r="D39">
-        <v>186.7413717805125</v>
+        <v>192.8581614774812</v>
       </c>
       <c r="E39">
-        <v>188.7138824462891</v>
+        <v>193.5355987548828</v>
       </c>
       <c r="F39">
-        <v>43389500</v>
+        <v>47477700</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1819,22 +1819,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B40">
-        <v>189.4909555363582</v>
+        <v>193.465852412872</v>
       </c>
       <c r="C40">
-        <v>193.66510330406</v>
+        <v>195.2490940936735</v>
       </c>
       <c r="D40">
-        <v>189.4610549603861</v>
+        <v>192.9378572160349</v>
       </c>
       <c r="E40">
-        <v>192.6888122558594</v>
+        <v>194.9701538085938</v>
       </c>
       <c r="F40">
-        <v>66628400</v>
+        <v>53377300</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="B41">
-        <v>193.714924762986</v>
+        <v>192.3799948127373</v>
       </c>
       <c r="C41">
-        <v>194.0237504491889</v>
+        <v>192.7585631787113</v>
       </c>
       <c r="D41">
-        <v>191.3837742273508</v>
+        <v>190.6963810180936</v>
       </c>
       <c r="E41">
-        <v>191.5929870605469</v>
+        <v>192.4497222900391</v>
       </c>
       <c r="F41">
-        <v>41089700</v>
+        <v>60943700</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1871,22 +1871,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B42">
-        <v>192.8980187767373</v>
+        <v>192.3501101982854</v>
       </c>
       <c r="C42">
-        <v>194.2628348546959</v>
+        <v>193.9839099721223</v>
       </c>
       <c r="D42">
-        <v>192.8581614774812</v>
+        <v>190.9952507369739</v>
       </c>
       <c r="E42">
-        <v>193.5355987548828</v>
+        <v>193.9739532470703</v>
       </c>
       <c r="F42">
-        <v>47477700</v>
+        <v>52696900</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1897,22 +1897,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45268</v>
+        <v>45273</v>
       </c>
       <c r="B43">
-        <v>193.465852412872</v>
+        <v>194.352493842968</v>
       </c>
       <c r="C43">
-        <v>195.2490940936735</v>
+        <v>197.2514967618239</v>
       </c>
       <c r="D43">
-        <v>192.9378572160349</v>
+        <v>194.1134108483282</v>
       </c>
       <c r="E43">
-        <v>194.9701538085938</v>
+        <v>197.2116546630859</v>
       </c>
       <c r="F43">
-        <v>53377300</v>
+        <v>70404200</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B44">
-        <v>192.3799948127373</v>
+        <v>197.2714278602722</v>
       </c>
       <c r="C44">
-        <v>192.7585631787113</v>
+        <v>198.8653702483771</v>
       </c>
       <c r="D44">
-        <v>190.6963810180936</v>
+        <v>195.4184586232846</v>
       </c>
       <c r="E44">
-        <v>192.4497222900391</v>
+        <v>197.361083984375</v>
       </c>
       <c r="F44">
-        <v>60943700</v>
+        <v>66831600</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1949,22 +1949,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B45">
-        <v>192.3501101982854</v>
+        <v>196.783262819263</v>
       </c>
       <c r="C45">
-        <v>193.9839099721223</v>
+        <v>197.649969035306</v>
       </c>
       <c r="D45">
-        <v>190.9952507369739</v>
+        <v>196.2552676300523</v>
       </c>
       <c r="E45">
-        <v>193.9739532470703</v>
+        <v>196.8231201171875</v>
       </c>
       <c r="F45">
-        <v>52696900</v>
+        <v>128256700</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45273</v>
+        <v>45278</v>
       </c>
       <c r="B46">
-        <v>194.352493842968</v>
+        <v>195.3487159960799</v>
       </c>
       <c r="C46">
-        <v>197.2514967618239</v>
+        <v>195.8866831430404</v>
       </c>
       <c r="D46">
-        <v>194.1134108483282</v>
+        <v>193.6551455578198</v>
       </c>
       <c r="E46">
-        <v>197.2116546630859</v>
+        <v>195.1494750976562</v>
       </c>
       <c r="F46">
-        <v>70404200</v>
+        <v>55751900</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B47">
-        <v>197.2714278602722</v>
+        <v>195.4184607115181</v>
       </c>
       <c r="C47">
-        <v>198.8653702483771</v>
+        <v>196.2054675888958</v>
       </c>
       <c r="D47">
-        <v>195.4184586232846</v>
+        <v>195.1494771352294</v>
       </c>
       <c r="E47">
-        <v>197.361083984375</v>
+        <v>196.1955108642578</v>
       </c>
       <c r="F47">
-        <v>66831600</v>
+        <v>40714100</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="B48">
-        <v>196.783262819263</v>
+        <v>196.1556575241543</v>
       </c>
       <c r="C48">
-        <v>197.649969035306</v>
+        <v>196.9327076925837</v>
       </c>
       <c r="D48">
-        <v>196.2552676300523</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="E48">
-        <v>196.8231201171875</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="F48">
-        <v>128256700</v>
+        <v>52242800</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2053,22 +2053,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="B49">
-        <v>195.3487159960799</v>
+        <v>195.3586760168643</v>
       </c>
       <c r="C49">
-        <v>195.8866831430404</v>
+        <v>196.3349670004207</v>
       </c>
       <c r="D49">
-        <v>193.6551455578198</v>
+        <v>192.7684988918802</v>
       </c>
       <c r="E49">
-        <v>195.1494750976562</v>
+        <v>193.9440307617188</v>
       </c>
       <c r="F49">
-        <v>55751900</v>
+        <v>46482500</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2079,22 +2079,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B50">
-        <v>195.4184607115181</v>
+        <v>194.4421472412643</v>
       </c>
       <c r="C50">
-        <v>196.2054675888958</v>
+        <v>194.6712887093912</v>
       </c>
       <c r="D50">
-        <v>195.1494771352294</v>
+        <v>192.2405102905751</v>
       </c>
       <c r="E50">
-        <v>196.1955108642578</v>
+        <v>192.8681335449219</v>
       </c>
       <c r="F50">
-        <v>40714100</v>
+        <v>37122800</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2105,22 +2105,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>45280</v>
+        <v>45286</v>
       </c>
       <c r="B51">
-        <v>196.1556575241543</v>
+        <v>192.8781015610764</v>
       </c>
       <c r="C51">
-        <v>196.9327076925837</v>
+        <v>193.1570418679817</v>
       </c>
       <c r="D51">
-        <v>194.0934906005859</v>
+        <v>192.1010513916819</v>
       </c>
       <c r="E51">
-        <v>194.0934906005859</v>
+        <v>192.3202209472656</v>
       </c>
       <c r="F51">
-        <v>52242800</v>
+        <v>28919300</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B52">
-        <v>195.3586760168643</v>
+        <v>191.7623368685013</v>
       </c>
       <c r="C52">
-        <v>196.3349670004207</v>
+        <v>192.7685133001503</v>
       </c>
       <c r="D52">
-        <v>192.7684988918802</v>
+        <v>190.3676201580689</v>
       </c>
       <c r="E52">
-        <v>193.9440307617188</v>
+        <v>192.4198303222656</v>
       </c>
       <c r="F52">
-        <v>46482500</v>
+        <v>48087700</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B53">
-        <v>194.4421472412643</v>
+        <v>193.4060861494978</v>
       </c>
       <c r="C53">
-        <v>194.6712887093912</v>
+        <v>193.924124634271</v>
       </c>
       <c r="D53">
-        <v>192.2405102905751</v>
+        <v>192.4397518533907</v>
       </c>
       <c r="E53">
-        <v>192.8681335449219</v>
+        <v>192.8482055664062</v>
       </c>
       <c r="F53">
-        <v>37122800</v>
+        <v>34049900</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2183,22 +2183,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B54">
-        <v>192.8781015610764</v>
+        <v>193.1669858687692</v>
       </c>
       <c r="C54">
-        <v>193.1570418679817</v>
+        <v>193.6650956984474</v>
       </c>
       <c r="D54">
-        <v>192.1010513916819</v>
+        <v>191.0051910320984</v>
       </c>
       <c r="E54">
-        <v>192.3202209472656</v>
+        <v>191.8021697998047</v>
       </c>
       <c r="F54">
-        <v>28919300</v>
+        <v>42628800</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2209,22 +2209,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B55">
-        <v>191.7623368685013</v>
+        <v>186.4425033780096</v>
       </c>
       <c r="C55">
-        <v>192.7685133001503</v>
+        <v>187.7276352526454</v>
       </c>
       <c r="D55">
-        <v>190.3676201580689</v>
+        <v>183.1948327572495</v>
       </c>
       <c r="E55">
-        <v>192.4198303222656</v>
+        <v>184.9382171630859</v>
       </c>
       <c r="F55">
-        <v>48087700</v>
+        <v>82488700</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B56">
-        <v>193.4060861494978</v>
+        <v>183.5235814240684</v>
       </c>
       <c r="C56">
-        <v>193.924124634271</v>
+        <v>185.1773096578577</v>
       </c>
       <c r="D56">
-        <v>192.4397518533907</v>
+        <v>182.7365594038808</v>
       </c>
       <c r="E56">
-        <v>192.8482055664062</v>
+        <v>183.553466796875</v>
       </c>
       <c r="F56">
-        <v>34049900</v>
+        <v>58414500</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2261,22 +2261,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B57">
-        <v>193.1669858687692</v>
+        <v>181.4614035444303</v>
       </c>
       <c r="C57">
-        <v>193.6650956984474</v>
+        <v>182.3978524495546</v>
       </c>
       <c r="D57">
-        <v>191.0051910320984</v>
+        <v>180.1962155310951</v>
       </c>
       <c r="E57">
-        <v>191.8021697998047</v>
+        <v>181.2223205566406</v>
       </c>
       <c r="F57">
-        <v>42628800</v>
+        <v>71983600</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>186.4425033780096</v>
+        <v>181.3020374348382</v>
       </c>
       <c r="C58">
-        <v>187.7276352526454</v>
+        <v>182.0691156961024</v>
       </c>
       <c r="D58">
-        <v>183.1948327572495</v>
+        <v>179.4889101967076</v>
       </c>
       <c r="E58">
-        <v>184.9382171630859</v>
+        <v>180.4950866699219</v>
       </c>
       <c r="F58">
-        <v>82488700</v>
+        <v>62303300</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2313,22 +2313,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B59">
-        <v>183.5235814240684</v>
+        <v>181.4016370185953</v>
       </c>
       <c r="C59">
-        <v>185.1773096578577</v>
+        <v>184.8983778074419</v>
       </c>
       <c r="D59">
-        <v>182.7365594038808</v>
+        <v>180.8138710584613</v>
       </c>
       <c r="E59">
-        <v>183.553466796875</v>
+        <v>184.8585205078125</v>
       </c>
       <c r="F59">
-        <v>58414500</v>
+        <v>59144500</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B60">
-        <v>181.4614035444303</v>
+        <v>183.2247200384055</v>
       </c>
       <c r="C60">
-        <v>182.3978524495546</v>
+        <v>184.4500659772401</v>
       </c>
       <c r="D60">
-        <v>180.1962155310951</v>
+        <v>182.0392161979183</v>
       </c>
       <c r="E60">
-        <v>181.2223205566406</v>
+        <v>184.4401092529297</v>
       </c>
       <c r="F60">
-        <v>71983600</v>
+        <v>42841800</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="B61">
-        <v>181.3020374348382</v>
+        <v>183.6531195609547</v>
       </c>
       <c r="C61">
-        <v>182.0691156961024</v>
+        <v>185.6953579161256</v>
       </c>
       <c r="D61">
-        <v>179.4889101967076</v>
+        <v>183.224737157889</v>
       </c>
       <c r="E61">
-        <v>180.4950866699219</v>
+        <v>185.4861602783203</v>
       </c>
       <c r="F61">
-        <v>62303300</v>
+        <v>46792900</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B62">
-        <v>181.4016370185953</v>
+        <v>185.8348181606066</v>
       </c>
       <c r="C62">
-        <v>184.8983778074419</v>
+        <v>186.3428999418131</v>
       </c>
       <c r="D62">
-        <v>180.8138710584613</v>
+        <v>182.9258584292588</v>
       </c>
       <c r="E62">
-        <v>184.8585205078125</v>
+        <v>184.8884124755859</v>
       </c>
       <c r="F62">
-        <v>59144500</v>
+        <v>49128400</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2417,22 +2417,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B63">
-        <v>183.2247200384055</v>
+        <v>185.3566332346026</v>
       </c>
       <c r="C63">
-        <v>184.4500659772401</v>
+        <v>186.0340705289092</v>
       </c>
       <c r="D63">
-        <v>182.0392161979183</v>
+        <v>184.4899269679768</v>
       </c>
       <c r="E63">
-        <v>184.4401092529297</v>
+        <v>185.2171630859375</v>
       </c>
       <c r="F63">
-        <v>42841800</v>
+        <v>40444700</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2443,22 +2443,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B64">
-        <v>183.6531195609547</v>
+        <v>181.4713774128876</v>
       </c>
       <c r="C64">
-        <v>185.6953579161256</v>
+        <v>183.5634295839771</v>
       </c>
       <c r="D64">
-        <v>183.224737157889</v>
+        <v>180.246016282922</v>
       </c>
       <c r="E64">
-        <v>185.4861602783203</v>
+        <v>182.9358215332031</v>
       </c>
       <c r="F64">
-        <v>46792900</v>
+        <v>65603000</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B65">
-        <v>185.8348181606066</v>
+        <v>180.5847521538411</v>
       </c>
       <c r="C65">
-        <v>186.3428999418131</v>
+        <v>182.2384653293606</v>
       </c>
       <c r="D65">
-        <v>182.9258584292588</v>
+        <v>179.6184178133491</v>
       </c>
       <c r="E65">
-        <v>184.8884124755859</v>
+        <v>181.9894104003906</v>
       </c>
       <c r="F65">
-        <v>49128400</v>
+        <v>47317400</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2495,22 +2495,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B66">
-        <v>185.3566332346026</v>
+        <v>185.3865094908112</v>
       </c>
       <c r="C66">
-        <v>186.0340705289092</v>
+        <v>188.4249824384652</v>
       </c>
       <c r="D66">
-        <v>184.4899269679768</v>
+        <v>185.1274978563461</v>
       </c>
       <c r="E66">
-        <v>185.2171630859375</v>
+        <v>187.9169158935547</v>
       </c>
       <c r="F66">
-        <v>40444700</v>
+        <v>78005800</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B67">
-        <v>181.4713774128876</v>
+        <v>188.614265160598</v>
       </c>
       <c r="C67">
-        <v>183.5634295839771</v>
+        <v>191.2243557377567</v>
       </c>
       <c r="D67">
-        <v>180.246016282922</v>
+        <v>188.1061986195717</v>
       </c>
       <c r="E67">
-        <v>182.9358215332031</v>
+        <v>190.8358306884766</v>
       </c>
       <c r="F67">
-        <v>65603000</v>
+        <v>68741000</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2547,22 +2547,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>45308</v>
+        <v>45313</v>
       </c>
       <c r="B68">
-        <v>180.5847521538411</v>
+        <v>191.5730425958912</v>
       </c>
       <c r="C68">
-        <v>182.2384653293606</v>
+        <v>194.591586932864</v>
       </c>
       <c r="D68">
-        <v>179.6184178133491</v>
+        <v>191.5331852970931</v>
       </c>
       <c r="E68">
-        <v>181.9894104003906</v>
+        <v>193.1570281982422</v>
       </c>
       <c r="F68">
-        <v>47317400</v>
+        <v>60133900</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2573,22 +2573,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B69">
-        <v>185.3865094908112</v>
+        <v>194.2827703313563</v>
       </c>
       <c r="C69">
-        <v>188.4249824384652</v>
+        <v>195.0100064567242</v>
       </c>
       <c r="D69">
-        <v>185.1274978563461</v>
+        <v>193.0972664550746</v>
       </c>
       <c r="E69">
-        <v>187.9169158935547</v>
+        <v>194.4421539306641</v>
       </c>
       <c r="F69">
-        <v>78005800</v>
+        <v>42355600</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2599,22 +2599,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B70">
-        <v>188.614265160598</v>
+        <v>194.6812449985873</v>
       </c>
       <c r="C70">
-        <v>191.2243557377567</v>
+        <v>195.6376225649257</v>
       </c>
       <c r="D70">
-        <v>188.1061986195717</v>
+        <v>193.6053259368713</v>
       </c>
       <c r="E70">
-        <v>190.8358306884766</v>
+        <v>193.7647247314453</v>
       </c>
       <c r="F70">
-        <v>68741000</v>
+        <v>53631300</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B71">
-        <v>191.5730425958912</v>
+        <v>194.4820231702934</v>
       </c>
       <c r="C71">
-        <v>194.591586932864</v>
+        <v>195.5280569607039</v>
       </c>
       <c r="D71">
-        <v>191.5331852970931</v>
+        <v>192.37999886425</v>
       </c>
       <c r="E71">
-        <v>193.1570281982422</v>
+        <v>193.4359893798828</v>
       </c>
       <c r="F71">
-        <v>60133900</v>
+        <v>54822100</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2651,22 +2651,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B72">
-        <v>194.2827703313563</v>
+        <v>193.5355935899702</v>
       </c>
       <c r="C72">
-        <v>195.0100064567242</v>
+        <v>194.0237314845371</v>
       </c>
       <c r="D72">
-        <v>193.0972664550746</v>
+        <v>191.2144000061864</v>
       </c>
       <c r="E72">
-        <v>194.4421539306641</v>
+        <v>191.6925811767578</v>
       </c>
       <c r="F72">
-        <v>42355600</v>
+        <v>44594000</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2677,22 +2677,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B73">
-        <v>194.6812449985873</v>
+        <v>191.2841282723675</v>
       </c>
       <c r="C73">
-        <v>195.6376225649257</v>
+        <v>191.4734124368057</v>
       </c>
       <c r="D73">
-        <v>193.6053259368713</v>
+        <v>188.8633218352395</v>
       </c>
       <c r="E73">
-        <v>193.7647247314453</v>
+        <v>191.0051879882812</v>
       </c>
       <c r="F73">
-        <v>53631300</v>
+        <v>47145600</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B74">
-        <v>194.4820231702934</v>
+        <v>190.2181936148135</v>
       </c>
       <c r="C74">
-        <v>195.5280569607039</v>
+        <v>191.0749431723554</v>
       </c>
       <c r="D74">
-        <v>192.37999886425</v>
+        <v>186.7613100094732</v>
       </c>
       <c r="E74">
-        <v>193.4359893798828</v>
+        <v>187.3291473388672</v>
       </c>
       <c r="F74">
-        <v>54822100</v>
+        <v>55859400</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2729,22 +2729,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B75">
-        <v>193.5355935899702</v>
+        <v>186.3329308453054</v>
       </c>
       <c r="C75">
-        <v>194.0237314845371</v>
+        <v>186.3927167977895</v>
       </c>
       <c r="D75">
-        <v>191.2144000061864</v>
+        <v>183.6531125515431</v>
       </c>
       <c r="E75">
-        <v>191.6925811767578</v>
+        <v>183.7029113769531</v>
       </c>
       <c r="F75">
-        <v>44594000</v>
+        <v>55467800</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B76">
-        <v>191.2841282723675</v>
+        <v>183.2944796333469</v>
       </c>
       <c r="C76">
-        <v>191.4734124368057</v>
+        <v>186.2432816186692</v>
       </c>
       <c r="D76">
-        <v>188.8633218352395</v>
+        <v>183.1251240978006</v>
       </c>
       <c r="E76">
-        <v>191.0051879882812</v>
+        <v>186.1536254882812</v>
       </c>
       <c r="F76">
-        <v>47145600</v>
+        <v>64885400</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2781,22 +2781,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B77">
-        <v>190.2181936148135</v>
+        <v>179.1800691670908</v>
       </c>
       <c r="C77">
-        <v>191.0749431723554</v>
+        <v>186.6218312646208</v>
       </c>
       <c r="D77">
-        <v>186.7613100094732</v>
+        <v>178.572374564712</v>
       </c>
       <c r="E77">
-        <v>187.3291473388672</v>
+        <v>185.1474304199219</v>
       </c>
       <c r="F77">
-        <v>55859400</v>
+        <v>102518000</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2807,22 +2807,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B78">
-        <v>186.3329308453054</v>
+        <v>187.4387292327286</v>
       </c>
       <c r="C78">
-        <v>186.3927167977895</v>
+        <v>188.5345769759108</v>
       </c>
       <c r="D78">
-        <v>183.6531125515431</v>
+        <v>185.137464173152</v>
       </c>
       <c r="E78">
-        <v>183.7029113769531</v>
+        <v>186.9705047607422</v>
       </c>
       <c r="F78">
-        <v>55467800</v>
+        <v>69668800</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2833,22 +2833,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B79">
-        <v>183.2944796333469</v>
+        <v>186.1536027470153</v>
       </c>
       <c r="C79">
-        <v>186.2432816186692</v>
+        <v>188.5943378275288</v>
       </c>
       <c r="D79">
-        <v>183.1251240978006</v>
+        <v>186.0639466275801</v>
       </c>
       <c r="E79">
-        <v>186.1536254882812</v>
+        <v>188.5843811035156</v>
       </c>
       <c r="F79">
-        <v>64885400</v>
+        <v>43490800</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B80">
-        <v>179.1800691670908</v>
+        <v>189.9193156538562</v>
       </c>
       <c r="C80">
-        <v>186.6218312646208</v>
+        <v>190.3277693633227</v>
       </c>
       <c r="D80">
-        <v>178.572374564712</v>
+        <v>187.8969909571685</v>
       </c>
       <c r="E80">
-        <v>185.1474304199219</v>
+        <v>188.6939697265625</v>
       </c>
       <c r="F80">
-        <v>102518000</v>
+        <v>53439000</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2885,22 +2885,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B81">
-        <v>187.4387292327286</v>
+        <v>188.674040391037</v>
       </c>
       <c r="C81">
-        <v>188.5345769759108</v>
+        <v>188.8234672592713</v>
       </c>
       <c r="D81">
-        <v>185.137464173152</v>
+        <v>186.6417589775216</v>
       </c>
       <c r="E81">
-        <v>186.9705047607422</v>
+        <v>187.6080932617188</v>
       </c>
       <c r="F81">
-        <v>69668800</v>
+        <v>40962000</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2911,25 +2911,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="B82">
-        <v>186.1536027470153</v>
+        <v>188.1766493146219</v>
       </c>
       <c r="C82">
-        <v>188.5943378275288</v>
+        <v>189.5132986677318</v>
       </c>
       <c r="D82">
-        <v>186.0639466275801</v>
+        <v>187.5282863277538</v>
       </c>
       <c r="E82">
-        <v>188.5843811035156</v>
+        <v>188.3761596679688</v>
       </c>
       <c r="F82">
-        <v>43490800</v>
+        <v>45155200</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2937,22 +2937,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B83">
-        <v>189.9193156538562</v>
+        <v>187.9472376542695</v>
       </c>
       <c r="C83">
-        <v>190.3277693633227</v>
+        <v>188.1966103847131</v>
       </c>
       <c r="D83">
-        <v>187.8969909571685</v>
+        <v>186.3213225812161</v>
       </c>
       <c r="E83">
-        <v>188.6939697265625</v>
+        <v>186.680419921875</v>
       </c>
       <c r="F83">
-        <v>53439000</v>
+        <v>41781900</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2963,22 +2963,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B84">
-        <v>188.674040391037</v>
+        <v>185.3038934455236</v>
       </c>
       <c r="C84">
-        <v>188.8234672592713</v>
+        <v>185.7427918879144</v>
       </c>
       <c r="D84">
-        <v>186.6417589775216</v>
+        <v>183.0495542133352</v>
       </c>
       <c r="E84">
-        <v>187.6080932617188</v>
+        <v>184.5757141113281</v>
       </c>
       <c r="F84">
-        <v>40962000</v>
+        <v>56529500</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2989,25 +2989,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B85">
-        <v>188.1766493146219</v>
+        <v>184.8550202478472</v>
       </c>
       <c r="C85">
-        <v>189.5132986677318</v>
+        <v>185.0644848126334</v>
       </c>
       <c r="D85">
-        <v>187.5282863277538</v>
+        <v>181.9822415953253</v>
       </c>
       <c r="E85">
-        <v>188.3761596679688</v>
+        <v>183.6879425048828</v>
       </c>
       <c r="F85">
-        <v>45155200</v>
+        <v>54630500</v>
       </c>
       <c r="G85">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3015,22 +3015,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B86">
-        <v>187.9472376542695</v>
+        <v>183.0894618898952</v>
       </c>
       <c r="C86">
-        <v>188.1966103847131</v>
+        <v>184.0271057924329</v>
       </c>
       <c r="D86">
-        <v>186.3213225812161</v>
+        <v>180.8949849042452</v>
       </c>
       <c r="E86">
-        <v>186.680419921875</v>
+        <v>183.398681640625</v>
       </c>
       <c r="F86">
-        <v>41781900</v>
+        <v>65434500</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>185.3038934455236</v>
+        <v>182.9597697729581</v>
       </c>
       <c r="C87">
-        <v>185.7427918879144</v>
+        <v>184.3861896022806</v>
       </c>
       <c r="D87">
-        <v>183.0495542133352</v>
+        <v>181.2141607864845</v>
       </c>
       <c r="E87">
-        <v>184.5757141113281</v>
+        <v>181.8525543212891</v>
       </c>
       <c r="F87">
-        <v>56529500</v>
+        <v>49701400</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3067,22 +3067,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B88">
-        <v>184.8550202478472</v>
+        <v>181.3338650577124</v>
       </c>
       <c r="C88">
-        <v>185.0644848126334</v>
+        <v>181.9722586285668</v>
       </c>
       <c r="D88">
-        <v>181.9822415953253</v>
+        <v>179.5483630334567</v>
       </c>
       <c r="E88">
-        <v>183.6879425048828</v>
+        <v>181.1044464111328</v>
       </c>
       <c r="F88">
-        <v>54630500</v>
+        <v>53665600</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3093,22 +3093,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B89">
-        <v>183.0894618898952</v>
+        <v>181.4834974142419</v>
       </c>
       <c r="C89">
-        <v>184.0271057924329</v>
+        <v>182.4311107284463</v>
       </c>
       <c r="D89">
-        <v>180.8949849042452</v>
+        <v>180.2067102754291</v>
       </c>
       <c r="E89">
-        <v>183.398681640625</v>
+        <v>181.862548828125</v>
       </c>
       <c r="F89">
-        <v>65434500</v>
+        <v>41529700</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B90">
-        <v>182.9597697729581</v>
+        <v>183.0196281071197</v>
       </c>
       <c r="C90">
-        <v>184.3861896022806</v>
+        <v>184.495925614312</v>
       </c>
       <c r="D90">
-        <v>181.2141607864845</v>
+        <v>182.0021983365588</v>
       </c>
       <c r="E90">
-        <v>181.8525543212891</v>
+        <v>183.9073944091797</v>
       </c>
       <c r="F90">
-        <v>49701400</v>
+        <v>52292200</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B91">
-        <v>181.3338650577124</v>
+        <v>184.5457848212894</v>
       </c>
       <c r="C91">
-        <v>181.9722586285668</v>
+        <v>184.5757083304694</v>
       </c>
       <c r="D91">
-        <v>179.5483630334567</v>
+        <v>181.7727613535837</v>
       </c>
       <c r="E91">
-        <v>181.1044464111328</v>
+        <v>182.0620422363281</v>
       </c>
       <c r="F91">
-        <v>53665600</v>
+        <v>45119700</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="B92">
-        <v>181.4834974142419</v>
+        <v>181.782751620001</v>
       </c>
       <c r="C92">
-        <v>182.4311107284463</v>
+        <v>182.3014359421489</v>
       </c>
       <c r="D92">
-        <v>180.2067102754291</v>
+        <v>180.1967294819421</v>
       </c>
       <c r="E92">
-        <v>181.862548828125</v>
+        <v>180.7054595947266</v>
       </c>
       <c r="F92">
-        <v>41529700</v>
+        <v>40867400</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3197,22 +3197,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B93">
-        <v>183.0196281071197</v>
+        <v>180.6456083270148</v>
       </c>
       <c r="C93">
-        <v>184.495925614312</v>
+        <v>183.4585247542275</v>
       </c>
       <c r="D93">
-        <v>182.0021983365588</v>
+        <v>179.1094638154171</v>
       </c>
       <c r="E93">
-        <v>183.9073944091797</v>
+        <v>182.1717681884766</v>
       </c>
       <c r="F93">
-        <v>52292200</v>
+        <v>54318900</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B94">
-        <v>184.5457848212894</v>
+        <v>182.0520594060505</v>
       </c>
       <c r="C94">
-        <v>184.5757083304694</v>
+        <v>182.6605294662985</v>
       </c>
       <c r="D94">
-        <v>181.7727613535837</v>
+        <v>179.6780414045198</v>
       </c>
       <c r="E94">
-        <v>182.0620422363281</v>
+        <v>180.9647979736328</v>
       </c>
       <c r="F94">
-        <v>45119700</v>
+        <v>48953900</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B95">
-        <v>181.782751620001</v>
+        <v>180.815177795749</v>
       </c>
       <c r="C95">
-        <v>182.3014359421489</v>
+        <v>182.1119189961591</v>
       </c>
       <c r="D95">
-        <v>180.1967294819421</v>
+        <v>179.0795381686922</v>
       </c>
       <c r="E95">
-        <v>180.7054595947266</v>
+        <v>180.2964782714844</v>
       </c>
       <c r="F95">
-        <v>40867400</v>
+        <v>136682600</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3275,22 +3275,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B96">
-        <v>180.6456083270148</v>
+        <v>179.0995039018238</v>
       </c>
       <c r="C96">
-        <v>183.4585247542275</v>
+        <v>180.0770407753685</v>
       </c>
       <c r="D96">
-        <v>179.1094638154171</v>
+        <v>176.9349503572942</v>
       </c>
       <c r="E96">
-        <v>182.1717681884766</v>
+        <v>179.209228515625</v>
       </c>
       <c r="F96">
-        <v>54318900</v>
+        <v>73488000</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3301,22 +3301,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B97">
-        <v>182.0520594060505</v>
+        <v>175.7080130413176</v>
       </c>
       <c r="C97">
-        <v>182.6605294662985</v>
+        <v>176.4561312039468</v>
       </c>
       <c r="D97">
-        <v>179.6780414045198</v>
+        <v>173.3539339474242</v>
       </c>
       <c r="E97">
-        <v>180.9647979736328</v>
+        <v>174.6606597900391</v>
       </c>
       <c r="F97">
-        <v>48953900</v>
+        <v>81510100</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B98">
-        <v>180.815177795749</v>
+        <v>170.3315546304903</v>
       </c>
       <c r="C98">
-        <v>182.1119189961591</v>
+        <v>171.6083418699865</v>
       </c>
       <c r="D98">
-        <v>179.0795381686922</v>
+        <v>169.1944155196732</v>
       </c>
       <c r="E98">
-        <v>180.2964782714844</v>
+        <v>169.6931610107422</v>
       </c>
       <c r="F98">
-        <v>136682600</v>
+        <v>95132400</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B99">
-        <v>179.0995039018238</v>
+        <v>170.6307828835121</v>
       </c>
       <c r="C99">
-        <v>180.0770407753685</v>
+        <v>170.8103391517182</v>
       </c>
       <c r="D99">
-        <v>176.9349503572942</v>
+        <v>168.2567497827471</v>
       </c>
       <c r="E99">
-        <v>179.209228515625</v>
+        <v>168.6956481933594</v>
       </c>
       <c r="F99">
-        <v>73488000</v>
+        <v>68587700</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B100">
-        <v>175.7080130413176</v>
+        <v>168.7255757953365</v>
       </c>
       <c r="C100">
-        <v>176.4561312039468</v>
+        <v>170.3016132078211</v>
       </c>
       <c r="D100">
-        <v>173.3539339474242</v>
+        <v>168.0672433839466</v>
       </c>
       <c r="E100">
-        <v>174.6606597900391</v>
+        <v>168.5759582519531</v>
       </c>
       <c r="F100">
-        <v>81510100</v>
+        <v>71765100</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3405,22 +3405,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B101">
-        <v>170.3315546304903</v>
+        <v>168.5759503496348</v>
       </c>
       <c r="C101">
-        <v>171.6083418699865</v>
+        <v>173.2641542087491</v>
       </c>
       <c r="D101">
-        <v>169.1944155196732</v>
+        <v>168.5161033350869</v>
       </c>
       <c r="E101">
-        <v>169.6931610107422</v>
+        <v>170.3016052246094</v>
       </c>
       <c r="F101">
-        <v>95132400</v>
+        <v>76114600</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3431,22 +3431,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B102">
-        <v>170.6307828835121</v>
+        <v>172.5060845506196</v>
       </c>
       <c r="C102">
-        <v>170.8103391517182</v>
+        <v>173.9424739307717</v>
       </c>
       <c r="D102">
-        <v>168.2567497827471</v>
+        <v>171.6183182282344</v>
       </c>
       <c r="E102">
-        <v>168.6956481933594</v>
+        <v>172.3165588378906</v>
       </c>
       <c r="F102">
-        <v>68587700</v>
+        <v>60139500</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3457,22 +3457,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B103">
-        <v>168.7255757953365</v>
+        <v>172.7155327686856</v>
       </c>
       <c r="C103">
-        <v>170.3016132078211</v>
+        <v>173.5933295779934</v>
       </c>
       <c r="D103">
-        <v>168.0672433839466</v>
+        <v>170.5809029810071</v>
       </c>
       <c r="E103">
-        <v>168.5759582519531</v>
+        <v>172.7953338623047</v>
       </c>
       <c r="F103">
-        <v>71765100</v>
+        <v>59825400</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B104">
-        <v>168.5759503496348</v>
+        <v>172.336507025496</v>
       </c>
       <c r="C104">
-        <v>173.2641542087491</v>
+        <v>172.7554513769645</v>
       </c>
       <c r="D104">
-        <v>168.5161033350869</v>
+        <v>170.3315405757142</v>
       </c>
       <c r="E104">
-        <v>170.3016052246094</v>
+        <v>170.7006225585938</v>
       </c>
       <c r="F104">
-        <v>76114600</v>
+        <v>52488700</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3509,22 +3509,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B105">
-        <v>172.5060845506196</v>
+        <v>172.4761626955439</v>
       </c>
       <c r="C105">
-        <v>173.9424739307717</v>
+        <v>173.8726439282589</v>
       </c>
       <c r="D105">
-        <v>171.6183182282344</v>
+        <v>171.6183198753037</v>
       </c>
       <c r="E105">
-        <v>172.3165588378906</v>
+        <v>172.5659332275391</v>
       </c>
       <c r="F105">
-        <v>60139500</v>
+        <v>72913500</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B106">
-        <v>172.7155327686856</v>
+        <v>170.7405156278905</v>
       </c>
       <c r="C106">
-        <v>173.5933295779934</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="D106">
-        <v>170.5809029810071</v>
+        <v>169.8627187648084</v>
       </c>
       <c r="E106">
-        <v>172.7953338623047</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="F106">
-        <v>59825400</v>
+        <v>121664700</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3561,22 +3561,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>172.336507025496</v>
+        <v>175.1294828872995</v>
       </c>
       <c r="C107">
-        <v>172.7554513769645</v>
+        <v>177.2641127833739</v>
       </c>
       <c r="D107">
-        <v>170.3315405757142</v>
+        <v>173.0846235184168</v>
       </c>
       <c r="E107">
-        <v>170.7006225585938</v>
+        <v>173.2841186523438</v>
       </c>
       <c r="F107">
-        <v>52488700</v>
+        <v>75604200</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3587,22 +3587,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="B108">
-        <v>172.4761626955439</v>
+        <v>173.9025592135408</v>
       </c>
       <c r="C108">
-        <v>173.8726439282589</v>
+        <v>176.1668678099546</v>
       </c>
       <c r="D108">
-        <v>171.6183198753037</v>
+        <v>172.5958485746268</v>
       </c>
       <c r="E108">
-        <v>172.5659332275391</v>
+        <v>175.6381988525391</v>
       </c>
       <c r="F108">
-        <v>72913500</v>
+        <v>55215200</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B109">
-        <v>170.7405156278905</v>
+        <v>175.2791148807173</v>
       </c>
       <c r="C109">
-        <v>172.1868743896484</v>
+        <v>178.2217102050781</v>
       </c>
       <c r="D109">
-        <v>169.8627187648084</v>
+        <v>174.6506906975692</v>
       </c>
       <c r="E109">
-        <v>172.1868743896484</v>
+        <v>178.2217102050781</v>
       </c>
       <c r="F109">
-        <v>121664700</v>
+        <v>53423100</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,22 +3639,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B110">
-        <v>175.1294828872995</v>
+        <v>176.6057741601213</v>
       </c>
       <c r="C110">
-        <v>177.2641127833739</v>
+        <v>177.0446726094717</v>
       </c>
       <c r="D110">
-        <v>173.0846235184168</v>
+        <v>170.4113487190698</v>
       </c>
       <c r="E110">
-        <v>173.2841186523438</v>
+        <v>170.9400177001953</v>
       </c>
       <c r="F110">
-        <v>75604200</v>
+        <v>106181300</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3665,22 +3665,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B111">
-        <v>173.9025592135408</v>
+        <v>171.3290330096479</v>
       </c>
       <c r="C111">
-        <v>176.1668678099546</v>
+        <v>172.6158048054333</v>
       </c>
       <c r="D111">
-        <v>172.5958485746268</v>
+        <v>169.6333015088525</v>
       </c>
       <c r="E111">
-        <v>175.6381988525391</v>
+        <v>171.8477325439453</v>
       </c>
       <c r="F111">
-        <v>55215200</v>
+        <v>71106600</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3691,22 +3691,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B112">
-        <v>175.2791148807173</v>
+        <v>170.1420294503314</v>
       </c>
       <c r="C112">
-        <v>178.2217102050781</v>
+        <v>171.508587107401</v>
       </c>
       <c r="D112">
-        <v>174.6506906975692</v>
+        <v>169.0248292967788</v>
       </c>
       <c r="E112">
-        <v>178.2217102050781</v>
+        <v>170.4213256835938</v>
       </c>
       <c r="F112">
-        <v>53423100</v>
+        <v>54288300</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="B113">
-        <v>176.6057741601213</v>
+        <v>169.5734606232718</v>
       </c>
       <c r="C113">
-        <v>177.0446726094717</v>
+        <v>170.989895938488</v>
       </c>
       <c r="D113">
-        <v>170.4113487190698</v>
+        <v>169.1545162528982</v>
       </c>
       <c r="E113">
-        <v>170.9400177001953</v>
+        <v>169.2841949462891</v>
       </c>
       <c r="F113">
-        <v>106181300</v>
+        <v>57388400</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3743,22 +3743,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B114">
-        <v>171.3290330096479</v>
+        <v>169.9824199430847</v>
       </c>
       <c r="C114">
-        <v>172.6158048054333</v>
+        <v>173.1644182000048</v>
       </c>
       <c r="D114">
-        <v>169.6333015088525</v>
+        <v>169.6831696430306</v>
       </c>
       <c r="E114">
-        <v>171.8477325439453</v>
+        <v>172.8751373291016</v>
       </c>
       <c r="F114">
-        <v>71106600</v>
+        <v>60273300</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3769,22 +3769,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B115">
-        <v>170.1420294503314</v>
+        <v>171.3190704702827</v>
       </c>
       <c r="C115">
-        <v>171.508587107401</v>
+        <v>171.7978618640044</v>
       </c>
       <c r="D115">
-        <v>169.0248292967788</v>
+        <v>170.082176214289</v>
       </c>
       <c r="E115">
-        <v>170.4213256835938</v>
+        <v>171.0497436523438</v>
       </c>
       <c r="F115">
-        <v>54288300</v>
+        <v>65672700</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="B116">
-        <v>169.5734606232718</v>
+        <v>170.7604714050076</v>
       </c>
       <c r="C116">
-        <v>170.989895938488</v>
+        <v>170.8203184243575</v>
       </c>
       <c r="D116">
-        <v>169.1545162528982</v>
+        <v>169.0547552510188</v>
       </c>
       <c r="E116">
-        <v>169.2841949462891</v>
+        <v>169.6033782958984</v>
       </c>
       <c r="F116">
-        <v>57388400</v>
+        <v>46240500</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B117">
-        <v>169.9824199430847</v>
+        <v>168.6557546015374</v>
       </c>
       <c r="C117">
-        <v>173.1644182000048</v>
+        <v>168.9150967429367</v>
       </c>
       <c r="D117">
-        <v>169.6831696430306</v>
+        <v>167.8078812915549</v>
       </c>
       <c r="E117">
-        <v>172.8751373291016</v>
+        <v>168.4163513183594</v>
       </c>
       <c r="F117">
-        <v>60273300</v>
+        <v>49329500</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B118">
-        <v>171.3190704702827</v>
+        <v>168.3664767037722</v>
       </c>
       <c r="C118">
-        <v>171.7978618640044</v>
+        <v>170.2517338331327</v>
       </c>
       <c r="D118">
-        <v>170.082176214289</v>
+        <v>168.1570121452337</v>
       </c>
       <c r="E118">
-        <v>171.0497436523438</v>
+        <v>169.2243194580078</v>
       </c>
       <c r="F118">
-        <v>65672700</v>
+        <v>47691700</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B119">
-        <v>170.7604714050076</v>
+        <v>169.862720979973</v>
       </c>
       <c r="C119">
-        <v>170.8203184243575</v>
+        <v>171.4886360397026</v>
       </c>
       <c r="D119">
-        <v>169.0547552510188</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="E119">
-        <v>169.6033782958984</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="F119">
-        <v>46240500</v>
+        <v>53704400</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B120">
-        <v>168.6557546015374</v>
+        <v>169.1644646680864</v>
       </c>
       <c r="C120">
-        <v>168.9150967429367</v>
+        <v>169.9624603689284</v>
       </c>
       <c r="D120">
-        <v>167.8078812915549</v>
+        <v>168.5260711515132</v>
       </c>
       <c r="E120">
-        <v>168.4163513183594</v>
+        <v>169.1544952392578</v>
       </c>
       <c r="F120">
-        <v>49329500</v>
+        <v>42055200</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B121">
-        <v>168.3664767037722</v>
+        <v>168.6058903146058</v>
       </c>
       <c r="C121">
-        <v>170.2517338331327</v>
+        <v>168.7754619458776</v>
       </c>
       <c r="D121">
-        <v>168.1570121452337</v>
+        <v>167.8178791786363</v>
       </c>
       <c r="E121">
-        <v>169.2243194580078</v>
+        <v>168.02734375</v>
       </c>
       <c r="F121">
-        <v>47691700</v>
+        <v>37425500</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3951,22 +3951,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B122">
-        <v>169.862720979973</v>
+        <v>168.27671057045</v>
       </c>
       <c r="C122">
-        <v>171.4886360397026</v>
+        <v>169.6532528730683</v>
       </c>
       <c r="D122">
-        <v>168.3964233398438</v>
+        <v>167.9275978902735</v>
       </c>
       <c r="E122">
-        <v>168.3964233398438</v>
+        <v>169.2442779541016</v>
       </c>
       <c r="F122">
-        <v>53704400</v>
+        <v>42451200</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B123">
-        <v>169.1644646680864</v>
+        <v>168.3764690401373</v>
       </c>
       <c r="C123">
-        <v>169.9624603689284</v>
+        <v>168.6657347076824</v>
       </c>
       <c r="D123">
-        <v>168.5260711515132</v>
+        <v>166.6907069630718</v>
       </c>
       <c r="E123">
-        <v>169.1544952392578</v>
+        <v>167.3590240478516</v>
       </c>
       <c r="F123">
-        <v>42055200</v>
+        <v>49709300</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B124">
-        <v>168.6058903146058</v>
+        <v>167.9176136082712</v>
       </c>
       <c r="C124">
-        <v>168.7754619458776</v>
+        <v>175.0197591304819</v>
       </c>
       <c r="D124">
-        <v>167.8178791786363</v>
+        <v>167.7380725530161</v>
       </c>
       <c r="E124">
-        <v>168.02734375</v>
+        <v>174.6007995605469</v>
       </c>
       <c r="F124">
-        <v>37425500</v>
+        <v>91070300</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4029,22 +4029,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B125">
-        <v>168.27671057045</v>
+        <v>173.8227624139145</v>
       </c>
       <c r="C125">
-        <v>169.6532528730683</v>
+        <v>177.9124812782121</v>
       </c>
       <c r="D125">
-        <v>167.9275978902735</v>
+        <v>173.7729000442674</v>
       </c>
       <c r="E125">
-        <v>169.2442779541016</v>
+        <v>176.1070251464844</v>
       </c>
       <c r="F125">
-        <v>42451200</v>
+        <v>101593300</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4055,22 +4055,22 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="B126">
-        <v>168.3764690401373</v>
+        <v>174.9199973713308</v>
       </c>
       <c r="C126">
-        <v>168.6657347076824</v>
+        <v>176.1868150220336</v>
       </c>
       <c r="D126">
-        <v>166.6907069630718</v>
+        <v>172.0671729102025</v>
       </c>
       <c r="E126">
-        <v>167.3590240478516</v>
+        <v>172.2566986083984</v>
       </c>
       <c r="F126">
-        <v>49709300</v>
+        <v>73531800</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4081,22 +4081,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="B127">
-        <v>167.9176136082712</v>
+        <v>171.3190657023367</v>
       </c>
       <c r="C127">
-        <v>175.0197591304819</v>
+        <v>173.3240169744063</v>
       </c>
       <c r="D127">
-        <v>167.7380725530161</v>
+        <v>167.8478015585806</v>
       </c>
       <c r="E127">
-        <v>174.6007995605469</v>
+        <v>168.9550170898438</v>
       </c>
       <c r="F127">
-        <v>91070300</v>
+        <v>73711200</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4107,22 +4107,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="B128">
-        <v>173.8227624139145</v>
+        <v>169.18443695551</v>
       </c>
       <c r="C128">
-        <v>177.9124812782121</v>
+        <v>170.2218208239065</v>
       </c>
       <c r="D128">
-        <v>173.7729000442674</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="E128">
-        <v>176.1070251464844</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="F128">
-        <v>101593300</v>
+        <v>50901200</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4133,22 +4133,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B129">
-        <v>174.9199973713308</v>
+        <v>167.6084016381576</v>
       </c>
       <c r="C129">
-        <v>176.1868150220336</v>
+        <v>168.2168717211314</v>
       </c>
       <c r="D129">
-        <v>172.0671729102025</v>
+        <v>166.1321193068702</v>
       </c>
       <c r="E129">
-        <v>172.2566986083984</v>
+        <v>166.6208801269531</v>
       </c>
       <c r="F129">
-        <v>73531800</v>
+        <v>43122900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4159,22 +4159,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B130">
-        <v>171.3190657023367</v>
+        <v>165.7929692214355</v>
       </c>
       <c r="C130">
-        <v>173.3240169744063</v>
+        <v>165.9824797072532</v>
       </c>
       <c r="D130">
-        <v>167.8478015585806</v>
+        <v>163.6683087334206</v>
       </c>
       <c r="E130">
-        <v>168.9550170898438</v>
+        <v>164.5859985351562</v>
       </c>
       <c r="F130">
-        <v>73711200</v>
+        <v>67772100</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4185,22 +4185,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="B131">
-        <v>169.18443695551</v>
+        <v>165.1046847536948</v>
       </c>
       <c r="C131">
-        <v>170.2218208239065</v>
+        <v>166.8403090390114</v>
       </c>
       <c r="D131">
-        <v>167.5784759521484</v>
+        <v>164.3565666388509</v>
       </c>
       <c r="E131">
-        <v>167.5784759521484</v>
+        <v>165.4238739013672</v>
       </c>
       <c r="F131">
-        <v>50901200</v>
+        <v>48116400</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4211,22 +4211,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="B132">
-        <v>167.6084016381576</v>
+        <v>164.9351177927806</v>
       </c>
       <c r="C132">
-        <v>168.2168717211314</v>
+        <v>166.6308491901544</v>
       </c>
       <c r="D132">
-        <v>166.1321193068702</v>
+        <v>164.5061888135111</v>
       </c>
       <c r="E132">
-        <v>166.6208801269531</v>
+        <v>166.4812164306641</v>
       </c>
       <c r="F132">
-        <v>43122900</v>
+        <v>49537800</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B133">
-        <v>165.7929692214355</v>
+        <v>166.1221283489459</v>
       </c>
       <c r="C133">
-        <v>165.9824797072532</v>
+        <v>168.8752129833481</v>
       </c>
       <c r="D133">
-        <v>163.6683087334206</v>
+        <v>165.7929697448792</v>
       </c>
       <c r="E133">
-        <v>164.5859985351562</v>
+        <v>168.5959167480469</v>
       </c>
       <c r="F133">
-        <v>67772100</v>
+        <v>48251800</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B134">
-        <v>165.1046847536948</v>
+        <v>169.1046325224713</v>
       </c>
       <c r="C134">
-        <v>166.8403090390114</v>
+        <v>170.1819245302526</v>
       </c>
       <c r="D134">
-        <v>164.3565666388509</v>
+        <v>167.7280901980003</v>
       </c>
       <c r="E134">
-        <v>165.4238739013672</v>
+        <v>169.4637298583984</v>
       </c>
       <c r="F134">
-        <v>48116400</v>
+        <v>50558300</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4289,22 +4289,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B135">
-        <v>164.9351177927806</v>
+        <v>169.453760175649</v>
       </c>
       <c r="C135">
-        <v>166.6308491901544</v>
+        <v>170.9100883765927</v>
       </c>
       <c r="D135">
-        <v>164.5061888135111</v>
+        <v>168.7555043642477</v>
       </c>
       <c r="E135">
-        <v>166.4812164306641</v>
+        <v>168.8752136230469</v>
       </c>
       <c r="F135">
-        <v>49537800</v>
+        <v>44838400</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="B136">
-        <v>166.1221283489459</v>
+        <v>172.9349880637843</v>
       </c>
       <c r="C136">
-        <v>168.8752129833481</v>
+        <v>175.5883174432168</v>
       </c>
       <c r="D136">
-        <v>165.7929697448792</v>
+        <v>172.6656764863966</v>
       </c>
       <c r="E136">
-        <v>168.5959167480469</v>
+        <v>173.0646667480469</v>
       </c>
       <c r="F136">
-        <v>48251800</v>
+        <v>68169400</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>45407</v>
+        <v>45412</v>
       </c>
       <c r="B137">
-        <v>169.1046325224713</v>
+        <v>172.8951064875264</v>
       </c>
       <c r="C137">
-        <v>170.1819245302526</v>
+        <v>174.550945101143</v>
       </c>
       <c r="D137">
-        <v>167.7280901980003</v>
+        <v>169.573459830273</v>
       </c>
       <c r="E137">
-        <v>169.4637298583984</v>
+        <v>169.9026336669922</v>
       </c>
       <c r="F137">
-        <v>50558300</v>
+        <v>65934800</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B138">
-        <v>169.453760175649</v>
+        <v>169.154509859406</v>
       </c>
       <c r="C138">
-        <v>170.9100883765927</v>
+        <v>172.276661269318</v>
       </c>
       <c r="D138">
-        <v>168.7555043642477</v>
+        <v>168.6856879154096</v>
       </c>
       <c r="E138">
         <v>168.8752136230469</v>
       </c>
       <c r="F138">
-        <v>44838400</v>
+        <v>50383100</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B139">
-        <v>172.9349880637843</v>
+        <v>172.0771409506727</v>
       </c>
       <c r="C139">
-        <v>175.5883174432168</v>
+        <v>172.9848612765476</v>
       </c>
       <c r="D139">
-        <v>172.6656764863966</v>
+        <v>170.4612106452049</v>
       </c>
       <c r="E139">
-        <v>173.0646667480469</v>
+        <v>172.5958404541016</v>
       </c>
       <c r="F139">
-        <v>68169400</v>
+        <v>94214900</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4419,22 +4419,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B140">
-        <v>172.8951064875264</v>
+        <v>186.1816602043045</v>
       </c>
       <c r="C140">
-        <v>174.550945101143</v>
+        <v>186.5307880883928</v>
       </c>
       <c r="D140">
-        <v>169.573459830273</v>
+        <v>182.20168147231</v>
       </c>
       <c r="E140">
-        <v>169.9026336669922</v>
+        <v>182.9198760986328</v>
       </c>
       <c r="F140">
-        <v>65934800</v>
+        <v>163224100</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4445,22 +4445,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="B141">
-        <v>169.154509859406</v>
+        <v>181.8924829621646</v>
       </c>
       <c r="C141">
-        <v>172.276661269318</v>
+        <v>183.7378321090879</v>
       </c>
       <c r="D141">
-        <v>168.6856879154096</v>
+        <v>179.967317491337</v>
       </c>
       <c r="E141">
-        <v>168.8752136230469</v>
+        <v>181.2540893554688</v>
       </c>
       <c r="F141">
-        <v>50383100</v>
+        <v>78569700</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4471,22 +4471,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="B142">
-        <v>172.0771409506727</v>
+        <v>182.9896901956702</v>
       </c>
       <c r="C142">
-        <v>172.9848612765476</v>
+        <v>184.4360488588342</v>
       </c>
       <c r="D142">
-        <v>170.4612106452049</v>
+        <v>180.8650450721818</v>
       </c>
       <c r="E142">
-        <v>172.5958404541016</v>
+        <v>181.9423217773438</v>
       </c>
       <c r="F142">
-        <v>94214900</v>
+        <v>77305800</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4497,22 +4497,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="B143">
-        <v>186.1816602043045</v>
+        <v>182.3912187494054</v>
       </c>
       <c r="C143">
-        <v>186.5307880883928</v>
+        <v>182.6106679669662</v>
       </c>
       <c r="D143">
-        <v>182.20168147231</v>
+        <v>180.9947223448819</v>
       </c>
       <c r="E143">
-        <v>182.9198760986328</v>
+        <v>182.281494140625</v>
       </c>
       <c r="F143">
-        <v>163224100</v>
+        <v>45057100</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4523,22 +4523,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B144">
-        <v>181.8924829621646</v>
+        <v>182.1019366221584</v>
       </c>
       <c r="C144">
-        <v>183.7378321090879</v>
+        <v>184.1966736044253</v>
       </c>
       <c r="D144">
-        <v>179.967317491337</v>
+        <v>181.6530687603878</v>
       </c>
       <c r="E144">
-        <v>181.2540893554688</v>
+        <v>184.1069030761719</v>
       </c>
       <c r="F144">
-        <v>78569700</v>
+        <v>48983000</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4549,25 +4549,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B145">
-        <v>182.9896901956702</v>
+        <v>184.6862155631856</v>
       </c>
       <c r="C145">
-        <v>184.4360488588342</v>
+        <v>184.8759983268926</v>
       </c>
       <c r="D145">
-        <v>180.8650450721818</v>
+        <v>181.9194291652744</v>
       </c>
       <c r="E145">
-        <v>181.9423217773438</v>
+        <v>182.8383636474609</v>
       </c>
       <c r="F145">
-        <v>77305800</v>
+        <v>50759500</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4575,22 +4575,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="B146">
-        <v>182.3912187494054</v>
+        <v>185.225611031474</v>
       </c>
       <c r="C146">
-        <v>182.6106679669662</v>
+        <v>186.8836955255456</v>
       </c>
       <c r="D146">
-        <v>180.9947223448819</v>
+        <v>184.4065517363972</v>
       </c>
       <c r="E146">
-        <v>182.281494140625</v>
+        <v>186.0646362304688</v>
       </c>
       <c r="F146">
-        <v>45057100</v>
+        <v>72044800</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B147">
-        <v>182.1019366221584</v>
+        <v>187.2932119522825</v>
       </c>
       <c r="C147">
-        <v>184.1966736044253</v>
+        <v>188.0823071588464</v>
       </c>
       <c r="D147">
-        <v>181.6530687603878</v>
+        <v>186.0746211896293</v>
       </c>
       <c r="E147">
-        <v>184.1069030761719</v>
+        <v>187.2133026123047</v>
       </c>
       <c r="F147">
-        <v>48983000</v>
+        <v>52393600</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B148">
-        <v>184.6862155631856</v>
+        <v>187.6927512010029</v>
       </c>
       <c r="C148">
-        <v>184.8759983268926</v>
+        <v>190.4295735911427</v>
       </c>
       <c r="D148">
-        <v>181.9194291652744</v>
+        <v>187.1533669878522</v>
       </c>
       <c r="E148">
-        <v>182.8383636474609</v>
+        <v>189.5006561279297</v>
       </c>
       <c r="F148">
-        <v>50759500</v>
+        <v>70400000</v>
       </c>
       <c r="G148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4653,22 +4653,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B149">
-        <v>185.225611031474</v>
+        <v>190.2497904222998</v>
       </c>
       <c r="C149">
-        <v>186.8836955255456</v>
+        <v>190.8790669285839</v>
       </c>
       <c r="D149">
-        <v>184.4065517363972</v>
+        <v>189.4407293377331</v>
       </c>
       <c r="E149">
-        <v>186.0646362304688</v>
+        <v>189.6205139160156</v>
       </c>
       <c r="F149">
-        <v>72044800</v>
+        <v>52845200</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4679,22 +4679,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B150">
-        <v>187.2932119522825</v>
+        <v>189.290897772124</v>
       </c>
       <c r="C150">
-        <v>188.0823071588464</v>
+        <v>190.5893978613363</v>
       </c>
       <c r="D150">
-        <v>186.0746211896293</v>
+        <v>188.9612774635522</v>
       </c>
       <c r="E150">
-        <v>187.2133026123047</v>
+        <v>189.6504821777344</v>
       </c>
       <c r="F150">
-        <v>52393600</v>
+        <v>41282900</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4705,22 +4705,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B151">
-        <v>187.6927512010029</v>
+        <v>189.1111078667427</v>
       </c>
       <c r="C151">
-        <v>190.4295735911427</v>
+        <v>191.698109779236</v>
       </c>
       <c r="D151">
-        <v>187.1533669878522</v>
+        <v>188.7914705191316</v>
       </c>
       <c r="E151">
-        <v>189.5006561279297</v>
+        <v>190.8191223144531</v>
       </c>
       <c r="F151">
-        <v>70400000</v>
+        <v>44361300</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4731,22 +4731,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B152">
-        <v>190.2497904222998</v>
+        <v>190.8690714810481</v>
       </c>
       <c r="C152">
-        <v>190.8790669285839</v>
+        <v>192.5071748183792</v>
       </c>
       <c r="D152">
-        <v>189.4407293377331</v>
+        <v>190.6992698520675</v>
       </c>
       <c r="E152">
-        <v>189.6205139160156</v>
+        <v>192.1276245117188</v>
       </c>
       <c r="F152">
-        <v>52845200</v>
+        <v>42309400</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4757,22 +4757,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B153">
-        <v>189.290897772124</v>
+        <v>192.0477172523277</v>
       </c>
       <c r="C153">
-        <v>190.5893978613363</v>
+        <v>192.5970844350643</v>
       </c>
       <c r="D153">
-        <v>188.9612774635522</v>
+        <v>190.0500294904844</v>
       </c>
       <c r="E153">
-        <v>189.6504821777344</v>
+        <v>190.6792907714844</v>
       </c>
       <c r="F153">
-        <v>41282900</v>
+        <v>34648500</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4783,22 +4783,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B154">
-        <v>189.1111078667427</v>
+        <v>190.7591910012091</v>
       </c>
       <c r="C154">
-        <v>191.698109779236</v>
+        <v>190.7791721453948</v>
       </c>
       <c r="D154">
-        <v>188.7914705191316</v>
+        <v>186.414229471382</v>
       </c>
       <c r="E154">
-        <v>190.8191223144531</v>
+        <v>186.6639404296875</v>
       </c>
       <c r="F154">
-        <v>44361300</v>
+        <v>51005900</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B155">
-        <v>190.8690714810481</v>
+        <v>188.6016982061538</v>
       </c>
       <c r="C155">
-        <v>192.5071748183792</v>
+        <v>190.359657849979</v>
       </c>
       <c r="D155">
-        <v>190.6992698520675</v>
+        <v>187.8225860014019</v>
       </c>
       <c r="E155">
-        <v>192.1276245117188</v>
+        <v>189.7603454589844</v>
       </c>
       <c r="F155">
-        <v>42309400</v>
+        <v>36294600</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4835,22 +4835,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B156">
-        <v>192.0477172523277</v>
+        <v>191.2885869563959</v>
       </c>
       <c r="C156">
-        <v>192.5970844350643</v>
+        <v>192.7768698320682</v>
       </c>
       <c r="D156">
-        <v>190.0500294904844</v>
+        <v>188.8813847764805</v>
       </c>
       <c r="E156">
-        <v>190.6792907714844</v>
+        <v>189.7703552246094</v>
       </c>
       <c r="F156">
-        <v>34648500</v>
+        <v>52280100</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4861,22 +4861,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B157">
-        <v>190.7591910012091</v>
+        <v>189.3907855540502</v>
       </c>
       <c r="C157">
-        <v>190.7791721453948</v>
+        <v>192.0277327438517</v>
       </c>
       <c r="D157">
-        <v>186.414229471382</v>
+        <v>189.2908950712484</v>
       </c>
       <c r="E157">
-        <v>186.6639404296875</v>
+        <v>190.0699920654297</v>
       </c>
       <c r="F157">
-        <v>51005900</v>
+        <v>53068000</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4887,22 +4887,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>188.6016982061538</v>
+        <v>190.5394463789207</v>
       </c>
       <c r="C158">
-        <v>190.359657849979</v>
+        <v>191.9578028098348</v>
       </c>
       <c r="D158">
-        <v>187.8225860014019</v>
+        <v>190.4096070430554</v>
       </c>
       <c r="E158">
-        <v>189.7603454589844</v>
+        <v>191.0688323974609</v>
       </c>
       <c r="F158">
-        <v>36294600</v>
+        <v>49947900</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B159">
-        <v>191.2885869563959</v>
+        <v>191.2186641606353</v>
       </c>
       <c r="C159">
-        <v>192.7768698320682</v>
+        <v>192.34736255925</v>
       </c>
       <c r="D159">
-        <v>188.8813847764805</v>
+        <v>189.6904343287636</v>
       </c>
       <c r="E159">
-        <v>189.7703552246094</v>
+        <v>192.0277252197266</v>
       </c>
       <c r="F159">
-        <v>52280100</v>
+        <v>75158300</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4939,22 +4939,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>45441</v>
+        <v>45446</v>
       </c>
       <c r="B160">
-        <v>189.3907855540502</v>
+        <v>192.6769656752138</v>
       </c>
       <c r="C160">
-        <v>192.0277327438517</v>
+        <v>194.7645608302989</v>
       </c>
       <c r="D160">
-        <v>189.2908950712484</v>
+        <v>192.2974153897732</v>
       </c>
       <c r="E160">
-        <v>190.0699920654297</v>
+        <v>193.8056640625</v>
       </c>
       <c r="F160">
-        <v>53068000</v>
+        <v>50080500</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B161">
-        <v>190.5394463789207</v>
+        <v>194.414963181449</v>
       </c>
       <c r="C161">
-        <v>191.9578028098348</v>
+        <v>195.0941849137607</v>
       </c>
       <c r="D161">
-        <v>190.4096070430554</v>
+        <v>192.8068239995484</v>
       </c>
       <c r="E161">
-        <v>191.0688323974609</v>
+        <v>194.1253051757812</v>
       </c>
       <c r="F161">
-        <v>49947900</v>
+        <v>47471400</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B162">
-        <v>191.2186641606353</v>
+        <v>195.1740816013435</v>
       </c>
       <c r="C162">
-        <v>192.34736255925</v>
+        <v>196.6723473717975</v>
       </c>
       <c r="D162">
-        <v>189.6904343287636</v>
+        <v>194.6446955817416</v>
       </c>
       <c r="E162">
-        <v>192.0277252197266</v>
+        <v>195.6435394287109</v>
       </c>
       <c r="F162">
-        <v>75158300</v>
+        <v>54156800</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -5017,22 +5017,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B163">
-        <v>192.6769656752138</v>
+        <v>195.4637499424949</v>
       </c>
       <c r="C163">
-        <v>194.7645608302989</v>
+        <v>196.2728109996351</v>
       </c>
       <c r="D163">
-        <v>192.2974153897732</v>
+        <v>193.9455030657145</v>
       </c>
       <c r="E163">
-        <v>193.8056640625</v>
+        <v>194.2551422119141</v>
       </c>
       <c r="F163">
-        <v>50080500</v>
+        <v>41181800</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5043,22 +5043,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B164">
-        <v>194.414963181449</v>
+        <v>194.4249530208514</v>
       </c>
       <c r="C164">
-        <v>195.0941849137607</v>
+        <v>196.7123140160979</v>
       </c>
       <c r="D164">
-        <v>192.8068239995484</v>
+        <v>193.9155481344315</v>
       </c>
       <c r="E164">
-        <v>194.1253051757812</v>
+        <v>196.6623687744141</v>
       </c>
       <c r="F164">
-        <v>47471400</v>
+        <v>53103900</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5069,22 +5069,22 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B165">
-        <v>195.1740816013435</v>
+        <v>196.6723416696202</v>
       </c>
       <c r="C165">
-        <v>196.6723473717975</v>
+        <v>197.0718883415123</v>
       </c>
       <c r="D165">
-        <v>194.6446955817416</v>
+        <v>191.9278335340749</v>
       </c>
       <c r="E165">
-        <v>195.6435394287109</v>
+        <v>192.8967132568359</v>
       </c>
       <c r="F165">
-        <v>54156800</v>
+        <v>97262100</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5095,22 +5095,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B166">
-        <v>195.4637499424949</v>
+        <v>193.4261003259925</v>
       </c>
       <c r="C166">
-        <v>196.2728109996351</v>
+        <v>206.9204901359287</v>
       </c>
       <c r="D166">
-        <v>193.9455030657145</v>
+        <v>193.4061344231483</v>
       </c>
       <c r="E166">
-        <v>194.2551422119141</v>
+        <v>206.9104919433594</v>
       </c>
       <c r="F166">
-        <v>41181800</v>
+        <v>172373300</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5121,22 +5121,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="B167">
-        <v>194.4249530208514</v>
+        <v>207.1302472154645</v>
       </c>
       <c r="C167">
-        <v>196.7123140160979</v>
+        <v>219.9454158204473</v>
       </c>
       <c r="D167">
-        <v>193.9155481344315</v>
+        <v>206.6607893800588</v>
       </c>
       <c r="E167">
-        <v>196.6623687744141</v>
+        <v>212.8236694335938</v>
       </c>
       <c r="F167">
-        <v>53103900</v>
+        <v>198134300</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5147,22 +5147,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B168">
-        <v>196.6723416696202</v>
+        <v>214.4917314898502</v>
       </c>
       <c r="C168">
-        <v>197.0718883415123</v>
+        <v>216.4994021195785</v>
       </c>
       <c r="D168">
-        <v>191.9278335340749</v>
+        <v>211.3553624447995</v>
       </c>
       <c r="E168">
-        <v>192.8967132568359</v>
+        <v>213.9923095703125</v>
       </c>
       <c r="F168">
-        <v>97262100</v>
+        <v>97862700</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5173,22 +5173,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B169">
-        <v>193.4261003259925</v>
+        <v>213.6027672593269</v>
       </c>
       <c r="C169">
-        <v>206.9204901359287</v>
+        <v>214.9212332396349</v>
       </c>
       <c r="D169">
-        <v>193.4061344231483</v>
+        <v>211.0557123478038</v>
       </c>
       <c r="E169">
-        <v>206.9104919433594</v>
+        <v>212.2443389892578</v>
       </c>
       <c r="F169">
-        <v>172373300</v>
+        <v>70122700</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5199,22 +5199,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>45455</v>
+        <v>45460</v>
       </c>
       <c r="B170">
-        <v>207.1302472154645</v>
+        <v>213.1233068836218</v>
       </c>
       <c r="C170">
-        <v>219.9454158204473</v>
+        <v>218.6968573821251</v>
       </c>
       <c r="D170">
-        <v>206.6607893800588</v>
+        <v>212.4740644791458</v>
       </c>
       <c r="E170">
-        <v>212.8236694335938</v>
+        <v>216.4194946289062</v>
       </c>
       <c r="F170">
-        <v>198134300</v>
+        <v>93728300</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="B171">
-        <v>214.4917314898502</v>
+        <v>217.3384239953892</v>
       </c>
       <c r="C171">
-        <v>216.4994021195785</v>
+        <v>218.3772301073396</v>
       </c>
       <c r="D171">
-        <v>211.3553624447995</v>
+        <v>212.7537345013344</v>
       </c>
       <c r="E171">
-        <v>213.9923095703125</v>
+        <v>214.042236328125</v>
       </c>
       <c r="F171">
-        <v>97862700</v>
+        <v>79943300</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5251,22 +5251,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B172">
-        <v>213.6027672593269</v>
+        <v>213.6826627606623</v>
       </c>
       <c r="C172">
-        <v>214.9212332396349</v>
+        <v>213.9923171643283</v>
       </c>
       <c r="D172">
-        <v>211.0557123478038</v>
+        <v>208.6085492903026</v>
       </c>
       <c r="E172">
-        <v>212.2443389892578</v>
+        <v>209.4375762939453</v>
       </c>
       <c r="F172">
-        <v>70122700</v>
+        <v>86172500</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5277,22 +5277,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B173">
-        <v>213.1233068836218</v>
+        <v>210.1467632247673</v>
       </c>
       <c r="C173">
-        <v>218.6968573821251</v>
+        <v>211.6450290442056</v>
       </c>
       <c r="D173">
-        <v>212.4740644791458</v>
+        <v>206.8705565188874</v>
       </c>
       <c r="E173">
-        <v>216.4194946289062</v>
+        <v>207.2501220703125</v>
       </c>
       <c r="F173">
-        <v>93728300</v>
+        <v>246421400</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5303,22 +5303,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B174">
-        <v>217.3384239953892</v>
+        <v>207.4798404499802</v>
       </c>
       <c r="C174">
-        <v>218.3772301073396</v>
+        <v>212.454078428602</v>
       </c>
       <c r="D174">
-        <v>212.7537345013344</v>
+        <v>206.3511420510979</v>
       </c>
       <c r="E174">
-        <v>214.042236328125</v>
+        <v>207.8993530273438</v>
       </c>
       <c r="F174">
-        <v>79943300</v>
+        <v>80727000</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B175">
-        <v>213.6826627606623</v>
+        <v>208.9081869431628</v>
       </c>
       <c r="C175">
-        <v>213.9923171643283</v>
+        <v>211.1356197216104</v>
       </c>
       <c r="D175">
-        <v>208.6085492903026</v>
+        <v>208.3688179655891</v>
       </c>
       <c r="E175">
-        <v>209.4375762939453</v>
+        <v>208.8282928466797</v>
       </c>
       <c r="F175">
-        <v>86172500</v>
+        <v>56713900</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5355,22 +5355,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B176">
-        <v>210.1467632247673</v>
+        <v>211.2554717695587</v>
       </c>
       <c r="C176">
-        <v>211.6450290442056</v>
+        <v>214.6115876754019</v>
       </c>
       <c r="D176">
-        <v>206.8705565188874</v>
+        <v>210.3964654591004</v>
       </c>
       <c r="E176">
-        <v>207.2501220703125</v>
+        <v>213.0034484863281</v>
       </c>
       <c r="F176">
-        <v>246421400</v>
+        <v>66213200</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5381,22 +5381,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B177">
-        <v>207.4798404499802</v>
+        <v>214.4417922510153</v>
       </c>
       <c r="C177">
-        <v>212.454078428602</v>
+        <v>215.4905813596252</v>
       </c>
       <c r="D177">
-        <v>206.3511420510979</v>
+        <v>212.1045012600432</v>
       </c>
       <c r="E177">
-        <v>207.8993530273438</v>
+        <v>213.8524780273438</v>
       </c>
       <c r="F177">
-        <v>80727000</v>
+        <v>49772700</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -5407,22 +5407,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B178">
-        <v>208.9081869431628</v>
+        <v>215.5205349107231</v>
       </c>
       <c r="C178">
-        <v>211.1356197216104</v>
+        <v>215.8201911043989</v>
       </c>
       <c r="D178">
-        <v>208.3688179655891</v>
+        <v>210.0568580061261</v>
       </c>
       <c r="E178">
-        <v>208.8282928466797</v>
+        <v>210.3764801025391</v>
       </c>
       <c r="F178">
-        <v>56713900</v>
+        <v>82542700</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5433,22 +5433,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B179">
-        <v>211.2554717695587</v>
+        <v>211.8447888993273</v>
       </c>
       <c r="C179">
-        <v>214.6115876754019</v>
+        <v>217.2585207478851</v>
       </c>
       <c r="D179">
-        <v>210.3964654591004</v>
+        <v>211.6749872734358</v>
       </c>
       <c r="E179">
-        <v>213.0034484863281</v>
+        <v>216.4994049072266</v>
       </c>
       <c r="F179">
-        <v>66213200</v>
+        <v>60402900</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5459,22 +5459,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B180">
-        <v>214.4417922510153</v>
+        <v>215.9000881322941</v>
       </c>
       <c r="C180">
-        <v>215.4905813596252</v>
+        <v>220.1252085141442</v>
       </c>
       <c r="D180">
-        <v>212.1045012600432</v>
+        <v>214.8513143018939</v>
       </c>
       <c r="E180">
-        <v>213.8524780273438</v>
+        <v>220.0153350830078</v>
       </c>
       <c r="F180">
-        <v>49772700</v>
+        <v>58046200</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5485,22 +5485,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B181">
-        <v>215.5205349107231</v>
+        <v>219.7456427738116</v>
       </c>
       <c r="C181">
-        <v>215.8201911043989</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="D181">
-        <v>210.0568580061261</v>
+        <v>218.7767630386535</v>
       </c>
       <c r="E181">
-        <v>210.3764801025391</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="F181">
-        <v>82542700</v>
+        <v>37369800</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B182">
-        <v>211.8447888993273</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="C182">
-        <v>217.2585207478851</v>
+        <v>226.1881815360653</v>
       </c>
       <c r="D182">
-        <v>211.6749872734358</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="E182">
-        <v>216.4994049072266</v>
+        <v>226.0783081054688</v>
       </c>
       <c r="F182">
-        <v>60402900</v>
+        <v>60412400</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5537,22 +5537,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B183">
-        <v>215.9000881322941</v>
+        <v>226.8274431332781</v>
       </c>
       <c r="C183">
-        <v>220.1252085141442</v>
+        <v>227.5865742032198</v>
       </c>
       <c r="D183">
-        <v>214.8513143018939</v>
+        <v>222.9918864596637</v>
       </c>
       <c r="E183">
-        <v>220.0153350830078</v>
+        <v>227.5566101074219</v>
       </c>
       <c r="F183">
-        <v>58046200</v>
+        <v>59085900</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5563,22 +5563,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B184">
-        <v>219.7456427738116</v>
+        <v>227.6664707523748</v>
       </c>
       <c r="C184">
-        <v>221.2938537597656</v>
+        <v>229.1347724268948</v>
       </c>
       <c r="D184">
-        <v>218.7767630386535</v>
+        <v>226.1082767894919</v>
       </c>
       <c r="E184">
-        <v>221.2938537597656</v>
+        <v>228.4156036376953</v>
       </c>
       <c r="F184">
-        <v>37369800</v>
+        <v>48076100</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B185">
-        <v>221.3937281190806</v>
+        <v>229.0348943285368</v>
       </c>
       <c r="C185">
-        <v>226.1881815360653</v>
+        <v>232.8105228041406</v>
       </c>
       <c r="D185">
-        <v>221.3937281190806</v>
+        <v>228.9849490885758</v>
       </c>
       <c r="E185">
-        <v>226.0783081054688</v>
+        <v>232.7106323242188</v>
       </c>
       <c r="F185">
-        <v>60412400</v>
+        <v>62627700</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5615,22 +5615,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B186">
-        <v>226.8274431332781</v>
+        <v>231.1224755684865</v>
       </c>
       <c r="C186">
-        <v>227.5865742032198</v>
+        <v>232.1213194086617</v>
       </c>
       <c r="D186">
-        <v>222.9918864596637</v>
+        <v>225.5089780638693</v>
       </c>
       <c r="E186">
-        <v>227.5566101074219</v>
+        <v>227.3069000244141</v>
       </c>
       <c r="F186">
-        <v>59085900</v>
+        <v>64710600</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5641,22 +5641,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B187">
-        <v>227.6664707523748</v>
+        <v>228.6553306110013</v>
       </c>
       <c r="C187">
-        <v>229.1347724268948</v>
+        <v>232.3710309246342</v>
       </c>
       <c r="D187">
-        <v>226.1082767894919</v>
+        <v>228.4156026019726</v>
       </c>
       <c r="E187">
-        <v>228.4156036376953</v>
+        <v>230.2734527587891</v>
       </c>
       <c r="F187">
-        <v>48076100</v>
+        <v>53046500</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5667,22 +5667,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B188">
-        <v>229.0348943285368</v>
+        <v>236.2065948881155</v>
       </c>
       <c r="C188">
-        <v>232.8105228041406</v>
+        <v>236.955727793083</v>
       </c>
       <c r="D188">
-        <v>228.9849490885758</v>
+        <v>232.8205147673081</v>
       </c>
       <c r="E188">
-        <v>232.7106323242188</v>
+        <v>234.1289978027344</v>
       </c>
       <c r="F188">
-        <v>62627700</v>
+        <v>62631300</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B189">
-        <v>231.1224755684865</v>
+        <v>234.7283075285961</v>
       </c>
       <c r="C189">
-        <v>232.1213194086617</v>
+        <v>235.9968435006337</v>
       </c>
       <c r="D189">
-        <v>225.5089780638693</v>
+        <v>232.0613962464642</v>
       </c>
       <c r="E189">
-        <v>227.3069000244141</v>
+        <v>234.5485229492188</v>
       </c>
       <c r="F189">
-        <v>64710600</v>
+        <v>43234300</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -5719,22 +5719,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B190">
-        <v>228.6553306110013</v>
+        <v>229.1847200362218</v>
       </c>
       <c r="C190">
-        <v>232.3710309246342</v>
+        <v>231.1924059439656</v>
       </c>
       <c r="D190">
-        <v>228.4156026019726</v>
+        <v>226.3779712354622</v>
       </c>
       <c r="E190">
-        <v>230.2734527587891</v>
+        <v>228.6153869628906</v>
       </c>
       <c r="F190">
-        <v>53046500</v>
+        <v>57345900</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -5745,22 +5745,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B191">
-        <v>236.2065948881155</v>
+        <v>230.0137604637082</v>
       </c>
       <c r="C191">
-        <v>236.955727793083</v>
+        <v>230.1735791375176</v>
       </c>
       <c r="D191">
-        <v>232.8205147673081</v>
+        <v>222.0130267153258</v>
       </c>
       <c r="E191">
-        <v>234.1289978027344</v>
+        <v>223.9208068847656</v>
       </c>
       <c r="F191">
-        <v>62631300</v>
+        <v>66034600</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5771,22 +5771,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B192">
-        <v>234.7283075285961</v>
+        <v>224.5600792921215</v>
       </c>
       <c r="C192">
-        <v>235.9968435006337</v>
+        <v>226.5377858266339</v>
       </c>
       <c r="D192">
-        <v>232.0613962464642</v>
+        <v>223.021851244386</v>
       </c>
       <c r="E192">
-        <v>234.5485229492188</v>
+        <v>224.0506591796875</v>
       </c>
       <c r="F192">
-        <v>43234300</v>
+        <v>49151500</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B193">
-        <v>229.1847200362218</v>
+        <v>226.7475419395334</v>
       </c>
       <c r="C193">
-        <v>231.1924059439656</v>
+        <v>227.5166559886428</v>
       </c>
       <c r="D193">
-        <v>226.3779712354622</v>
+        <v>222.8320757894778</v>
       </c>
       <c r="E193">
-        <v>228.6153869628906</v>
+        <v>223.7010803222656</v>
       </c>
       <c r="F193">
-        <v>57345900</v>
+        <v>48201800</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5823,22 +5823,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B194">
-        <v>230.0137604637082</v>
+        <v>224.1105879628454</v>
       </c>
       <c r="C194">
-        <v>230.1735791375176</v>
+        <v>226.6776239526561</v>
       </c>
       <c r="D194">
-        <v>222.0130267153258</v>
+        <v>222.4225394312029</v>
       </c>
       <c r="E194">
-        <v>223.9208068847656</v>
+        <v>224.7498474121094</v>
       </c>
       <c r="F194">
-        <v>66034600</v>
+        <v>39960300</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5849,22 +5849,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B195">
-        <v>224.5600792921215</v>
+        <v>223.7410169933649</v>
       </c>
       <c r="C195">
-        <v>226.5377858266339</v>
+        <v>224.540095102285</v>
       </c>
       <c r="D195">
-        <v>223.021851244386</v>
+        <v>216.8789647868516</v>
       </c>
       <c r="E195">
-        <v>224.0506591796875</v>
+        <v>218.2873229980469</v>
       </c>
       <c r="F195">
-        <v>49151500</v>
+        <v>61777600</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5875,22 +5875,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B196">
-        <v>226.7475419395334</v>
+        <v>218.6768782594705</v>
       </c>
       <c r="C196">
-        <v>227.5166559886428</v>
+        <v>220.5946718767891</v>
       </c>
       <c r="D196">
-        <v>222.8320757894778</v>
+        <v>214.3718636751281</v>
       </c>
       <c r="E196">
-        <v>223.7010803222656</v>
+        <v>217.2385559082031</v>
       </c>
       <c r="F196">
-        <v>48201800</v>
+        <v>51391200</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5901,22 +5901,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B197">
-        <v>224.1105879628454</v>
+        <v>218.4471424920927</v>
       </c>
       <c r="C197">
-        <v>226.6776239526561</v>
+        <v>219.2362376525438</v>
       </c>
       <c r="D197">
-        <v>222.4225394312029</v>
+        <v>215.7602501518015</v>
       </c>
       <c r="E197">
-        <v>224.7498474121094</v>
+        <v>217.7080078125</v>
       </c>
       <c r="F197">
-        <v>39960300</v>
+        <v>41601300</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5927,22 +5927,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B198">
-        <v>223.7410169933649</v>
+        <v>216.7091672552843</v>
       </c>
       <c r="C198">
-        <v>224.540095102285</v>
+        <v>219.04645819404</v>
       </c>
       <c r="D198">
-        <v>216.8789647868516</v>
+        <v>215.5005594970752</v>
       </c>
       <c r="E198">
-        <v>218.2873229980469</v>
+        <v>217.9876861572266</v>
       </c>
       <c r="F198">
-        <v>61777600</v>
+        <v>36311800</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B199">
-        <v>218.6768782594705</v>
+        <v>218.9365913481919</v>
       </c>
       <c r="C199">
-        <v>220.5946718767891</v>
+        <v>220.0752727557774</v>
       </c>
       <c r="D199">
-        <v>214.3718636751281</v>
+        <v>215.8701333369141</v>
       </c>
       <c r="E199">
-        <v>217.2385559082031</v>
+        <v>218.5470428466797</v>
       </c>
       <c r="F199">
-        <v>51391200</v>
+        <v>41643800</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5979,22 +5979,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B200">
-        <v>218.4471424920927</v>
+        <v>221.1839827384757</v>
       </c>
       <c r="C200">
-        <v>219.2362376525438</v>
+        <v>223.5612359588227</v>
       </c>
       <c r="D200">
-        <v>215.7602501518015</v>
+        <v>220.3749216653048</v>
       </c>
       <c r="E200">
-        <v>217.7080078125</v>
+        <v>221.8232421875</v>
       </c>
       <c r="F200">
-        <v>41601300</v>
+        <v>50036300</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B201">
-        <v>216.7091672552843</v>
+        <v>224.110590003871</v>
       </c>
       <c r="C201">
-        <v>219.04645819404</v>
+        <v>224.2204634371427</v>
       </c>
       <c r="D201">
-        <v>215.5005594970752</v>
+        <v>216.7690968426558</v>
       </c>
       <c r="E201">
-        <v>217.9876861572266</v>
+        <v>218.1075439453125</v>
       </c>
       <c r="F201">
-        <v>36311800</v>
+        <v>62501000</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B202">
-        <v>218.9365913481919</v>
+        <v>218.8966186199893</v>
       </c>
       <c r="C202">
-        <v>220.0752727557774</v>
+        <v>225.3391734979224</v>
       </c>
       <c r="D202">
-        <v>215.8701333369141</v>
+        <v>217.4582963114799</v>
       </c>
       <c r="E202">
-        <v>218.5470428466797</v>
+        <v>219.6058044433594</v>
       </c>
       <c r="F202">
-        <v>41643800</v>
+        <v>105568600</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B203">
-        <v>221.1839827384757</v>
+        <v>198.8598223925161</v>
       </c>
       <c r="C203">
-        <v>223.5612359588227</v>
+        <v>213.2531662150716</v>
       </c>
       <c r="D203">
-        <v>220.3749216653048</v>
+        <v>195.7733984925247</v>
       </c>
       <c r="E203">
-        <v>221.8232421875</v>
+        <v>209.0280609130859</v>
       </c>
       <c r="F203">
-        <v>50036300</v>
+        <v>119548600</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6083,22 +6083,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B204">
-        <v>224.110590003871</v>
+        <v>205.0626409492715</v>
       </c>
       <c r="C204">
-        <v>224.2204634371427</v>
+        <v>209.7472209414639</v>
       </c>
       <c r="D204">
-        <v>216.7690968426558</v>
+        <v>200.8375358240923</v>
       </c>
       <c r="E204">
-        <v>218.1075439453125</v>
+        <v>206.9904022216797</v>
       </c>
       <c r="F204">
-        <v>62501000</v>
+        <v>69660500</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B205">
-        <v>218.8966186199893</v>
+        <v>206.660785653003</v>
       </c>
       <c r="C205">
-        <v>225.3391734979224</v>
+        <v>213.3929986622491</v>
       </c>
       <c r="D205">
-        <v>217.4582963114799</v>
+        <v>206.1513807783264</v>
       </c>
       <c r="E205">
-        <v>219.6058044433594</v>
+        <v>209.5774230957031</v>
       </c>
       <c r="F205">
-        <v>105568600</v>
+        <v>63516400</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -6135,22 +6135,22 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B206">
-        <v>198.8598223925161</v>
+        <v>212.8636192825526</v>
       </c>
       <c r="C206">
-        <v>213.2531662150716</v>
+        <v>213.9523554508395</v>
       </c>
       <c r="D206">
-        <v>195.7733984925247</v>
+        <v>208.5885687073719</v>
       </c>
       <c r="E206">
-        <v>209.0280609130859</v>
+        <v>213.0633850097656</v>
       </c>
       <c r="F206">
-        <v>119548600</v>
+        <v>47161100</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6161,22 +6161,22 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B207">
-        <v>205.0626409492715</v>
+        <v>211.8547924511901</v>
       </c>
       <c r="C207">
-        <v>209.7472209414639</v>
+        <v>216.5293744807485</v>
       </c>
       <c r="D207">
-        <v>200.8375358240923</v>
+        <v>211.7249378699863</v>
       </c>
       <c r="E207">
-        <v>206.9904022216797</v>
+        <v>215.9900054931641</v>
       </c>
       <c r="F207">
-        <v>69660500</v>
+        <v>42201600</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -6187,25 +6187,25 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B208">
-        <v>206.660785653003</v>
+        <v>216.0700073242188</v>
       </c>
       <c r="C208">
-        <v>213.3929986622491</v>
+        <v>219.5099945068359</v>
       </c>
       <c r="D208">
-        <v>206.1513807783264</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E208">
-        <v>209.5774230957031</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="F208">
-        <v>63516400</v>
+        <v>38028100</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6213,22 +6213,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B209">
-        <v>212.8636192825526</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="C209">
-        <v>213.9523554508395</v>
+        <v>221.8899993896484</v>
       </c>
       <c r="D209">
-        <v>208.5885687073719</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="E209">
-        <v>213.0633850097656</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="F209">
-        <v>47161100</v>
+        <v>44155300</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6239,22 +6239,22 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B210">
-        <v>211.8547924511901</v>
+        <v>220.5700073242188</v>
       </c>
       <c r="C210">
-        <v>216.5293744807485</v>
+        <v>223.0299987792969</v>
       </c>
       <c r="D210">
-        <v>211.7249378699863</v>
+        <v>219.6999969482422</v>
       </c>
       <c r="E210">
-        <v>215.9900054931641</v>
+        <v>221.7200012207031</v>
       </c>
       <c r="F210">
-        <v>42201600</v>
+        <v>41960600</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -6265,25 +6265,25 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B211">
-        <v>216.0700073242188</v>
+        <v>224.6000061035156</v>
       </c>
       <c r="C211">
-        <v>219.5099945068359</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="D211">
-        <v>215.6000061035156</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E211">
-        <v>217.5299987792969</v>
+        <v>224.7200012207031</v>
       </c>
       <c r="F211">
-        <v>38028100</v>
+        <v>46414000</v>
       </c>
       <c r="G211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -6291,22 +6291,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B212">
-        <v>219.0099945068359</v>
+        <v>223.9199981689453</v>
       </c>
       <c r="C212">
-        <v>221.8899993896484</v>
+        <v>226.8300018310547</v>
       </c>
       <c r="D212">
-        <v>219.0099945068359</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="E212">
-        <v>221.2700042724609</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F212">
-        <v>44155300</v>
+        <v>44340200</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6317,22 +6317,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B213">
-        <v>220.5700073242188</v>
+        <v>225.7200012207031</v>
       </c>
       <c r="C213">
-        <v>223.0299987792969</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="D213">
-        <v>219.6999969482422</v>
+        <v>223.0399932861328</v>
       </c>
       <c r="E213">
-        <v>221.7200012207031</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="F213">
-        <v>41960600</v>
+        <v>40687800</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B214">
-        <v>224.6000061035156</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="C214">
-        <v>225.3500061035156</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D214">
-        <v>222.7599945068359</v>
+        <v>225.4499969482422</v>
       </c>
       <c r="E214">
-        <v>224.7200012207031</v>
+        <v>226.5099945068359</v>
       </c>
       <c r="F214">
-        <v>46414000</v>
+        <v>30299000</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -6369,22 +6369,22 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B215">
-        <v>223.9199981689453</v>
+        <v>226.5200042724609</v>
       </c>
       <c r="C215">
-        <v>226.8300018310547</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="D215">
-        <v>223.6499938964844</v>
+        <v>225.0500030517578</v>
       </c>
       <c r="E215">
-        <v>226.0500030517578</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="F215">
-        <v>44340200</v>
+        <v>34765500</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6395,22 +6395,22 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B216">
-        <v>225.7200012207031</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="C216">
-        <v>225.9900054931641</v>
+        <v>228.3399963378906</v>
       </c>
       <c r="D216">
-        <v>223.0399932861328</v>
+        <v>223.8999938964844</v>
       </c>
       <c r="E216">
-        <v>225.8899993896484</v>
+        <v>224.5299987792969</v>
       </c>
       <c r="F216">
-        <v>40687800</v>
+        <v>43695300</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B217">
-        <v>225.7700042724609</v>
+        <v>225.6600036621094</v>
       </c>
       <c r="C217">
-        <v>227.1699981689453</v>
+        <v>228.2200012207031</v>
       </c>
       <c r="D217">
-        <v>225.4499969482422</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="E217">
-        <v>226.5099945068359</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F217">
-        <v>30299000</v>
+        <v>38677300</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6447,22 +6447,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B218">
-        <v>226.5200042724609</v>
+        <v>226.7599945068359</v>
       </c>
       <c r="C218">
-        <v>227.9799957275391</v>
+        <v>227.2799987792969</v>
       </c>
       <c r="D218">
-        <v>225.0500030517578</v>
+        <v>223.8899993896484</v>
       </c>
       <c r="E218">
-        <v>226.3999938964844</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="F218">
-        <v>34765500</v>
+        <v>30602200</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6473,22 +6473,22 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B219">
-        <v>227.7899932861328</v>
+        <v>226</v>
       </c>
       <c r="C219">
-        <v>228.3399963378906</v>
+        <v>228.8500061035156</v>
       </c>
       <c r="D219">
-        <v>223.8999938964844</v>
+        <v>224.8899993896484</v>
       </c>
       <c r="E219">
-        <v>224.5299987792969</v>
+        <v>228.0299987792969</v>
       </c>
       <c r="F219">
-        <v>43695300</v>
+        <v>35934600</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -6499,22 +6499,22 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B220">
-        <v>225.6600036621094</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="C220">
-        <v>228.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="D220">
-        <v>224.3300018310547</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="E220">
-        <v>226.8399963378906</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="F220">
-        <v>38677300</v>
+        <v>38052200</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -6525,22 +6525,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B221">
-        <v>226.7599945068359</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="C221">
-        <v>227.2799987792969</v>
+        <v>232.9199981689453</v>
       </c>
       <c r="D221">
-        <v>223.8899993896484</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E221">
-        <v>227.1799926757812</v>
+        <v>229.7899932861328</v>
       </c>
       <c r="F221">
-        <v>30602200</v>
+        <v>51906300</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6551,22 +6551,22 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B222">
-        <v>226</v>
+        <v>230.1900024414062</v>
       </c>
       <c r="C222">
-        <v>228.8500061035156</v>
+        <v>230.3999938964844</v>
       </c>
       <c r="D222">
-        <v>224.8899993896484</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="E222">
-        <v>228.0299987792969</v>
+        <v>229</v>
       </c>
       <c r="F222">
-        <v>35934600</v>
+        <v>52990800</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B223">
-        <v>227.9199981689453</v>
+        <v>228.5500030517578</v>
       </c>
       <c r="C223">
-        <v>229.8600006103516</v>
+        <v>229</v>
       </c>
       <c r="D223">
-        <v>225.6799926757812</v>
+        <v>221.1699981689453</v>
       </c>
       <c r="E223">
-        <v>226.4900054931641</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F223">
-        <v>38052200</v>
+        <v>50190600</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6603,22 +6603,22 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B224">
-        <v>230.1000061035156</v>
+        <v>221.6600036621094</v>
       </c>
       <c r="C224">
-        <v>232.9199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="D224">
-        <v>228.8800048828125</v>
+        <v>217.4799957275391</v>
       </c>
       <c r="E224">
-        <v>229.7899932861328</v>
+        <v>220.8500061035156</v>
       </c>
       <c r="F224">
-        <v>51906300</v>
+        <v>43840200</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6629,22 +6629,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B225">
-        <v>230.1900024414062</v>
+        <v>221.6300048828125</v>
       </c>
       <c r="C225">
-        <v>230.3999938964844</v>
+        <v>225.4799957275391</v>
       </c>
       <c r="D225">
-        <v>227.4799957275391</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E225">
-        <v>229</v>
+        <v>222.3800048828125</v>
       </c>
       <c r="F225">
-        <v>52990800</v>
+        <v>36615400</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B226">
-        <v>228.5500030517578</v>
+        <v>223.9499969482422</v>
       </c>
       <c r="C226">
-        <v>229</v>
+        <v>225.2400054931641</v>
       </c>
       <c r="D226">
-        <v>221.1699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="E226">
-        <v>222.7700042724609</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="F226">
-        <v>50190600</v>
+        <v>48423000</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6681,22 +6681,22 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B227">
-        <v>221.6600036621094</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="C227">
-        <v>221.7799987792969</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="D227">
-        <v>217.4799957275391</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="E227">
-        <v>220.8500061035156</v>
+        <v>220.9100036621094</v>
       </c>
       <c r="F227">
-        <v>43840200</v>
+        <v>67180000</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B228">
-        <v>221.6300048828125</v>
+        <v>218.9199981689453</v>
       </c>
       <c r="C228">
-        <v>225.4799957275391</v>
+        <v>221.4799957275391</v>
       </c>
       <c r="D228">
-        <v>221.5200042724609</v>
+        <v>216.7299957275391</v>
       </c>
       <c r="E228">
-        <v>222.3800048828125</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="F228">
-        <v>36615400</v>
+        <v>51591000</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6733,22 +6733,22 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B229">
-        <v>223.9499969482422</v>
+        <v>221.4600067138672</v>
       </c>
       <c r="C229">
-        <v>225.2400054931641</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="D229">
-        <v>219.7700042724609</v>
+        <v>217.8899993896484</v>
       </c>
       <c r="E229">
-        <v>220.8200073242188</v>
+        <v>222.6600036621094</v>
       </c>
       <c r="F229">
-        <v>48423000</v>
+        <v>44587100</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6759,22 +6759,22 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B230">
-        <v>220.8200073242188</v>
+        <v>222.5</v>
       </c>
       <c r="C230">
-        <v>221.2700042724609</v>
+        <v>223.5500030517578</v>
       </c>
       <c r="D230">
-        <v>216.7100067138672</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="E230">
-        <v>220.9100036621094</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F230">
-        <v>67180000</v>
+        <v>37498200</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B231">
-        <v>218.9199981689453</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="C231">
-        <v>221.4799957275391</v>
+        <v>224.0399932861328</v>
       </c>
       <c r="D231">
-        <v>216.7299957275391</v>
+        <v>221.9100036621094</v>
       </c>
       <c r="E231">
-        <v>220.1100006103516</v>
+        <v>222.5</v>
       </c>
       <c r="F231">
-        <v>51591000</v>
+        <v>36766600</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6811,22 +6811,22 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B232">
-        <v>221.4600067138672</v>
+        <v>216.5399932861328</v>
       </c>
       <c r="C232">
-        <v>223.0899963378906</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D232">
-        <v>217.8899993896484</v>
+        <v>213.9199981689453</v>
       </c>
       <c r="E232">
-        <v>222.6600036621094</v>
+        <v>216.3200073242188</v>
       </c>
       <c r="F232">
-        <v>44587100</v>
+        <v>59357400</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6837,22 +6837,22 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B233">
-        <v>222.5</v>
+        <v>215.75</v>
       </c>
       <c r="C233">
-        <v>223.5500030517578</v>
+        <v>216.8999938964844</v>
       </c>
       <c r="D233">
-        <v>219.8200073242188</v>
+        <v>214.5</v>
       </c>
       <c r="E233">
-        <v>222.7700042724609</v>
+        <v>216.7899932861328</v>
       </c>
       <c r="F233">
-        <v>37498200</v>
+        <v>45519300</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6863,22 +6863,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B234">
-        <v>223.5800018310547</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C234">
-        <v>224.0399932861328</v>
+        <v>222.7100067138672</v>
       </c>
       <c r="D234">
-        <v>221.9100036621094</v>
+        <v>217.5399932861328</v>
       </c>
       <c r="E234">
-        <v>222.5</v>
+        <v>220.6900024414062</v>
       </c>
       <c r="F234">
-        <v>36766600</v>
+        <v>59894900</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6889,22 +6889,22 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B235">
-        <v>216.5399932861328</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="C235">
-        <v>217.2200012207031</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="D235">
-        <v>213.9199981689453</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="E235">
-        <v>216.3200073242188</v>
+        <v>228.8699951171875</v>
       </c>
       <c r="F235">
-        <v>59357400</v>
+        <v>66781300</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6915,22 +6915,22 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B236">
-        <v>215.75</v>
+        <v>229.9700012207031</v>
       </c>
       <c r="C236">
-        <v>216.8999938964844</v>
+        <v>233.0899963378906</v>
       </c>
       <c r="D236">
-        <v>214.5</v>
+        <v>227.6199951171875</v>
       </c>
       <c r="E236">
-        <v>216.7899932861328</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F236">
-        <v>45519300</v>
+        <v>318679900</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6941,22 +6941,22 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B237">
-        <v>217.5500030517578</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="C237">
-        <v>222.7100067138672</v>
+        <v>229.4499969482422</v>
       </c>
       <c r="D237">
-        <v>217.5399932861328</v>
+        <v>225.8099975585938</v>
       </c>
       <c r="E237">
-        <v>220.6900024414062</v>
+        <v>226.4700012207031</v>
       </c>
       <c r="F237">
-        <v>59894900</v>
+        <v>54146000</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6967,22 +6967,22 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B238">
-        <v>224.9900054931641</v>
+        <v>228.6499938964844</v>
       </c>
       <c r="C238">
-        <v>229.8200073242188</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="D238">
-        <v>224.6300048828125</v>
+        <v>225.7299957275391</v>
       </c>
       <c r="E238">
-        <v>228.8699951171875</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="F238">
-        <v>66781300</v>
+        <v>43556100</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B239">
-        <v>229.9700012207031</v>
+        <v>224.9299926757812</v>
       </c>
       <c r="C239">
-        <v>233.0899963378906</v>
+        <v>227.2899932861328</v>
       </c>
       <c r="D239">
-        <v>227.6199951171875</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="E239">
-        <v>228.1999969482422</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="F239">
-        <v>318679900</v>
+        <v>42308700</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7019,22 +7019,22 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B240">
-        <v>227.3399963378906</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="C240">
-        <v>229.4499969482422</v>
+        <v>228.5</v>
       </c>
       <c r="D240">
-        <v>225.8099975585938</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="E240">
-        <v>226.4700012207031</v>
+        <v>227.5200042724609</v>
       </c>
       <c r="F240">
-        <v>54146000</v>
+        <v>36636700</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B241">
-        <v>228.6499938964844</v>
+        <v>228.4600067138672</v>
       </c>
       <c r="C241">
-        <v>229.3500061035156</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="D241">
-        <v>225.7299957275391</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="E241">
-        <v>227.3699951171875</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="F241">
-        <v>43556100</v>
+        <v>34026000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7071,22 +7071,22 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B242">
-        <v>224.9299926757812</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="C242">
-        <v>227.2899932861328</v>
+        <v>233</v>
       </c>
       <c r="D242">
-        <v>224.0200042724609</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="E242">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="F242">
-        <v>42308700</v>
+        <v>54541900</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7097,22 +7097,22 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B243">
-        <v>227.3000030517578</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="C243">
-        <v>228.5</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D243">
-        <v>225.4100036621094</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="E243">
-        <v>227.5200042724609</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="F243">
-        <v>36636700</v>
+        <v>63285000</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7123,22 +7123,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B244">
-        <v>228.4600067138672</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="C244">
-        <v>229.5200042724609</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="D244">
-        <v>227.3000030517578</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="E244">
-        <v>227.7899932861328</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="F244">
-        <v>34026000</v>
+        <v>32880600</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7149,22 +7149,22 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B245">
-        <v>230.0399932861328</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="C245">
-        <v>233</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="D245">
-        <v>229.6499938964844</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="E245">
-        <v>233</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="F245">
-        <v>54541900</v>
+        <v>34044200</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7175,22 +7175,22 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B246">
-        <v>229.5200042724609</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="C246">
-        <v>229.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="D246">
-        <v>223.7400054931641</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="E246">
-        <v>226.2100067138672</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F246">
-        <v>63285000</v>
+        <v>37245100</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7201,22 +7201,22 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B247">
-        <v>225.8899993896484</v>
+        <v>224.5</v>
       </c>
       <c r="C247">
-        <v>227.3699951171875</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="D247">
-        <v>223.0200042724609</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="E247">
-        <v>226.7799987792969</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="F247">
-        <v>32880600</v>
+        <v>39505400</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7227,22 +7227,22 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B248">
-        <v>225.1399993896484</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="C248">
-        <v>226.8099975585938</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="D248">
-        <v>223.3200073242188</v>
+        <v>223.25</v>
       </c>
       <c r="E248">
-        <v>225.6699981689453</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="F248">
-        <v>34044200</v>
+        <v>31855700</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7253,22 +7253,22 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B249">
-        <v>227.8999938964844</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="C249">
-        <v>228</v>
+        <v>229.75</v>
       </c>
       <c r="D249">
-        <v>224.1300048828125</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="E249">
-        <v>226.8000030517578</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="F249">
-        <v>37245100</v>
+        <v>33591100</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B250">
-        <v>224.5</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="C250">
-        <v>225.6900024414062</v>
+        <v>229.5</v>
       </c>
       <c r="D250">
-        <v>221.3300018310547</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="E250">
-        <v>221.6900024414062</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="F250">
-        <v>39505400</v>
+        <v>28183500</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7305,22 +7305,22 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B251">
-        <v>224.3000030517578</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="C251">
-        <v>225.9799957275391</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="D251">
-        <v>223.25</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="E251">
-        <v>225.7700042724609</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F251">
-        <v>31855700</v>
+        <v>31759200</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7331,22 +7331,22 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B252">
-        <v>225.2299957275391</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="C252">
-        <v>229.75</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="D252">
-        <v>224.8300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="E252">
-        <v>229.5399932861328</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="F252">
-        <v>33591100</v>
+        <v>39882100</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7357,22 +7357,22 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B253">
-        <v>227.7799987792969</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="C253">
-        <v>229.5</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="D253">
-        <v>227.1699981689453</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="E253">
-        <v>229.0399932861328</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="F253">
-        <v>28084100</v>
+        <v>64707600</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>34.86149</v>
+        <v>35.59361</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -7422,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>52.268368</v>
+        <v>53.366043</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7556,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.60978</v>
+        <v>0.60995</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>

--- a/financial_report/AAPL_financial_report.xlsx
+++ b/financial_report/AAPL_financial_report.xlsx
@@ -247,6 +247,60 @@
     <t>Published Time(New York time)</t>
   </si>
   <si>
+    <t>Prediction: This Will Be Wall Street's First $5 Trillion Stock</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/d13b0c08-1f0c-3bc9-b5ff-b7f828e9d0e6/prediction%3A-this-will-be-wall.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 07:31:00-04:00</t>
+  </si>
+  <si>
+    <t>Calculating The Intrinsic Value Of Apple Inc. (NASDAQ:AAPL)</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/calculating-intrinsic-value-apple-inc-110043522.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 07:00:43-04:00</t>
+  </si>
+  <si>
+    <t>Nvidia Will Dominate Big Tech’s Earnings Season Again</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/0f52a3d9-3673-327a-95bb-9d786448e887/nvidia-will-dominate-big.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 05:30:00-04:00</t>
+  </si>
+  <si>
+    <t>Stock-Split Watch: 3 Unbeatable Tech Stocks That Look Ready to Split</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/160c2bb4-31c2-3af6-9b14-9cb481a666bf/stock-split-watch%3A-3.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 05:15:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple is losing to Huawei in China. Here's why</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/7cc32a58-a7fe-3cb9-b250-4917e88022e6/apple-is-losing-to-huawei-in.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 05:00:00-04:00</t>
+  </si>
+  <si>
+    <t>An AI Robot Trader Dumped AI Chip King Nvidia. What It Picked Instead.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/2b0dd508-994e-351c-a87b-835499f65192/an-ai-robot-trader-dumped-ai.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 01:00:00-04:00</t>
+  </si>
+  <si>
     <t>Apple Stock Closes Just Shy of a Record High. The iPhone Outlook Might Be Shifting.</t>
   </si>
   <si>
@@ -265,64 +319,10 @@
     <t>2024-10-15 16:03:09-04:00</t>
   </si>
   <si>
-    <t>Jim Cramer Acknowledges Apple Inc (NASDAQ:AAPL) is Facing ‘Near-Term Headwinds’</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/jim-cramer-acknowledges-apple-inc-185035919.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 14:50:35-04:00</t>
-  </si>
-  <si>
-    <t>Nvidia Inches Closer to Overtaking Apple in Market Value</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/nvidia-inches-closer-overtaking-apple-172646458.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 13:26:46-04:00</t>
-  </si>
-  <si>
-    <t>Strong Demand for iPhone 16 Pro and Pro Max Drives Lead Times Up</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/strong-demand-iphone-16-pro-172622709.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 13:26:22-04:00</t>
-  </si>
-  <si>
-    <t>Apple Launches AI-Enhanced iPad Mini with A17 Pro</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-launches-ai-enhanced-ipad-172521792.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 13:25:21-04:00</t>
-  </si>
-  <si>
-    <t>Bill Gates Saved 'Rival' Apple From Bankruptcy By Investing $150 Million – Steve Jobs Thanked Him Publicly: 'The World's A Better Place'</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/bill-gates-saved-rival-apple-171536207.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 13:15:36-04:00</t>
-  </si>
-  <si>
-    <t>Apple stock hits record intraday high, first since July</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/video/apple-stock-hits-record-intraday-164332498.html</t>
-  </si>
-  <si>
-    <t>2024-10-15 12:43:32-04:00</t>
-  </si>
-  <si>
     <t>Sentiment in Last 1 Month</t>
   </si>
   <si>
-    <t>0.9378</t>
+    <t>0.9715</t>
   </si>
   <si>
     <t>From</t>
@@ -990,16 +990,16 @@
         <v>45223</v>
       </c>
       <c r="B8">
-        <v>172.1690081858866</v>
+        <v>172.1689929614087</v>
       </c>
       <c r="C8">
-        <v>172.7858469176048</v>
+        <v>172.7858316385813</v>
       </c>
       <c r="D8">
-        <v>170.5771476884831</v>
+        <v>170.5771326047694</v>
       </c>
       <c r="E8">
-        <v>172.5570220947266</v>
+        <v>172.5570068359375</v>
       </c>
       <c r="F8">
         <v>43816600</v>
@@ -1146,16 +1146,16 @@
         <v>45231</v>
       </c>
       <c r="B14">
-        <v>170.1294391217561</v>
+        <v>170.1294241234638</v>
       </c>
       <c r="C14">
-        <v>173.3429909433461</v>
+        <v>173.3429756617531</v>
       </c>
       <c r="D14">
-        <v>169.2539143431754</v>
+        <v>169.2538994220678</v>
       </c>
       <c r="E14">
-        <v>173.0843200683594</v>
+        <v>173.0843048095703</v>
       </c>
       <c r="F14">
         <v>56934900</v>
@@ -1172,16 +1172,16 @@
         <v>45232</v>
       </c>
       <c r="B15">
-        <v>174.6264338574857</v>
+        <v>174.6264187748556</v>
       </c>
       <c r="C15">
-        <v>176.8749227570964</v>
+        <v>176.8749074802626</v>
       </c>
       <c r="D15">
-        <v>174.5667417458041</v>
+        <v>174.5667266683297</v>
       </c>
       <c r="E15">
-        <v>176.6660003662109</v>
+        <v>176.6659851074219</v>
       </c>
       <c r="F15">
         <v>77334800</v>
@@ -1198,16 +1198,16 @@
         <v>45233</v>
       </c>
       <c r="B16">
-        <v>173.3529371481461</v>
+        <v>173.3529521987636</v>
       </c>
       <c r="C16">
-        <v>175.9198040051291</v>
+        <v>175.9198192786037</v>
       </c>
       <c r="D16">
-        <v>172.4674688091219</v>
+        <v>172.4674837828624</v>
       </c>
       <c r="E16">
-        <v>175.7506561279297</v>
+        <v>175.7506713867188</v>
       </c>
       <c r="F16">
         <v>79763700</v>
@@ -1224,16 +1224,16 @@
         <v>45236</v>
       </c>
       <c r="B17">
-        <v>175.4820538657156</v>
+        <v>175.4820388495612</v>
       </c>
       <c r="C17">
-        <v>178.5165141637019</v>
+        <v>178.516498887886</v>
       </c>
       <c r="D17">
-        <v>175.3129211578457</v>
+        <v>175.3129061561642</v>
       </c>
       <c r="E17">
-        <v>178.3175354003906</v>
+        <v>178.3175201416016</v>
       </c>
       <c r="F17">
         <v>63841300</v>
@@ -1250,16 +1250,16 @@
         <v>45237</v>
       </c>
       <c r="B18">
-        <v>178.2677740070133</v>
+        <v>178.2677589697809</v>
       </c>
       <c r="C18">
-        <v>181.5111868204666</v>
+        <v>181.511171509646</v>
       </c>
       <c r="D18">
-        <v>178.0588516340506</v>
+        <v>178.0588366144411</v>
       </c>
       <c r="E18">
-        <v>180.8943481445312</v>
+        <v>180.8943328857422</v>
       </c>
       <c r="F18">
         <v>70530000</v>
@@ -1276,16 +1276,16 @@
         <v>45238</v>
       </c>
       <c r="B19">
-        <v>181.4216334683131</v>
+        <v>181.4216486820497</v>
       </c>
       <c r="C19">
-        <v>182.5160240861955</v>
+        <v>182.516039391706</v>
       </c>
       <c r="D19">
-        <v>180.6654930322482</v>
+        <v>180.665508182576</v>
       </c>
       <c r="E19">
-        <v>181.9588775634766</v>
+        <v>181.9588928222656</v>
       </c>
       <c r="F19">
         <v>49340300</v>
@@ -1328,16 +1328,16 @@
         <v>45240</v>
       </c>
       <c r="B21">
-        <v>183.2745364819835</v>
+        <v>183.2745515418523</v>
       </c>
       <c r="C21">
-        <v>185.8647137408318</v>
+        <v>185.8647290135382</v>
       </c>
       <c r="D21">
-        <v>182.8361973888456</v>
+        <v>182.8362124126955</v>
       </c>
       <c r="E21">
-        <v>185.6953430175781</v>
+        <v>185.6953582763672</v>
       </c>
       <c r="F21">
         <v>66133400</v>
@@ -1354,16 +1354,16 @@
         <v>45243</v>
       </c>
       <c r="B22">
-        <v>185.1175429542476</v>
+        <v>185.1175582972576</v>
       </c>
       <c r="C22">
-        <v>185.3267405684616</v>
+        <v>185.3267559288104</v>
       </c>
       <c r="D22">
-        <v>183.5136287071499</v>
+        <v>183.5136439172234</v>
       </c>
       <c r="E22">
-        <v>184.1013946533203</v>
+        <v>184.1014099121094</v>
       </c>
       <c r="F22">
         <v>43627500</v>
@@ -1484,16 +1484,16 @@
         <v>45250</v>
       </c>
       <c r="B27">
-        <v>189.1721570341783</v>
+        <v>189.1721418997229</v>
       </c>
       <c r="C27">
-        <v>191.1845250718208</v>
+        <v>191.1845097763687</v>
       </c>
       <c r="D27">
-        <v>189.1622003096392</v>
+        <v>189.1621851759804</v>
       </c>
       <c r="E27">
-        <v>190.7262573242188</v>
+        <v>190.7262420654297</v>
       </c>
       <c r="F27">
         <v>46505100</v>
@@ -1562,16 +1562,16 @@
         <v>45254</v>
       </c>
       <c r="B30">
-        <v>190.1484532405231</v>
+        <v>190.1484379094447</v>
       </c>
       <c r="C30">
-        <v>190.1783386160579</v>
+        <v>190.1783232825699</v>
       </c>
       <c r="D30">
-        <v>188.534582157217</v>
+        <v>188.53456695626</v>
       </c>
       <c r="E30">
-        <v>189.2518615722656</v>
+        <v>189.2518463134766</v>
       </c>
       <c r="F30">
         <v>24048300</v>
@@ -1796,16 +1796,16 @@
         <v>45267</v>
       </c>
       <c r="B39">
-        <v>192.8980187767373</v>
+        <v>192.8980339852581</v>
       </c>
       <c r="C39">
-        <v>194.2628348546959</v>
+        <v>194.2628501708219</v>
       </c>
       <c r="D39">
-        <v>192.8581614774812</v>
+        <v>192.8581766828596</v>
       </c>
       <c r="E39">
-        <v>193.5355987548828</v>
+        <v>193.5356140136719</v>
       </c>
       <c r="F39">
         <v>47477700</v>
@@ -1848,16 +1848,16 @@
         <v>45271</v>
       </c>
       <c r="B41">
-        <v>192.3799948127373</v>
+        <v>192.3799795594768</v>
       </c>
       <c r="C41">
-        <v>192.7585631787113</v>
+        <v>192.7585478954351</v>
       </c>
       <c r="D41">
-        <v>190.6963810180936</v>
+        <v>190.696365898322</v>
       </c>
       <c r="E41">
-        <v>192.4497222900391</v>
+        <v>192.44970703125</v>
       </c>
       <c r="F41">
         <v>60943700</v>
@@ -1978,16 +1978,16 @@
         <v>45278</v>
       </c>
       <c r="B46">
-        <v>195.3487159960799</v>
+        <v>195.3487007217121</v>
       </c>
       <c r="C46">
-        <v>195.8866831430404</v>
+        <v>195.8866678266089</v>
       </c>
       <c r="D46">
-        <v>193.6551455578198</v>
+        <v>193.6551304158728</v>
       </c>
       <c r="E46">
-        <v>195.1494750976562</v>
+        <v>195.1494598388672</v>
       </c>
       <c r="F46">
         <v>55751900</v>
@@ -2082,16 +2082,16 @@
         <v>45282</v>
       </c>
       <c r="B50">
-        <v>194.4421472412643</v>
+        <v>194.4421626245817</v>
       </c>
       <c r="C50">
-        <v>194.6712887093912</v>
+        <v>194.6713041108371</v>
       </c>
       <c r="D50">
-        <v>192.2405102905751</v>
+        <v>192.2405254997097</v>
       </c>
       <c r="E50">
-        <v>192.8681335449219</v>
+        <v>192.8681488037109</v>
       </c>
       <c r="F50">
         <v>37122800</v>
@@ -2186,16 +2186,16 @@
         <v>45289</v>
       </c>
       <c r="B54">
-        <v>193.1669858687692</v>
+        <v>193.1670012361359</v>
       </c>
       <c r="C54">
-        <v>193.6650956984474</v>
+        <v>193.6651111054412</v>
       </c>
       <c r="D54">
-        <v>191.0051910320984</v>
+        <v>191.005206227484</v>
       </c>
       <c r="E54">
-        <v>191.8021697998047</v>
+        <v>191.8021850585938</v>
       </c>
       <c r="F54">
         <v>42628800</v>
@@ -2238,16 +2238,16 @@
         <v>45294</v>
       </c>
       <c r="B56">
-        <v>183.5235814240684</v>
+        <v>183.5235966803731</v>
       </c>
       <c r="C56">
-        <v>185.1773096578577</v>
+        <v>185.1773250516368</v>
       </c>
       <c r="D56">
-        <v>182.7365594038808</v>
+        <v>182.7365745947604</v>
       </c>
       <c r="E56">
-        <v>183.553466796875</v>
+        <v>183.5534820556641</v>
       </c>
       <c r="F56">
         <v>58414500</v>
@@ -2368,16 +2368,16 @@
         <v>45301</v>
       </c>
       <c r="B61">
-        <v>183.6531195609547</v>
+        <v>183.6530893449622</v>
       </c>
       <c r="C61">
-        <v>185.6953579161256</v>
+        <v>185.6953273641287</v>
       </c>
       <c r="D61">
-        <v>183.224737157889</v>
+        <v>183.2247070123772</v>
       </c>
       <c r="E61">
-        <v>185.4861602783203</v>
+        <v>185.4861297607422</v>
       </c>
       <c r="F61">
         <v>46792900</v>
@@ -2498,16 +2498,16 @@
         <v>45309</v>
       </c>
       <c r="B66">
-        <v>185.3865094908112</v>
+        <v>185.3865245441322</v>
       </c>
       <c r="C66">
-        <v>188.4249824384652</v>
+        <v>188.4249977385091</v>
       </c>
       <c r="D66">
-        <v>185.1274978563461</v>
+        <v>185.1275128886353</v>
       </c>
       <c r="E66">
-        <v>187.9169158935547</v>
+        <v>187.9169311523438</v>
       </c>
       <c r="F66">
         <v>78005800</v>
@@ -2524,16 +2524,16 @@
         <v>45310</v>
       </c>
       <c r="B67">
-        <v>188.614265160598</v>
+        <v>188.6142802417559</v>
       </c>
       <c r="C67">
-        <v>191.2243557377567</v>
+        <v>191.2243710276113</v>
       </c>
       <c r="D67">
-        <v>188.1061986195717</v>
+        <v>188.1062136601058</v>
       </c>
       <c r="E67">
-        <v>190.8358306884766</v>
+        <v>190.8358459472656</v>
       </c>
       <c r="F67">
         <v>68741000</v>
@@ -2628,16 +2628,16 @@
         <v>45316</v>
       </c>
       <c r="B71">
-        <v>194.4820231702934</v>
+        <v>194.4820078289901</v>
       </c>
       <c r="C71">
-        <v>195.5280569607039</v>
+        <v>195.5280415368865</v>
       </c>
       <c r="D71">
-        <v>192.37999886425</v>
+        <v>192.3799836887605</v>
       </c>
       <c r="E71">
-        <v>193.4359893798828</v>
+        <v>193.4359741210938</v>
       </c>
       <c r="F71">
         <v>54822100</v>
@@ -2680,16 +2680,16 @@
         <v>45320</v>
       </c>
       <c r="B73">
-        <v>191.2841282723675</v>
+        <v>191.2841435534402</v>
       </c>
       <c r="C73">
-        <v>191.4734124368057</v>
+        <v>191.4734277329997</v>
       </c>
       <c r="D73">
-        <v>188.8633218352395</v>
+        <v>188.8633369229218</v>
       </c>
       <c r="E73">
-        <v>191.0051879882812</v>
+        <v>191.0052032470703</v>
       </c>
       <c r="F73">
         <v>47145600</v>
@@ -2706,16 +2706,16 @@
         <v>45321</v>
       </c>
       <c r="B74">
-        <v>190.2181936148135</v>
+        <v>190.2181781206989</v>
       </c>
       <c r="C74">
-        <v>191.0749431723554</v>
+        <v>191.0749276084547</v>
       </c>
       <c r="D74">
-        <v>186.7613100094732</v>
+        <v>186.761294796937</v>
       </c>
       <c r="E74">
-        <v>187.3291473388672</v>
+        <v>187.3291320800781</v>
       </c>
       <c r="F74">
         <v>55859400</v>
@@ -2836,16 +2836,16 @@
         <v>45328</v>
       </c>
       <c r="B79">
-        <v>186.1536027470153</v>
+        <v>186.1536178091245</v>
       </c>
       <c r="C79">
-        <v>188.5943378275288</v>
+        <v>188.5943530871235</v>
       </c>
       <c r="D79">
-        <v>186.0639466275801</v>
+        <v>186.0639616824351</v>
       </c>
       <c r="E79">
-        <v>188.5843811035156</v>
+        <v>188.5843963623047</v>
       </c>
       <c r="F79">
         <v>43490800</v>
@@ -2862,16 +2862,16 @@
         <v>45329</v>
       </c>
       <c r="B80">
-        <v>189.9193156538562</v>
+        <v>189.9193310117332</v>
       </c>
       <c r="C80">
-        <v>190.3277693633227</v>
+        <v>190.3277847542294</v>
       </c>
       <c r="D80">
-        <v>187.8969909571685</v>
+        <v>187.8970061515096</v>
       </c>
       <c r="E80">
-        <v>188.6939697265625</v>
+        <v>188.6939849853516</v>
       </c>
       <c r="F80">
         <v>53439000</v>
@@ -2888,16 +2888,16 @@
         <v>45330</v>
       </c>
       <c r="B81">
-        <v>188.674040391037</v>
+        <v>188.674055736523</v>
       </c>
       <c r="C81">
-        <v>188.8234672592713</v>
+        <v>188.8234826169108</v>
       </c>
       <c r="D81">
-        <v>186.6417589775216</v>
+        <v>186.6417741577155</v>
       </c>
       <c r="E81">
-        <v>187.6080932617188</v>
+        <v>187.6081085205078</v>
       </c>
       <c r="F81">
         <v>40962000</v>
@@ -3122,16 +3122,16 @@
         <v>45344</v>
       </c>
       <c r="B90">
-        <v>183.0196281071197</v>
+        <v>183.0196129219886</v>
       </c>
       <c r="C90">
-        <v>184.495925614312</v>
+        <v>184.4959103066926</v>
       </c>
       <c r="D90">
-        <v>182.0021983365588</v>
+        <v>182.0021832358438</v>
       </c>
       <c r="E90">
-        <v>183.9073944091797</v>
+        <v>183.9073791503906</v>
       </c>
       <c r="F90">
         <v>52292200</v>
@@ -3148,16 +3148,16 @@
         <v>45345</v>
       </c>
       <c r="B91">
-        <v>184.5457848212894</v>
+        <v>184.5458002882432</v>
       </c>
       <c r="C91">
-        <v>184.5757083304694</v>
+        <v>184.5757237999312</v>
       </c>
       <c r="D91">
-        <v>181.7727613535837</v>
+        <v>181.7727765881278</v>
       </c>
       <c r="E91">
-        <v>182.0620422363281</v>
+        <v>182.0620574951172</v>
       </c>
       <c r="F91">
         <v>45119700</v>
@@ -3278,16 +3278,16 @@
         <v>45352</v>
       </c>
       <c r="B96">
-        <v>179.0995039018238</v>
+        <v>179.0994886523772</v>
       </c>
       <c r="C96">
-        <v>180.0770407753685</v>
+        <v>180.0770254426894</v>
       </c>
       <c r="D96">
-        <v>176.9349503572942</v>
+        <v>176.9349352921489</v>
       </c>
       <c r="E96">
-        <v>179.209228515625</v>
+        <v>179.2092132568359</v>
       </c>
       <c r="F96">
         <v>73488000</v>
@@ -3330,16 +3330,16 @@
         <v>45356</v>
       </c>
       <c r="B98">
-        <v>170.3315546304903</v>
+        <v>170.3315393142969</v>
       </c>
       <c r="C98">
-        <v>171.6083418699865</v>
+        <v>171.6083264389846</v>
       </c>
       <c r="D98">
-        <v>169.1944155196732</v>
+        <v>169.1944003057313</v>
       </c>
       <c r="E98">
-        <v>169.6931610107422</v>
+        <v>169.6931457519531</v>
       </c>
       <c r="F98">
         <v>95132400</v>
@@ -3356,16 +3356,16 @@
         <v>45357</v>
       </c>
       <c r="B99">
-        <v>170.6307828835121</v>
+        <v>170.6307983173371</v>
       </c>
       <c r="C99">
-        <v>170.8103391517182</v>
+        <v>170.8103546017845</v>
       </c>
       <c r="D99">
-        <v>168.2567497827471</v>
+        <v>168.2567650018371</v>
       </c>
       <c r="E99">
-        <v>168.6956481933594</v>
+        <v>168.6956634521484</v>
       </c>
       <c r="F99">
         <v>68587700</v>
@@ -3408,16 +3408,16 @@
         <v>45359</v>
       </c>
       <c r="B101">
-        <v>168.5759503496348</v>
+        <v>168.5759654538076</v>
       </c>
       <c r="C101">
-        <v>173.2641542087491</v>
+        <v>173.2641697329784</v>
       </c>
       <c r="D101">
-        <v>168.5161033350869</v>
+        <v>168.5161184338974</v>
       </c>
       <c r="E101">
-        <v>170.3016052246094</v>
+        <v>170.3016204833984</v>
       </c>
       <c r="F101">
         <v>76114600</v>
@@ -3590,16 +3590,16 @@
         <v>45370</v>
       </c>
       <c r="B108">
-        <v>173.9025592135408</v>
+        <v>173.902574321544</v>
       </c>
       <c r="C108">
-        <v>176.1668678099546</v>
+        <v>176.1668831146724</v>
       </c>
       <c r="D108">
-        <v>172.5958485746268</v>
+        <v>172.5958635691079</v>
       </c>
       <c r="E108">
-        <v>175.6381988525391</v>
+        <v>175.6382141113281</v>
       </c>
       <c r="F108">
         <v>55215200</v>
@@ -3616,16 +3616,16 @@
         <v>45371</v>
       </c>
       <c r="B109">
-        <v>175.2791148807173</v>
+        <v>175.2790998738642</v>
       </c>
       <c r="C109">
-        <v>178.2217102050781</v>
+        <v>178.2216949462891</v>
       </c>
       <c r="D109">
-        <v>174.6506906975692</v>
+        <v>174.6506757445198</v>
       </c>
       <c r="E109">
-        <v>178.2217102050781</v>
+        <v>178.2216949462891</v>
       </c>
       <c r="F109">
         <v>53423100</v>
@@ -3642,16 +3642,16 @@
         <v>45372</v>
       </c>
       <c r="B110">
-        <v>176.6057741601213</v>
+        <v>176.6057583955842</v>
       </c>
       <c r="C110">
-        <v>177.0446726094717</v>
+        <v>177.0446568057568</v>
       </c>
       <c r="D110">
-        <v>170.4113487190698</v>
+        <v>170.4113335074718</v>
       </c>
       <c r="E110">
-        <v>170.9400177001953</v>
+        <v>170.9400024414062</v>
       </c>
       <c r="F110">
         <v>106181300</v>
@@ -3668,16 +3668,16 @@
         <v>45373</v>
       </c>
       <c r="B111">
-        <v>171.3290330096479</v>
+        <v>171.3290177969155</v>
       </c>
       <c r="C111">
-        <v>172.6158048054333</v>
+        <v>172.6157894784452</v>
       </c>
       <c r="D111">
-        <v>169.6333015088525</v>
+        <v>169.6332864466883</v>
       </c>
       <c r="E111">
-        <v>171.8477325439453</v>
+        <v>171.8477172851562</v>
       </c>
       <c r="F111">
         <v>71106600</v>
@@ -3720,16 +3720,16 @@
         <v>45377</v>
       </c>
       <c r="B113">
-        <v>169.5734606232718</v>
+        <v>169.5734453384091</v>
       </c>
       <c r="C113">
-        <v>170.989895938488</v>
+        <v>170.989880525952</v>
       </c>
       <c r="D113">
-        <v>169.1545162528982</v>
+        <v>169.1545010057981</v>
       </c>
       <c r="E113">
-        <v>169.2841949462891</v>
+        <v>169.2841796875</v>
       </c>
       <c r="F113">
         <v>57388400</v>
@@ -3772,16 +3772,16 @@
         <v>45379</v>
       </c>
       <c r="B115">
-        <v>171.3190704702827</v>
+        <v>171.3190551874679</v>
       </c>
       <c r="C115">
-        <v>171.7978618640044</v>
+        <v>171.7978465384781</v>
       </c>
       <c r="D115">
-        <v>170.082176214289</v>
+        <v>170.0821610418135</v>
       </c>
       <c r="E115">
-        <v>171.0497436523438</v>
+        <v>171.0497283935547</v>
       </c>
       <c r="F115">
         <v>65672700</v>
@@ -3850,16 +3850,16 @@
         <v>45385</v>
       </c>
       <c r="B118">
-        <v>168.3664767037722</v>
+        <v>168.3664918852105</v>
       </c>
       <c r="C118">
-        <v>170.2517338331327</v>
+        <v>170.2517491845627</v>
       </c>
       <c r="D118">
-        <v>168.1570121452337</v>
+        <v>168.1570273077847</v>
       </c>
       <c r="E118">
-        <v>169.2243194580078</v>
+        <v>169.2243347167969</v>
       </c>
       <c r="F118">
         <v>47691700</v>
@@ -3902,16 +3902,16 @@
         <v>45387</v>
       </c>
       <c r="B120">
-        <v>169.1644646680864</v>
+        <v>169.1644799277747</v>
       </c>
       <c r="C120">
-        <v>169.9624603689284</v>
+        <v>169.9624757006009</v>
       </c>
       <c r="D120">
-        <v>168.5260711515132</v>
+        <v>168.5260863536145</v>
       </c>
       <c r="E120">
-        <v>169.1544952392578</v>
+        <v>169.1545104980469</v>
       </c>
       <c r="F120">
         <v>42055200</v>
@@ -3980,16 +3980,16 @@
         <v>45392</v>
       </c>
       <c r="B123">
-        <v>168.3764690401373</v>
+        <v>168.3764536885837</v>
       </c>
       <c r="C123">
-        <v>168.6657347076824</v>
+        <v>168.6657193297554</v>
       </c>
       <c r="D123">
-        <v>166.6907069630718</v>
+        <v>166.6906917652159</v>
       </c>
       <c r="E123">
-        <v>167.3590240478516</v>
+        <v>167.3590087890625</v>
       </c>
       <c r="F123">
         <v>49709300</v>
@@ -4136,16 +4136,16 @@
         <v>45400</v>
       </c>
       <c r="B129">
-        <v>167.6084016381576</v>
+        <v>167.6083862889334</v>
       </c>
       <c r="C129">
-        <v>168.2168717211314</v>
+        <v>168.2168563161848</v>
       </c>
       <c r="D129">
-        <v>166.1321193068702</v>
+        <v>166.1321040928408</v>
       </c>
       <c r="E129">
-        <v>166.6208801269531</v>
+        <v>166.6208648681641</v>
       </c>
       <c r="F129">
         <v>43122900</v>
@@ -4344,16 +4344,16 @@
         <v>45412</v>
       </c>
       <c r="B137">
-        <v>172.8951064875264</v>
+        <v>172.8950909599863</v>
       </c>
       <c r="C137">
-        <v>174.550945101143</v>
+        <v>174.5509294248936</v>
       </c>
       <c r="D137">
-        <v>169.573459830273</v>
+        <v>169.5734446010467</v>
       </c>
       <c r="E137">
-        <v>169.9026336669922</v>
+        <v>169.9026184082031</v>
       </c>
       <c r="F137">
         <v>65934800</v>
@@ -4396,16 +4396,16 @@
         <v>45414</v>
       </c>
       <c r="B139">
-        <v>172.0771409506727</v>
+        <v>172.0771561636048</v>
       </c>
       <c r="C139">
-        <v>172.9848612765476</v>
+        <v>172.9848765697291</v>
       </c>
       <c r="D139">
-        <v>170.4612106452049</v>
+        <v>170.4612257152764</v>
       </c>
       <c r="E139">
-        <v>172.5958404541016</v>
+        <v>172.5958557128906</v>
       </c>
       <c r="F139">
         <v>94214900</v>
@@ -4448,16 +4448,16 @@
         <v>45418</v>
       </c>
       <c r="B141">
-        <v>181.8924829621646</v>
+        <v>181.8924676496326</v>
       </c>
       <c r="C141">
-        <v>183.7378321090879</v>
+        <v>183.7378166412061</v>
       </c>
       <c r="D141">
-        <v>179.967317491337</v>
+        <v>179.9673023408743</v>
       </c>
       <c r="E141">
-        <v>181.2540893554688</v>
+        <v>181.2540740966797</v>
       </c>
       <c r="F141">
         <v>78569700</v>
@@ -4474,16 +4474,16 @@
         <v>45419</v>
       </c>
       <c r="B142">
-        <v>182.9896901956702</v>
+        <v>182.9897055422979</v>
       </c>
       <c r="C142">
-        <v>184.4360488588342</v>
+        <v>184.4360643267624</v>
       </c>
       <c r="D142">
-        <v>180.8650450721818</v>
+        <v>180.8650602406239</v>
       </c>
       <c r="E142">
-        <v>181.9423217773438</v>
+        <v>181.9423370361328</v>
       </c>
       <c r="F142">
         <v>77305800</v>

--- a/financial_report/AAPL_financial_report.xlsx
+++ b/financial_report/AAPL_financial_report.xlsx
@@ -247,94 +247,94 @@
     <t>Published Time(New York time)</t>
   </si>
   <si>
-    <t>Veteran investor connects with Taiwan Semiconductor after sales</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/ac19825b-f138-31ac-ac76-a8584a352d61/veteran-investor-connects.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 20:03:00-04:00</t>
-  </si>
-  <si>
-    <t>Is Apple Inc. (NASDAQ:AAPL) The Most Popular Stock Among Mutual Funds According To Goldman Sachs?</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-inc-nasdaq-aapl-most-233941953.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:39:41-04:00</t>
-  </si>
-  <si>
-    <t>Jeff Bezos-Led Amazon Almost Ran Out Of Cash 24 Years Ago. At $400B, It Is Now Projected To Have As Much Cash As Apple And Microsoft Combined By 2027: Here's More</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/jeff-bezos-led-amazon-almost-232517745.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:25:17-04:00</t>
-  </si>
-  <si>
-    <t>Apple CEO Tim Cook Just Sold $50 Million of Stock. It’s Part of a Two-Year Plan.</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/f557d513-d02a-3627-981e-dcdc4cb43c05/apple-ceo-tim-cook-just-sold.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:51:00-04:00</t>
-  </si>
-  <si>
-    <t>Apple Stock Downgraded, Needs Time To 'Ripen'</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/1a30498f-9254-3e6b-96fd-2ad5d228d324/apple-stock-downgraded%2C-needs.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:34:26-04:00</t>
-  </si>
-  <si>
-    <t>Cramer On Apple Inc. (NASDAQ:AAPL): ‘Own It’</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/cramer-apple-inc-nasdaq-aapl-183313966.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 14:33:13-04:00</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Meets Sales Expectations as Base Models Face Softer Demand</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/iphone-16-pro-meets-sales-145320970.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:53:20-04:00</t>
-  </si>
-  <si>
-    <t>Apple TV+ Joins Prime Video as Add-on, Expanding Streaming Reach</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/apple-tv-joins-prime-video-144927368.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 10:49:27-04:00</t>
+    <t>An AI Robot Trader Dumped AI Chip King Nvidia. What It Picked Instead.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/2b0dd508-994e-351c-a87b-835499f65192/an-ai-robot-trader-dumped-ai.html</t>
+  </si>
+  <si>
+    <t>2024-10-16 01:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple Stock Closes Just Shy of a Record High. The iPhone Outlook Might Be Shifting.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f40382e1-332d-31b1-8848-823b7ca69565/apple-stock-closes-just-shy.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:33:00-04:00</t>
+  </si>
+  <si>
+    <t>Apple Stock Rises to Fresh Record as Company Announces New iPad Mini</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/f6afbc58-8e76-3fb9-9dfc-4f1cda5a63c3/apple-stock-rises-to-fresh.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:03:09-04:00</t>
+  </si>
+  <si>
+    <t>Jim Cramer Acknowledges Apple Inc (NASDAQ:AAPL) is Facing ‘Near-Term Headwinds’</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/jim-cramer-acknowledges-apple-inc-185035919.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 14:50:35-04:00</t>
+  </si>
+  <si>
+    <t>Nvidia Inches Closer to Overtaking Apple in Market Value</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/nvidia-inches-closer-overtaking-apple-172646458.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:46-04:00</t>
+  </si>
+  <si>
+    <t>Strong Demand for iPhone 16 Pro and Pro Max Drives Lead Times Up</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/strong-demand-iphone-16-pro-172622709.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:26:22-04:00</t>
+  </si>
+  <si>
+    <t>Apple Launches AI-Enhanced iPad Mini with A17 Pro</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/apple-launches-ai-enhanced-ipad-172521792.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:25:21-04:00</t>
+  </si>
+  <si>
+    <t>Bill Gates Saved 'Rival' Apple From Bankruptcy By Investing $150 Million – Steve Jobs Thanked Him Publicly: 'The World's A Better Place'</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/bill-gates-saved-rival-apple-171536207.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 13:15:36-04:00</t>
   </si>
   <si>
     <t>Sentiment in Last 1 Month</t>
   </si>
   <si>
-    <t>-0.2263</t>
+    <t>0.9715</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-09-16</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-16</t>
   </si>
 </sst>
 </file>
@@ -831,22 +831,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B2">
-        <v>177.2927679386093</v>
+        <v>175.8501629741456</v>
       </c>
       <c r="C2">
-        <v>178.934376778521</v>
+        <v>178.1683027292858</v>
       </c>
       <c r="D2">
-        <v>176.695831690455</v>
+        <v>175.6113793527165</v>
       </c>
       <c r="E2">
-        <v>178.8846282958984</v>
+        <v>177.8101348876953</v>
       </c>
       <c r="F2">
-        <v>47551100</v>
+        <v>52517000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -857,22 +857,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B3">
-        <v>179.1532521999006</v>
+        <v>175.7506686692519</v>
       </c>
       <c r="C3">
-        <v>181.4116844635542</v>
+        <v>177.5116618488765</v>
       </c>
       <c r="D3">
-        <v>178.1284820703454</v>
+        <v>173.9100961290501</v>
       </c>
       <c r="E3">
-        <v>179.7899932861328</v>
+        <v>176.2481231689453</v>
       </c>
       <c r="F3">
-        <v>56743100</v>
+        <v>57549400</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45212</v>
+        <v>45217</v>
       </c>
       <c r="B4">
-        <v>180.4963919203637</v>
+        <v>174.6861228281673</v>
       </c>
       <c r="C4">
-        <v>181.0037900534922</v>
+        <v>176.6759408143438</v>
       </c>
       <c r="D4">
-        <v>177.2330915612987</v>
+        <v>174.2185143869273</v>
       </c>
       <c r="E4">
-        <v>177.9394836425781</v>
+        <v>174.9447937011719</v>
       </c>
       <c r="F4">
-        <v>51427100</v>
+        <v>54764400</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -909,22 +909,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45215</v>
+        <v>45218</v>
       </c>
       <c r="B5">
-        <v>175.8501629741456</v>
+        <v>175.1437451925509</v>
       </c>
       <c r="C5">
-        <v>178.1683027292858</v>
+        <v>176.9345841374857</v>
       </c>
       <c r="D5">
-        <v>175.6113793527165</v>
+        <v>174.298081788765</v>
       </c>
       <c r="E5">
-        <v>177.8101348876953</v>
+        <v>174.5667114257812</v>
       </c>
       <c r="F5">
-        <v>52517000</v>
+        <v>59302900</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45216</v>
+        <v>45219</v>
       </c>
       <c r="B6">
-        <v>175.7506686692519</v>
+        <v>174.4174995851689</v>
       </c>
       <c r="C6">
-        <v>177.5116618488765</v>
+        <v>174.5269401856911</v>
       </c>
       <c r="D6">
-        <v>173.9100961290501</v>
+        <v>171.7610942973371</v>
       </c>
       <c r="E6">
-        <v>176.2481231689453</v>
+        <v>171.9998779296875</v>
       </c>
       <c r="F6">
-        <v>57549400</v>
+        <v>64189300</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45217</v>
+        <v>45222</v>
       </c>
       <c r="B7">
-        <v>174.6861228281673</v>
+        <v>170.0398913855244</v>
       </c>
       <c r="C7">
-        <v>176.6759408143438</v>
+        <v>173.1241000054924</v>
       </c>
       <c r="D7">
-        <v>174.2185143869273</v>
+        <v>169.0648696893029</v>
       </c>
       <c r="E7">
-        <v>174.9447937011719</v>
+        <v>172.1192474365234</v>
       </c>
       <c r="F7">
-        <v>54764400</v>
+        <v>55980100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -987,22 +987,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45218</v>
+        <v>45223</v>
       </c>
       <c r="B8">
-        <v>175.1437451925509</v>
+        <v>172.1689929614087</v>
       </c>
       <c r="C8">
-        <v>176.9345841374857</v>
+        <v>172.7858316385813</v>
       </c>
       <c r="D8">
-        <v>174.298081788765</v>
+        <v>170.5771326047694</v>
       </c>
       <c r="E8">
-        <v>174.5667114257812</v>
+        <v>172.5570068359375</v>
       </c>
       <c r="F8">
-        <v>59302900</v>
+        <v>43816600</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B9">
-        <v>174.4174995851689</v>
+        <v>171.0049553797045</v>
       </c>
       <c r="C9">
-        <v>174.5269401856911</v>
+        <v>172.1789406551176</v>
       </c>
       <c r="D9">
-        <v>171.7610942973371</v>
+        <v>169.7812064394075</v>
       </c>
       <c r="E9">
-        <v>171.9998779296875</v>
+        <v>170.2289276123047</v>
       </c>
       <c r="F9">
-        <v>64189300</v>
+        <v>57157000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1039,22 +1039,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B10">
-        <v>170.0398913855244</v>
+        <v>169.5026229288052</v>
       </c>
       <c r="C10">
-        <v>173.1241000054924</v>
+        <v>170.5074906247829</v>
       </c>
       <c r="D10">
-        <v>169.0648696893029</v>
+        <v>164.8265541765789</v>
       </c>
       <c r="E10">
-        <v>172.1192474365234</v>
+        <v>166.0403442382812</v>
       </c>
       <c r="F10">
-        <v>55980100</v>
+        <v>70625300</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45223</v>
+        <v>45226</v>
       </c>
       <c r="B11">
-        <v>172.1689929614087</v>
+        <v>166.060258117469</v>
       </c>
       <c r="C11">
-        <v>172.7858316385813</v>
+        <v>168.0998245212038</v>
       </c>
       <c r="D11">
-        <v>170.5771326047694</v>
+        <v>165.9806635789552</v>
       </c>
       <c r="E11">
-        <v>172.5570068359375</v>
+        <v>167.3635864257812</v>
       </c>
       <c r="F11">
-        <v>43816600</v>
+        <v>58499100</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1091,22 +1091,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="B12">
-        <v>171.0049553797045</v>
+        <v>168.1595112598156</v>
       </c>
       <c r="C12">
-        <v>172.1789406551176</v>
+        <v>170.2985593825549</v>
       </c>
       <c r="D12">
-        <v>169.7812064394075</v>
+        <v>168.0102658119536</v>
       </c>
       <c r="E12">
-        <v>170.2289276123047</v>
+        <v>169.4230346679688</v>
       </c>
       <c r="F12">
-        <v>57157000</v>
+        <v>51131000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B13">
-        <v>169.5026229288052</v>
+        <v>168.4878353723724</v>
       </c>
       <c r="C13">
-        <v>170.5074906247829</v>
+        <v>170.0299320873337</v>
       </c>
       <c r="D13">
-        <v>164.8265541765789</v>
+        <v>167.0452052618256</v>
       </c>
       <c r="E13">
-        <v>166.0403442382812</v>
+        <v>169.9006042480469</v>
       </c>
       <c r="F13">
-        <v>70625300</v>
+        <v>44846000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="B14">
-        <v>166.060258117469</v>
+        <v>170.1294391217561</v>
       </c>
       <c r="C14">
-        <v>168.0998245212038</v>
+        <v>173.3429909433461</v>
       </c>
       <c r="D14">
-        <v>165.9806635789552</v>
+        <v>169.2539143431754</v>
       </c>
       <c r="E14">
-        <v>167.3635864257812</v>
+        <v>173.0843200683594</v>
       </c>
       <c r="F14">
-        <v>58499100</v>
+        <v>56934900</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1169,22 +1169,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B15">
-        <v>168.1595112598156</v>
+        <v>174.6264338574857</v>
       </c>
       <c r="C15">
-        <v>170.2985593825549</v>
+        <v>176.8749227570964</v>
       </c>
       <c r="D15">
-        <v>168.0102658119536</v>
+        <v>174.5667417458041</v>
       </c>
       <c r="E15">
-        <v>169.4230346679688</v>
+        <v>176.6660003662109</v>
       </c>
       <c r="F15">
-        <v>51131000</v>
+        <v>77334800</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1195,22 +1195,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="B16">
-        <v>168.4878353723724</v>
+        <v>173.3529371481461</v>
       </c>
       <c r="C16">
-        <v>170.0299320873337</v>
+        <v>175.9198040051291</v>
       </c>
       <c r="D16">
-        <v>167.0452052618256</v>
+        <v>172.4674688091219</v>
       </c>
       <c r="E16">
-        <v>169.9006042480469</v>
+        <v>175.7506561279297</v>
       </c>
       <c r="F16">
-        <v>44846000</v>
+        <v>79763700</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1221,22 +1221,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="B17">
-        <v>170.1294391217561</v>
+        <v>175.4820388495612</v>
       </c>
       <c r="C17">
-        <v>173.3429909433461</v>
+        <v>178.516498887886</v>
       </c>
       <c r="D17">
-        <v>169.2539143431754</v>
+        <v>175.3129061561642</v>
       </c>
       <c r="E17">
-        <v>173.0843200683594</v>
+        <v>178.3175201416016</v>
       </c>
       <c r="F17">
-        <v>56934900</v>
+        <v>63841300</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B18">
-        <v>174.6264338574857</v>
+        <v>178.2677890442457</v>
       </c>
       <c r="C18">
-        <v>176.8749227570964</v>
+        <v>181.5112021312872</v>
       </c>
       <c r="D18">
-        <v>174.5667417458041</v>
+        <v>178.05886665366</v>
       </c>
       <c r="E18">
-        <v>176.6660003662109</v>
+        <v>180.8943634033203</v>
       </c>
       <c r="F18">
-        <v>77334800</v>
+        <v>70530000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1273,22 +1273,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="B19">
-        <v>173.3529371481461</v>
+        <v>181.4216486820497</v>
       </c>
       <c r="C19">
-        <v>175.9198040051291</v>
+        <v>182.516039391706</v>
       </c>
       <c r="D19">
-        <v>172.4674688091219</v>
+        <v>180.665508182576</v>
       </c>
       <c r="E19">
-        <v>175.7506561279297</v>
+        <v>181.9588928222656</v>
       </c>
       <c r="F19">
-        <v>79763700</v>
+        <v>49340300</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1299,22 +1299,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="B20">
-        <v>175.4820388495612</v>
+        <v>182.0285567442571</v>
       </c>
       <c r="C20">
-        <v>178.516498887886</v>
+        <v>183.1826396429678</v>
       </c>
       <c r="D20">
-        <v>175.3129061561642</v>
+        <v>180.8844022892101</v>
       </c>
       <c r="E20">
-        <v>178.3175201416016</v>
+        <v>181.4813537597656</v>
       </c>
       <c r="F20">
-        <v>63841300</v>
+        <v>53763500</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1325,25 +1325,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="B21">
-        <v>178.2677890442457</v>
+        <v>183.2745364819835</v>
       </c>
       <c r="C21">
-        <v>181.5112021312872</v>
+        <v>185.8647137408318</v>
       </c>
       <c r="D21">
-        <v>178.05886665366</v>
+        <v>182.8361973888456</v>
       </c>
       <c r="E21">
-        <v>180.8943634033203</v>
+        <v>185.6953430175781</v>
       </c>
       <c r="F21">
-        <v>70530000</v>
+        <v>66133400</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1351,22 +1351,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B22">
-        <v>181.4216486820497</v>
+        <v>185.1175429542476</v>
       </c>
       <c r="C22">
-        <v>182.516039391706</v>
+        <v>185.3267405684616</v>
       </c>
       <c r="D22">
-        <v>180.665508182576</v>
+        <v>183.5136287071499</v>
       </c>
       <c r="E22">
-        <v>181.9588928222656</v>
+        <v>184.1013946533203</v>
       </c>
       <c r="F22">
-        <v>49340300</v>
+        <v>43627500</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1377,22 +1377,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B23">
-        <v>182.0285567442571</v>
+        <v>186.9904264331423</v>
       </c>
       <c r="C23">
-        <v>183.1826396429678</v>
+        <v>187.3988801404597</v>
       </c>
       <c r="D23">
-        <v>180.8844022892101</v>
+        <v>185.59572499487</v>
       </c>
       <c r="E23">
-        <v>181.4813537597656</v>
+        <v>186.7314147949219</v>
       </c>
       <c r="F23">
-        <v>53763500</v>
+        <v>60108400</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45240</v>
+        <v>45245</v>
       </c>
       <c r="B24">
-        <v>183.2745364819835</v>
+        <v>187.1398717761497</v>
       </c>
       <c r="C24">
-        <v>185.8647137408318</v>
+        <v>188.7836281572347</v>
       </c>
       <c r="D24">
-        <v>182.8361973888456</v>
+        <v>187.0701291024632</v>
       </c>
       <c r="E24">
-        <v>185.6953430175781</v>
+        <v>187.2992553710938</v>
       </c>
       <c r="F24">
-        <v>66133400</v>
+        <v>53790500</v>
       </c>
       <c r="G24">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="B25">
-        <v>185.1175429542476</v>
+        <v>188.8533734797063</v>
       </c>
       <c r="C25">
-        <v>185.3267405684616</v>
+        <v>190.2381182374616</v>
       </c>
       <c r="D25">
-        <v>183.5136287071499</v>
+        <v>187.9368379901175</v>
       </c>
       <c r="E25">
-        <v>184.1013946533203</v>
+        <v>188.9928436279297</v>
       </c>
       <c r="F25">
-        <v>43627500</v>
+        <v>54412900</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1455,22 +1455,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B26">
-        <v>186.9904264331423</v>
+        <v>189.5307962442899</v>
       </c>
       <c r="C26">
-        <v>187.3988801404597</v>
+        <v>189.6603096684954</v>
       </c>
       <c r="D26">
-        <v>185.59572499487</v>
+        <v>187.8571544596624</v>
       </c>
       <c r="E26">
-        <v>186.7314147949219</v>
+        <v>188.9729156494141</v>
       </c>
       <c r="F26">
-        <v>60108400</v>
+        <v>50922700</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B27">
-        <v>187.1398717761497</v>
+        <v>189.1721570341783</v>
       </c>
       <c r="C27">
-        <v>188.7836281572347</v>
+        <v>191.1845250718208</v>
       </c>
       <c r="D27">
-        <v>187.0701291024632</v>
+        <v>189.1622003096392</v>
       </c>
       <c r="E27">
-        <v>187.2992553710938</v>
+        <v>190.7262573242188</v>
       </c>
       <c r="F27">
-        <v>53790500</v>
+        <v>46505100</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45246</v>
+        <v>45251</v>
       </c>
       <c r="B28">
-        <v>188.8533734797063</v>
+        <v>190.6864202228131</v>
       </c>
       <c r="C28">
-        <v>190.2381182374616</v>
+        <v>190.7960050000397</v>
       </c>
       <c r="D28">
-        <v>187.9368379901175</v>
+        <v>189.0227351148133</v>
       </c>
       <c r="E28">
-        <v>188.9928436279297</v>
+        <v>189.9193267822266</v>
       </c>
       <c r="F28">
-        <v>54412900</v>
+        <v>38134500</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B29">
-        <v>189.5307962442899</v>
+        <v>190.7661194461664</v>
       </c>
       <c r="C29">
-        <v>189.6603096684954</v>
+        <v>192.200663072465</v>
       </c>
       <c r="D29">
-        <v>187.8571544596624</v>
+        <v>190.1086107834213</v>
       </c>
       <c r="E29">
-        <v>188.9729156494141</v>
+        <v>190.5867919921875</v>
       </c>
       <c r="F29">
-        <v>50922700</v>
+        <v>39617700</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1559,22 +1559,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B30">
-        <v>189.1721570341783</v>
+        <v>190.1484532405231</v>
       </c>
       <c r="C30">
-        <v>191.1845250718208</v>
+        <v>190.1783386160579</v>
       </c>
       <c r="D30">
-        <v>189.1622003096392</v>
+        <v>188.534582157217</v>
       </c>
       <c r="E30">
-        <v>190.7262573242188</v>
+        <v>189.2518615722656</v>
       </c>
       <c r="F30">
-        <v>46505100</v>
+        <v>24048300</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B31">
-        <v>190.6864202228131</v>
+        <v>189.2020384462403</v>
       </c>
       <c r="C31">
-        <v>190.7960050000397</v>
+        <v>189.9492032008885</v>
       </c>
       <c r="D31">
-        <v>189.0227351148133</v>
+        <v>188.1858901236091</v>
       </c>
       <c r="E31">
-        <v>189.9193267822266</v>
+        <v>189.0725250244141</v>
       </c>
       <c r="F31">
-        <v>38134500</v>
+        <v>40552600</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B32">
-        <v>190.7661194461664</v>
+        <v>189.0625702185278</v>
       </c>
       <c r="C32">
-        <v>192.200663072465</v>
+        <v>190.3576588466139</v>
       </c>
       <c r="D32">
-        <v>190.1086107834213</v>
+        <v>188.6840018746442</v>
       </c>
       <c r="E32">
-        <v>190.5867919921875</v>
+        <v>189.6802215576172</v>
       </c>
       <c r="F32">
-        <v>39617700</v>
+        <v>38415400</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1637,22 +1637,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B33">
-        <v>190.1484532405231</v>
+        <v>190.1783440284001</v>
       </c>
       <c r="C33">
-        <v>190.1783386160579</v>
+        <v>191.3638479620414</v>
       </c>
       <c r="D33">
-        <v>188.534582157217</v>
+        <v>188.2556472091113</v>
       </c>
       <c r="E33">
-        <v>189.2518615722656</v>
+        <v>188.6541290283203</v>
       </c>
       <c r="F33">
-        <v>24048300</v>
+        <v>43014200</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="B34">
-        <v>189.2020384462403</v>
+        <v>189.1223335660783</v>
       </c>
       <c r="C34">
-        <v>189.9492032008885</v>
+        <v>189.6005299399875</v>
       </c>
       <c r="D34">
-        <v>188.1858901236091</v>
+        <v>187.4785772339432</v>
       </c>
       <c r="E34">
-        <v>189.0725250244141</v>
+        <v>189.2319183349609</v>
       </c>
       <c r="F34">
-        <v>40552600</v>
+        <v>48794400</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1689,22 +1689,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="B35">
-        <v>189.0625702185278</v>
+        <v>189.6104957583972</v>
       </c>
       <c r="C35">
-        <v>190.3576588466139</v>
+        <v>190.8358417229626</v>
       </c>
       <c r="D35">
-        <v>188.6840018746442</v>
+        <v>188.5146480170096</v>
       </c>
       <c r="E35">
-        <v>189.6802215576172</v>
+        <v>190.5170593261719</v>
       </c>
       <c r="F35">
-        <v>38415400</v>
+        <v>45679300</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1715,22 +1715,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="B36">
-        <v>190.1783440284001</v>
+        <v>189.2618062982008</v>
       </c>
       <c r="C36">
-        <v>191.3638479620414</v>
+        <v>189.3315489707649</v>
       </c>
       <c r="D36">
-        <v>188.2556472091113</v>
+        <v>186.7413717805125</v>
       </c>
       <c r="E36">
-        <v>188.6541290283203</v>
+        <v>188.7138824462891</v>
       </c>
       <c r="F36">
-        <v>43014200</v>
+        <v>43389500</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45260</v>
+        <v>45265</v>
       </c>
       <c r="B37">
-        <v>189.1223335660783</v>
+        <v>189.4909555363582</v>
       </c>
       <c r="C37">
-        <v>189.6005299399875</v>
+        <v>193.66510330406</v>
       </c>
       <c r="D37">
-        <v>187.4785772339432</v>
+        <v>189.4610549603861</v>
       </c>
       <c r="E37">
-        <v>189.2319183349609</v>
+        <v>192.6888122558594</v>
       </c>
       <c r="F37">
-        <v>48794400</v>
+        <v>66628400</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1767,22 +1767,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="B38">
-        <v>189.6104957583972</v>
+        <v>193.714924762986</v>
       </c>
       <c r="C38">
-        <v>190.8358417229626</v>
+        <v>194.0237504491889</v>
       </c>
       <c r="D38">
-        <v>188.5146480170096</v>
+        <v>191.3837742273508</v>
       </c>
       <c r="E38">
-        <v>190.5170593261719</v>
+        <v>191.5929870605469</v>
       </c>
       <c r="F38">
-        <v>45679300</v>
+        <v>41089700</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B39">
-        <v>189.2618062982008</v>
+        <v>192.8980187767373</v>
       </c>
       <c r="C39">
-        <v>189.3315489707649</v>
+        <v>194.2628348546959</v>
       </c>
       <c r="D39">
-        <v>186.7413717805125</v>
+        <v>192.8581614774812</v>
       </c>
       <c r="E39">
-        <v>188.7138824462891</v>
+        <v>193.5355987548828</v>
       </c>
       <c r="F39">
-        <v>43389500</v>
+        <v>47477700</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1819,22 +1819,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B40">
-        <v>189.4909555363582</v>
+        <v>193.465852412872</v>
       </c>
       <c r="C40">
-        <v>193.66510330406</v>
+        <v>195.2490940936735</v>
       </c>
       <c r="D40">
-        <v>189.4610549603861</v>
+        <v>192.9378572160349</v>
       </c>
       <c r="E40">
-        <v>192.6888122558594</v>
+        <v>194.9701538085938</v>
       </c>
       <c r="F40">
-        <v>66628400</v>
+        <v>53377300</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="B41">
-        <v>193.714924762986</v>
+        <v>192.3799948127373</v>
       </c>
       <c r="C41">
-        <v>194.0237504491889</v>
+        <v>192.7585631787113</v>
       </c>
       <c r="D41">
-        <v>191.3837742273508</v>
+        <v>190.6963810180936</v>
       </c>
       <c r="E41">
-        <v>191.5929870605469</v>
+        <v>192.4497222900391</v>
       </c>
       <c r="F41">
-        <v>41089700</v>
+        <v>60943700</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1871,22 +1871,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B42">
-        <v>192.8980187767373</v>
+        <v>192.3501101982854</v>
       </c>
       <c r="C42">
-        <v>194.2628348546959</v>
+        <v>193.9839099721223</v>
       </c>
       <c r="D42">
-        <v>192.8581614774812</v>
+        <v>190.9952507369739</v>
       </c>
       <c r="E42">
-        <v>193.5355987548828</v>
+        <v>193.9739532470703</v>
       </c>
       <c r="F42">
-        <v>47477700</v>
+        <v>52696900</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1897,22 +1897,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45268</v>
+        <v>45273</v>
       </c>
       <c r="B43">
-        <v>193.465852412872</v>
+        <v>194.352493842968</v>
       </c>
       <c r="C43">
-        <v>195.2490940936735</v>
+        <v>197.2514967618239</v>
       </c>
       <c r="D43">
-        <v>192.9378572160349</v>
+        <v>194.1134108483282</v>
       </c>
       <c r="E43">
-        <v>194.9701538085938</v>
+        <v>197.2116546630859</v>
       </c>
       <c r="F43">
-        <v>53377300</v>
+        <v>70404200</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B44">
-        <v>192.3799948127373</v>
+        <v>197.2714278602722</v>
       </c>
       <c r="C44">
-        <v>192.7585631787113</v>
+        <v>198.8653702483771</v>
       </c>
       <c r="D44">
-        <v>190.6963810180936</v>
+        <v>195.4184586232846</v>
       </c>
       <c r="E44">
-        <v>192.4497222900391</v>
+        <v>197.361083984375</v>
       </c>
       <c r="F44">
-        <v>60943700</v>
+        <v>66831600</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1949,22 +1949,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B45">
-        <v>192.3501101982854</v>
+        <v>196.783262819263</v>
       </c>
       <c r="C45">
-        <v>193.9839099721223</v>
+        <v>197.649969035306</v>
       </c>
       <c r="D45">
-        <v>190.9952507369739</v>
+        <v>196.2552676300523</v>
       </c>
       <c r="E45">
-        <v>193.9739532470703</v>
+        <v>196.8231201171875</v>
       </c>
       <c r="F45">
-        <v>52696900</v>
+        <v>128256700</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45273</v>
+        <v>45278</v>
       </c>
       <c r="B46">
-        <v>194.352493842968</v>
+        <v>195.3487159960799</v>
       </c>
       <c r="C46">
-        <v>197.2514967618239</v>
+        <v>195.8866831430404</v>
       </c>
       <c r="D46">
-        <v>194.1134108483282</v>
+        <v>193.6551455578198</v>
       </c>
       <c r="E46">
-        <v>197.2116546630859</v>
+        <v>195.1494750976562</v>
       </c>
       <c r="F46">
-        <v>70404200</v>
+        <v>55751900</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B47">
-        <v>197.2714278602722</v>
+        <v>195.4184607115181</v>
       </c>
       <c r="C47">
-        <v>198.8653702483771</v>
+        <v>196.2054675888958</v>
       </c>
       <c r="D47">
-        <v>195.4184586232846</v>
+        <v>195.1494771352294</v>
       </c>
       <c r="E47">
-        <v>197.361083984375</v>
+        <v>196.1955108642578</v>
       </c>
       <c r="F47">
-        <v>66831600</v>
+        <v>40714100</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="B48">
-        <v>196.783262819263</v>
+        <v>196.1556575241543</v>
       </c>
       <c r="C48">
-        <v>197.649969035306</v>
+        <v>196.9327076925837</v>
       </c>
       <c r="D48">
-        <v>196.2552676300523</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="E48">
-        <v>196.8231201171875</v>
+        <v>194.0934906005859</v>
       </c>
       <c r="F48">
-        <v>128256700</v>
+        <v>52242800</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2053,22 +2053,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="B49">
-        <v>195.3487159960799</v>
+        <v>195.3586760168643</v>
       </c>
       <c r="C49">
-        <v>195.8866831430404</v>
+        <v>196.3349670004207</v>
       </c>
       <c r="D49">
-        <v>193.6551455578198</v>
+        <v>192.7684988918802</v>
       </c>
       <c r="E49">
-        <v>195.1494750976562</v>
+        <v>193.9440307617188</v>
       </c>
       <c r="F49">
-        <v>55751900</v>
+        <v>46482500</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2079,22 +2079,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B50">
-        <v>195.4184607115181</v>
+        <v>194.4421472412643</v>
       </c>
       <c r="C50">
-        <v>196.2054675888958</v>
+        <v>194.6712887093912</v>
       </c>
       <c r="D50">
-        <v>195.1494771352294</v>
+        <v>192.2405102905751</v>
       </c>
       <c r="E50">
-        <v>196.1955108642578</v>
+        <v>192.8681335449219</v>
       </c>
       <c r="F50">
-        <v>40714100</v>
+        <v>37122800</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2105,22 +2105,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>45280</v>
+        <v>45286</v>
       </c>
       <c r="B51">
-        <v>196.1556575241543</v>
+        <v>192.8781015610764</v>
       </c>
       <c r="C51">
-        <v>196.9327076925837</v>
+        <v>193.1570418679817</v>
       </c>
       <c r="D51">
-        <v>194.0934906005859</v>
+        <v>192.1010513916819</v>
       </c>
       <c r="E51">
-        <v>194.0934906005859</v>
+        <v>192.3202209472656</v>
       </c>
       <c r="F51">
-        <v>52242800</v>
+        <v>28919300</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B52">
-        <v>195.3586760168643</v>
+        <v>191.7623368685013</v>
       </c>
       <c r="C52">
-        <v>196.3349670004207</v>
+        <v>192.7685133001503</v>
       </c>
       <c r="D52">
-        <v>192.7684988918802</v>
+        <v>190.3676201580689</v>
       </c>
       <c r="E52">
-        <v>193.9440307617188</v>
+        <v>192.4198303222656</v>
       </c>
       <c r="F52">
-        <v>46482500</v>
+        <v>48087700</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B53">
-        <v>194.4421472412643</v>
+        <v>193.4060861494978</v>
       </c>
       <c r="C53">
-        <v>194.6712887093912</v>
+        <v>193.924124634271</v>
       </c>
       <c r="D53">
-        <v>192.2405102905751</v>
+        <v>192.4397518533907</v>
       </c>
       <c r="E53">
-        <v>192.8681335449219</v>
+        <v>192.8482055664062</v>
       </c>
       <c r="F53">
-        <v>37122800</v>
+        <v>34049900</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2183,22 +2183,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B54">
-        <v>192.8781015610764</v>
+        <v>193.1669858687692</v>
       </c>
       <c r="C54">
-        <v>193.1570418679817</v>
+        <v>193.6650956984474</v>
       </c>
       <c r="D54">
-        <v>192.1010513916819</v>
+        <v>191.0051910320984</v>
       </c>
       <c r="E54">
-        <v>192.3202209472656</v>
+        <v>191.8021697998047</v>
       </c>
       <c r="F54">
-        <v>28919300</v>
+        <v>42628800</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2209,22 +2209,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B55">
-        <v>191.7623368685013</v>
+        <v>186.4425033780096</v>
       </c>
       <c r="C55">
-        <v>192.7685133001503</v>
+        <v>187.7276352526454</v>
       </c>
       <c r="D55">
-        <v>190.3676201580689</v>
+        <v>183.1948327572495</v>
       </c>
       <c r="E55">
-        <v>192.4198303222656</v>
+        <v>184.9382171630859</v>
       </c>
       <c r="F55">
-        <v>48087700</v>
+        <v>82488700</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B56">
-        <v>193.4060861494978</v>
+        <v>183.5235814240684</v>
       </c>
       <c r="C56">
-        <v>193.924124634271</v>
+        <v>185.1773096578577</v>
       </c>
       <c r="D56">
-        <v>192.4397518533907</v>
+        <v>182.7365594038808</v>
       </c>
       <c r="E56">
-        <v>192.8482055664062</v>
+        <v>183.553466796875</v>
       </c>
       <c r="F56">
-        <v>34049900</v>
+        <v>58414500</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2261,22 +2261,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B57">
-        <v>193.1669858687692</v>
+        <v>181.4614035444303</v>
       </c>
       <c r="C57">
-        <v>193.6650956984474</v>
+        <v>182.3978524495546</v>
       </c>
       <c r="D57">
-        <v>191.0051910320984</v>
+        <v>180.1962155310951</v>
       </c>
       <c r="E57">
-        <v>191.8021697998047</v>
+        <v>181.2223205566406</v>
       </c>
       <c r="F57">
-        <v>42628800</v>
+        <v>71983600</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>186.4425033780096</v>
+        <v>181.3020374348382</v>
       </c>
       <c r="C58">
-        <v>187.7276352526454</v>
+        <v>182.0691156961024</v>
       </c>
       <c r="D58">
-        <v>183.1948327572495</v>
+        <v>179.4889101967076</v>
       </c>
       <c r="E58">
-        <v>184.9382171630859</v>
+        <v>180.4950866699219</v>
       </c>
       <c r="F58">
-        <v>82488700</v>
+        <v>62303300</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2313,22 +2313,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B59">
-        <v>183.5235814240684</v>
+        <v>181.4016370185953</v>
       </c>
       <c r="C59">
-        <v>185.1773096578577</v>
+        <v>184.8983778074419</v>
       </c>
       <c r="D59">
-        <v>182.7365594038808</v>
+        <v>180.8138710584613</v>
       </c>
       <c r="E59">
-        <v>183.553466796875</v>
+        <v>184.8585205078125</v>
       </c>
       <c r="F59">
-        <v>58414500</v>
+        <v>59144500</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B60">
-        <v>181.4614035444303</v>
+        <v>183.2247200384055</v>
       </c>
       <c r="C60">
-        <v>182.3978524495546</v>
+        <v>184.4500659772401</v>
       </c>
       <c r="D60">
-        <v>180.1962155310951</v>
+        <v>182.0392161979183</v>
       </c>
       <c r="E60">
-        <v>181.2223205566406</v>
+        <v>184.4401092529297</v>
       </c>
       <c r="F60">
-        <v>71983600</v>
+        <v>42841800</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="B61">
-        <v>181.3020374348382</v>
+        <v>183.6531195609547</v>
       </c>
       <c r="C61">
-        <v>182.0691156961024</v>
+        <v>185.6953579161256</v>
       </c>
       <c r="D61">
-        <v>179.4889101967076</v>
+        <v>183.224737157889</v>
       </c>
       <c r="E61">
-        <v>180.4950866699219</v>
+        <v>185.4861602783203</v>
       </c>
       <c r="F61">
-        <v>62303300</v>
+        <v>46792900</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B62">
-        <v>181.4016370185953</v>
+        <v>185.8348181606066</v>
       </c>
       <c r="C62">
-        <v>184.8983778074419</v>
+        <v>186.3428999418131</v>
       </c>
       <c r="D62">
-        <v>180.8138710584613</v>
+        <v>182.9258584292588</v>
       </c>
       <c r="E62">
-        <v>184.8585205078125</v>
+        <v>184.8884124755859</v>
       </c>
       <c r="F62">
-        <v>59144500</v>
+        <v>49128400</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2417,22 +2417,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B63">
-        <v>183.2247200384055</v>
+        <v>185.3566332346026</v>
       </c>
       <c r="C63">
-        <v>184.4500659772401</v>
+        <v>186.0340705289092</v>
       </c>
       <c r="D63">
-        <v>182.0392161979183</v>
+        <v>184.4899269679768</v>
       </c>
       <c r="E63">
-        <v>184.4401092529297</v>
+        <v>185.2171630859375</v>
       </c>
       <c r="F63">
-        <v>42841800</v>
+        <v>40444700</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2443,22 +2443,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B64">
-        <v>183.6531195609547</v>
+        <v>181.4713774128876</v>
       </c>
       <c r="C64">
-        <v>185.6953579161256</v>
+        <v>183.5634295839771</v>
       </c>
       <c r="D64">
-        <v>183.224737157889</v>
+        <v>180.246016282922</v>
       </c>
       <c r="E64">
-        <v>185.4861602783203</v>
+        <v>182.9358215332031</v>
       </c>
       <c r="F64">
-        <v>46792900</v>
+        <v>65603000</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B65">
-        <v>185.8348181606066</v>
+        <v>180.5847521538411</v>
       </c>
       <c r="C65">
-        <v>186.3428999418131</v>
+        <v>182.2384653293606</v>
       </c>
       <c r="D65">
-        <v>182.9258584292588</v>
+        <v>179.6184178133491</v>
       </c>
       <c r="E65">
-        <v>184.8884124755859</v>
+        <v>181.9894104003906</v>
       </c>
       <c r="F65">
-        <v>49128400</v>
+        <v>47317400</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2495,22 +2495,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B66">
-        <v>185.3566332346026</v>
+        <v>185.3865094908112</v>
       </c>
       <c r="C66">
-        <v>186.0340705289092</v>
+        <v>188.4249824384652</v>
       </c>
       <c r="D66">
-        <v>184.4899269679768</v>
+        <v>185.1274978563461</v>
       </c>
       <c r="E66">
-        <v>185.2171630859375</v>
+        <v>187.9169158935547</v>
       </c>
       <c r="F66">
-        <v>40444700</v>
+        <v>78005800</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B67">
-        <v>181.4713774128876</v>
+        <v>188.614265160598</v>
       </c>
       <c r="C67">
-        <v>183.5634295839771</v>
+        <v>191.2243557377567</v>
       </c>
       <c r="D67">
-        <v>180.246016282922</v>
+        <v>188.1061986195717</v>
       </c>
       <c r="E67">
-        <v>182.9358215332031</v>
+        <v>190.8358306884766</v>
       </c>
       <c r="F67">
-        <v>65603000</v>
+        <v>68741000</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2547,22 +2547,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>45308</v>
+        <v>45313</v>
       </c>
       <c r="B68">
-        <v>180.5847521538411</v>
+        <v>191.5730425958912</v>
       </c>
       <c r="C68">
-        <v>182.2384653293606</v>
+        <v>194.591586932864</v>
       </c>
       <c r="D68">
-        <v>179.6184178133491</v>
+        <v>191.5331852970931</v>
       </c>
       <c r="E68">
-        <v>181.9894104003906</v>
+        <v>193.1570281982422</v>
       </c>
       <c r="F68">
-        <v>47317400</v>
+        <v>60133900</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2573,22 +2573,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B69">
-        <v>185.3865094908112</v>
+        <v>194.2827703313563</v>
       </c>
       <c r="C69">
-        <v>188.4249824384652</v>
+        <v>195.0100064567242</v>
       </c>
       <c r="D69">
-        <v>185.1274978563461</v>
+        <v>193.0972664550746</v>
       </c>
       <c r="E69">
-        <v>187.9169158935547</v>
+        <v>194.4421539306641</v>
       </c>
       <c r="F69">
-        <v>78005800</v>
+        <v>42355600</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2599,22 +2599,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B70">
-        <v>188.614265160598</v>
+        <v>194.6812449985873</v>
       </c>
       <c r="C70">
-        <v>191.2243557377567</v>
+        <v>195.6376225649257</v>
       </c>
       <c r="D70">
-        <v>188.1061986195717</v>
+        <v>193.6053259368713</v>
       </c>
       <c r="E70">
-        <v>190.8358306884766</v>
+        <v>193.7647247314453</v>
       </c>
       <c r="F70">
-        <v>68741000</v>
+        <v>53631300</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B71">
-        <v>191.5730425958912</v>
+        <v>194.4820231702934</v>
       </c>
       <c r="C71">
-        <v>194.591586932864</v>
+        <v>195.5280569607039</v>
       </c>
       <c r="D71">
-        <v>191.5331852970931</v>
+        <v>192.37999886425</v>
       </c>
       <c r="E71">
-        <v>193.1570281982422</v>
+        <v>193.4359893798828</v>
       </c>
       <c r="F71">
-        <v>60133900</v>
+        <v>54822100</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2651,22 +2651,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B72">
-        <v>194.2827703313563</v>
+        <v>193.5355935899702</v>
       </c>
       <c r="C72">
-        <v>195.0100064567242</v>
+        <v>194.0237314845371</v>
       </c>
       <c r="D72">
-        <v>193.0972664550746</v>
+        <v>191.2144000061864</v>
       </c>
       <c r="E72">
-        <v>194.4421539306641</v>
+        <v>191.6925811767578</v>
       </c>
       <c r="F72">
-        <v>42355600</v>
+        <v>44594000</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2677,22 +2677,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B73">
-        <v>194.6812449985873</v>
+        <v>191.2841282723675</v>
       </c>
       <c r="C73">
-        <v>195.6376225649257</v>
+        <v>191.4734124368057</v>
       </c>
       <c r="D73">
-        <v>193.6053259368713</v>
+        <v>188.8633218352395</v>
       </c>
       <c r="E73">
-        <v>193.7647247314453</v>
+        <v>191.0051879882812</v>
       </c>
       <c r="F73">
-        <v>53631300</v>
+        <v>47145600</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B74">
-        <v>194.4820231702934</v>
+        <v>190.2181936148135</v>
       </c>
       <c r="C74">
-        <v>195.5280569607039</v>
+        <v>191.0749431723554</v>
       </c>
       <c r="D74">
-        <v>192.37999886425</v>
+        <v>186.7613100094732</v>
       </c>
       <c r="E74">
-        <v>193.4359893798828</v>
+        <v>187.3291473388672</v>
       </c>
       <c r="F74">
-        <v>54822100</v>
+        <v>55859400</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2729,22 +2729,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B75">
-        <v>193.5355935899702</v>
+        <v>186.3329308453054</v>
       </c>
       <c r="C75">
-        <v>194.0237314845371</v>
+        <v>186.3927167977895</v>
       </c>
       <c r="D75">
-        <v>191.2144000061864</v>
+        <v>183.6531125515431</v>
       </c>
       <c r="E75">
-        <v>191.6925811767578</v>
+        <v>183.7029113769531</v>
       </c>
       <c r="F75">
-        <v>44594000</v>
+        <v>55467800</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B76">
-        <v>191.2841282723675</v>
+        <v>183.2944796333469</v>
       </c>
       <c r="C76">
-        <v>191.4734124368057</v>
+        <v>186.2432816186692</v>
       </c>
       <c r="D76">
-        <v>188.8633218352395</v>
+        <v>183.1251240978006</v>
       </c>
       <c r="E76">
-        <v>191.0051879882812</v>
+        <v>186.1536254882812</v>
       </c>
       <c r="F76">
-        <v>47145600</v>
+        <v>64885400</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2781,22 +2781,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B77">
-        <v>190.2181936148135</v>
+        <v>179.1800691670908</v>
       </c>
       <c r="C77">
-        <v>191.0749431723554</v>
+        <v>186.6218312646208</v>
       </c>
       <c r="D77">
-        <v>186.7613100094732</v>
+        <v>178.572374564712</v>
       </c>
       <c r="E77">
-        <v>187.3291473388672</v>
+        <v>185.1474304199219</v>
       </c>
       <c r="F77">
-        <v>55859400</v>
+        <v>102518000</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2807,22 +2807,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B78">
-        <v>186.3329308453054</v>
+        <v>187.4387292327286</v>
       </c>
       <c r="C78">
-        <v>186.3927167977895</v>
+        <v>188.5345769759108</v>
       </c>
       <c r="D78">
-        <v>183.6531125515431</v>
+        <v>185.137464173152</v>
       </c>
       <c r="E78">
-        <v>183.7029113769531</v>
+        <v>186.9705047607422</v>
       </c>
       <c r="F78">
-        <v>55467800</v>
+        <v>69668800</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2833,22 +2833,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B79">
-        <v>183.2944796333469</v>
+        <v>186.1536027470153</v>
       </c>
       <c r="C79">
-        <v>186.2432816186692</v>
+        <v>188.5943378275288</v>
       </c>
       <c r="D79">
-        <v>183.1251240978006</v>
+        <v>186.0639466275801</v>
       </c>
       <c r="E79">
-        <v>186.1536254882812</v>
+        <v>188.5843811035156</v>
       </c>
       <c r="F79">
-        <v>64885400</v>
+        <v>43490800</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B80">
-        <v>179.1800691670908</v>
+        <v>189.9193156538562</v>
       </c>
       <c r="C80">
-        <v>186.6218312646208</v>
+        <v>190.3277693633227</v>
       </c>
       <c r="D80">
-        <v>178.572374564712</v>
+        <v>187.8969909571685</v>
       </c>
       <c r="E80">
-        <v>185.1474304199219</v>
+        <v>188.6939697265625</v>
       </c>
       <c r="F80">
-        <v>102518000</v>
+        <v>53439000</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2885,22 +2885,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B81">
-        <v>187.4387292327286</v>
+        <v>188.674040391037</v>
       </c>
       <c r="C81">
-        <v>188.5345769759108</v>
+        <v>188.8234672592713</v>
       </c>
       <c r="D81">
-        <v>185.137464173152</v>
+        <v>186.6417589775216</v>
       </c>
       <c r="E81">
-        <v>186.9705047607422</v>
+        <v>187.6080932617188</v>
       </c>
       <c r="F81">
-        <v>69668800</v>
+        <v>40962000</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2911,25 +2911,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="B82">
-        <v>186.1536027470153</v>
+        <v>188.1766493146219</v>
       </c>
       <c r="C82">
-        <v>188.5943378275288</v>
+        <v>189.5132986677318</v>
       </c>
       <c r="D82">
-        <v>186.0639466275801</v>
+        <v>187.5282863277538</v>
       </c>
       <c r="E82">
-        <v>188.5843811035156</v>
+        <v>188.3761596679688</v>
       </c>
       <c r="F82">
-        <v>43490800</v>
+        <v>45155200</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2937,22 +2937,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B83">
-        <v>189.9193156538562</v>
+        <v>187.9472376542695</v>
       </c>
       <c r="C83">
-        <v>190.3277693633227</v>
+        <v>188.1966103847131</v>
       </c>
       <c r="D83">
-        <v>187.8969909571685</v>
+        <v>186.3213225812161</v>
       </c>
       <c r="E83">
-        <v>188.6939697265625</v>
+        <v>186.680419921875</v>
       </c>
       <c r="F83">
-        <v>53439000</v>
+        <v>41781900</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2963,22 +2963,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B84">
-        <v>188.674040391037</v>
+        <v>185.3038934455236</v>
       </c>
       <c r="C84">
-        <v>188.8234672592713</v>
+        <v>185.7427918879144</v>
       </c>
       <c r="D84">
-        <v>186.6417589775216</v>
+        <v>183.0495542133352</v>
       </c>
       <c r="E84">
-        <v>187.6080932617188</v>
+        <v>184.5757141113281</v>
       </c>
       <c r="F84">
-        <v>40962000</v>
+        <v>56529500</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2989,25 +2989,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B85">
-        <v>188.1766493146219</v>
+        <v>184.8550202478472</v>
       </c>
       <c r="C85">
-        <v>189.5132986677318</v>
+        <v>185.0644848126334</v>
       </c>
       <c r="D85">
-        <v>187.5282863277538</v>
+        <v>181.9822415953253</v>
       </c>
       <c r="E85">
-        <v>188.3761596679688</v>
+        <v>183.6879425048828</v>
       </c>
       <c r="F85">
-        <v>45155200</v>
+        <v>54630500</v>
       </c>
       <c r="G85">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3015,22 +3015,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B86">
-        <v>187.9472376542695</v>
+        <v>183.0894618898952</v>
       </c>
       <c r="C86">
-        <v>188.1966103847131</v>
+        <v>184.0271057924329</v>
       </c>
       <c r="D86">
-        <v>186.3213225812161</v>
+        <v>180.8949849042452</v>
       </c>
       <c r="E86">
-        <v>186.680419921875</v>
+        <v>183.398681640625</v>
       </c>
       <c r="F86">
-        <v>41781900</v>
+        <v>65434500</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>185.3038934455236</v>
+        <v>182.9597697729581</v>
       </c>
       <c r="C87">
-        <v>185.7427918879144</v>
+        <v>184.3861896022806</v>
       </c>
       <c r="D87">
-        <v>183.0495542133352</v>
+        <v>181.2141607864845</v>
       </c>
       <c r="E87">
-        <v>184.5757141113281</v>
+        <v>181.8525543212891</v>
       </c>
       <c r="F87">
-        <v>56529500</v>
+        <v>49701400</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3067,22 +3067,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B88">
-        <v>184.8550202478472</v>
+        <v>181.3338650577124</v>
       </c>
       <c r="C88">
-        <v>185.0644848126334</v>
+        <v>181.9722586285668</v>
       </c>
       <c r="D88">
-        <v>181.9822415953253</v>
+        <v>179.5483630334567</v>
       </c>
       <c r="E88">
-        <v>183.6879425048828</v>
+        <v>181.1044464111328</v>
       </c>
       <c r="F88">
-        <v>54630500</v>
+        <v>53665600</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3093,22 +3093,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B89">
-        <v>183.0894618898952</v>
+        <v>181.4834974142419</v>
       </c>
       <c r="C89">
-        <v>184.0271057924329</v>
+        <v>182.4311107284463</v>
       </c>
       <c r="D89">
-        <v>180.8949849042452</v>
+        <v>180.2067102754291</v>
       </c>
       <c r="E89">
-        <v>183.398681640625</v>
+        <v>181.862548828125</v>
       </c>
       <c r="F89">
-        <v>65434500</v>
+        <v>41529700</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B90">
-        <v>182.9597697729581</v>
+        <v>183.0196281071197</v>
       </c>
       <c r="C90">
-        <v>184.3861896022806</v>
+        <v>184.495925614312</v>
       </c>
       <c r="D90">
-        <v>181.2141607864845</v>
+        <v>182.0021983365588</v>
       </c>
       <c r="E90">
-        <v>181.8525543212891</v>
+        <v>183.9073944091797</v>
       </c>
       <c r="F90">
-        <v>49701400</v>
+        <v>52292200</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B91">
-        <v>181.3338650577124</v>
+        <v>184.5457848212894</v>
       </c>
       <c r="C91">
-        <v>181.9722586285668</v>
+        <v>184.5757083304694</v>
       </c>
       <c r="D91">
-        <v>179.5483630334567</v>
+        <v>181.7727613535837</v>
       </c>
       <c r="E91">
-        <v>181.1044464111328</v>
+        <v>182.0620422363281</v>
       </c>
       <c r="F91">
-        <v>53665600</v>
+        <v>45119700</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="B92">
-        <v>181.4834974142419</v>
+        <v>181.782751620001</v>
       </c>
       <c r="C92">
-        <v>182.4311107284463</v>
+        <v>182.3014359421489</v>
       </c>
       <c r="D92">
-        <v>180.2067102754291</v>
+        <v>180.1967294819421</v>
       </c>
       <c r="E92">
-        <v>181.862548828125</v>
+        <v>180.7054595947266</v>
       </c>
       <c r="F92">
-        <v>41529700</v>
+        <v>40867400</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3197,22 +3197,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B93">
-        <v>183.0196281071197</v>
+        <v>180.6456083270148</v>
       </c>
       <c r="C93">
-        <v>184.495925614312</v>
+        <v>183.4585247542275</v>
       </c>
       <c r="D93">
-        <v>182.0021983365588</v>
+        <v>179.1094638154171</v>
       </c>
       <c r="E93">
-        <v>183.9073944091797</v>
+        <v>182.1717681884766</v>
       </c>
       <c r="F93">
-        <v>52292200</v>
+        <v>54318900</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B94">
-        <v>184.5457848212894</v>
+        <v>182.0520594060505</v>
       </c>
       <c r="C94">
-        <v>184.5757083304694</v>
+        <v>182.6605294662985</v>
       </c>
       <c r="D94">
-        <v>181.7727613535837</v>
+        <v>179.6780414045198</v>
       </c>
       <c r="E94">
-        <v>182.0620422363281</v>
+        <v>180.9647979736328</v>
       </c>
       <c r="F94">
-        <v>45119700</v>
+        <v>48953900</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B95">
-        <v>181.782751620001</v>
+        <v>180.815177795749</v>
       </c>
       <c r="C95">
-        <v>182.3014359421489</v>
+        <v>182.1119189961591</v>
       </c>
       <c r="D95">
-        <v>180.1967294819421</v>
+        <v>179.0795381686922</v>
       </c>
       <c r="E95">
-        <v>180.7054595947266</v>
+        <v>180.2964782714844</v>
       </c>
       <c r="F95">
-        <v>40867400</v>
+        <v>136682600</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3275,22 +3275,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B96">
-        <v>180.6456083270148</v>
+        <v>179.0995039018238</v>
       </c>
       <c r="C96">
-        <v>183.4585247542275</v>
+        <v>180.0770407753685</v>
       </c>
       <c r="D96">
-        <v>179.1094638154171</v>
+        <v>176.9349503572942</v>
       </c>
       <c r="E96">
-        <v>182.1717681884766</v>
+        <v>179.209228515625</v>
       </c>
       <c r="F96">
-        <v>54318900</v>
+        <v>73488000</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3301,22 +3301,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B97">
-        <v>182.0520594060505</v>
+        <v>175.7080130413176</v>
       </c>
       <c r="C97">
-        <v>182.6605294662985</v>
+        <v>176.4561312039468</v>
       </c>
       <c r="D97">
-        <v>179.6780414045198</v>
+        <v>173.3539339474242</v>
       </c>
       <c r="E97">
-        <v>180.9647979736328</v>
+        <v>174.6606597900391</v>
       </c>
       <c r="F97">
-        <v>48953900</v>
+        <v>81510100</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B98">
-        <v>180.815177795749</v>
+        <v>170.3315546304903</v>
       </c>
       <c r="C98">
-        <v>182.1119189961591</v>
+        <v>171.6083418699865</v>
       </c>
       <c r="D98">
-        <v>179.0795381686922</v>
+        <v>169.1944155196732</v>
       </c>
       <c r="E98">
-        <v>180.2964782714844</v>
+        <v>169.6931610107422</v>
       </c>
       <c r="F98">
-        <v>136682600</v>
+        <v>95132400</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B99">
-        <v>179.0995039018238</v>
+        <v>170.6307828835121</v>
       </c>
       <c r="C99">
-        <v>180.0770407753685</v>
+        <v>170.8103391517182</v>
       </c>
       <c r="D99">
-        <v>176.9349503572942</v>
+        <v>168.2567497827471</v>
       </c>
       <c r="E99">
-        <v>179.209228515625</v>
+        <v>168.6956481933594</v>
       </c>
       <c r="F99">
-        <v>73488000</v>
+        <v>68587700</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B100">
-        <v>175.7080130413176</v>
+        <v>168.7255757953365</v>
       </c>
       <c r="C100">
-        <v>176.4561312039468</v>
+        <v>170.3016132078211</v>
       </c>
       <c r="D100">
-        <v>173.3539339474242</v>
+        <v>168.0672433839466</v>
       </c>
       <c r="E100">
-        <v>174.6606597900391</v>
+        <v>168.5759582519531</v>
       </c>
       <c r="F100">
-        <v>81510100</v>
+        <v>71765100</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3405,22 +3405,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B101">
-        <v>170.3315546304903</v>
+        <v>168.5759503496348</v>
       </c>
       <c r="C101">
-        <v>171.6083418699865</v>
+        <v>173.2641542087491</v>
       </c>
       <c r="D101">
-        <v>169.1944155196732</v>
+        <v>168.5161033350869</v>
       </c>
       <c r="E101">
-        <v>169.6931610107422</v>
+        <v>170.3016052246094</v>
       </c>
       <c r="F101">
-        <v>95132400</v>
+        <v>76114600</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3431,22 +3431,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B102">
-        <v>170.6307828835121</v>
+        <v>172.5060845506196</v>
       </c>
       <c r="C102">
-        <v>170.8103391517182</v>
+        <v>173.9424739307717</v>
       </c>
       <c r="D102">
-        <v>168.2567497827471</v>
+        <v>171.6183182282344</v>
       </c>
       <c r="E102">
-        <v>168.6956481933594</v>
+        <v>172.3165588378906</v>
       </c>
       <c r="F102">
-        <v>68587700</v>
+        <v>60139500</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3457,22 +3457,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B103">
-        <v>168.7255757953365</v>
+        <v>172.7155327686856</v>
       </c>
       <c r="C103">
-        <v>170.3016132078211</v>
+        <v>173.5933295779934</v>
       </c>
       <c r="D103">
-        <v>168.0672433839466</v>
+        <v>170.5809029810071</v>
       </c>
       <c r="E103">
-        <v>168.5759582519531</v>
+        <v>172.7953338623047</v>
       </c>
       <c r="F103">
-        <v>71765100</v>
+        <v>59825400</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B104">
-        <v>168.5759503496348</v>
+        <v>172.336507025496</v>
       </c>
       <c r="C104">
-        <v>173.2641542087491</v>
+        <v>172.7554513769645</v>
       </c>
       <c r="D104">
-        <v>168.5161033350869</v>
+        <v>170.3315405757142</v>
       </c>
       <c r="E104">
-        <v>170.3016052246094</v>
+        <v>170.7006225585938</v>
       </c>
       <c r="F104">
-        <v>76114600</v>
+        <v>52488700</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3509,22 +3509,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B105">
-        <v>172.5060845506196</v>
+        <v>172.4761626955439</v>
       </c>
       <c r="C105">
-        <v>173.9424739307717</v>
+        <v>173.8726439282589</v>
       </c>
       <c r="D105">
-        <v>171.6183182282344</v>
+        <v>171.6183198753037</v>
       </c>
       <c r="E105">
-        <v>172.3165588378906</v>
+        <v>172.5659332275391</v>
       </c>
       <c r="F105">
-        <v>60139500</v>
+        <v>72913500</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B106">
-        <v>172.7155327686856</v>
+        <v>170.7405156278905</v>
       </c>
       <c r="C106">
-        <v>173.5933295779934</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="D106">
-        <v>170.5809029810071</v>
+        <v>169.8627187648084</v>
       </c>
       <c r="E106">
-        <v>172.7953338623047</v>
+        <v>172.1868743896484</v>
       </c>
       <c r="F106">
-        <v>59825400</v>
+        <v>121664700</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3561,22 +3561,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>172.336507025496</v>
+        <v>175.1294828872995</v>
       </c>
       <c r="C107">
-        <v>172.7554513769645</v>
+        <v>177.2641127833739</v>
       </c>
       <c r="D107">
-        <v>170.3315405757142</v>
+        <v>173.0846235184168</v>
       </c>
       <c r="E107">
-        <v>170.7006225585938</v>
+        <v>173.2841186523438</v>
       </c>
       <c r="F107">
-        <v>52488700</v>
+        <v>75604200</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3587,22 +3587,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="B108">
-        <v>172.4761626955439</v>
+        <v>173.9025592135408</v>
       </c>
       <c r="C108">
-        <v>173.8726439282589</v>
+        <v>176.1668678099546</v>
       </c>
       <c r="D108">
-        <v>171.6183198753037</v>
+        <v>172.5958485746268</v>
       </c>
       <c r="E108">
-        <v>172.5659332275391</v>
+        <v>175.6381988525391</v>
       </c>
       <c r="F108">
-        <v>72913500</v>
+        <v>55215200</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B109">
-        <v>170.7405156278905</v>
+        <v>175.2791148807173</v>
       </c>
       <c r="C109">
-        <v>172.1868743896484</v>
+        <v>178.2217102050781</v>
       </c>
       <c r="D109">
-        <v>169.8627187648084</v>
+        <v>174.6506906975692</v>
       </c>
       <c r="E109">
-        <v>172.1868743896484</v>
+        <v>178.2217102050781</v>
       </c>
       <c r="F109">
-        <v>121664700</v>
+        <v>53423100</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,22 +3639,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B110">
-        <v>175.1294828872995</v>
+        <v>176.6057741601213</v>
       </c>
       <c r="C110">
-        <v>177.2641127833739</v>
+        <v>177.0446726094717</v>
       </c>
       <c r="D110">
-        <v>173.0846235184168</v>
+        <v>170.4113487190698</v>
       </c>
       <c r="E110">
-        <v>173.2841186523438</v>
+        <v>170.9400177001953</v>
       </c>
       <c r="F110">
-        <v>75604200</v>
+        <v>106181300</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3665,22 +3665,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B111">
-        <v>173.9025592135408</v>
+        <v>171.3290330096479</v>
       </c>
       <c r="C111">
-        <v>176.1668678099546</v>
+        <v>172.6158048054333</v>
       </c>
       <c r="D111">
-        <v>172.5958485746268</v>
+        <v>169.6333015088525</v>
       </c>
       <c r="E111">
-        <v>175.6381988525391</v>
+        <v>171.8477325439453</v>
       </c>
       <c r="F111">
-        <v>55215200</v>
+        <v>71106600</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3691,22 +3691,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B112">
-        <v>175.2791148807173</v>
+        <v>170.1420294503314</v>
       </c>
       <c r="C112">
-        <v>178.2217102050781</v>
+        <v>171.508587107401</v>
       </c>
       <c r="D112">
-        <v>174.6506906975692</v>
+        <v>169.0248292967788</v>
       </c>
       <c r="E112">
-        <v>178.2217102050781</v>
+        <v>170.4213256835938</v>
       </c>
       <c r="F112">
-        <v>53423100</v>
+        <v>54288300</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="B113">
-        <v>176.6057741601213</v>
+        <v>169.5734606232718</v>
       </c>
       <c r="C113">
-        <v>177.0446726094717</v>
+        <v>170.989895938488</v>
       </c>
       <c r="D113">
-        <v>170.4113487190698</v>
+        <v>169.1545162528982</v>
       </c>
       <c r="E113">
-        <v>170.9400177001953</v>
+        <v>169.2841949462891</v>
       </c>
       <c r="F113">
-        <v>106181300</v>
+        <v>57388400</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3743,22 +3743,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B114">
-        <v>171.3290330096479</v>
+        <v>169.9824199430847</v>
       </c>
       <c r="C114">
-        <v>172.6158048054333</v>
+        <v>173.1644182000048</v>
       </c>
       <c r="D114">
-        <v>169.6333015088525</v>
+        <v>169.6831696430306</v>
       </c>
       <c r="E114">
-        <v>171.8477325439453</v>
+        <v>172.8751373291016</v>
       </c>
       <c r="F114">
-        <v>71106600</v>
+        <v>60273300</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3769,22 +3769,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B115">
-        <v>170.1420294503314</v>
+        <v>171.3190704702827</v>
       </c>
       <c r="C115">
-        <v>171.508587107401</v>
+        <v>171.7978618640044</v>
       </c>
       <c r="D115">
-        <v>169.0248292967788</v>
+        <v>170.082176214289</v>
       </c>
       <c r="E115">
-        <v>170.4213256835938</v>
+        <v>171.0497436523438</v>
       </c>
       <c r="F115">
-        <v>54288300</v>
+        <v>65672700</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="B116">
-        <v>169.5734606232718</v>
+        <v>170.7604714050076</v>
       </c>
       <c r="C116">
-        <v>170.989895938488</v>
+        <v>170.8203184243575</v>
       </c>
       <c r="D116">
-        <v>169.1545162528982</v>
+        <v>169.0547552510188</v>
       </c>
       <c r="E116">
-        <v>169.2841949462891</v>
+        <v>169.6033782958984</v>
       </c>
       <c r="F116">
-        <v>57388400</v>
+        <v>46240500</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B117">
-        <v>169.9824199430847</v>
+        <v>168.6557546015374</v>
       </c>
       <c r="C117">
-        <v>173.1644182000048</v>
+        <v>168.9150967429367</v>
       </c>
       <c r="D117">
-        <v>169.6831696430306</v>
+        <v>167.8078812915549</v>
       </c>
       <c r="E117">
-        <v>172.8751373291016</v>
+        <v>168.4163513183594</v>
       </c>
       <c r="F117">
-        <v>60273300</v>
+        <v>49329500</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B118">
-        <v>171.3190704702827</v>
+        <v>168.3664767037722</v>
       </c>
       <c r="C118">
-        <v>171.7978618640044</v>
+        <v>170.2517338331327</v>
       </c>
       <c r="D118">
-        <v>170.082176214289</v>
+        <v>168.1570121452337</v>
       </c>
       <c r="E118">
-        <v>171.0497436523438</v>
+        <v>169.2243194580078</v>
       </c>
       <c r="F118">
-        <v>65672700</v>
+        <v>47691700</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B119">
-        <v>170.7604714050076</v>
+        <v>169.862720979973</v>
       </c>
       <c r="C119">
-        <v>170.8203184243575</v>
+        <v>171.4886360397026</v>
       </c>
       <c r="D119">
-        <v>169.0547552510188</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="E119">
-        <v>169.6033782958984</v>
+        <v>168.3964233398438</v>
       </c>
       <c r="F119">
-        <v>46240500</v>
+        <v>53704400</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B120">
-        <v>168.6557546015374</v>
+        <v>169.1644646680864</v>
       </c>
       <c r="C120">
-        <v>168.9150967429367</v>
+        <v>169.9624603689284</v>
       </c>
       <c r="D120">
-        <v>167.8078812915549</v>
+        <v>168.5260711515132</v>
       </c>
       <c r="E120">
-        <v>168.4163513183594</v>
+        <v>169.1544952392578</v>
       </c>
       <c r="F120">
-        <v>49329500</v>
+        <v>42055200</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B121">
-        <v>168.3664767037722</v>
+        <v>168.6058903146058</v>
       </c>
       <c r="C121">
-        <v>170.2517338331327</v>
+        <v>168.7754619458776</v>
       </c>
       <c r="D121">
-        <v>168.1570121452337</v>
+        <v>167.8178791786363</v>
       </c>
       <c r="E121">
-        <v>169.2243194580078</v>
+        <v>168.02734375</v>
       </c>
       <c r="F121">
-        <v>47691700</v>
+        <v>37425500</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3951,22 +3951,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B122">
-        <v>169.862720979973</v>
+        <v>168.27671057045</v>
       </c>
       <c r="C122">
-        <v>171.4886360397026</v>
+        <v>169.6532528730683</v>
       </c>
       <c r="D122">
-        <v>168.3964233398438</v>
+        <v>167.9275978902735</v>
       </c>
       <c r="E122">
-        <v>168.3964233398438</v>
+        <v>169.2442779541016</v>
       </c>
       <c r="F122">
-        <v>53704400</v>
+        <v>42451200</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B123">
-        <v>169.1644646680864</v>
+        <v>168.3764690401373</v>
       </c>
       <c r="C123">
-        <v>169.9624603689284</v>
+        <v>168.6657347076824</v>
       </c>
       <c r="D123">
-        <v>168.5260711515132</v>
+        <v>166.6907069630718</v>
       </c>
       <c r="E123">
-        <v>169.1544952392578</v>
+        <v>167.3590240478516</v>
       </c>
       <c r="F123">
-        <v>42055200</v>
+        <v>49709300</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B124">
-        <v>168.6058903146058</v>
+        <v>167.9176136082712</v>
       </c>
       <c r="C124">
-        <v>168.7754619458776</v>
+        <v>175.0197591304819</v>
       </c>
       <c r="D124">
-        <v>167.8178791786363</v>
+        <v>167.7380725530161</v>
       </c>
       <c r="E124">
-        <v>168.02734375</v>
+        <v>174.6007995605469</v>
       </c>
       <c r="F124">
-        <v>37425500</v>
+        <v>91070300</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4029,22 +4029,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B125">
-        <v>168.27671057045</v>
+        <v>173.8227624139145</v>
       </c>
       <c r="C125">
-        <v>169.6532528730683</v>
+        <v>177.9124812782121</v>
       </c>
       <c r="D125">
-        <v>167.9275978902735</v>
+        <v>173.7729000442674</v>
       </c>
       <c r="E125">
-        <v>169.2442779541016</v>
+        <v>176.1070251464844</v>
       </c>
       <c r="F125">
-        <v>42451200</v>
+        <v>101593300</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4055,22 +4055,22 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="B126">
-        <v>168.3764690401373</v>
+        <v>174.9199973713308</v>
       </c>
       <c r="C126">
-        <v>168.6657347076824</v>
+        <v>176.1868150220336</v>
       </c>
       <c r="D126">
-        <v>166.6907069630718</v>
+        <v>172.0671729102025</v>
       </c>
       <c r="E126">
-        <v>167.3590240478516</v>
+        <v>172.2566986083984</v>
       </c>
       <c r="F126">
-        <v>49709300</v>
+        <v>73531800</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4081,22 +4081,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="B127">
-        <v>167.9176136082712</v>
+        <v>171.3190657023367</v>
       </c>
       <c r="C127">
-        <v>175.0197591304819</v>
+        <v>173.3240169744063</v>
       </c>
       <c r="D127">
-        <v>167.7380725530161</v>
+        <v>167.8478015585806</v>
       </c>
       <c r="E127">
-        <v>174.6007995605469</v>
+        <v>168.9550170898438</v>
       </c>
       <c r="F127">
-        <v>91070300</v>
+        <v>73711200</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4107,22 +4107,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="B128">
-        <v>173.8227624139145</v>
+        <v>169.18443695551</v>
       </c>
       <c r="C128">
-        <v>177.9124812782121</v>
+        <v>170.2218208239065</v>
       </c>
       <c r="D128">
-        <v>173.7729000442674</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="E128">
-        <v>176.1070251464844</v>
+        <v>167.5784759521484</v>
       </c>
       <c r="F128">
-        <v>101593300</v>
+        <v>50901200</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4133,22 +4133,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B129">
-        <v>174.9199973713308</v>
+        <v>167.6084016381576</v>
       </c>
       <c r="C129">
-        <v>176.1868150220336</v>
+        <v>168.2168717211314</v>
       </c>
       <c r="D129">
-        <v>172.0671729102025</v>
+        <v>166.1321193068702</v>
       </c>
       <c r="E129">
-        <v>172.2566986083984</v>
+        <v>166.6208801269531</v>
       </c>
       <c r="F129">
-        <v>73531800</v>
+        <v>43122900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4159,22 +4159,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B130">
-        <v>171.3190657023367</v>
+        <v>165.7929692214355</v>
       </c>
       <c r="C130">
-        <v>173.3240169744063</v>
+        <v>165.9824797072532</v>
       </c>
       <c r="D130">
-        <v>167.8478015585806</v>
+        <v>163.6683087334206</v>
       </c>
       <c r="E130">
-        <v>168.9550170898438</v>
+        <v>164.5859985351562</v>
       </c>
       <c r="F130">
-        <v>73711200</v>
+        <v>67772100</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4185,22 +4185,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="B131">
-        <v>169.18443695551</v>
+        <v>165.1046847536948</v>
       </c>
       <c r="C131">
-        <v>170.2218208239065</v>
+        <v>166.8403090390114</v>
       </c>
       <c r="D131">
-        <v>167.5784759521484</v>
+        <v>164.3565666388509</v>
       </c>
       <c r="E131">
-        <v>167.5784759521484</v>
+        <v>165.4238739013672</v>
       </c>
       <c r="F131">
-        <v>50901200</v>
+        <v>48116400</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4211,22 +4211,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="B132">
-        <v>167.6084016381576</v>
+        <v>164.9351177927806</v>
       </c>
       <c r="C132">
-        <v>168.2168717211314</v>
+        <v>166.6308491901544</v>
       </c>
       <c r="D132">
-        <v>166.1321193068702</v>
+        <v>164.5061888135111</v>
       </c>
       <c r="E132">
-        <v>166.6208801269531</v>
+        <v>166.4812164306641</v>
       </c>
       <c r="F132">
-        <v>43122900</v>
+        <v>49537800</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B133">
-        <v>165.7929692214355</v>
+        <v>166.1221283489459</v>
       </c>
       <c r="C133">
-        <v>165.9824797072532</v>
+        <v>168.8752129833481</v>
       </c>
       <c r="D133">
-        <v>163.6683087334206</v>
+        <v>165.7929697448792</v>
       </c>
       <c r="E133">
-        <v>164.5859985351562</v>
+        <v>168.5959167480469</v>
       </c>
       <c r="F133">
-        <v>67772100</v>
+        <v>48251800</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B134">
-        <v>165.1046847536948</v>
+        <v>169.1046325224713</v>
       </c>
       <c r="C134">
-        <v>166.8403090390114</v>
+        <v>170.1819245302526</v>
       </c>
       <c r="D134">
-        <v>164.3565666388509</v>
+        <v>167.7280901980003</v>
       </c>
       <c r="E134">
-        <v>165.4238739013672</v>
+        <v>169.4637298583984</v>
       </c>
       <c r="F134">
-        <v>48116400</v>
+        <v>50558300</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4289,22 +4289,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B135">
-        <v>164.9351177927806</v>
+        <v>169.453760175649</v>
       </c>
       <c r="C135">
-        <v>166.6308491901544</v>
+        <v>170.9100883765927</v>
       </c>
       <c r="D135">
-        <v>164.5061888135111</v>
+        <v>168.7555043642477</v>
       </c>
       <c r="E135">
-        <v>166.4812164306641</v>
+        <v>168.8752136230469</v>
       </c>
       <c r="F135">
-        <v>49537800</v>
+        <v>44838400</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="B136">
-        <v>166.1221283489459</v>
+        <v>172.9349880637843</v>
       </c>
       <c r="C136">
-        <v>168.8752129833481</v>
+        <v>175.5883174432168</v>
       </c>
       <c r="D136">
-        <v>165.7929697448792</v>
+        <v>172.6656764863966</v>
       </c>
       <c r="E136">
-        <v>168.5959167480469</v>
+        <v>173.0646667480469</v>
       </c>
       <c r="F136">
-        <v>48251800</v>
+        <v>68169400</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>45407</v>
+        <v>45412</v>
       </c>
       <c r="B137">
-        <v>169.1046325224713</v>
+        <v>172.8951064875264</v>
       </c>
       <c r="C137">
-        <v>170.1819245302526</v>
+        <v>174.550945101143</v>
       </c>
       <c r="D137">
-        <v>167.7280901980003</v>
+        <v>169.573459830273</v>
       </c>
       <c r="E137">
-        <v>169.4637298583984</v>
+        <v>169.9026336669922</v>
       </c>
       <c r="F137">
-        <v>50558300</v>
+        <v>65934800</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B138">
-        <v>169.453760175649</v>
+        <v>169.154509859406</v>
       </c>
       <c r="C138">
-        <v>170.9100883765927</v>
+        <v>172.276661269318</v>
       </c>
       <c r="D138">
-        <v>168.7555043642477</v>
+        <v>168.6856879154096</v>
       </c>
       <c r="E138">
         <v>168.8752136230469</v>
       </c>
       <c r="F138">
-        <v>44838400</v>
+        <v>50383100</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B139">
-        <v>172.9349880637843</v>
+        <v>172.0771409506727</v>
       </c>
       <c r="C139">
-        <v>175.5883174432168</v>
+        <v>172.9848612765476</v>
       </c>
       <c r="D139">
-        <v>172.6656764863966</v>
+        <v>170.4612106452049</v>
       </c>
       <c r="E139">
-        <v>173.0646667480469</v>
+        <v>172.5958404541016</v>
       </c>
       <c r="F139">
-        <v>68169400</v>
+        <v>94214900</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4419,22 +4419,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B140">
-        <v>172.8951064875264</v>
+        <v>186.1816602043045</v>
       </c>
       <c r="C140">
-        <v>174.550945101143</v>
+        <v>186.5307880883928</v>
       </c>
       <c r="D140">
-        <v>169.573459830273</v>
+        <v>182.20168147231</v>
       </c>
       <c r="E140">
-        <v>169.9026336669922</v>
+        <v>182.9198760986328</v>
       </c>
       <c r="F140">
-        <v>65934800</v>
+        <v>163224100</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4445,22 +4445,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="B141">
-        <v>169.154509859406</v>
+        <v>181.8924829621646</v>
       </c>
       <c r="C141">
-        <v>172.276661269318</v>
+        <v>183.7378321090879</v>
       </c>
       <c r="D141">
-        <v>168.6856879154096</v>
+        <v>179.967317491337</v>
       </c>
       <c r="E141">
-        <v>168.8752136230469</v>
+        <v>181.2540893554688</v>
       </c>
       <c r="F141">
-        <v>50383100</v>
+        <v>78569700</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4471,22 +4471,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="B142">
-        <v>172.0771409506727</v>
+        <v>182.9896901956702</v>
       </c>
       <c r="C142">
-        <v>172.9848612765476</v>
+        <v>184.4360488588342</v>
       </c>
       <c r="D142">
-        <v>170.4612106452049</v>
+        <v>180.8650450721818</v>
       </c>
       <c r="E142">
-        <v>172.5958404541016</v>
+        <v>181.9423217773438</v>
       </c>
       <c r="F142">
-        <v>94214900</v>
+        <v>77305800</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4497,22 +4497,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="B143">
-        <v>186.1816602043045</v>
+        <v>182.3912187494054</v>
       </c>
       <c r="C143">
-        <v>186.5307880883928</v>
+        <v>182.6106679669662</v>
       </c>
       <c r="D143">
-        <v>182.20168147231</v>
+        <v>180.9947223448819</v>
       </c>
       <c r="E143">
-        <v>182.9198760986328</v>
+        <v>182.281494140625</v>
       </c>
       <c r="F143">
-        <v>163224100</v>
+        <v>45057100</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4523,22 +4523,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B144">
-        <v>181.8924829621646</v>
+        <v>182.1019366221584</v>
       </c>
       <c r="C144">
-        <v>183.7378321090879</v>
+        <v>184.1966736044253</v>
       </c>
       <c r="D144">
-        <v>179.967317491337</v>
+        <v>181.6530687603878</v>
       </c>
       <c r="E144">
-        <v>181.2540893554688</v>
+        <v>184.1069030761719</v>
       </c>
       <c r="F144">
-        <v>78569700</v>
+        <v>48983000</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4549,25 +4549,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B145">
-        <v>182.9896901956702</v>
+        <v>184.6862155631856</v>
       </c>
       <c r="C145">
-        <v>184.4360488588342</v>
+        <v>184.8759983268926</v>
       </c>
       <c r="D145">
-        <v>180.8650450721818</v>
+        <v>181.9194291652744</v>
       </c>
       <c r="E145">
-        <v>181.9423217773438</v>
+        <v>182.8383636474609</v>
       </c>
       <c r="F145">
-        <v>77305800</v>
+        <v>50759500</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -4575,22 +4575,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="B146">
-        <v>182.3912187494054</v>
+        <v>185.225611031474</v>
       </c>
       <c r="C146">
-        <v>182.6106679669662</v>
+        <v>186.8836955255456</v>
       </c>
       <c r="D146">
-        <v>180.9947223448819</v>
+        <v>184.4065517363972</v>
       </c>
       <c r="E146">
-        <v>182.281494140625</v>
+        <v>186.0646362304688</v>
       </c>
       <c r="F146">
-        <v>45057100</v>
+        <v>72044800</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B147">
-        <v>182.1019366221584</v>
+        <v>187.2932119522825</v>
       </c>
       <c r="C147">
-        <v>184.1966736044253</v>
+        <v>188.0823071588464</v>
       </c>
       <c r="D147">
-        <v>181.6530687603878</v>
+        <v>186.0746211896293</v>
       </c>
       <c r="E147">
-        <v>184.1069030761719</v>
+        <v>187.2133026123047</v>
       </c>
       <c r="F147">
-        <v>48983000</v>
+        <v>52393600</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B148">
-        <v>184.6862155631856</v>
+        <v>187.6927512010029</v>
       </c>
       <c r="C148">
-        <v>184.8759983268926</v>
+        <v>190.4295735911427</v>
       </c>
       <c r="D148">
-        <v>181.9194291652744</v>
+        <v>187.1533669878522</v>
       </c>
       <c r="E148">
-        <v>182.8383636474609</v>
+        <v>189.5006561279297</v>
       </c>
       <c r="F148">
-        <v>50759500</v>
+        <v>70400000</v>
       </c>
       <c r="G148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4653,22 +4653,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B149">
-        <v>185.225611031474</v>
+        <v>190.2497904222998</v>
       </c>
       <c r="C149">
-        <v>186.8836955255456</v>
+        <v>190.8790669285839</v>
       </c>
       <c r="D149">
-        <v>184.4065517363972</v>
+        <v>189.4407293377331</v>
       </c>
       <c r="E149">
-        <v>186.0646362304688</v>
+        <v>189.6205139160156</v>
       </c>
       <c r="F149">
-        <v>72044800</v>
+        <v>52845200</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4679,22 +4679,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B150">
-        <v>187.2932119522825</v>
+        <v>189.290897772124</v>
       </c>
       <c r="C150">
-        <v>188.0823071588464</v>
+        <v>190.5893978613363</v>
       </c>
       <c r="D150">
-        <v>186.0746211896293</v>
+        <v>188.9612774635522</v>
       </c>
       <c r="E150">
-        <v>187.2133026123047</v>
+        <v>189.6504821777344</v>
       </c>
       <c r="F150">
-        <v>52393600</v>
+        <v>41282900</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4705,22 +4705,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B151">
-        <v>187.6927512010029</v>
+        <v>189.1111078667427</v>
       </c>
       <c r="C151">
-        <v>190.4295735911427</v>
+        <v>191.698109779236</v>
       </c>
       <c r="D151">
-        <v>187.1533669878522</v>
+        <v>188.7914705191316</v>
       </c>
       <c r="E151">
-        <v>189.5006561279297</v>
+        <v>190.8191223144531</v>
       </c>
       <c r="F151">
-        <v>70400000</v>
+        <v>44361300</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4731,22 +4731,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B152">
-        <v>190.2497904222998</v>
+        <v>190.8690714810481</v>
       </c>
       <c r="C152">
-        <v>190.8790669285839</v>
+        <v>192.5071748183792</v>
       </c>
       <c r="D152">
-        <v>189.4407293377331</v>
+        <v>190.6992698520675</v>
       </c>
       <c r="E152">
-        <v>189.6205139160156</v>
+        <v>192.1276245117188</v>
       </c>
       <c r="F152">
-        <v>52845200</v>
+        <v>42309400</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4757,22 +4757,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B153">
-        <v>189.290897772124</v>
+        <v>192.0477172523277</v>
       </c>
       <c r="C153">
-        <v>190.5893978613363</v>
+        <v>192.5970844350643</v>
       </c>
       <c r="D153">
-        <v>188.9612774635522</v>
+        <v>190.0500294904844</v>
       </c>
       <c r="E153">
-        <v>189.6504821777344</v>
+        <v>190.6792907714844</v>
       </c>
       <c r="F153">
-        <v>41282900</v>
+        <v>34648500</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4783,22 +4783,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B154">
-        <v>189.1111078667427</v>
+        <v>190.7591910012091</v>
       </c>
       <c r="C154">
-        <v>191.698109779236</v>
+        <v>190.7791721453948</v>
       </c>
       <c r="D154">
-        <v>188.7914705191316</v>
+        <v>186.414229471382</v>
       </c>
       <c r="E154">
-        <v>190.8191223144531</v>
+        <v>186.6639404296875</v>
       </c>
       <c r="F154">
-        <v>44361300</v>
+        <v>51005900</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B155">
-        <v>190.8690714810481</v>
+        <v>188.6016982061538</v>
       </c>
       <c r="C155">
-        <v>192.5071748183792</v>
+        <v>190.359657849979</v>
       </c>
       <c r="D155">
-        <v>190.6992698520675</v>
+        <v>187.8225860014019</v>
       </c>
       <c r="E155">
-        <v>192.1276245117188</v>
+        <v>189.7603454589844</v>
       </c>
       <c r="F155">
-        <v>42309400</v>
+        <v>36294600</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4835,22 +4835,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B156">
-        <v>192.0477172523277</v>
+        <v>191.2885869563959</v>
       </c>
       <c r="C156">
-        <v>192.5970844350643</v>
+        <v>192.7768698320682</v>
       </c>
       <c r="D156">
-        <v>190.0500294904844</v>
+        <v>188.8813847764805</v>
       </c>
       <c r="E156">
-        <v>190.6792907714844</v>
+        <v>189.7703552246094</v>
       </c>
       <c r="F156">
-        <v>34648500</v>
+        <v>52280100</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4861,22 +4861,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B157">
-        <v>190.7591910012091</v>
+        <v>189.3907855540502</v>
       </c>
       <c r="C157">
-        <v>190.7791721453948</v>
+        <v>192.0277327438517</v>
       </c>
       <c r="D157">
-        <v>186.414229471382</v>
+        <v>189.2908950712484</v>
       </c>
       <c r="E157">
-        <v>186.6639404296875</v>
+        <v>190.0699920654297</v>
       </c>
       <c r="F157">
-        <v>51005900</v>
+        <v>53068000</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4887,22 +4887,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>188.6016982061538</v>
+        <v>190.5394463789207</v>
       </c>
       <c r="C158">
-        <v>190.359657849979</v>
+        <v>191.9578028098348</v>
       </c>
       <c r="D158">
-        <v>187.8225860014019</v>
+        <v>190.4096070430554</v>
       </c>
       <c r="E158">
-        <v>189.7603454589844</v>
+        <v>191.0688323974609</v>
       </c>
       <c r="F158">
-        <v>36294600</v>
+        <v>49947900</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B159">
-        <v>191.2885869563959</v>
+        <v>191.2186641606353</v>
       </c>
       <c r="C159">
-        <v>192.7768698320682</v>
+        <v>192.34736255925</v>
       </c>
       <c r="D159">
-        <v>188.8813847764805</v>
+        <v>189.6904343287636</v>
       </c>
       <c r="E159">
-        <v>189.7703552246094</v>
+        <v>192.0277252197266</v>
       </c>
       <c r="F159">
-        <v>52280100</v>
+        <v>75158300</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4939,22 +4939,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>45441</v>
+        <v>45446</v>
       </c>
       <c r="B160">
-        <v>189.3907855540502</v>
+        <v>192.6769656752138</v>
       </c>
       <c r="C160">
-        <v>192.0277327438517</v>
+        <v>194.7645608302989</v>
       </c>
       <c r="D160">
-        <v>189.2908950712484</v>
+        <v>192.2974153897732</v>
       </c>
       <c r="E160">
-        <v>190.0699920654297</v>
+        <v>193.8056640625</v>
       </c>
       <c r="F160">
-        <v>53068000</v>
+        <v>50080500</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B161">
-        <v>190.5394463789207</v>
+        <v>194.414963181449</v>
       </c>
       <c r="C161">
-        <v>191.9578028098348</v>
+        <v>195.0941849137607</v>
       </c>
       <c r="D161">
-        <v>190.4096070430554</v>
+        <v>192.8068239995484</v>
       </c>
       <c r="E161">
-        <v>191.0688323974609</v>
+        <v>194.1253051757812</v>
       </c>
       <c r="F161">
-        <v>49947900</v>
+        <v>47471400</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B162">
-        <v>191.2186641606353</v>
+        <v>195.1740816013435</v>
       </c>
       <c r="C162">
-        <v>192.34736255925</v>
+        <v>196.6723473717975</v>
       </c>
       <c r="D162">
-        <v>189.6904343287636</v>
+        <v>194.6446955817416</v>
       </c>
       <c r="E162">
-        <v>192.0277252197266</v>
+        <v>195.6435394287109</v>
       </c>
       <c r="F162">
-        <v>75158300</v>
+        <v>54156800</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -5017,22 +5017,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B163">
-        <v>192.6769656752138</v>
+        <v>195.4637499424949</v>
       </c>
       <c r="C163">
-        <v>194.7645608302989</v>
+        <v>196.2728109996351</v>
       </c>
       <c r="D163">
-        <v>192.2974153897732</v>
+        <v>193.9455030657145</v>
       </c>
       <c r="E163">
-        <v>193.8056640625</v>
+        <v>194.2551422119141</v>
       </c>
       <c r="F163">
-        <v>50080500</v>
+        <v>41181800</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5043,22 +5043,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B164">
-        <v>194.414963181449</v>
+        <v>194.4249530208514</v>
       </c>
       <c r="C164">
-        <v>195.0941849137607</v>
+        <v>196.7123140160979</v>
       </c>
       <c r="D164">
-        <v>192.8068239995484</v>
+        <v>193.9155481344315</v>
       </c>
       <c r="E164">
-        <v>194.1253051757812</v>
+        <v>196.6623687744141</v>
       </c>
       <c r="F164">
-        <v>47471400</v>
+        <v>53103900</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5069,22 +5069,22 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B165">
-        <v>195.1740816013435</v>
+        <v>196.6723416696202</v>
       </c>
       <c r="C165">
-        <v>196.6723473717975</v>
+        <v>197.0718883415123</v>
       </c>
       <c r="D165">
-        <v>194.6446955817416</v>
+        <v>191.9278335340749</v>
       </c>
       <c r="E165">
-        <v>195.6435394287109</v>
+        <v>192.8967132568359</v>
       </c>
       <c r="F165">
-        <v>54156800</v>
+        <v>97262100</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5095,22 +5095,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B166">
-        <v>195.4637499424949</v>
+        <v>193.4261003259925</v>
       </c>
       <c r="C166">
-        <v>196.2728109996351</v>
+        <v>206.9204901359287</v>
       </c>
       <c r="D166">
-        <v>193.9455030657145</v>
+        <v>193.4061344231483</v>
       </c>
       <c r="E166">
-        <v>194.2551422119141</v>
+        <v>206.9104919433594</v>
       </c>
       <c r="F166">
-        <v>41181800</v>
+        <v>172373300</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5121,22 +5121,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="B167">
-        <v>194.4249530208514</v>
+        <v>207.1302472154645</v>
       </c>
       <c r="C167">
-        <v>196.7123140160979</v>
+        <v>219.9454158204473</v>
       </c>
       <c r="D167">
-        <v>193.9155481344315</v>
+        <v>206.6607893800588</v>
       </c>
       <c r="E167">
-        <v>196.6623687744141</v>
+        <v>212.8236694335938</v>
       </c>
       <c r="F167">
-        <v>53103900</v>
+        <v>198134300</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5147,22 +5147,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B168">
-        <v>196.6723416696202</v>
+        <v>214.4917314898502</v>
       </c>
       <c r="C168">
-        <v>197.0718883415123</v>
+        <v>216.4994021195785</v>
       </c>
       <c r="D168">
-        <v>191.9278335340749</v>
+        <v>211.3553624447995</v>
       </c>
       <c r="E168">
-        <v>192.8967132568359</v>
+        <v>213.9923095703125</v>
       </c>
       <c r="F168">
-        <v>97262100</v>
+        <v>97862700</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5173,22 +5173,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B169">
-        <v>193.4261003259925</v>
+        <v>213.6027672593269</v>
       </c>
       <c r="C169">
-        <v>206.9204901359287</v>
+        <v>214.9212332396349</v>
       </c>
       <c r="D169">
-        <v>193.4061344231483</v>
+        <v>211.0557123478038</v>
       </c>
       <c r="E169">
-        <v>206.9104919433594</v>
+        <v>212.2443389892578</v>
       </c>
       <c r="F169">
-        <v>172373300</v>
+        <v>70122700</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5199,22 +5199,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>45455</v>
+        <v>45460</v>
       </c>
       <c r="B170">
-        <v>207.1302472154645</v>
+        <v>213.1233068836218</v>
       </c>
       <c r="C170">
-        <v>219.9454158204473</v>
+        <v>218.6968573821251</v>
       </c>
       <c r="D170">
-        <v>206.6607893800588</v>
+        <v>212.4740644791458</v>
       </c>
       <c r="E170">
-        <v>212.8236694335938</v>
+        <v>216.4194946289062</v>
       </c>
       <c r="F170">
-        <v>198134300</v>
+        <v>93728300</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="B171">
-        <v>214.4917314898502</v>
+        <v>217.3384239953892</v>
       </c>
       <c r="C171">
-        <v>216.4994021195785</v>
+        <v>218.3772301073396</v>
       </c>
       <c r="D171">
-        <v>211.3553624447995</v>
+        <v>212.7537345013344</v>
       </c>
       <c r="E171">
-        <v>213.9923095703125</v>
+        <v>214.042236328125</v>
       </c>
       <c r="F171">
-        <v>97862700</v>
+        <v>79943300</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5251,22 +5251,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B172">
-        <v>213.6027672593269</v>
+        <v>213.6826627606623</v>
       </c>
       <c r="C172">
-        <v>214.9212332396349</v>
+        <v>213.9923171643283</v>
       </c>
       <c r="D172">
-        <v>211.0557123478038</v>
+        <v>208.6085492903026</v>
       </c>
       <c r="E172">
-        <v>212.2443389892578</v>
+        <v>209.4375762939453</v>
       </c>
       <c r="F172">
-        <v>70122700</v>
+        <v>86172500</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5277,22 +5277,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B173">
-        <v>213.1233068836218</v>
+        <v>210.1467632247673</v>
       </c>
       <c r="C173">
-        <v>218.6968573821251</v>
+        <v>211.6450290442056</v>
       </c>
       <c r="D173">
-        <v>212.4740644791458</v>
+        <v>206.8705565188874</v>
       </c>
       <c r="E173">
-        <v>216.4194946289062</v>
+        <v>207.2501220703125</v>
       </c>
       <c r="F173">
-        <v>93728300</v>
+        <v>246421400</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5303,22 +5303,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B174">
-        <v>217.3384239953892</v>
+        <v>207.4798404499802</v>
       </c>
       <c r="C174">
-        <v>218.3772301073396</v>
+        <v>212.454078428602</v>
       </c>
       <c r="D174">
-        <v>212.7537345013344</v>
+        <v>206.3511420510979</v>
       </c>
       <c r="E174">
-        <v>214.042236328125</v>
+        <v>207.8993530273438</v>
       </c>
       <c r="F174">
-        <v>79943300</v>
+        <v>80727000</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B175">
-        <v>213.6826627606623</v>
+        <v>208.9081869431628</v>
       </c>
       <c r="C175">
-        <v>213.9923171643283</v>
+        <v>211.1356197216104</v>
       </c>
       <c r="D175">
-        <v>208.6085492903026</v>
+        <v>208.3688179655891</v>
       </c>
       <c r="E175">
-        <v>209.4375762939453</v>
+        <v>208.8282928466797</v>
       </c>
       <c r="F175">
-        <v>86172500</v>
+        <v>56713900</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5355,22 +5355,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B176">
-        <v>210.1467632247673</v>
+        <v>211.2554717695587</v>
       </c>
       <c r="C176">
-        <v>211.6450290442056</v>
+        <v>214.6115876754019</v>
       </c>
       <c r="D176">
-        <v>206.8705565188874</v>
+        <v>210.3964654591004</v>
       </c>
       <c r="E176">
-        <v>207.2501220703125</v>
+        <v>213.0034484863281</v>
       </c>
       <c r="F176">
-        <v>246421400</v>
+        <v>66213200</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5381,22 +5381,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B177">
-        <v>207.4798404499802</v>
+        <v>214.4417922510153</v>
       </c>
       <c r="C177">
-        <v>212.454078428602</v>
+        <v>215.4905813596252</v>
       </c>
       <c r="D177">
-        <v>206.3511420510979</v>
+        <v>212.1045012600432</v>
       </c>
       <c r="E177">
-        <v>207.8993530273438</v>
+        <v>213.8524780273438</v>
       </c>
       <c r="F177">
-        <v>80727000</v>
+        <v>49772700</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -5407,22 +5407,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B178">
-        <v>208.9081869431628</v>
+        <v>215.5205349107231</v>
       </c>
       <c r="C178">
-        <v>211.1356197216104</v>
+        <v>215.8201911043989</v>
       </c>
       <c r="D178">
-        <v>208.3688179655891</v>
+        <v>210.0568580061261</v>
       </c>
       <c r="E178">
-        <v>208.8282928466797</v>
+        <v>210.3764801025391</v>
       </c>
       <c r="F178">
-        <v>56713900</v>
+        <v>82542700</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5433,22 +5433,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B179">
-        <v>211.2554717695587</v>
+        <v>211.8447888993273</v>
       </c>
       <c r="C179">
-        <v>214.6115876754019</v>
+        <v>217.2585207478851</v>
       </c>
       <c r="D179">
-        <v>210.3964654591004</v>
+        <v>211.6749872734358</v>
       </c>
       <c r="E179">
-        <v>213.0034484863281</v>
+        <v>216.4994049072266</v>
       </c>
       <c r="F179">
-        <v>66213200</v>
+        <v>60402900</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5459,22 +5459,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B180">
-        <v>214.4417922510153</v>
+        <v>215.9000881322941</v>
       </c>
       <c r="C180">
-        <v>215.4905813596252</v>
+        <v>220.1252085141442</v>
       </c>
       <c r="D180">
-        <v>212.1045012600432</v>
+        <v>214.8513143018939</v>
       </c>
       <c r="E180">
-        <v>213.8524780273438</v>
+        <v>220.0153350830078</v>
       </c>
       <c r="F180">
-        <v>49772700</v>
+        <v>58046200</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5485,22 +5485,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B181">
-        <v>215.5205349107231</v>
+        <v>219.7456427738116</v>
       </c>
       <c r="C181">
-        <v>215.8201911043989</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="D181">
-        <v>210.0568580061261</v>
+        <v>218.7767630386535</v>
       </c>
       <c r="E181">
-        <v>210.3764801025391</v>
+        <v>221.2938537597656</v>
       </c>
       <c r="F181">
-        <v>82542700</v>
+        <v>37369800</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B182">
-        <v>211.8447888993273</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="C182">
-        <v>217.2585207478851</v>
+        <v>226.1881815360653</v>
       </c>
       <c r="D182">
-        <v>211.6749872734358</v>
+        <v>221.3937281190806</v>
       </c>
       <c r="E182">
-        <v>216.4994049072266</v>
+        <v>226.0783081054688</v>
       </c>
       <c r="F182">
-        <v>60402900</v>
+        <v>60412400</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5537,22 +5537,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B183">
-        <v>215.9000881322941</v>
+        <v>226.8274431332781</v>
       </c>
       <c r="C183">
-        <v>220.1252085141442</v>
+        <v>227.5865742032198</v>
       </c>
       <c r="D183">
-        <v>214.8513143018939</v>
+        <v>222.9918864596637</v>
       </c>
       <c r="E183">
-        <v>220.0153350830078</v>
+        <v>227.5566101074219</v>
       </c>
       <c r="F183">
-        <v>58046200</v>
+        <v>59085900</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5563,22 +5563,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B184">
-        <v>219.7456427738116</v>
+        <v>227.6664707523748</v>
       </c>
       <c r="C184">
-        <v>221.2938537597656</v>
+        <v>229.1347724268948</v>
       </c>
       <c r="D184">
-        <v>218.7767630386535</v>
+        <v>226.1082767894919</v>
       </c>
       <c r="E184">
-        <v>221.2938537597656</v>
+        <v>228.4156036376953</v>
       </c>
       <c r="F184">
-        <v>37369800</v>
+        <v>48076100</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B185">
-        <v>221.3937281190806</v>
+        <v>229.0348943285368</v>
       </c>
       <c r="C185">
-        <v>226.1881815360653</v>
+        <v>232.8105228041406</v>
       </c>
       <c r="D185">
-        <v>221.3937281190806</v>
+        <v>228.9849490885758</v>
       </c>
       <c r="E185">
-        <v>226.0783081054688</v>
+        <v>232.7106323242188</v>
       </c>
       <c r="F185">
-        <v>60412400</v>
+        <v>62627700</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5615,22 +5615,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B186">
-        <v>226.8274431332781</v>
+        <v>231.1224755684865</v>
       </c>
       <c r="C186">
-        <v>227.5865742032198</v>
+        <v>232.1213194086617</v>
       </c>
       <c r="D186">
-        <v>222.9918864596637</v>
+        <v>225.5089780638693</v>
       </c>
       <c r="E186">
-        <v>227.5566101074219</v>
+        <v>227.3069000244141</v>
       </c>
       <c r="F186">
-        <v>59085900</v>
+        <v>64710600</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5641,22 +5641,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B187">
-        <v>227.6664707523748</v>
+        <v>228.6553306110013</v>
       </c>
       <c r="C187">
-        <v>229.1347724268948</v>
+        <v>232.3710309246342</v>
       </c>
       <c r="D187">
-        <v>226.1082767894919</v>
+        <v>228.4156026019726</v>
       </c>
       <c r="E187">
-        <v>228.4156036376953</v>
+        <v>230.2734527587891</v>
       </c>
       <c r="F187">
-        <v>48076100</v>
+        <v>53046500</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5667,22 +5667,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B188">
-        <v>229.0348943285368</v>
+        <v>236.2065948881155</v>
       </c>
       <c r="C188">
-        <v>232.8105228041406</v>
+        <v>236.955727793083</v>
       </c>
       <c r="D188">
-        <v>228.9849490885758</v>
+        <v>232.8205147673081</v>
       </c>
       <c r="E188">
-        <v>232.7106323242188</v>
+        <v>234.1289978027344</v>
       </c>
       <c r="F188">
-        <v>62627700</v>
+        <v>62631300</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B189">
-        <v>231.1224755684865</v>
+        <v>234.7283075285961</v>
       </c>
       <c r="C189">
-        <v>232.1213194086617</v>
+        <v>235.9968435006337</v>
       </c>
       <c r="D189">
-        <v>225.5089780638693</v>
+        <v>232.0613962464642</v>
       </c>
       <c r="E189">
-        <v>227.3069000244141</v>
+        <v>234.5485229492188</v>
       </c>
       <c r="F189">
-        <v>64710600</v>
+        <v>43234300</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -5719,22 +5719,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B190">
-        <v>228.6553306110013</v>
+        <v>229.1847200362218</v>
       </c>
       <c r="C190">
-        <v>232.3710309246342</v>
+        <v>231.1924059439656</v>
       </c>
       <c r="D190">
-        <v>228.4156026019726</v>
+        <v>226.3779712354622</v>
       </c>
       <c r="E190">
-        <v>230.2734527587891</v>
+        <v>228.6153869628906</v>
       </c>
       <c r="F190">
-        <v>53046500</v>
+        <v>57345900</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -5745,22 +5745,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B191">
-        <v>236.2065948881155</v>
+        <v>230.0137604637082</v>
       </c>
       <c r="C191">
-        <v>236.955727793083</v>
+        <v>230.1735791375176</v>
       </c>
       <c r="D191">
-        <v>232.8205147673081</v>
+        <v>222.0130267153258</v>
       </c>
       <c r="E191">
-        <v>234.1289978027344</v>
+        <v>223.9208068847656</v>
       </c>
       <c r="F191">
-        <v>62631300</v>
+        <v>66034600</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5771,22 +5771,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B192">
-        <v>234.7283075285961</v>
+        <v>224.5600792921215</v>
       </c>
       <c r="C192">
-        <v>235.9968435006337</v>
+        <v>226.5377858266339</v>
       </c>
       <c r="D192">
-        <v>232.0613962464642</v>
+        <v>223.021851244386</v>
       </c>
       <c r="E192">
-        <v>234.5485229492188</v>
+        <v>224.0506591796875</v>
       </c>
       <c r="F192">
-        <v>43234300</v>
+        <v>49151500</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B193">
-        <v>229.1847200362218</v>
+        <v>226.7475419395334</v>
       </c>
       <c r="C193">
-        <v>231.1924059439656</v>
+        <v>227.5166559886428</v>
       </c>
       <c r="D193">
-        <v>226.3779712354622</v>
+        <v>222.8320757894778</v>
       </c>
       <c r="E193">
-        <v>228.6153869628906</v>
+        <v>223.7010803222656</v>
       </c>
       <c r="F193">
-        <v>57345900</v>
+        <v>48201800</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5823,22 +5823,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B194">
-        <v>230.0137604637082</v>
+        <v>224.1105879628454</v>
       </c>
       <c r="C194">
-        <v>230.1735791375176</v>
+        <v>226.6776239526561</v>
       </c>
       <c r="D194">
-        <v>222.0130267153258</v>
+        <v>222.4225394312029</v>
       </c>
       <c r="E194">
-        <v>223.9208068847656</v>
+        <v>224.7498474121094</v>
       </c>
       <c r="F194">
-        <v>66034600</v>
+        <v>39960300</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5849,22 +5849,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B195">
-        <v>224.5600792921215</v>
+        <v>223.7410169933649</v>
       </c>
       <c r="C195">
-        <v>226.5377858266339</v>
+        <v>224.540095102285</v>
       </c>
       <c r="D195">
-        <v>223.021851244386</v>
+        <v>216.8789647868516</v>
       </c>
       <c r="E195">
-        <v>224.0506591796875</v>
+        <v>218.2873229980469</v>
       </c>
       <c r="F195">
-        <v>49151500</v>
+        <v>61777600</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5875,22 +5875,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B196">
-        <v>226.7475419395334</v>
+        <v>218.6768782594705</v>
       </c>
       <c r="C196">
-        <v>227.5166559886428</v>
+        <v>220.5946718767891</v>
       </c>
       <c r="D196">
-        <v>222.8320757894778</v>
+        <v>214.3718636751281</v>
       </c>
       <c r="E196">
-        <v>223.7010803222656</v>
+        <v>217.2385559082031</v>
       </c>
       <c r="F196">
-        <v>48201800</v>
+        <v>51391200</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5901,22 +5901,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B197">
-        <v>224.1105879628454</v>
+        <v>218.4471424920927</v>
       </c>
       <c r="C197">
-        <v>226.6776239526561</v>
+        <v>219.2362376525438</v>
       </c>
       <c r="D197">
-        <v>222.4225394312029</v>
+        <v>215.7602501518015</v>
       </c>
       <c r="E197">
-        <v>224.7498474121094</v>
+        <v>217.7080078125</v>
       </c>
       <c r="F197">
-        <v>39960300</v>
+        <v>41601300</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5927,22 +5927,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B198">
-        <v>223.7410169933649</v>
+        <v>216.7091672552843</v>
       </c>
       <c r="C198">
-        <v>224.540095102285</v>
+        <v>219.04645819404</v>
       </c>
       <c r="D198">
-        <v>216.8789647868516</v>
+        <v>215.5005594970752</v>
       </c>
       <c r="E198">
-        <v>218.2873229980469</v>
+        <v>217.9876861572266</v>
       </c>
       <c r="F198">
-        <v>61777600</v>
+        <v>36311800</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B199">
-        <v>218.6768782594705</v>
+        <v>218.9365913481919</v>
       </c>
       <c r="C199">
-        <v>220.5946718767891</v>
+        <v>220.0752727557774</v>
       </c>
       <c r="D199">
-        <v>214.3718636751281</v>
+        <v>215.8701333369141</v>
       </c>
       <c r="E199">
-        <v>217.2385559082031</v>
+        <v>218.5470428466797</v>
       </c>
       <c r="F199">
-        <v>51391200</v>
+        <v>41643800</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5979,22 +5979,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B200">
-        <v>218.4471424920927</v>
+        <v>221.1839827384757</v>
       </c>
       <c r="C200">
-        <v>219.2362376525438</v>
+        <v>223.5612359588227</v>
       </c>
       <c r="D200">
-        <v>215.7602501518015</v>
+        <v>220.3749216653048</v>
       </c>
       <c r="E200">
-        <v>217.7080078125</v>
+        <v>221.8232421875</v>
       </c>
       <c r="F200">
-        <v>41601300</v>
+        <v>50036300</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B201">
-        <v>216.7091672552843</v>
+        <v>224.110590003871</v>
       </c>
       <c r="C201">
-        <v>219.04645819404</v>
+        <v>224.2204634371427</v>
       </c>
       <c r="D201">
-        <v>215.5005594970752</v>
+        <v>216.7690968426558</v>
       </c>
       <c r="E201">
-        <v>217.9876861572266</v>
+        <v>218.1075439453125</v>
       </c>
       <c r="F201">
-        <v>36311800</v>
+        <v>62501000</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B202">
-        <v>218.9365913481919</v>
+        <v>218.8966186199893</v>
       </c>
       <c r="C202">
-        <v>220.0752727557774</v>
+        <v>225.3391734979224</v>
       </c>
       <c r="D202">
-        <v>215.8701333369141</v>
+        <v>217.4582963114799</v>
       </c>
       <c r="E202">
-        <v>218.5470428466797</v>
+        <v>219.6058044433594</v>
       </c>
       <c r="F202">
-        <v>41643800</v>
+        <v>105568600</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B203">
-        <v>221.1839827384757</v>
+        <v>198.8598223925161</v>
       </c>
       <c r="C203">
-        <v>223.5612359588227</v>
+        <v>213.2531662150716</v>
       </c>
       <c r="D203">
-        <v>220.3749216653048</v>
+        <v>195.7733984925247</v>
       </c>
       <c r="E203">
-        <v>221.8232421875</v>
+        <v>209.0280609130859</v>
       </c>
       <c r="F203">
-        <v>50036300</v>
+        <v>119548600</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6083,22 +6083,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B204">
-        <v>224.110590003871</v>
+        <v>205.0626409492715</v>
       </c>
       <c r="C204">
-        <v>224.2204634371427</v>
+        <v>209.7472209414639</v>
       </c>
       <c r="D204">
-        <v>216.7690968426558</v>
+        <v>200.8375358240923</v>
       </c>
       <c r="E204">
-        <v>218.1075439453125</v>
+        <v>206.9904022216797</v>
       </c>
       <c r="F204">
-        <v>62501000</v>
+        <v>69660500</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B205">
-        <v>218.8966186199893</v>
+        <v>206.660785653003</v>
       </c>
       <c r="C205">
-        <v>225.3391734979224</v>
+        <v>213.3929986622491</v>
       </c>
       <c r="D205">
-        <v>217.4582963114799</v>
+        <v>206.1513807783264</v>
       </c>
       <c r="E205">
-        <v>219.6058044433594</v>
+        <v>209.5774230957031</v>
       </c>
       <c r="F205">
-        <v>105568600</v>
+        <v>63516400</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -6135,22 +6135,22 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B206">
-        <v>198.8598223925161</v>
+        <v>212.8636192825526</v>
       </c>
       <c r="C206">
-        <v>213.2531662150716</v>
+        <v>213.9523554508395</v>
       </c>
       <c r="D206">
-        <v>195.7733984925247</v>
+        <v>208.5885687073719</v>
       </c>
       <c r="E206">
-        <v>209.0280609130859</v>
+        <v>213.0633850097656</v>
       </c>
       <c r="F206">
-        <v>119548600</v>
+        <v>47161100</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6161,22 +6161,22 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B207">
-        <v>205.0626409492715</v>
+        <v>211.8547924511901</v>
       </c>
       <c r="C207">
-        <v>209.7472209414639</v>
+        <v>216.5293744807485</v>
       </c>
       <c r="D207">
-        <v>200.8375358240923</v>
+        <v>211.7249378699863</v>
       </c>
       <c r="E207">
-        <v>206.9904022216797</v>
+        <v>215.9900054931641</v>
       </c>
       <c r="F207">
-        <v>69660500</v>
+        <v>42201600</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -6187,25 +6187,25 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B208">
-        <v>206.660785653003</v>
+        <v>216.0700073242188</v>
       </c>
       <c r="C208">
-        <v>213.3929986622491</v>
+        <v>219.5099945068359</v>
       </c>
       <c r="D208">
-        <v>206.1513807783264</v>
+        <v>215.6000061035156</v>
       </c>
       <c r="E208">
-        <v>209.5774230957031</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="F208">
-        <v>63516400</v>
+        <v>38028100</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -6213,22 +6213,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B209">
-        <v>212.8636192825526</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="C209">
-        <v>213.9523554508395</v>
+        <v>221.8899993896484</v>
       </c>
       <c r="D209">
-        <v>208.5885687073719</v>
+        <v>219.0099945068359</v>
       </c>
       <c r="E209">
-        <v>213.0633850097656</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="F209">
-        <v>47161100</v>
+        <v>44155300</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6239,22 +6239,22 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B210">
-        <v>211.8547924511901</v>
+        <v>220.5700073242188</v>
       </c>
       <c r="C210">
-        <v>216.5293744807485</v>
+        <v>223.0299987792969</v>
       </c>
       <c r="D210">
-        <v>211.7249378699863</v>
+        <v>219.6999969482422</v>
       </c>
       <c r="E210">
-        <v>215.9900054931641</v>
+        <v>221.7200012207031</v>
       </c>
       <c r="F210">
-        <v>42201600</v>
+        <v>41960600</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -6265,25 +6265,25 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B211">
-        <v>216.0700073242188</v>
+        <v>224.6000061035156</v>
       </c>
       <c r="C211">
-        <v>219.5099945068359</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="D211">
-        <v>215.6000061035156</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="E211">
-        <v>217.5299987792969</v>
+        <v>224.7200012207031</v>
       </c>
       <c r="F211">
-        <v>38028100</v>
+        <v>46414000</v>
       </c>
       <c r="G211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -6291,22 +6291,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B212">
-        <v>219.0099945068359</v>
+        <v>223.9199981689453</v>
       </c>
       <c r="C212">
-        <v>221.8899993896484</v>
+        <v>226.8300018310547</v>
       </c>
       <c r="D212">
-        <v>219.0099945068359</v>
+        <v>223.6499938964844</v>
       </c>
       <c r="E212">
-        <v>221.2700042724609</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F212">
-        <v>44155300</v>
+        <v>44340200</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6317,22 +6317,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B213">
-        <v>220.5700073242188</v>
+        <v>225.7200012207031</v>
       </c>
       <c r="C213">
-        <v>223.0299987792969</v>
+        <v>225.9900054931641</v>
       </c>
       <c r="D213">
-        <v>219.6999969482422</v>
+        <v>223.0399932861328</v>
       </c>
       <c r="E213">
-        <v>221.7200012207031</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="F213">
-        <v>41960600</v>
+        <v>40687800</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B214">
-        <v>224.6000061035156</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="C214">
-        <v>225.3500061035156</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D214">
-        <v>222.7599945068359</v>
+        <v>225.4499969482422</v>
       </c>
       <c r="E214">
-        <v>224.7200012207031</v>
+        <v>226.5099945068359</v>
       </c>
       <c r="F214">
-        <v>46414000</v>
+        <v>30299000</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -6369,22 +6369,22 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B215">
-        <v>223.9199981689453</v>
+        <v>226.5200042724609</v>
       </c>
       <c r="C215">
-        <v>226.8300018310547</v>
+        <v>227.9799957275391</v>
       </c>
       <c r="D215">
-        <v>223.6499938964844</v>
+        <v>225.0500030517578</v>
       </c>
       <c r="E215">
-        <v>226.0500030517578</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="F215">
-        <v>44340200</v>
+        <v>34765500</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6395,22 +6395,22 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B216">
-        <v>225.7200012207031</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="C216">
-        <v>225.9900054931641</v>
+        <v>228.3399963378906</v>
       </c>
       <c r="D216">
-        <v>223.0399932861328</v>
+        <v>223.8999938964844</v>
       </c>
       <c r="E216">
-        <v>225.8899993896484</v>
+        <v>224.5299987792969</v>
       </c>
       <c r="F216">
-        <v>40687800</v>
+        <v>43695300</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B217">
-        <v>225.7700042724609</v>
+        <v>225.6600036621094</v>
       </c>
       <c r="C217">
-        <v>227.1699981689453</v>
+        <v>228.2200012207031</v>
       </c>
       <c r="D217">
-        <v>225.4499969482422</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="E217">
-        <v>226.5099945068359</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F217">
-        <v>30299000</v>
+        <v>38677300</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6447,22 +6447,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B218">
-        <v>226.5200042724609</v>
+        <v>226.7599945068359</v>
       </c>
       <c r="C218">
-        <v>227.9799957275391</v>
+        <v>227.2799987792969</v>
       </c>
       <c r="D218">
-        <v>225.0500030517578</v>
+        <v>223.8899993896484</v>
       </c>
       <c r="E218">
-        <v>226.3999938964844</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="F218">
-        <v>34765500</v>
+        <v>30602200</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6473,22 +6473,22 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B219">
-        <v>227.7899932861328</v>
+        <v>226</v>
       </c>
       <c r="C219">
-        <v>228.3399963378906</v>
+        <v>228.8500061035156</v>
       </c>
       <c r="D219">
-        <v>223.8999938964844</v>
+        <v>224.8899993896484</v>
       </c>
       <c r="E219">
-        <v>224.5299987792969</v>
+        <v>228.0299987792969</v>
       </c>
       <c r="F219">
-        <v>43695300</v>
+        <v>35934600</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -6499,22 +6499,22 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B220">
-        <v>225.6600036621094</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="C220">
-        <v>228.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="D220">
-        <v>224.3300018310547</v>
+        <v>225.6799926757812</v>
       </c>
       <c r="E220">
-        <v>226.8399963378906</v>
+        <v>226.4900054931641</v>
       </c>
       <c r="F220">
-        <v>38677300</v>
+        <v>38052200</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -6525,22 +6525,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B221">
-        <v>226.7599945068359</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="C221">
-        <v>227.2799987792969</v>
+        <v>232.9199981689453</v>
       </c>
       <c r="D221">
-        <v>223.8899993896484</v>
+        <v>228.8800048828125</v>
       </c>
       <c r="E221">
-        <v>227.1799926757812</v>
+        <v>229.7899932861328</v>
       </c>
       <c r="F221">
-        <v>30602200</v>
+        <v>51906300</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6551,22 +6551,22 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B222">
-        <v>226</v>
+        <v>230.1900024414062</v>
       </c>
       <c r="C222">
-        <v>228.8500061035156</v>
+        <v>230.3999938964844</v>
       </c>
       <c r="D222">
-        <v>224.8899993896484</v>
+        <v>227.4799957275391</v>
       </c>
       <c r="E222">
-        <v>228.0299987792969</v>
+        <v>229</v>
       </c>
       <c r="F222">
-        <v>35934600</v>
+        <v>52990800</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B223">
-        <v>227.9199981689453</v>
+        <v>228.5500030517578</v>
       </c>
       <c r="C223">
-        <v>229.8600006103516</v>
+        <v>229</v>
       </c>
       <c r="D223">
-        <v>225.6799926757812</v>
+        <v>221.1699981689453</v>
       </c>
       <c r="E223">
-        <v>226.4900054931641</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F223">
-        <v>38052200</v>
+        <v>50190600</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6603,22 +6603,22 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B224">
-        <v>230.1000061035156</v>
+        <v>221.6600036621094</v>
       </c>
       <c r="C224">
-        <v>232.9199981689453</v>
+        <v>221.7799987792969</v>
       </c>
       <c r="D224">
-        <v>228.8800048828125</v>
+        <v>217.4799957275391</v>
       </c>
       <c r="E224">
-        <v>229.7899932861328</v>
+        <v>220.8500061035156</v>
       </c>
       <c r="F224">
-        <v>51906300</v>
+        <v>43840200</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6629,22 +6629,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B225">
-        <v>230.1900024414062</v>
+        <v>221.6300048828125</v>
       </c>
       <c r="C225">
-        <v>230.3999938964844</v>
+        <v>225.4799957275391</v>
       </c>
       <c r="D225">
-        <v>227.4799957275391</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E225">
-        <v>229</v>
+        <v>222.3800048828125</v>
       </c>
       <c r="F225">
-        <v>52990800</v>
+        <v>36615400</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B226">
-        <v>228.5500030517578</v>
+        <v>223.9499969482422</v>
       </c>
       <c r="C226">
-        <v>229</v>
+        <v>225.2400054931641</v>
       </c>
       <c r="D226">
-        <v>221.1699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="E226">
-        <v>222.7700042724609</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="F226">
-        <v>50190600</v>
+        <v>48423000</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6681,22 +6681,22 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B227">
-        <v>221.6600036621094</v>
+        <v>220.8200073242188</v>
       </c>
       <c r="C227">
-        <v>221.7799987792969</v>
+        <v>221.2700042724609</v>
       </c>
       <c r="D227">
-        <v>217.4799957275391</v>
+        <v>216.7100067138672</v>
       </c>
       <c r="E227">
-        <v>220.8500061035156</v>
+        <v>220.9100036621094</v>
       </c>
       <c r="F227">
-        <v>43840200</v>
+        <v>67180000</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B228">
-        <v>221.6300048828125</v>
+        <v>218.9199981689453</v>
       </c>
       <c r="C228">
-        <v>225.4799957275391</v>
+        <v>221.4799957275391</v>
       </c>
       <c r="D228">
-        <v>221.5200042724609</v>
+        <v>216.7299957275391</v>
       </c>
       <c r="E228">
-        <v>222.3800048828125</v>
+        <v>220.1100006103516</v>
       </c>
       <c r="F228">
-        <v>36615400</v>
+        <v>51591000</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6733,22 +6733,22 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B229">
-        <v>223.9499969482422</v>
+        <v>221.4600067138672</v>
       </c>
       <c r="C229">
-        <v>225.2400054931641</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="D229">
-        <v>219.7700042724609</v>
+        <v>217.8899993896484</v>
       </c>
       <c r="E229">
-        <v>220.8200073242188</v>
+        <v>222.6600036621094</v>
       </c>
       <c r="F229">
-        <v>48423000</v>
+        <v>44587100</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6759,22 +6759,22 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B230">
-        <v>220.8200073242188</v>
+        <v>222.5</v>
       </c>
       <c r="C230">
-        <v>221.2700042724609</v>
+        <v>223.5500030517578</v>
       </c>
       <c r="D230">
-        <v>216.7100067138672</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="E230">
-        <v>220.9100036621094</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="F230">
-        <v>67180000</v>
+        <v>37498200</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B231">
-        <v>218.9199981689453</v>
+        <v>223.5800018310547</v>
       </c>
       <c r="C231">
-        <v>221.4799957275391</v>
+        <v>224.0399932861328</v>
       </c>
       <c r="D231">
-        <v>216.7299957275391</v>
+        <v>221.9100036621094</v>
       </c>
       <c r="E231">
-        <v>220.1100006103516</v>
+        <v>222.5</v>
       </c>
       <c r="F231">
-        <v>51591000</v>
+        <v>36766600</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6811,22 +6811,22 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B232">
-        <v>221.4600067138672</v>
+        <v>216.5399932861328</v>
       </c>
       <c r="C232">
-        <v>223.0899963378906</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D232">
-        <v>217.8899993896484</v>
+        <v>213.9199981689453</v>
       </c>
       <c r="E232">
-        <v>222.6600036621094</v>
+        <v>216.3200073242188</v>
       </c>
       <c r="F232">
-        <v>44587100</v>
+        <v>59357400</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6837,22 +6837,22 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B233">
-        <v>222.5</v>
+        <v>215.75</v>
       </c>
       <c r="C233">
-        <v>223.5500030517578</v>
+        <v>216.8999938964844</v>
       </c>
       <c r="D233">
-        <v>219.8200073242188</v>
+        <v>214.5</v>
       </c>
       <c r="E233">
-        <v>222.7700042724609</v>
+        <v>216.7899932861328</v>
       </c>
       <c r="F233">
-        <v>37498200</v>
+        <v>45519300</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6863,22 +6863,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B234">
-        <v>223.5800018310547</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C234">
-        <v>224.0399932861328</v>
+        <v>222.7100067138672</v>
       </c>
       <c r="D234">
-        <v>221.9100036621094</v>
+        <v>217.5399932861328</v>
       </c>
       <c r="E234">
-        <v>222.5</v>
+        <v>220.6900024414062</v>
       </c>
       <c r="F234">
-        <v>36766600</v>
+        <v>59894900</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6889,22 +6889,22 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B235">
-        <v>216.5399932861328</v>
+        <v>224.9900054931641</v>
       </c>
       <c r="C235">
-        <v>217.2200012207031</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="D235">
-        <v>213.9199981689453</v>
+        <v>224.6300048828125</v>
       </c>
       <c r="E235">
-        <v>216.3200073242188</v>
+        <v>228.8699951171875</v>
       </c>
       <c r="F235">
-        <v>59357400</v>
+        <v>66781300</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6915,22 +6915,22 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B236">
-        <v>215.75</v>
+        <v>229.9700012207031</v>
       </c>
       <c r="C236">
-        <v>216.8999938964844</v>
+        <v>233.0899963378906</v>
       </c>
       <c r="D236">
-        <v>214.5</v>
+        <v>227.6199951171875</v>
       </c>
       <c r="E236">
-        <v>216.7899932861328</v>
+        <v>228.1999969482422</v>
       </c>
       <c r="F236">
-        <v>45519300</v>
+        <v>318679900</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6941,22 +6941,22 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B237">
-        <v>217.5500030517578</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="C237">
-        <v>222.7100067138672</v>
+        <v>229.4499969482422</v>
       </c>
       <c r="D237">
-        <v>217.5399932861328</v>
+        <v>225.8099975585938</v>
       </c>
       <c r="E237">
-        <v>220.6900024414062</v>
+        <v>226.4700012207031</v>
       </c>
       <c r="F237">
-        <v>59894900</v>
+        <v>54146000</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6967,22 +6967,22 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B238">
-        <v>224.9900054931641</v>
+        <v>228.6499938964844</v>
       </c>
       <c r="C238">
-        <v>229.8200073242188</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="D238">
-        <v>224.6300048828125</v>
+        <v>225.7299957275391</v>
       </c>
       <c r="E238">
-        <v>228.8699951171875</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="F238">
-        <v>66781300</v>
+        <v>43556100</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B239">
-        <v>229.9700012207031</v>
+        <v>224.9299926757812</v>
       </c>
       <c r="C239">
-        <v>233.0899963378906</v>
+        <v>227.2899932861328</v>
       </c>
       <c r="D239">
-        <v>227.6199951171875</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="E239">
-        <v>228.1999969482422</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="F239">
-        <v>318679900</v>
+        <v>42308700</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7019,22 +7019,22 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B240">
-        <v>227.3399963378906</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="C240">
-        <v>229.4499969482422</v>
+        <v>228.5</v>
       </c>
       <c r="D240">
-        <v>225.8099975585938</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="E240">
-        <v>226.4700012207031</v>
+        <v>227.5200042724609</v>
       </c>
       <c r="F240">
-        <v>54146000</v>
+        <v>36636700</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B241">
-        <v>228.6499938964844</v>
+        <v>228.4600067138672</v>
       </c>
       <c r="C241">
-        <v>229.3500061035156</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="D241">
-        <v>225.7299957275391</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="E241">
-        <v>227.3699951171875</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="F241">
-        <v>43556100</v>
+        <v>34026000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7071,22 +7071,22 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B242">
-        <v>224.9299926757812</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="C242">
-        <v>227.2899932861328</v>
+        <v>233</v>
       </c>
       <c r="D242">
-        <v>224.0200042724609</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="E242">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="F242">
-        <v>42308700</v>
+        <v>54541900</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7097,22 +7097,22 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B243">
-        <v>227.3000030517578</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="C243">
-        <v>228.5</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D243">
-        <v>225.4100036621094</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="E243">
-        <v>227.5200042724609</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="F243">
-        <v>36636700</v>
+        <v>63285000</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7123,22 +7123,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B244">
-        <v>228.4600067138672</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="C244">
-        <v>229.5200042724609</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="D244">
-        <v>227.3000030517578</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="E244">
-        <v>227.7899932861328</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="F244">
-        <v>34026000</v>
+        <v>32880600</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7149,22 +7149,22 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B245">
-        <v>230.0399932861328</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="C245">
-        <v>233</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="D245">
-        <v>229.6499938964844</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="E245">
-        <v>233</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="F245">
-        <v>54541900</v>
+        <v>34044200</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7175,22 +7175,22 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B246">
-        <v>229.5200042724609</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="C246">
-        <v>229.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="D246">
-        <v>223.7400054931641</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="E246">
-        <v>226.2100067138672</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F246">
-        <v>63285000</v>
+        <v>37245100</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7201,22 +7201,22 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B247">
-        <v>225.8899993896484</v>
+        <v>224.5</v>
       </c>
       <c r="C247">
-        <v>227.3699951171875</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="D247">
-        <v>223.0200042724609</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="E247">
-        <v>226.7799987792969</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="F247">
-        <v>32880600</v>
+        <v>39505400</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7227,22 +7227,22 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B248">
-        <v>225.1399993896484</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="C248">
-        <v>226.8099975585938</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="D248">
-        <v>223.3200073242188</v>
+        <v>223.25</v>
       </c>
       <c r="E248">
-        <v>225.6699981689453</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="F248">
-        <v>34044200</v>
+        <v>31855700</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7253,22 +7253,22 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B249">
-        <v>227.8999938964844</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="C249">
-        <v>228</v>
+        <v>229.75</v>
       </c>
       <c r="D249">
-        <v>224.1300048828125</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="E249">
-        <v>226.8000030517578</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="F249">
-        <v>37245100</v>
+        <v>33591100</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B250">
-        <v>224.5</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="C250">
-        <v>225.6900024414062</v>
+        <v>229.5</v>
       </c>
       <c r="D250">
-        <v>221.3300018310547</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="E250">
-        <v>221.6900024414062</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="F250">
-        <v>39505400</v>
+        <v>28183500</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7305,22 +7305,22 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B251">
-        <v>224.3000030517578</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="C251">
-        <v>225.9799957275391</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="D251">
-        <v>223.25</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="E251">
-        <v>225.7700042724609</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="F251">
-        <v>31855700</v>
+        <v>31759200</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7331,22 +7331,22 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B252">
-        <v>225.2299957275391</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="C252">
-        <v>229.75</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="D252">
-        <v>224.8300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="E252">
-        <v>229.5399932861328</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="F252">
-        <v>33591100</v>
+        <v>39882100</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7357,22 +7357,22 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B253">
-        <v>227.7799987792969</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="C253">
-        <v>229.5</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="D253">
-        <v>227.1699981689453</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="E253">
-        <v>229.0399932861328</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="F253">
-        <v>28084100</v>
+        <v>64707600</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>34.86149</v>
+        <v>35.59361</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -7422,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>52.268368</v>
+        <v>53.366043</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7556,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.60978</v>
+        <v>0.60995</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
